--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F416F84-768F-4DD4-9A79-C47E3716DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0A9F87-8FCB-440D-83BA-62AB3723EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="464">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,970 +311,1123 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>EEPICA101_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000101</t>
-  </si>
-  <si>
-    <t>Serie Pirata y Capitano</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP01</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata encuentra un barco hundido y va a explorarlo a pesar de las advertencias de Capitano.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata encuentra un fragmento de un antiguo barco pirata. La promesa de un posible tesoro es irresistible. Después de localizar el barco hundido, Pirata quiere explorarlo a pesar de las advertencias de Capitano.</t>
-  </si>
-  <si>
-    <t>Infantil/Pirata y Capitano</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano</t>
-  </si>
-  <si>
-    <t>Tiffany Hofstetter, Kaycie Chase</t>
-  </si>
-  <si>
-    <t>Millimages, Aliate</t>
-  </si>
-  <si>
-    <t>Hofstetter Tiffany, Chase Kaycie</t>
-  </si>
-  <si>
-    <t>Narboux, François</t>
-  </si>
-  <si>
-    <t>EEPICA101.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA101_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA102_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000102</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP02</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata quiere buscar un tesoro al amanecer pero Meowcat parece decidido a no dejarlos dormir.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y su tripulación se encuentran con el enigmático mensaje de un famoso pirata para encontrar su tesoro más preciado. Pirata quiere comenzar su búsqueda al amanecer, pero Meowcat parece decidido a no dejarlos dormir.</t>
-  </si>
-  <si>
-    <t>EEPICA102.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA102_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA103_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000103</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP03</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano compiten para nombrar una isla, mientras que un pirata les pone obstáculos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: La tradición dice que el primero en pisar una isla y plantar su bandera puede nombrarla. Pirata y Capitano quieren nombrar a la que acaban de encontrar, así que compiten mientras que un pirata misterioso les pone muchos obstáculos en su carrera.</t>
-  </si>
-  <si>
-    <t>EEPICA103.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA103_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA104_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000104</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP04</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata debe entregar un paquete con fuegos artificiales, pero tomará un atajo muy peligroso.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Capitano tiene muchos paquetes por entregar, incluyendo uno con fuegos artificiales para la fiesta de Inky. Pirata se ofrece a entregarlo, pero se retrasa y toma un atajo peligroso. La tripulación encenderá los fuegos artificiales como señal de auxilio.</t>
-  </si>
-  <si>
-    <t>EEPICA104.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA104_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA105_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000105</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP05</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata rompe accidentalmente la perla que iba a darle a Inky así que deberá conseguir otra.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata rompe accidentalmente la perla que le iba a dar a Inky por su cumpleaños. Sin querer decepcionar a su amiga, Pirata le pide ayuda a Capitano, y parten en la búsqueda de una nueva perla.</t>
-  </si>
-  <si>
-    <t>EEPICA105.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA105_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA106_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000106</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP06</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano quieren comprobar la existencia de la sirena de la Isla Blue Mist.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano escuchan que una sirena fue vista en la Isla Blue Mist. Ambos quieren ir y ver por sí mismos, pues Pirata está convencida de que las sirenas sí existen, y Capitano está seguro de que no. ¿Quién tendrá la razón?</t>
-  </si>
-  <si>
-    <t>EEPICA106.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA106_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA107_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000107</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP07</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata va a buscar el tesoro de Barba Verde, a una isla a la que solo se llega con marea alta.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata encuentra el mapa del tesoro de Barba Verde, que está enterrado en la Isla de los Cien Arrecifes, y a la que solo se llega con marea alta. Cuando el viento se detiene, delfines aparecen para ayudarlos pero ¿lograrán encontrar el tesoro?</t>
-  </si>
-  <si>
-    <t>EEPICA107.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA107_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA108_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000108</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP08</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dolphino, mascota de la isla Esqueleto, desaparece; Pirata y Capitano irán en su búsqueda.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Pirata y Capitano visitan la isla Esqueleto para la apertura de un bar en la playa, descubren que Dolphino, la mascota de la isla, ha desaparecido y todos los isleños están tristes por eso. Pirata va a buscarlo con la ayuda de Capitano.</t>
-  </si>
-  <si>
-    <t>EEPICA108.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA108_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA109_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000109</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP09</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dodo el Taimado robó la Calavera Rosa. Pirata y Capitano deberán recuperar su barco.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dodo el Taimado infestó mosquitos en la Calavera Rosa, obligando a la tripulación a evacuar, para robar la nave. En el hidroavión con Capitano, Pirata está decidida a recuperar su barco, tendrá que abordar su propia nave y recuperarla.</t>
-  </si>
-  <si>
-    <t>EEPICA109.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA109_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA110_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000110</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP10</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano enfrentarán monstruos para conseguir los ingredientes de la sopa de Roberto.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano deberán enfrentarse con monstruos para conseguir los ingredientes de la famosa “sopa de mejillones a la Roberto”, por lo que tendrán que reunir su coraje, paciencia y buena voluntad, y así lograr que Roberto pueda cocinarla.</t>
-  </si>
-  <si>
-    <t>EEPICA110.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA110_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000111</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP11</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y su tripulación quieren ganar la medalla pero antes deberán enfrentar muchos peligros.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y su tripulación intentarán ganar la medalla más importante, por lo que tendrán que enfrentar peligros y eventos inesperados. Afortunadamente, Pirata cuenta con la ayuda de Capitano y Señor Piña.</t>
-  </si>
-  <si>
-    <t>EEPICA111.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000112</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP12</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Inky sufre de hipo con burbujas de colores. Pirata y Capitano buscarán su cura.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano encuentran a Inky con una extraña enfermedad: su cuerpo se ha hinchado y tiene hipo de burbujas multicolores. Pirata y Capitano harán todo lo posible para hallar su cura.</t>
-  </si>
-  <si>
-    <t>EEPICA112.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000113</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP13</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edye presenta: Nativos extraños piden ayuda a Pirata y Capitano pues creen que su isla está encantada.
-</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y su tripulación se encuentran con pequeños nativos extraños en una balsa lejos de su isla que creen que está encantada. Pirata y Capitano deciden ayudarlos. Al llegar a la isla, son testigos de misteriosos sucesos.</t>
-  </si>
-  <si>
-    <t>EEPICA113.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000114</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP14</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano buscarán la causa y la solución al miedo de las medusas saltarinas</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata se sorprende al ver a un grupo de medusas haciendo saltos mortales y emitiendo destellos eléctricos. Ella y Capitano descubrirán que la causa de este extraño comportamiento es el miedo a un cangrejo ermitaño refugiado en un inusual caparazón.</t>
-  </si>
-  <si>
-    <t>EEPICA114.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000115</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP15</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un infiltrado en el barco ha robado un paquete que Pirata y Capitano deben entregar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un ladrón se ha infiltrado en la Calavera Rosa para robar un paquete que Pirata y Capitano necesitan entregar.</t>
-  </si>
-  <si>
-    <t>EEPICA115.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000116</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP16</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata se disfraza para competir por el tesoro de Omar el Rojo. ¿Funcionará su disfraz?</t>
-  </si>
-  <si>
-    <t>Edye presenta: El pirata Omar el Rojo diseña un enigma: quien lo resuelva obtendrá su tesoro. Pirata quiere competir, pero solo pueden participar los piratas con guantes peludos. Pirata decide disfrazarse logrará engañar a Omar el Rojo.</t>
-  </si>
-  <si>
-    <t>EEPICA116.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000117</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP17</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata debe rescatar de una ballena al hidroavión con Capitano y las Estrellas Piratas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una ballena gigante se traga al hidroavión con Capitano y las Estrellas Piratas, por lo que Pirata y su tripulación deberán rescatarlos usando valiosa información que encuentran en el Código de los Piratas.</t>
-  </si>
-  <si>
-    <t>EEPICA117.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000118</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP18</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edye presenta: Capitano y sus amigos organizan una aventura sorpresa para Pirata en su cumpleaños.
-</t>
-  </si>
-  <si>
-    <t>Edye presenta: En su cumpleaños, Pirata encuentra una botella con un mapa del tesoro. Inmediatamente se pone en marcha para buscarlo. Al final, descubre que toda la aventura fue planeada por Capitano y sus amigos, y así descubrirá su verdadero tesoro.</t>
-  </si>
-  <si>
-    <t>EEPICA118.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000119</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP19</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Capitano deben ir a la isla del ogro por un plátano y cumplir así con su desafío.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edye presenta: Pirata y Capitano van a buscar un plátano para entregárselo a Dodo el Taimado antes de la puesta del sol. Si fallan tendrán que usar sombreros vergonzosos. Parece fácil pero esa fruta solo crece en la Isla Hullabaloo, el hogar de Racket, el ogro.
-</t>
-  </si>
-  <si>
-    <t>EEPICA119.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000120</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP20</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Capitano y Pirata se enfrentan a Barbudo para recuperar a una gaviota y a una bandera antigua.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Capitano le da a Pirata una bandera antigua. Ella la sostiene para admirarla cuando una gaviota vuela y la roba. Los dos persiguen al ave y se enteran que fue entrenada por el pirata Barbudo. Ambos deciden liberar a la gaviota y recuperar la bandera.</t>
-  </si>
-  <si>
-    <t>EEPICA120.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000121</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP21</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: La tormenta hace que Pirata y Capitano aterricen en una isla desierta. ¿Podrán ser rescatados?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hay tormenta y Pirata y Capitano deben aterrizar el hidroavión en una isla desierta. Antes de que la radio deje de funcionar logran alertar a sus amigos, pero tendrán que encontrar otra forma de comunicar su ubicación precisa para ser rescatados.</t>
-  </si>
-  <si>
-    <t>EEPICA121.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000122</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP22</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata, Capitano y la tripulación emprenden la búsqueda del tesoro del antepasado de Roberto.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Roberto encuentra el mapa del tesoro de su antepasado Boney Boots. Pirata, Capitano y la tripulación emprenden la búsqueda del tesoro. Es difícil, lleno de muchos desafíos y contratiempos, pero finalmente lograrán su objetivo.</t>
-  </si>
-  <si>
-    <t>EEPICA122.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000123</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP23</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dodo el taimado secuestra a Meowcat y exige a Pirata el tesoro de Cococroc como rescate.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dodo el taimado secuestra a Meowcat y exige como rescate el tesoro de Cococroc que está enterrado en el fondo de un pozo. Con ayuda del equipo de La calavera rosa, Pirata y Capitano harán todo por ir al pozo, hallar el tesoro y rescatar a Meowcat.</t>
-  </si>
-  <si>
-    <t>EEPICA123.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000124</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP24</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Durante un concurso, Capitano es acusado de robo. Pirata descubrirá al verdadero ladrón.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata participa en el concurso Pirata del Año. Capitano se acerca para ver lo que hacen, y atrapado en el acto, lo acusan de robar un collar. Pirata descubrirá al verdadero ladrón, y las reglas cambiarán para que los no piratas puedan participar.</t>
-  </si>
-  <si>
-    <t>EEPICA124.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000125</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP25</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sharky roba la colección de dientes de Pirata, ella lo ve acomplejado y le da una prótesis.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Después de un accidente, Sharky pierde sus dientes, su voz y su amor por la música, así que roba la colección de dientes de tiburón de Pirata. Ella ve que Sharky está acomplejado, le pide a Capitano que le haga una prótesis y Sharky se alegra.</t>
-  </si>
-  <si>
-    <t>EEPICA125.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI6000000000000126</t>
-  </si>
-  <si>
-    <t>Pirata y CapitanoT01EP26</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata y Murana compiten por encontrar un tesoro pero mejor deciden salvar a Dany de un tiburón.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pirata encuentra un medallón, pero Murana se lo roba porque ella tiene uno igual; entre las dos forman un mapa del tesoro y compiten para ver quién lo encuentra primero, pero ambas renuncian a él por salvar a Dany de un terrible tiburón.</t>
-  </si>
-  <si>
-    <t>EEPICA126.mpg</t>
-  </si>
-  <si>
-    <t>EEPICA126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEPICA101_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000101</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEPICA101.ts</t>
-  </si>
-  <si>
-    <t>EEPICA102_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000102</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEPICA102.ts</t>
-  </si>
-  <si>
-    <t>EEPICA103_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000103</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEPICA103.ts</t>
-  </si>
-  <si>
-    <t>EEPICA104_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000104</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEPICA104.ts</t>
-  </si>
-  <si>
-    <t>EEPICA105_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000105</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEPICA105.ts</t>
-  </si>
-  <si>
-    <t>EEPICA106_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000106</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEPICA106.ts</t>
-  </si>
-  <si>
-    <t>EEPICA107_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000107</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEPICA107.ts</t>
-  </si>
-  <si>
-    <t>EEPICA108_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000108</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEPICA108.ts</t>
-  </si>
-  <si>
-    <t>EEPICA109_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000109</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEPICA109.ts</t>
-  </si>
-  <si>
-    <t>EEPICA110_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000110</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEPICA110.ts</t>
-  </si>
-  <si>
-    <t>EEPICA111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000111</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEPICA111.ts</t>
-  </si>
-  <si>
-    <t>EEPICA112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000112</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEPICA112.ts</t>
-  </si>
-  <si>
-    <t>EEPICA113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000113</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEPICA113.ts</t>
-  </si>
-  <si>
-    <t>EEPICA114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000114</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEPICA114.ts</t>
-  </si>
-  <si>
-    <t>EEPICA115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000115</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEPICA115.ts</t>
-  </si>
-  <si>
-    <t>EEPICA116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000116</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEPICA116.ts</t>
-  </si>
-  <si>
-    <t>EEPICA117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000117</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEPICA117.ts</t>
-  </si>
-  <si>
-    <t>EEPICA118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000118</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEPICA118.ts</t>
-  </si>
-  <si>
-    <t>EEPICA119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000119</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEPICA119.ts</t>
-  </si>
-  <si>
-    <t>EEPICA120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000120</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEPICA120.ts</t>
-  </si>
-  <si>
-    <t>EEPICA121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000121</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEPICA121.ts</t>
-  </si>
-  <si>
-    <t>EEPICA122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000122</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEPICA122.ts</t>
-  </si>
-  <si>
-    <t>EEPICA123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000123</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEPICA123.ts</t>
-  </si>
-  <si>
-    <t>EEPICA124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000124</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEPICA124.ts</t>
-  </si>
-  <si>
-    <t>EEPICA125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000125</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEPICA125.ts</t>
-  </si>
-  <si>
-    <t>EEPICA126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEPI7000000000000126</t>
-  </si>
-  <si>
-    <t>Pirata y Capitano T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEPICA126.ts</t>
+    <t>EEMIRO101_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000101</t>
+  </si>
+  <si>
+    <t>Serie Misho y Robin</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP01</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: La ardilla está angustiada ¿Será demasiado tarde para recoger frutas de otoño para el invierno?</t>
+  </si>
+  <si>
+    <t>Edye presenta: La ardilla está angustiada, cree que es demasiado tarde para recoger frutas de otoños para el invierno. Misho y Robin ofrecen su ayuda y descubren cuáles son las frutas secas del otoño. Ahora están listos para la búsqueda.</t>
+  </si>
+  <si>
+    <t>Infantil/Misho y Robin</t>
+  </si>
+  <si>
+    <t>Misho y Robin</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Krsto Bosnjak, Jelena Buljan, Marko Jelic, Ana Vilenica</t>
+  </si>
+  <si>
+    <t>Recircle</t>
+  </si>
+  <si>
+    <t>Bosnjak Krsto, Buljan Jelena, Jelic Marko, Vilenica Ana</t>
+  </si>
+  <si>
+    <t>Alenti, Denis</t>
+  </si>
+  <si>
+    <t>EEMIRO101.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO101_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO102_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000102</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP02</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho está mirando un charco y de repente algo lo asusta. Se trata de un renacuajo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho está mirando un charco y de repente algo lo asusta. Robin viene a su rescate y encuentra un pequeño pez de aspecto extraño en el agua. Resulta que es un renacuajo. Pronto, el renacuajo desaparecerá transformándose en una nueva rana.</t>
+  </si>
+  <si>
+    <t>EEMIRO102.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO102_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO103_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000103</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP03</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin van al arroyo y encuentran a Castor construyendo un bote. Quieren fabricar uno.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin deciden ir al arroyo y encuentran a Castor construyendo un bote. Quieren aprender a construir un bote, por lo que Castor trata de enseñarles a elegir las tablas de madera correctas y a clavar un clavo, pero les faltan herramientas.</t>
+  </si>
+  <si>
+    <t>EEMIRO103.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO103_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO104_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000104</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP04</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Está lloviendo y Misho y Robin están aburridos. Quieren jugar a un juego de mesa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Está lloviendo y Misho y Robin están aburridos. Quieren jugar a un juego de mesa pero no encuentran ninguno. Los juegos están en el ático, pero primero deben limpiarlo un poco.</t>
+  </si>
+  <si>
+    <t>EEMIRO104.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO104_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO105_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000105</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP05</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin participan de una carrera de trineos contra Topo, Ardilla y los Búhos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una gran carrera de trineos está por empezar. Misho y Robin compiten con Topo, los Búhos y Ardilla. Castor explica las reglas. Arranca la carrera. Topo se equivoca de camino. Los Búhos le hacen trampa a Ardilla. Misho y Robin la ayudan ¿Quién ganará?</t>
+  </si>
+  <si>
+    <t>EEMIRO105.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO105_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO106_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000106</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP06</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin quieren andar en bicicleta con Ardilla pero la de Misho tiene una rueda pinchada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin quieren andar en bicicleta con Ardilla, pero la bicicleta de Misho tiene una rueda pinchada. Ardilla deja su nuevo scooter afuera y los ayuda a reparar el neumático. Cuando terminan, Ardilla se da cuenta de que le han robado su scooter.</t>
+  </si>
+  <si>
+    <t>EEMIRO106.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO106_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO107_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000107</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP07</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Robin y Misho están desayunando. ¡Oh no, no hay más mermelada! No hay problema, harán una.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Robin y Misho están desayunando. ¡Oh no, no hay más mermelada! No hay problema, harán una. Solo necesitan algunas manzanas y azúcar. Salen a recoger las manzanas, pero ¿dónde están todas las manzanas?</t>
+  </si>
+  <si>
+    <t>EEMIRO107.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO107_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO108_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000108</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP08</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin se enteran que Urraca está dibujando frente a su casa y deciden ir a verla.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin se enteran que la Urraca está dibujando frente a su casa, por lo que todos van a reunirse con ella. Cuando llegan les da una rápida lección de cómo dibujar diferentes formas. Luego les asigna una tarea: dibujen toda una casa.</t>
+  </si>
+  <si>
+    <t>EEMIRO108.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO108_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO109_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000109</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP09</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin ve pasar los pequeños Búhos, cada uno montando su propio vehículo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin ve pasar a los tres pequeños Búhos, cada uno montando su propio vehículo: un triciclo, un carro de pedales y patines. Corren alrededor del patio imprudentemente hasta que chocan contra las tablas de madera de Castor.</t>
+  </si>
+  <si>
+    <t>EEMIRO109.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO109_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO110_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000110</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP10</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están en el jardín buscando una sandía y terminan encontrando una hermosa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están en el jardín buscando una sandía y terminan encontrando una hermosa y grande. Robin corta la fruta en pedazos y ambos obtienen dos rebanadas. Pero de repente, las rebanadas empiezan a desaparecer misteriosamente.</t>
+  </si>
+  <si>
+    <t>EEMIRO110.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO110_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000111</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP11</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un avión de papel entra por la ventana de Misho y Robin. ¡Es el mapa de un tesoro!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están en casa cuando un avión de papel entra por la ventana. ¡Es el mapa de un tesoro! Deciden seguir el mapa y buscar el tesoro. Van por el árbol de Ardilla, el arroyo de Castor hasta encontrar el cofre en la casa de Urraca.</t>
+  </si>
+  <si>
+    <t>EEMIRO111.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000112</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP12</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin siguen la música hasta el bosque donde encuentran a Ardilla bailando.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin siguen el sonido de la música hasta el bosque donde encuentran a Ardilla bailando ballet. Nuestros amigos le van a demostrar que también saben bailar sus melodías predilectas.</t>
+  </si>
+  <si>
+    <t>EEMIRO112.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000113</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP13</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Robin está haciendo un pastel de chocolate y aunque sólo hay 4 ingredientes Misho se equivoca!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Robin está haciendo un pastel de chocolate. Aunque sólo hay cuatro ingredientes Misho se equivoca y le da a Robin los ingredientes equivocados. Confunde la mantequilla con el queso y la harina con el azúcar. Finalmente hacen un pastel delicioso.</t>
+  </si>
+  <si>
+    <t>EEMIRO113.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000114</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP14</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin quieren jugar a las escondidas, por lo que invitan a Oso a jugar con ellos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin invitan a Oso a jugar a las escondidas. Robin sugiere que Oso cuente, y Misho y Robin le mostrarán cómo esconderse. Después de mucho tiempo escondidos, salen a ver qué está pasando. ¡Osito se durmió contando!</t>
+  </si>
+  <si>
+    <t>EEMIRO114.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000115</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP15</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están jugando a la pelota cuando ésta se pierde en el árbol.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están jugando a la pelota cuando esta se pierde en un árbol. Ardilla se la devuelve y Robin la invita a jugar. Misho se siente excluido y va a jugar solo. Misho se da cuenta de que está celoso.</t>
+  </si>
+  <si>
+    <t>EEMIRO115.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000116</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP16</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin deciden jugar con bloques de construcción. Ambos deciden levantar un castillo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin deciden jugar. Cada uno tiene bloques y ambos eligen construir un castillo. Cuando se dan cuenta de que ninguno de los dos tiene suficientes bloques, Robin propone construirlo juntos. Entre los dos construyen un hermoso castillo grande.</t>
+  </si>
+  <si>
+    <t>EEMIRO116.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000117</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP17</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin descubren que es el cumpleaños de Ardilla y le organizan una fiesta sorpresa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin descubren que es el cumpleaños de Ardilla y planean hacerle una fiesta sorpresa. De repente, ven a Ardilla afuera y rápidamente todos se esconden. Cuando Ardilla regresa, ¡todo está listo para iniciar la fiesta!</t>
+  </si>
+  <si>
+    <t>EEMIRO117.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000118</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP18</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Robin persigue a una oruga y Misho decide unirse a él para atraparla. Pero no lo logran.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Robin persigue a una oruga y Misho decide unirse a él. Pese a tratarlo varias veces, no logran atraparla. Cuando finalmente la encuentran, se ha convertido en un capullo desde el cual pronto sale una mariposa volando.</t>
+  </si>
+  <si>
+    <t>EEMIRO118.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000119</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP19</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin se encuentran con Oso, que planea pintar su casa y deciden ayudarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin se encuentran con Oso, que está pintando su casa y deciden ayudarlo. Cada uno toma un color diferente, pero pronto todos están manchados. ¡Al mezclar las pinturas, descubren que pueden crear nuevos colores!</t>
+  </si>
+  <si>
+    <t>EEMIRO119.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000120</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP20</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están bajo tierra: están cavando un agujero en busca de huesos de T-Rex.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están bajo tierra: están cavando un agujero en busca de huesos de T-Rex. Se hacen amigos de Topo y le explican lo que están haciendo. Topo los lleva hasta una gran sorpresa, ¡una habitación llena de huesos de dinosaurios!</t>
+  </si>
+  <si>
+    <t>EEMIRO120.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000121</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP21</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin buscan dinero para comprar boletos para la obra de teatro en su jardín.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin buscan dinero para comprar entradas para una obra de teatro sobre príncipes y dragones. Cuando llegan al evento, sus amigos ya están allí. ¡Todos están encantados con la historia en la que los príncipes derrotan a los dragones!</t>
+  </si>
+  <si>
+    <t>EEMIRO121.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000122</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP22</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin encuentran un nido con hambrientos pichoncitos. Misho va a buscar comida.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin cortaban los setos cuando encontraron un nido con pajaritos hambrientos. Robin envía a Misho a buscar insectos y gusanos, pero parece que no puede atrapar ninguno. Por suerte, la mamá pájaro volvió y calmó a los pajaritos.</t>
+  </si>
+  <si>
+    <t>EEMIRO122.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000123</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP23</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin juegan a la pelota, pero la arrojan al bosque y cae sobre un montón de hojas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están jugando a la pelota que se les escapa en el bosque. La buscan un buen rato y finalmente la encuentran sobre un montón de hojas. De repente, el montón de hojas se mueve y les entrega la pelota. Misho y Robin salen despavoridos.</t>
+  </si>
+  <si>
+    <t>EEMIRO123.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000124</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP24</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin van a plantar algunas verduras en el jardín. Pero estas desaparecen.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin van a plantar algunas verduras en el jardín. Después de un tiempo, las verduras comienzan a crecer. Misho y Robin están encantados y quieren recoger sus plantas. ¡Pero alguien las ha robado! ¿Quién habrá sido?</t>
+  </si>
+  <si>
+    <t>EEMIRO124.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000125</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP25</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están mirando televisión. De repente la transmisión de TV se interrumpe.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin están mirando televisión. Se niegan a salir, pero de repente la transmisión de TV se interrumpe. Castor y Ardilla volaban una cometa y se enredó en su antena de TV. Misho y Robin liberan la cometa y ahora también quieren jugar.</t>
+  </si>
+  <si>
+    <t>EEMIRO125.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000126</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP26</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras disfruta del calor de la chimenea, Misho ve una inquietante figura en la nieve.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Durante una tormenta de nieve, Misho y Robin disfrutan del calor de su hogar cuando, de repente, Misho ve una figura en la nieve a través de la ventana. Lo asusta, pero Robin no lo ve. Están llamando a la puerta. ¿Será el monstruo que vio Misho?</t>
+  </si>
+  <si>
+    <t>EEMIRO126.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO127_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000127</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP27</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP27</t>
+  </si>
+  <si>
+    <t>EP 27</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin pasan la noche en una carpa. Los ruidos extraños de la noche los asustan.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin pasan la noche en una carpa fuera de la casa. Se han preparado con sacos de dormir, linternas y pegatinas de animales para jugar. Una vez que se han instalado en la tienda, los ruidos extraños de la noche comienzan a asustarlos.</t>
+  </si>
+  <si>
+    <t>EEMIRO127.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO127_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO128_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000128</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP28</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP28</t>
+  </si>
+  <si>
+    <t>EP 28</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin viajan a la playa. Misho se va al mar, mientras Robin quiere tomar el sol.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho y Robin viajan a la playa. Misho corre al mar mientras Robin quiere tomar el sol. Después de explorar el mar, Misho le trae a Robin una estrella de mar. ¡Más tarde regresa con un caparazón que resultó ser un cangrejo ermitaño!</t>
+  </si>
+  <si>
+    <t>EEMIRO128.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO128_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO129_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000129</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP29</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP29</t>
+  </si>
+  <si>
+    <t>EP 29</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho se despierta resfriado y Robin lo cuida aunque no tiene lo necesario en casa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Misho se despierta con un resfriado y Robin lo está cuidando. Después de que no encuentra nada en la casa que pueda ayudarlo, llama a algunos amigos que le traen lo necesario para curar a su mejor amigo.</t>
+  </si>
+  <si>
+    <t>EEMIRO129.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO129_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO130_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI6000000000000130</t>
+  </si>
+  <si>
+    <t>Misho y RobinT01EP30</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP30</t>
+  </si>
+  <si>
+    <t>EP 30</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos se están preparando para la fiesta de disfraces. Robin sabe qué se va a poner ¿Y Misho?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos tienen prisa para prepararse para la fiesta de disfraces. Robin viene como una cigüeña. Pero luego se da cuenta de que no sabe cómo se vestirá Misho. ¿Cómo lo reconocerá entre la multitud?</t>
+  </si>
+  <si>
+    <t>EEMIRO130.mpg</t>
+  </si>
+  <si>
+    <t>EEMIRO130_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMIRO101_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000101</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO101.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO102_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000102</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO102.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO103_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000103</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO103.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO104_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000104</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO104.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO105_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000105</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO105.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO106_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000106</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO106.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO107_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000107</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO107.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO108_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000108</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO108.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO109_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000109</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO109.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO110_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000110</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO110.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000111</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO111.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000112</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO112.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000113</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO113.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000114</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO114.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000115</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO115.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000116</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO116.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000117</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO117.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000118</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO118.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000119</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO119.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000120</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO120.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000121</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO121.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000122</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO122.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000123</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO123.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000124</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO124.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000125</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO125.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000126</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO126.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO127_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000127</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP27 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO127.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO128_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000128</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP28 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO128.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO129_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000129</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP29 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO129.ts</t>
+  </si>
+  <si>
+    <t>EEMIRO130_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMI7000000000000130</t>
+  </si>
+  <si>
+    <t>Misho y Robin T01 EP30 HD</t>
+  </si>
+  <si>
+    <t>EEMIRO130.ts</t>
   </si>
 </sst>
 </file>
@@ -7756,7 +7909,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3">
         <v>44625</v>
@@ -7780,13 +7933,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7796,31 +7949,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="U2" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="V2" s="6">
         <v>2016</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>49</v>
@@ -7829,10 +7982,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>50</v>
@@ -7841,10 +7994,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>101</v>
@@ -7884,7 +8037,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>310933388</v>
+        <v>148346664</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>56</v>
@@ -7951,7 +8104,7 @@
         <v>109</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>110</v>
@@ -7979,16 +8132,16 @@
         <v>65</v>
       </c>
       <c r="T3" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="U3" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="V3" s="6">
         <v>2016</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>49</v>
@@ -7997,10 +8150,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>50</v>
@@ -8009,10 +8162,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>101</v>
@@ -8052,7 +8205,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>311068184</v>
+        <v>148481460</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>56</v>
@@ -8119,7 +8272,7 @@
         <v>117</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>118</v>
@@ -8147,16 +8300,16 @@
         <v>65</v>
       </c>
       <c r="T4" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="U4" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="V4" s="6">
         <v>2016</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>49</v>
@@ -8165,10 +8318,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>50</v>
@@ -8177,10 +8330,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>101</v>
@@ -8220,7 +8373,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>310933388</v>
+        <v>148481460</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>56</v>
@@ -8287,7 +8440,7 @@
         <v>125</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>126</v>
@@ -8315,16 +8468,16 @@
         <v>65</v>
       </c>
       <c r="T5" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U5" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V5" s="6">
         <v>2016</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>49</v>
@@ -8333,10 +8486,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>50</v>
@@ -8345,10 +8498,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>101</v>
@@ -8388,7 +8541,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>310933388</v>
+        <v>148346664</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>56</v>
@@ -8455,7 +8608,7 @@
         <v>133</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>134</v>
@@ -8483,16 +8636,16 @@
         <v>65</v>
       </c>
       <c r="T6" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U6" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V6" s="6">
         <v>2016</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>49</v>
@@ -8501,10 +8654,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>50</v>
@@ -8513,10 +8666,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>101</v>
@@ -8556,7 +8709,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>311068184</v>
+        <v>148332188</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>56</v>
@@ -8623,7 +8776,7 @@
         <v>141</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>142</v>
@@ -8651,16 +8804,16 @@
         <v>65</v>
       </c>
       <c r="T7" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U7" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V7" s="6">
         <v>2016</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>49</v>
@@ -8669,10 +8822,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>50</v>
@@ -8681,10 +8834,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE7" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF7" s="6" t="s">
         <v>101</v>
@@ -8724,7 +8877,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>310933388</v>
+        <v>148360952</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>56</v>
@@ -8791,7 +8944,7 @@
         <v>149</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>150</v>
@@ -8819,16 +8972,16 @@
         <v>65</v>
       </c>
       <c r="T8" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U8" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V8" s="6">
         <v>2016</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>49</v>
@@ -8837,10 +8990,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>50</v>
@@ -8849,10 +9002,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>101</v>
@@ -8892,7 +9045,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>311022312</v>
+        <v>148243264</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>56</v>
@@ -8959,7 +9112,7 @@
         <v>157</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>158</v>
@@ -8987,16 +9140,16 @@
         <v>65</v>
       </c>
       <c r="T9" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U9" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V9" s="6">
         <v>2016</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>49</v>
@@ -9005,10 +9158,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>50</v>
@@ -9017,10 +9170,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF9" s="6" t="s">
         <v>101</v>
@@ -9060,7 +9213,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>311068184</v>
+        <v>148332188</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>56</v>
@@ -9127,7 +9280,7 @@
         <v>165</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>166</v>
@@ -9155,16 +9308,16 @@
         <v>65</v>
       </c>
       <c r="T10" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U10" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V10" s="6">
         <v>2016</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>49</v>
@@ -9173,10 +9326,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>50</v>
@@ -9185,10 +9338,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE10" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF10" s="6" t="s">
         <v>101</v>
@@ -9228,7 +9381,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>311051076</v>
+        <v>148346664</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>56</v>
@@ -9295,7 +9448,7 @@
         <v>173</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>174</v>
@@ -9323,16 +9476,16 @@
         <v>65</v>
       </c>
       <c r="T11" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U11" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V11" s="6">
         <v>2016</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>49</v>
@@ -9341,10 +9494,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA11" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>50</v>
@@ -9353,10 +9506,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF11" s="6" t="s">
         <v>101</v>
@@ -9396,7 +9549,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="6">
-        <v>311142820</v>
+        <v>148317900</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>56</v>
@@ -9463,7 +9616,7 @@
         <v>181</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>182</v>
@@ -9491,16 +9644,16 @@
         <v>65</v>
       </c>
       <c r="T12" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U12" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V12" s="6">
         <v>2016</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>49</v>
@@ -9509,10 +9662,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA12" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>50</v>
@@ -9521,10 +9674,10 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF12" s="6" t="s">
         <v>101</v>
@@ -9564,7 +9717,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="6">
-        <v>311068184</v>
+        <v>148286316</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>56</v>
@@ -9631,7 +9784,7 @@
         <v>189</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>190</v>
@@ -9659,16 +9812,16 @@
         <v>65</v>
       </c>
       <c r="T13" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U13" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V13" s="6">
         <v>2016</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>49</v>
@@ -9677,10 +9830,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA13" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>50</v>
@@ -9689,10 +9842,10 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF13" s="6" t="s">
         <v>101</v>
@@ -9732,7 +9885,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="6">
-        <v>311051076</v>
+        <v>148346664</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>56</v>
@@ -9799,7 +9952,7 @@
         <v>197</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>198</v>
@@ -9827,16 +9980,16 @@
         <v>65</v>
       </c>
       <c r="T14" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U14" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V14" s="6">
         <v>2016</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X14" s="6" t="s">
         <v>49</v>
@@ -9845,10 +9998,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA14" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>50</v>
@@ -9857,10 +10010,10 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF14" s="6" t="s">
         <v>101</v>
@@ -9900,7 +10053,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="6">
-        <v>311068184</v>
+        <v>148332188</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>56</v>
@@ -9967,7 +10120,7 @@
         <v>205</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>206</v>
@@ -9995,16 +10148,16 @@
         <v>65</v>
       </c>
       <c r="T15" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U15" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V15" s="6">
         <v>2016</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X15" s="6" t="s">
         <v>49</v>
@@ -10013,10 +10166,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA15" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>50</v>
@@ -10025,10 +10178,10 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF15" s="6" t="s">
         <v>101</v>
@@ -10068,7 +10221,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="6">
-        <v>311068184</v>
+        <v>148317900</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>56</v>
@@ -10135,7 +10288,7 @@
         <v>213</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>214</v>
@@ -10163,16 +10316,16 @@
         <v>65</v>
       </c>
       <c r="T16" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U16" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V16" s="6">
         <v>2016</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>49</v>
@@ -10181,10 +10334,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA16" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>50</v>
@@ -10193,10 +10346,10 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>101</v>
@@ -10236,7 +10389,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="6">
-        <v>311051076</v>
+        <v>148303612</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>56</v>
@@ -10303,7 +10456,7 @@
         <v>221</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>222</v>
@@ -10331,16 +10484,16 @@
         <v>65</v>
       </c>
       <c r="T17" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U17" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V17" s="6">
         <v>2016</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X17" s="6" t="s">
         <v>49</v>
@@ -10349,10 +10502,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA17" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>50</v>
@@ -10361,10 +10514,10 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE17" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF17" s="6" t="s">
         <v>101</v>
@@ -10404,7 +10557,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="6">
-        <v>311051076</v>
+        <v>148346664</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>56</v>
@@ -10471,7 +10624,7 @@
         <v>229</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>230</v>
@@ -10499,16 +10652,16 @@
         <v>65</v>
       </c>
       <c r="T18" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U18" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V18" s="6">
         <v>2016</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X18" s="6" t="s">
         <v>49</v>
@@ -10517,10 +10670,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA18" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>50</v>
@@ -10529,10 +10682,10 @@
         <v>31028</v>
       </c>
       <c r="AD18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF18" s="6" t="s">
         <v>101</v>
@@ -10572,7 +10725,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="6">
-        <v>311068184</v>
+        <v>148346664</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>56</v>
@@ -10639,7 +10792,7 @@
         <v>237</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>238</v>
@@ -10667,16 +10820,16 @@
         <v>65</v>
       </c>
       <c r="T19" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U19" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V19" s="6">
         <v>2016</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X19" s="6" t="s">
         <v>49</v>
@@ -10685,10 +10838,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA19" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>50</v>
@@ -10697,10 +10850,10 @@
         <v>31028</v>
       </c>
       <c r="AD19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE19" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF19" s="6" t="s">
         <v>101</v>
@@ -10740,7 +10893,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="6">
-        <v>311068184</v>
+        <v>148421112</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>56</v>
@@ -10807,7 +10960,7 @@
         <v>245</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>246</v>
@@ -10835,16 +10988,16 @@
         <v>65</v>
       </c>
       <c r="T20" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U20" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V20" s="6">
         <v>2016</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X20" s="6" t="s">
         <v>49</v>
@@ -10853,10 +11006,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA20" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>50</v>
@@ -10865,10 +11018,10 @@
         <v>31028</v>
       </c>
       <c r="AD20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE20" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF20" s="6" t="s">
         <v>101</v>
@@ -10908,7 +11061,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="6">
-        <v>311051076</v>
+        <v>148332188</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>56</v>
@@ -10975,7 +11128,7 @@
         <v>253</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>254</v>
@@ -11003,16 +11156,16 @@
         <v>65</v>
       </c>
       <c r="T21" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U21" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V21" s="6">
         <v>2016</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X21" s="6" t="s">
         <v>49</v>
@@ -11021,10 +11174,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA21" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>50</v>
@@ -11033,10 +11186,10 @@
         <v>31028</v>
       </c>
       <c r="AD21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE21" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF21" s="6" t="s">
         <v>101</v>
@@ -11076,7 +11229,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="6">
-        <v>311051076</v>
+        <v>148346664</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>56</v>
@@ -11143,7 +11296,7 @@
         <v>261</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>262</v>
@@ -11171,16 +11324,16 @@
         <v>65</v>
       </c>
       <c r="T22" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U22" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V22" s="6">
         <v>2016</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X22" s="6" t="s">
         <v>49</v>
@@ -11189,10 +11342,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA22" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>50</v>
@@ -11201,10 +11354,10 @@
         <v>31028</v>
       </c>
       <c r="AD22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF22" s="6" t="s">
         <v>101</v>
@@ -11244,7 +11397,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="6">
-        <v>311051076</v>
+        <v>148317900</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>56</v>
@@ -11311,7 +11464,7 @@
         <v>269</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>270</v>
@@ -11339,16 +11492,16 @@
         <v>65</v>
       </c>
       <c r="T23" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U23" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V23" s="6">
         <v>2016</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X23" s="6" t="s">
         <v>49</v>
@@ -11357,10 +11510,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA23" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>50</v>
@@ -11369,10 +11522,10 @@
         <v>31028</v>
       </c>
       <c r="AD23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE23" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>101</v>
@@ -11412,7 +11565,7 @@
         <v>55</v>
       </c>
       <c r="AS23" s="6">
-        <v>311068184</v>
+        <v>148317900</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>56</v>
@@ -11479,7 +11632,7 @@
         <v>277</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>278</v>
@@ -11507,16 +11660,16 @@
         <v>65</v>
       </c>
       <c r="T24" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U24" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V24" s="6">
         <v>2016</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X24" s="6" t="s">
         <v>49</v>
@@ -11525,10 +11678,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA24" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>50</v>
@@ -11537,10 +11690,10 @@
         <v>31028</v>
       </c>
       <c r="AD24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE24" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF24" s="6" t="s">
         <v>101</v>
@@ -11580,7 +11733,7 @@
         <v>55</v>
       </c>
       <c r="AS24" s="6">
-        <v>311068184</v>
+        <v>148346664</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>56</v>
@@ -11647,7 +11800,7 @@
         <v>285</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>286</v>
@@ -11675,16 +11828,16 @@
         <v>65</v>
       </c>
       <c r="T25" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U25" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V25" s="6">
         <v>2016</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X25" s="6" t="s">
         <v>49</v>
@@ -11693,10 +11846,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA25" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>50</v>
@@ -11705,10 +11858,10 @@
         <v>31028</v>
       </c>
       <c r="AD25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF25" s="6" t="s">
         <v>101</v>
@@ -11748,7 +11901,7 @@
         <v>55</v>
       </c>
       <c r="AS25" s="6">
-        <v>311051076</v>
+        <v>148346664</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>56</v>
@@ -11815,7 +11968,7 @@
         <v>293</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>294</v>
@@ -11843,16 +11996,16 @@
         <v>65</v>
       </c>
       <c r="T26" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U26" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V26" s="6">
         <v>2016</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X26" s="6" t="s">
         <v>49</v>
@@ -11861,10 +12014,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA26" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>50</v>
@@ -11873,10 +12026,10 @@
         <v>31028</v>
       </c>
       <c r="AD26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF26" s="6" t="s">
         <v>101</v>
@@ -11916,7 +12069,7 @@
         <v>55</v>
       </c>
       <c r="AS26" s="6">
-        <v>311051076</v>
+        <v>148317900</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>56</v>
@@ -11983,7 +12136,7 @@
         <v>301</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>302</v>
@@ -12011,16 +12164,16 @@
         <v>65</v>
       </c>
       <c r="T27" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U27" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V27" s="6">
         <v>2016</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X27" s="6" t="s">
         <v>49</v>
@@ -12029,10 +12182,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA27" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>50</v>
@@ -12041,10 +12194,10 @@
         <v>31028</v>
       </c>
       <c r="AD27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE27" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF27" s="6" t="s">
         <v>101</v>
@@ -12084,7 +12237,7 @@
         <v>55</v>
       </c>
       <c r="AS27" s="6">
-        <v>311051076</v>
+        <v>148332188</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>56</v>
@@ -12123,244 +12276,676 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U28" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V28" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
+      <c r="AM28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS28" s="6">
+        <v>148332188</v>
+      </c>
+      <c r="AT28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV28" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
+      <c r="AX28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ28" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
+      <c r="BB28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF28" s="6" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U29" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V29" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
+      <c r="AM29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS29" s="6">
+        <v>148317900</v>
+      </c>
+      <c r="AT29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV29" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
+      <c r="AX29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ29" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="6"/>
+      <c r="BB29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF29" s="6" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U30" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V30" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="6"/>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6"/>
+      <c r="AM30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS30" s="6">
+        <v>148332188</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV30" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
+      <c r="AX30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ30" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
+      <c r="BB30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF30" s="6" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>337</v>
+      </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T31" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U31" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V31" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
+      <c r="AM31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS31" s="6">
+        <v>148346664</v>
+      </c>
+      <c r="AT31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV31" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
+      <c r="AX31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
+      <c r="BB31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF31" s="6" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -16097,7 +16682,7 @@
   <dimension ref="A1:BF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF58"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16277,7 +16862,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3">
         <v>44625</v>
@@ -16301,13 +16886,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -16317,31 +16902,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="U2" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="V2" s="6">
         <v>2016</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>49</v>
@@ -16350,10 +16935,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>50</v>
@@ -16362,10 +16947,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>101</v>
@@ -16405,7 +16990,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>621803420</v>
+        <v>296635612</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -16414,7 +16999,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -16445,7 +17030,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="B3" s="3">
         <v>44625</v>
@@ -16469,10 +17054,10 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>110</v>
@@ -16485,7 +17070,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -16500,16 +17085,16 @@
         <v>65</v>
       </c>
       <c r="T3" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="U3" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="V3" s="6">
         <v>2016</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>49</v>
@@ -16518,10 +17103,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>50</v>
@@ -16530,10 +17115,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>101</v>
@@ -16573,7 +17158,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>622073200</v>
+        <v>296905204</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -16582,7 +17167,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -16613,7 +17198,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B4" s="3">
         <v>44625</v>
@@ -16637,10 +17222,10 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>118</v>
@@ -16653,7 +17238,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
@@ -16668,16 +17253,16 @@
         <v>65</v>
       </c>
       <c r="T4" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="U4" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.645833333333333E-3</v>
       </c>
       <c r="V4" s="6">
         <v>2016</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>49</v>
@@ -16686,10 +17271,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>50</v>
@@ -16698,10 +17283,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>101</v>
@@ -16741,7 +17326,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>621803420</v>
+        <v>296905204</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -16750,7 +17335,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -16781,7 +17366,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="B5" s="3">
         <v>44625</v>
@@ -16805,10 +17390,10 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>126</v>
@@ -16821,7 +17406,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
@@ -16836,16 +17421,16 @@
         <v>65</v>
       </c>
       <c r="T5" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U5" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V5" s="6">
         <v>2016</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>49</v>
@@ -16854,10 +17439,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>50</v>
@@ -16866,10 +17451,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>101</v>
@@ -16909,7 +17494,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>621803420</v>
+        <v>296635612</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -16918,7 +17503,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16949,7 +17534,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B6" s="3">
         <v>44625</v>
@@ -16973,10 +17558,10 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>134</v>
@@ -16989,7 +17574,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
@@ -17004,16 +17589,16 @@
         <v>65</v>
       </c>
       <c r="T6" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U6" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V6" s="6">
         <v>2016</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>49</v>
@@ -17022,10 +17607,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>50</v>
@@ -17034,10 +17619,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>101</v>
@@ -17077,7 +17662,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>622073200</v>
+        <v>296606848</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -17086,7 +17671,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17117,7 +17702,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="B7" s="3">
         <v>44625</v>
@@ -17141,10 +17726,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>142</v>
@@ -17157,7 +17742,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
@@ -17172,16 +17757,16 @@
         <v>65</v>
       </c>
       <c r="T7" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U7" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V7" s="6">
         <v>2016</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>49</v>
@@ -17190,10 +17775,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>50</v>
@@ -17202,10 +17787,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE7" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF7" s="6" t="s">
         <v>101</v>
@@ -17245,7 +17830,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>621803420</v>
+        <v>296664188</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -17254,7 +17839,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17285,7 +17870,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="B8" s="3">
         <v>44625</v>
@@ -17309,10 +17894,10 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>150</v>
@@ -17325,7 +17910,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
@@ -17340,16 +17925,16 @@
         <v>65</v>
       </c>
       <c r="T8" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U8" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V8" s="6">
         <v>2016</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>49</v>
@@ -17358,10 +17943,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>50</v>
@@ -17370,10 +17955,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>101</v>
@@ -17413,7 +17998,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>621987096</v>
+        <v>296423360</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -17422,7 +18007,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -17453,7 +18038,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="B9" s="3">
         <v>44625</v>
@@ -17477,10 +18062,10 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>158</v>
@@ -17493,7 +18078,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
@@ -17508,16 +18093,16 @@
         <v>65</v>
       </c>
       <c r="T9" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U9" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V9" s="6">
         <v>2016</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>49</v>
@@ -17526,10 +18111,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>50</v>
@@ -17538,10 +18123,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF9" s="6" t="s">
         <v>101</v>
@@ -17581,7 +18166,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>622073200</v>
+        <v>296606848</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -17590,7 +18175,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -17621,7 +18206,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="B10" s="3">
         <v>44625</v>
@@ -17645,10 +18230,10 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>166</v>
@@ -17661,7 +18246,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
@@ -17676,16 +18261,16 @@
         <v>65</v>
       </c>
       <c r="T10" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U10" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V10" s="6">
         <v>2016</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>49</v>
@@ -17694,10 +18279,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>50</v>
@@ -17706,10 +18291,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE10" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF10" s="6" t="s">
         <v>101</v>
@@ -17749,7 +18334,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>622044436</v>
+        <v>296635612</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -17758,7 +18343,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -17789,7 +18374,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="B11" s="3">
         <v>44625</v>
@@ -17813,10 +18398,10 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>174</v>
@@ -17829,7 +18414,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
@@ -17844,16 +18429,16 @@
         <v>65</v>
       </c>
       <c r="T11" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U11" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V11" s="6">
         <v>2016</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>49</v>
@@ -17862,10 +18447,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA11" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>50</v>
@@ -17874,10 +18459,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF11" s="6" t="s">
         <v>101</v>
@@ -17917,7 +18502,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="6">
-        <v>622228112</v>
+        <v>296578084</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -17926,7 +18511,7 @@
         <v>63</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17957,7 +18542,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B12" s="3">
         <v>44625</v>
@@ -17981,10 +18566,10 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>182</v>
@@ -17997,7 +18582,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
@@ -18012,16 +18597,16 @@
         <v>65</v>
       </c>
       <c r="T12" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U12" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V12" s="6">
         <v>2016</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>49</v>
@@ -18030,10 +18615,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA12" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>50</v>
@@ -18042,10 +18627,10 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF12" s="6" t="s">
         <v>101</v>
@@ -18085,7 +18670,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="6">
-        <v>622073200</v>
+        <v>296515104</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -18094,7 +18679,7 @@
         <v>63</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18125,7 +18710,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="B13" s="3">
         <v>44625</v>
@@ -18149,10 +18734,10 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>190</v>
@@ -18165,7 +18750,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
@@ -18180,16 +18765,16 @@
         <v>65</v>
       </c>
       <c r="T13" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U13" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V13" s="6">
         <v>2016</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>49</v>
@@ -18198,10 +18783,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA13" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>50</v>
@@ -18210,10 +18795,10 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF13" s="6" t="s">
         <v>101</v>
@@ -18253,7 +18838,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="6">
-        <v>622044436</v>
+        <v>296635612</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -18262,7 +18847,7 @@
         <v>63</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18293,7 +18878,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B14" s="3">
         <v>44625</v>
@@ -18317,10 +18902,10 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>198</v>
@@ -18333,7 +18918,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
@@ -18348,16 +18933,16 @@
         <v>65</v>
       </c>
       <c r="T14" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U14" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V14" s="6">
         <v>2016</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X14" s="6" t="s">
         <v>49</v>
@@ -18366,10 +18951,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA14" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>50</v>
@@ -18378,10 +18963,10 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF14" s="6" t="s">
         <v>101</v>
@@ -18421,7 +19006,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="6">
-        <v>622073200</v>
+        <v>296606848</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -18430,7 +19015,7 @@
         <v>63</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -18461,7 +19046,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="B15" s="3">
         <v>44625</v>
@@ -18485,10 +19070,10 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>206</v>
@@ -18501,7 +19086,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
@@ -18516,16 +19101,16 @@
         <v>65</v>
       </c>
       <c r="T15" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U15" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V15" s="6">
         <v>2016</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X15" s="6" t="s">
         <v>49</v>
@@ -18534,10 +19119,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA15" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>50</v>
@@ -18546,10 +19131,10 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF15" s="6" t="s">
         <v>101</v>
@@ -18589,7 +19174,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="6">
-        <v>622073200</v>
+        <v>296578084</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -18598,7 +19183,7 @@
         <v>63</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -18629,7 +19214,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="B16" s="3">
         <v>44625</v>
@@ -18653,10 +19238,10 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>214</v>
@@ -18669,7 +19254,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
@@ -18684,16 +19269,16 @@
         <v>65</v>
       </c>
       <c r="T16" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U16" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V16" s="6">
         <v>2016</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>49</v>
@@ -18702,10 +19287,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA16" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>50</v>
@@ -18714,10 +19299,10 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>101</v>
@@ -18757,7 +19342,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="6">
-        <v>622044436</v>
+        <v>296543680</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -18766,7 +19351,7 @@
         <v>63</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -18797,7 +19382,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B17" s="3">
         <v>44625</v>
@@ -18821,10 +19406,10 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>222</v>
@@ -18837,7 +19422,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
@@ -18852,16 +19437,16 @@
         <v>65</v>
       </c>
       <c r="T17" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U17" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V17" s="6">
         <v>2016</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X17" s="6" t="s">
         <v>49</v>
@@ -18870,10 +19455,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA17" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>50</v>
@@ -18882,10 +19467,10 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE17" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF17" s="6" t="s">
         <v>101</v>
@@ -18925,7 +19510,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="6">
-        <v>622044436</v>
+        <v>296635612</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -18934,7 +19519,7 @@
         <v>63</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -18965,7 +19550,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="B18" s="3">
         <v>44625</v>
@@ -18989,10 +19574,10 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>230</v>
@@ -19005,7 +19590,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
@@ -19020,16 +19605,16 @@
         <v>65</v>
       </c>
       <c r="T18" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U18" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V18" s="6">
         <v>2016</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X18" s="6" t="s">
         <v>49</v>
@@ -19038,10 +19623,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA18" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>50</v>
@@ -19050,10 +19635,10 @@
         <v>31028</v>
       </c>
       <c r="AD18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF18" s="6" t="s">
         <v>101</v>
@@ -19093,7 +19678,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="6">
-        <v>622073200</v>
+        <v>296635612</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -19102,7 +19687,7 @@
         <v>63</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19133,7 +19718,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="B19" s="3">
         <v>44625</v>
@@ -19157,10 +19742,10 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>238</v>
@@ -19173,7 +19758,7 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
@@ -19188,16 +19773,16 @@
         <v>65</v>
       </c>
       <c r="T19" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U19" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V19" s="6">
         <v>2016</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X19" s="6" t="s">
         <v>49</v>
@@ -19206,10 +19791,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA19" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>50</v>
@@ -19218,10 +19803,10 @@
         <v>31028</v>
       </c>
       <c r="AD19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE19" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF19" s="6" t="s">
         <v>101</v>
@@ -19261,7 +19846,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="6">
-        <v>622073200</v>
+        <v>296784696</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -19270,7 +19855,7 @@
         <v>63</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19301,7 +19886,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="B20" s="3">
         <v>44625</v>
@@ -19325,10 +19910,10 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>246</v>
@@ -19341,7 +19926,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
@@ -19356,16 +19941,16 @@
         <v>65</v>
       </c>
       <c r="T20" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U20" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V20" s="6">
         <v>2016</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X20" s="6" t="s">
         <v>49</v>
@@ -19374,10 +19959,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA20" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>50</v>
@@ -19386,10 +19971,10 @@
         <v>31028</v>
       </c>
       <c r="AD20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE20" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF20" s="6" t="s">
         <v>101</v>
@@ -19429,7 +20014,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="6">
-        <v>622044436</v>
+        <v>296606848</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -19438,7 +20023,7 @@
         <v>63</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -19469,7 +20054,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B21" s="3">
         <v>44625</v>
@@ -19493,10 +20078,10 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>254</v>
@@ -19509,7 +20094,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
@@ -19524,16 +20109,16 @@
         <v>65</v>
       </c>
       <c r="T21" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U21" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V21" s="6">
         <v>2016</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X21" s="6" t="s">
         <v>49</v>
@@ -19542,10 +20127,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA21" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>50</v>
@@ -19554,10 +20139,10 @@
         <v>31028</v>
       </c>
       <c r="AD21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE21" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF21" s="6" t="s">
         <v>101</v>
@@ -19597,7 +20182,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="6">
-        <v>622044436</v>
+        <v>296635612</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -19606,7 +20191,7 @@
         <v>63</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -19637,7 +20222,7 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B22" s="3">
         <v>44625</v>
@@ -19661,10 +20246,10 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>262</v>
@@ -19677,7 +20262,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
@@ -19692,16 +20277,16 @@
         <v>65</v>
       </c>
       <c r="T22" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U22" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V22" s="6">
         <v>2016</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X22" s="6" t="s">
         <v>49</v>
@@ -19710,10 +20295,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA22" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>50</v>
@@ -19722,10 +20307,10 @@
         <v>31028</v>
       </c>
       <c r="AD22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF22" s="6" t="s">
         <v>101</v>
@@ -19765,7 +20350,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="6">
-        <v>622044436</v>
+        <v>296578084</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -19774,7 +20359,7 @@
         <v>63</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -19805,7 +20390,7 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="B23" s="3">
         <v>44625</v>
@@ -19829,10 +20414,10 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>270</v>
@@ -19845,7 +20430,7 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
@@ -19860,16 +20445,16 @@
         <v>65</v>
       </c>
       <c r="T23" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U23" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V23" s="6">
         <v>2016</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X23" s="6" t="s">
         <v>49</v>
@@ -19878,10 +20463,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA23" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>50</v>
@@ -19890,10 +20475,10 @@
         <v>31028</v>
       </c>
       <c r="AD23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE23" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>101</v>
@@ -19933,7 +20518,7 @@
         <v>55</v>
       </c>
       <c r="AS23" s="6">
-        <v>622073200</v>
+        <v>296578084</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -19942,7 +20527,7 @@
         <v>63</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -19973,7 +20558,7 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="B24" s="3">
         <v>44625</v>
@@ -19997,10 +20582,10 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>278</v>
@@ -20013,7 +20598,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
@@ -20028,16 +20613,16 @@
         <v>65</v>
       </c>
       <c r="T24" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U24" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V24" s="6">
         <v>2016</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X24" s="6" t="s">
         <v>49</v>
@@ -20046,10 +20631,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA24" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>50</v>
@@ -20058,10 +20643,10 @@
         <v>31028</v>
       </c>
       <c r="AD24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE24" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF24" s="6" t="s">
         <v>101</v>
@@ -20101,7 +20686,7 @@
         <v>55</v>
       </c>
       <c r="AS24" s="6">
-        <v>622073200</v>
+        <v>296635612</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -20110,7 +20695,7 @@
         <v>63</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20141,7 +20726,7 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="B25" s="3">
         <v>44625</v>
@@ -20165,10 +20750,10 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>286</v>
@@ -20181,7 +20766,7 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
@@ -20196,16 +20781,16 @@
         <v>65</v>
       </c>
       <c r="T25" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U25" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V25" s="6">
         <v>2016</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X25" s="6" t="s">
         <v>49</v>
@@ -20214,10 +20799,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA25" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>50</v>
@@ -20226,10 +20811,10 @@
         <v>31028</v>
       </c>
       <c r="AD25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF25" s="6" t="s">
         <v>101</v>
@@ -20269,7 +20854,7 @@
         <v>55</v>
       </c>
       <c r="AS25" s="6">
-        <v>622044436</v>
+        <v>296635612</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -20278,7 +20863,7 @@
         <v>63</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20309,7 +20894,7 @@
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="B26" s="3">
         <v>44625</v>
@@ -20333,10 +20918,10 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>294</v>
@@ -20349,7 +20934,7 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
@@ -20364,16 +20949,16 @@
         <v>65</v>
       </c>
       <c r="T26" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U26" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V26" s="6">
         <v>2016</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X26" s="6" t="s">
         <v>49</v>
@@ -20382,10 +20967,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA26" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>50</v>
@@ -20394,10 +20979,10 @@
         <v>31028</v>
       </c>
       <c r="AD26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF26" s="6" t="s">
         <v>101</v>
@@ -20437,7 +21022,7 @@
         <v>55</v>
       </c>
       <c r="AS26" s="6">
-        <v>622044436</v>
+        <v>296578084</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -20446,7 +21031,7 @@
         <v>63</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -20477,7 +21062,7 @@
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B27" s="3">
         <v>44625</v>
@@ -20501,10 +21086,10 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>302</v>
@@ -20517,7 +21102,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
@@ -20532,16 +21117,16 @@
         <v>65</v>
       </c>
       <c r="T27" s="4">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="U27" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>3.6458333333333299E-3</v>
       </c>
       <c r="V27" s="6">
         <v>2016</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X27" s="6" t="s">
         <v>49</v>
@@ -20550,10 +21135,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>43585</v>
+        <v>44013</v>
       </c>
       <c r="AA27" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>50</v>
@@ -20562,10 +21147,10 @@
         <v>31028</v>
       </c>
       <c r="AD27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE27" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AF27" s="6" t="s">
         <v>101</v>
@@ -20605,7 +21190,7 @@
         <v>55</v>
       </c>
       <c r="AS27" s="6">
-        <v>622044436</v>
+        <v>296606848</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -20614,7 +21199,7 @@
         <v>63</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -20644,244 +21229,676 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U28" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V28" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
+      <c r="AM28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS28" s="6">
+        <v>296606848</v>
+      </c>
+      <c r="AT28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV28" s="6" t="s">
+        <v>451</v>
+      </c>
       <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
+      <c r="AX28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ28" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
+      <c r="BB28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF28" s="6" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U29" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V29" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
+      <c r="AM29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS29" s="6">
+        <v>296578084</v>
+      </c>
+      <c r="AT29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV29" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
+      <c r="AX29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ29" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="6"/>
+      <c r="BB29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF29" s="6" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U30" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V30" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="6"/>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6"/>
+      <c r="AM30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS30" s="6">
+        <v>296606848</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV30" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
+      <c r="AX30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ30" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
+      <c r="BB30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF30" s="6" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>337</v>
+      </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T31" s="4">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="U31" s="5">
+        <v>3.6458333333333299E-3</v>
+      </c>
+      <c r="V31" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>44013</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
+      <c r="AM31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS31" s="6">
+        <v>296635612</v>
+      </c>
+      <c r="AT31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV31" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
+      <c r="AX31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
+      <c r="BB31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF31" s="6" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0A9F87-8FCB-440D-83BA-62AB3723EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F5D83F-D887-410E-895B-C612D09D069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="427">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,1123 +311,1012 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EEMIRO101_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000101</t>
-  </si>
-  <si>
-    <t>Serie Misho y Robin</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP01</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: La ardilla está angustiada ¿Será demasiado tarde para recoger frutas de otoño para el invierno?</t>
-  </si>
-  <si>
-    <t>Edye presenta: La ardilla está angustiada, cree que es demasiado tarde para recoger frutas de otoños para el invierno. Misho y Robin ofrecen su ayuda y descubren cuáles son las frutas secas del otoño. Ahora están listos para la búsqueda.</t>
-  </si>
-  <si>
-    <t>Infantil/Misho y Robin</t>
-  </si>
-  <si>
-    <t>Misho y Robin</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Krsto Bosnjak, Jelena Buljan, Marko Jelic, Ana Vilenica</t>
-  </si>
-  <si>
-    <t>Recircle</t>
-  </si>
-  <si>
-    <t>Bosnjak Krsto, Buljan Jelena, Jelic Marko, Vilenica Ana</t>
-  </si>
-  <si>
-    <t>Alenti, Denis</t>
-  </si>
-  <si>
-    <t>EEMIRO101.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO101_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO102_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000102</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP02</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho está mirando un charco y de repente algo lo asusta. Se trata de un renacuajo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho está mirando un charco y de repente algo lo asusta. Robin viene a su rescate y encuentra un pequeño pez de aspecto extraño en el agua. Resulta que es un renacuajo. Pronto, el renacuajo desaparecerá transformándose en una nueva rana.</t>
-  </si>
-  <si>
-    <t>EEMIRO102.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO102_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO103_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000103</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP03</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin van al arroyo y encuentran a Castor construyendo un bote. Quieren fabricar uno.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin deciden ir al arroyo y encuentran a Castor construyendo un bote. Quieren aprender a construir un bote, por lo que Castor trata de enseñarles a elegir las tablas de madera correctas y a clavar un clavo, pero les faltan herramientas.</t>
-  </si>
-  <si>
-    <t>EEMIRO103.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO103_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO104_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000104</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP04</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Está lloviendo y Misho y Robin están aburridos. Quieren jugar a un juego de mesa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Está lloviendo y Misho y Robin están aburridos. Quieren jugar a un juego de mesa pero no encuentran ninguno. Los juegos están en el ático, pero primero deben limpiarlo un poco.</t>
-  </si>
-  <si>
-    <t>EEMIRO104.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO104_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO105_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000105</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP05</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin participan de una carrera de trineos contra Topo, Ardilla y los Búhos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una gran carrera de trineos está por empezar. Misho y Robin compiten con Topo, los Búhos y Ardilla. Castor explica las reglas. Arranca la carrera. Topo se equivoca de camino. Los Búhos le hacen trampa a Ardilla. Misho y Robin la ayudan ¿Quién ganará?</t>
-  </si>
-  <si>
-    <t>EEMIRO105.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO105_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO106_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000106</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP06</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin quieren andar en bicicleta con Ardilla pero la de Misho tiene una rueda pinchada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin quieren andar en bicicleta con Ardilla, pero la bicicleta de Misho tiene una rueda pinchada. Ardilla deja su nuevo scooter afuera y los ayuda a reparar el neumático. Cuando terminan, Ardilla se da cuenta de que le han robado su scooter.</t>
-  </si>
-  <si>
-    <t>EEMIRO106.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO106_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO107_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000107</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP07</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Robin y Misho están desayunando. ¡Oh no, no hay más mermelada! No hay problema, harán una.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Robin y Misho están desayunando. ¡Oh no, no hay más mermelada! No hay problema, harán una. Solo necesitan algunas manzanas y azúcar. Salen a recoger las manzanas, pero ¿dónde están todas las manzanas?</t>
-  </si>
-  <si>
-    <t>EEMIRO107.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO107_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO108_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000108</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP08</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin se enteran que Urraca está dibujando frente a su casa y deciden ir a verla.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin se enteran que la Urraca está dibujando frente a su casa, por lo que todos van a reunirse con ella. Cuando llegan les da una rápida lección de cómo dibujar diferentes formas. Luego les asigna una tarea: dibujen toda una casa.</t>
-  </si>
-  <si>
-    <t>EEMIRO108.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO108_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO109_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000109</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP09</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin ve pasar los pequeños Búhos, cada uno montando su propio vehículo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin ve pasar a los tres pequeños Búhos, cada uno montando su propio vehículo: un triciclo, un carro de pedales y patines. Corren alrededor del patio imprudentemente hasta que chocan contra las tablas de madera de Castor.</t>
-  </si>
-  <si>
-    <t>EEMIRO109.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO109_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO110_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000110</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP10</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están en el jardín buscando una sandía y terminan encontrando una hermosa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están en el jardín buscando una sandía y terminan encontrando una hermosa y grande. Robin corta la fruta en pedazos y ambos obtienen dos rebanadas. Pero de repente, las rebanadas empiezan a desaparecer misteriosamente.</t>
-  </si>
-  <si>
-    <t>EEMIRO110.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO110_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000111</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP11</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un avión de papel entra por la ventana de Misho y Robin. ¡Es el mapa de un tesoro!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están en casa cuando un avión de papel entra por la ventana. ¡Es el mapa de un tesoro! Deciden seguir el mapa y buscar el tesoro. Van por el árbol de Ardilla, el arroyo de Castor hasta encontrar el cofre en la casa de Urraca.</t>
-  </si>
-  <si>
-    <t>EEMIRO111.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000112</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP12</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin siguen la música hasta el bosque donde encuentran a Ardilla bailando.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin siguen el sonido de la música hasta el bosque donde encuentran a Ardilla bailando ballet. Nuestros amigos le van a demostrar que también saben bailar sus melodías predilectas.</t>
-  </si>
-  <si>
-    <t>EEMIRO112.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000113</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP13</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Robin está haciendo un pastel de chocolate y aunque sólo hay 4 ingredientes Misho se equivoca!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Robin está haciendo un pastel de chocolate. Aunque sólo hay cuatro ingredientes Misho se equivoca y le da a Robin los ingredientes equivocados. Confunde la mantequilla con el queso y la harina con el azúcar. Finalmente hacen un pastel delicioso.</t>
-  </si>
-  <si>
-    <t>EEMIRO113.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000114</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP14</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin quieren jugar a las escondidas, por lo que invitan a Oso a jugar con ellos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin invitan a Oso a jugar a las escondidas. Robin sugiere que Oso cuente, y Misho y Robin le mostrarán cómo esconderse. Después de mucho tiempo escondidos, salen a ver qué está pasando. ¡Osito se durmió contando!</t>
-  </si>
-  <si>
-    <t>EEMIRO114.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000115</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP15</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están jugando a la pelota cuando ésta se pierde en el árbol.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están jugando a la pelota cuando esta se pierde en un árbol. Ardilla se la devuelve y Robin la invita a jugar. Misho se siente excluido y va a jugar solo. Misho se da cuenta de que está celoso.</t>
-  </si>
-  <si>
-    <t>EEMIRO115.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000116</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP16</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin deciden jugar con bloques de construcción. Ambos deciden levantar un castillo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin deciden jugar. Cada uno tiene bloques y ambos eligen construir un castillo. Cuando se dan cuenta de que ninguno de los dos tiene suficientes bloques, Robin propone construirlo juntos. Entre los dos construyen un hermoso castillo grande.</t>
-  </si>
-  <si>
-    <t>EEMIRO116.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000117</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP17</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin descubren que es el cumpleaños de Ardilla y le organizan una fiesta sorpresa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin descubren que es el cumpleaños de Ardilla y planean hacerle una fiesta sorpresa. De repente, ven a Ardilla afuera y rápidamente todos se esconden. Cuando Ardilla regresa, ¡todo está listo para iniciar la fiesta!</t>
-  </si>
-  <si>
-    <t>EEMIRO117.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000118</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP18</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Robin persigue a una oruga y Misho decide unirse a él para atraparla. Pero no lo logran.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Robin persigue a una oruga y Misho decide unirse a él. Pese a tratarlo varias veces, no logran atraparla. Cuando finalmente la encuentran, se ha convertido en un capullo desde el cual pronto sale una mariposa volando.</t>
-  </si>
-  <si>
-    <t>EEMIRO118.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000119</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP19</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin se encuentran con Oso, que planea pintar su casa y deciden ayudarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin se encuentran con Oso, que está pintando su casa y deciden ayudarlo. Cada uno toma un color diferente, pero pronto todos están manchados. ¡Al mezclar las pinturas, descubren que pueden crear nuevos colores!</t>
-  </si>
-  <si>
-    <t>EEMIRO119.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000120</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP20</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están bajo tierra: están cavando un agujero en busca de huesos de T-Rex.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están bajo tierra: están cavando un agujero en busca de huesos de T-Rex. Se hacen amigos de Topo y le explican lo que están haciendo. Topo los lleva hasta una gran sorpresa, ¡una habitación llena de huesos de dinosaurios!</t>
-  </si>
-  <si>
-    <t>EEMIRO120.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000121</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP21</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin buscan dinero para comprar boletos para la obra de teatro en su jardín.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin buscan dinero para comprar entradas para una obra de teatro sobre príncipes y dragones. Cuando llegan al evento, sus amigos ya están allí. ¡Todos están encantados con la historia en la que los príncipes derrotan a los dragones!</t>
-  </si>
-  <si>
-    <t>EEMIRO121.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000122</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP22</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin encuentran un nido con hambrientos pichoncitos. Misho va a buscar comida.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin cortaban los setos cuando encontraron un nido con pajaritos hambrientos. Robin envía a Misho a buscar insectos y gusanos, pero parece que no puede atrapar ninguno. Por suerte, la mamá pájaro volvió y calmó a los pajaritos.</t>
-  </si>
-  <si>
-    <t>EEMIRO122.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000123</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP23</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin juegan a la pelota, pero la arrojan al bosque y cae sobre un montón de hojas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están jugando a la pelota que se les escapa en el bosque. La buscan un buen rato y finalmente la encuentran sobre un montón de hojas. De repente, el montón de hojas se mueve y les entrega la pelota. Misho y Robin salen despavoridos.</t>
-  </si>
-  <si>
-    <t>EEMIRO123.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000124</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP24</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin van a plantar algunas verduras en el jardín. Pero estas desaparecen.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin van a plantar algunas verduras en el jardín. Después de un tiempo, las verduras comienzan a crecer. Misho y Robin están encantados y quieren recoger sus plantas. ¡Pero alguien las ha robado! ¿Quién habrá sido?</t>
-  </si>
-  <si>
-    <t>EEMIRO124.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000125</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP25</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están mirando televisión. De repente la transmisión de TV se interrumpe.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin están mirando televisión. Se niegan a salir, pero de repente la transmisión de TV se interrumpe. Castor y Ardilla volaban una cometa y se enredó en su antena de TV. Misho y Robin liberan la cometa y ahora también quieren jugar.</t>
-  </si>
-  <si>
-    <t>EEMIRO125.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000126</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP26</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras disfruta del calor de la chimenea, Misho ve una inquietante figura en la nieve.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Durante una tormenta de nieve, Misho y Robin disfrutan del calor de su hogar cuando, de repente, Misho ve una figura en la nieve a través de la ventana. Lo asusta, pero Robin no lo ve. Están llamando a la puerta. ¿Será el monstruo que vio Misho?</t>
-  </si>
-  <si>
-    <t>EEMIRO126.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO127_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000127</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP27</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP27</t>
-  </si>
-  <si>
-    <t>EP 27</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin pasan la noche en una carpa. Los ruidos extraños de la noche los asustan.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin pasan la noche en una carpa fuera de la casa. Se han preparado con sacos de dormir, linternas y pegatinas de animales para jugar. Una vez que se han instalado en la tienda, los ruidos extraños de la noche comienzan a asustarlos.</t>
-  </si>
-  <si>
-    <t>EEMIRO127.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO127_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO128_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000128</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP28</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP28</t>
-  </si>
-  <si>
-    <t>EP 28</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin viajan a la playa. Misho se va al mar, mientras Robin quiere tomar el sol.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho y Robin viajan a la playa. Misho corre al mar mientras Robin quiere tomar el sol. Después de explorar el mar, Misho le trae a Robin una estrella de mar. ¡Más tarde regresa con un caparazón que resultó ser un cangrejo ermitaño!</t>
-  </si>
-  <si>
-    <t>EEMIRO128.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO128_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO129_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000129</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP29</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP29</t>
-  </si>
-  <si>
-    <t>EP 29</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho se despierta resfriado y Robin lo cuida aunque no tiene lo necesario en casa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Misho se despierta con un resfriado y Robin lo está cuidando. Después de que no encuentra nada en la casa que pueda ayudarlo, llama a algunos amigos que le traen lo necesario para curar a su mejor amigo.</t>
-  </si>
-  <si>
-    <t>EEMIRO129.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO129_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO130_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI6000000000000130</t>
-  </si>
-  <si>
-    <t>Misho y RobinT01EP30</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP30</t>
-  </si>
-  <si>
-    <t>EP 30</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todos se están preparando para la fiesta de disfraces. Robin sabe qué se va a poner ¿Y Misho?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todos tienen prisa para prepararse para la fiesta de disfraces. Robin viene como una cigüeña. Pero luego se da cuenta de que no sabe cómo se vestirá Misho. ¿Cómo lo reconocerá entre la multitud?</t>
-  </si>
-  <si>
-    <t>EEMIRO130.mpg</t>
-  </si>
-  <si>
-    <t>EEMIRO130_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMIRO101_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000101</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO101.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO102_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000102</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO102.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO103_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000103</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO103.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO104_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000104</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO104.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO105_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000105</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO105.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO106_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000106</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO106.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO107_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000107</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO107.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO108_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000108</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO108.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO109_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000109</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO109.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO110_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000110</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO110.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000111</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO111.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000112</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO112.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000113</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO113.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000114</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO114.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000115</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO115.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000116</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO116.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000117</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO117.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000118</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO118.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000119</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO119.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000120</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO120.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000121</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO121.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000122</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO122.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000123</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO123.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000124</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO124.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000125</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO125.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000126</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO126.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO127_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000127</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP27 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO127.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO128_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000128</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP28 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO128.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO129_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000129</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP29 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO129.ts</t>
-  </si>
-  <si>
-    <t>EEMIRO130_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMI7000000000000130</t>
-  </si>
-  <si>
-    <t>Misho y Robin T01 EP30 HD</t>
-  </si>
-  <si>
-    <t>EEMIRO130.ts</t>
+    <t>EEMAYA4301_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004301</t>
+  </si>
+  <si>
+    <t>Serie La Abeja Maya</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP01</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: Primera parte de un doble episodio sobre el nacimiento de Maya y la vida en la colmena.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Primera parte de un doble episodio sobre el nacimiento de Maya, su descubrimiento de la vida en la colmena y su organización. Pronto Maya descubre el prado y su libertad.</t>
+  </si>
+  <si>
+    <t>Infantil/La Abeja Maya</t>
+  </si>
+  <si>
+    <t>La Abeja Maya</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Andrea Libman, Rebecca Shoichet</t>
+  </si>
+  <si>
+    <t>Studio100</t>
+  </si>
+  <si>
+    <t>Libman Andrea, Shoichet Rebecca,</t>
+  </si>
+  <si>
+    <t>Duda, Danie</t>
+  </si>
+  <si>
+    <t>EEMAYA4301.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA43_box.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4301_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4302_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004302</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP02</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya se escapa de la colmena durante la noche por primera vez y vive su primera aventura.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya se escapa de la colmena durante la noche por primera vez y vive una aventura con un amigo.Se salvan de una rana y un búho y entonces ella decide vivir en el prado.</t>
+  </si>
+  <si>
+    <t>EEMAYA4302.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4302_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4303_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004303</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP03</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Se organiza un concurso para seleccionar al nuevo mensajero junior.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Al estar ausente el mensajero oficial de la reina se organiza un concurso para seleccionar al nuevo mensajero junior.Todos compiten en una carrera para entregar un mensaje importante a la colmena vecina.</t>
+  </si>
+  <si>
+    <t>EEMAYA4303.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4303_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4304_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004304</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP04</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo se pierden en la noche del bosque pero una luciérnaga las ayuda.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo cruzan el bosque para ver la flor de la luna que es muy rara pero se pierden en la noche.Afortunadamente, pueden contar con una luciérnaga que las ayuda a encontrar el camino de regreso.</t>
+  </si>
+  <si>
+    <t>EEMAYA4304.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4304_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4305_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004305</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP05</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo descubren una botella abandonada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo descubren una botella abandonada.Su amigo entra en la botella para probar el dulce líquido y la botella rueda por una pendiente y se lleva la bola de Ben.Ambos desaparecen en el bosque.Maya y Ben deciden buscarlos.</t>
+  </si>
+  <si>
+    <t>EEMAYA4305.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4305_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4306_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004306</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP06</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una mosca robó la pelota de un amigo para usarla como nido y él contruye una nueva para ella.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una mosca ha robado la pelota de un amigo para usarla como nido y poner sus huevos.Maya ayuda a su amigo a hacer una nueva bola dedicada solo a la mosca.</t>
+  </si>
+  <si>
+    <t>EEMAYA4306.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4306_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4307_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004307</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP07</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: El juez descubre que Maya vive afuera y la expulsa de la colmena y el prado.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando el juez descubre que Maya vive afuera la expulsa ya que cree que su estilo de vida es una amenaza para las otras abejas.Pero durante el ataque de las avispas Maya demostrará que tiene un papel importante en la comunidad.</t>
+  </si>
+  <si>
+    <t>EEMAYA4307.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4307_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4308_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004308</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP08</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo rompen la coraza del caracol por accidente y deben repararla.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras juegan Maya y su amigo rompen la coraza del caracol por accidente.Tienen que encontrar una manera de reparar la grieta antes de que se vuelva peligrosa para su amigo.</t>
+  </si>
+  <si>
+    <t>EEMAYA4308.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4308_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4309_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004309</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP09</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Se mojaron las alas de la mariposa y ya no puede volar.Maya tiene que encontrar una solución.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya ha mojado accidentalmente las alas de la mariposa quien ha perdido algo de su polvo y ya no puede volar. Maya tiene que encontrar una solución para ayudarla ya que el gran baile de las mariposas se acerca rápidamente.</t>
+  </si>
+  <si>
+    <t>EEMAYA4309.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4309_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4310_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004310</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP10</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo quieren que Max pruebe las frutas pero lo atrapa un pájaro y deben rescatarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo quisieran que Max descubriera el delicioso sabor de las frutas de su árbol.Lo llevan hasta la cima pero desafortunadamente Max es atrapado por un pájaro.Maya organiza el rescate con la ayuda de las hormigas para salvar a su amigo.</t>
+  </si>
+  <si>
+    <t>EEMAYA4310.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4310_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4311_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004311</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP11</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: El grillo trata de invitar a una dama a un baile y su amigo lo ayudará.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El grillo no deja dormir a nadie en la pradera.Él solo trata de invitar a la dama grillo a un baile pero le envía el mensaje equivocado.Su amigo lo ayudará y él podrá invitar a la dama grillo.</t>
+  </si>
+  <si>
+    <t>EEMAYA4311.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4311_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4312_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004312</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP12</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: La reina visita el prado y conoce a Maya que le muestra su universo pero la colmena es un caos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Harta del pesado protocolo, la reina decide abandonar la colmena por un momento para visitar el prado.Conoce a Maya que está encantada de hacer que la reina descubra su universo pero sin la reina la colmena comienza a volverse un caos.</t>
+  </si>
+  <si>
+    <t>EEMAYA4312.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4312_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4313_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004313</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP13</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los hongos desaparecieron y creen que hay un monstruo pero es sólo una gran babosa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los hongos han desaparecido y saben con seguridad que hay un monstruo en el prado.Maya decide investigar más y descubre que la criatura es solo una gran babosa.</t>
+  </si>
+  <si>
+    <t>EEMAYA4313.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4313_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4314_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004314</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP14</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya informa a la reina que hay un oso cerca pero se da cuenta que era un oso de peluche.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un amigo vio un oso cerca.Maya informa a la reina quien da la orden de evacuar la colmena.Cuando Maya y su amigo se dan cuenta de que todo fue provocado por un oso de peluche tienen miedo de confesar su error.</t>
+  </si>
+  <si>
+    <t>EEMAYA4314.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4314_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4315_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004315</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP15</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: La oruga se convierte en una polilla halcón y se lleva la miel de la colmena.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo conocen a una oruga que a través de su metamorfosis se convierte en una polilla halcón y ataca la colmena para llevarse la miel.Maya tiene que convencerla para que abandone la colmena y busque algo más para comer.</t>
+  </si>
+  <si>
+    <t>EEMAYA4315.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4315_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4316_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004316</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP16</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo durmieron a la colmena y ahora deben pedirle ayuda a sus amigos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es el gran día de la cosecha de polen pero Maya y y su amigo han dormido a toda la colmena accidentalmente.Ahora tienen que pedirle a todos sus amigos que los ayuden con la cosecha de enredaderas que florece solo un día al año.</t>
+  </si>
+  <si>
+    <t>EEMAYA4316.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4316_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4317_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004317</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP17</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo destruyeron la casa de un gusano de fruta y Maya quiere ayudarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo destruyeron accidentalmente la casa de un gusano de fruta.Maya quiere ayudarlo a encontrar un lugar nuevo pero el gusano quiere que alguien se quede con él.</t>
+  </si>
+  <si>
+    <t>EEMAYA4317.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4317_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4318_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004318</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP18</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Maya le cuesta aprender el baile de las abejas y su amigo la ayudará.</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Maya le cuesta aprender el baile de las abejas que es muy útil para moverse en la dirección correcta.Su amigo intentará ayudarla y Maya podrá mostrarle al jefe de abejas obreras un nuevo campo de flores que ayudará a alimentar a las crías de larvas.</t>
+  </si>
+  <si>
+    <t>EEMAYA4318.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4318_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4319_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004319</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP19</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: La cera de abejas decide que la colmena es demasiado pequeña para tantas abejas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: La cera de abejas decide que la colmena es demasiado pequeña para tantas abejas algunas de ellas tienen que moverse y encontraron una nueva colmena. Willy es elegido para irse. Maya pronto se da cuenta de que podría perder a su mejor amiga y decide cambiar de opinión.</t>
+  </si>
+  <si>
+    <t>EEMAYA4319.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4319_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4320_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004320</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP20</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Unos amigos llegan a la pradera y extrañamente cambian su color y su comportamiento.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Unos amigos llegan a la pradera.Cuando están todos juntos extrañamente cambian su color y su comportamiento.Otros también está cambiando y Maya se da cuenta de que podría perder a su amiga.Ella hará cualquier cosa para recuperarla.</t>
+  </si>
+  <si>
+    <t>EEMAYA4320.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4320_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4321_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004321</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP21</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo han capturado piojos de abejas y la colmena está infectada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya y su amigo han capturado varroas que son piojos de abejas y la colmena está infectada. Deciden pedir consejo a las abejas silvestres del bosque para saber cómo deshacerse de estos parásitos.</t>
+  </si>
+  <si>
+    <t>EEMAYA4321.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4321_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4322_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004322</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP22</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un señor ve el accidente causado por Maya y establece una licencia de vuelo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un señor visita la colmena y ve el accidente causado por Maya. Decide establecer una licencia de vuelo y ahora las abejas deben permanecer en el suelo y no pueden hacer su trabajo correctamente.</t>
+  </si>
+  <si>
+    <t>EEMAYA4322.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4322_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4323_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004323</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP23</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya quiere ayudar una anciana escarabajo que perdió su hogar durante una tormenta.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya quiere ayudar a una anciana escarabajo que perdió su hogar durante una tormenta. Quiere encontrar a su hermano que vive en un viejo árbol pero su memoria le hace trucos y les cuesta mucho encontrar su camino.</t>
+  </si>
+  <si>
+    <t>EEMAYA4323.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4323_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4324_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004324</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP24</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya ayuda a una tijereta que esculpe todo lo que ve y su arte es mal entendido y rechazado.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya se encuentra con una bonita tijereta que es una verdadera artista y esculpe todo lo que ve.Pero su arte es mal entendido por los otros que tienden a rechazarlo. Maya la ayudará a ser aceptada por la comunidad.</t>
+  </si>
+  <si>
+    <t>EEMAYA4324.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4324_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4325_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004325</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP25</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya ve que unos pequeños escarabajos están solos y trata de encontrar a su madre.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Maya juega con pequeños escarabajos.Pronto se da cuenta de que están solos y trata de encontrar a su madre. Ella descubre que la madre está desesperada ya que si no puede alimentar a sus crías se escaparán para buscar una nueva madre.</t>
+  </si>
+  <si>
+    <t>EEMAYA4325.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4325_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4326_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA6000000000004326</t>
+  </si>
+  <si>
+    <t>La Abeja MayaT43EP26</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Sin saberlo, Willy come el pastel de la reina. Junto con Maya, intentarán descubrir la receta</t>
+  </si>
+  <si>
+    <t>Edye presenta: Sin saberlo, Willy come el pastel de la reina. Junto con Maya, intentarán descubrir la receta y hacer un nuevo pastel antes de que todos en la colmena se den cuenta de que el pastel ha desaparecido.</t>
+  </si>
+  <si>
+    <t>EEMAYA4326.mpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4326_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMAYA4301_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004301</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4301.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4302_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004302</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4302.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4303_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004303</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4303.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4304_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004304</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4304.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4305_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004305</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4305.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4306_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004306</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4306.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4307_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004307</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4307.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4308_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004308</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4308.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4309_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004309</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4309.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4310_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004310</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4310.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4311_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004311</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4311.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4312_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004312</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4312.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4313_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004313</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4313.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4314_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004314</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4314.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4315_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004315</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4315.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4316_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004316</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4316.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4317_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004317</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4317.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4318_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004318</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4318.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4319_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004319</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4319.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4320_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004320</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4320.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4321_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004321</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4321.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4322_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004322</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4322.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4323_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004323</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4323.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4324_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004324</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4324.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4325_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004325</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4325.ts</t>
+  </si>
+  <si>
+    <t>EEMAYA4326_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMA7000000000004326</t>
+  </si>
+  <si>
+    <t>La Abeja Maya T43 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEMAYA4326.ts</t>
+  </si>
+  <si>
+    <t>00:11:55</t>
+  </si>
+  <si>
+    <t>00:12:08</t>
+  </si>
+  <si>
+    <t>00:11:56</t>
+  </si>
+  <si>
+    <t>00:12:01</t>
+  </si>
+  <si>
+    <t>00:11:51</t>
+  </si>
+  <si>
+    <t>00:12:04</t>
+  </si>
+  <si>
+    <t>00:11:58</t>
+  </si>
+  <si>
+    <t>00:11:54</t>
+  </si>
+  <si>
+    <t>00:12:07</t>
+  </si>
+  <si>
+    <t>00:11:53</t>
+  </si>
+  <si>
+    <t>00:12:06</t>
+  </si>
+  <si>
+    <t>00:12:00</t>
+  </si>
+  <si>
+    <t>00:11:57</t>
+  </si>
+  <si>
+    <t>00:12:16</t>
+  </si>
+  <si>
+    <t>00:12</t>
   </si>
 </sst>
 </file>
@@ -7726,6 +7615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465AAC72-6AE2-4CB9-B236-6EF8116A5922}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -7912,7 +7802,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7963,14 +7853,14 @@
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="4">
-        <v>3.645833333333333E-3</v>
-      </c>
-      <c r="U2" s="5">
-        <v>3.645833333333333E-3</v>
+      <c r="T2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V2" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>98</v>
@@ -7982,10 +7872,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA2" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>50</v>
@@ -8037,7 +7927,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>148346664</v>
+        <v>336072560</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>56</v>
@@ -8080,7 +7970,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -8131,14 +8021,14 @@
       <c r="S3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="4">
-        <v>3.645833333333333E-3</v>
-      </c>
-      <c r="U3" s="5">
-        <v>3.645833333333333E-3</v>
+      <c r="T3" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V3" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>98</v>
@@ -8150,10 +8040,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA3" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>50</v>
@@ -8205,7 +8095,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>148481460</v>
+        <v>342177108</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>56</v>
@@ -8248,7 +8138,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -8299,14 +8189,14 @@
       <c r="S4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="4">
-        <v>3.645833333333333E-3</v>
-      </c>
-      <c r="U4" s="5">
-        <v>3.645833333333333E-3</v>
+      <c r="T4" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V4" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>98</v>
@@ -8318,10 +8208,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA4" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>50</v>
@@ -8373,7 +8263,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>148481460</v>
+        <v>342177108</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>56</v>
@@ -8416,7 +8306,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -8467,14 +8357,14 @@
       <c r="S5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U5" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V5" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>98</v>
@@ -8486,10 +8376,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA5" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>50</v>
@@ -8541,7 +8431,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>148346664</v>
+        <v>334167556</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>56</v>
@@ -8584,7 +8474,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8635,14 +8525,14 @@
       <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U6" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T6" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V6" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>98</v>
@@ -8654,10 +8544,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA6" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>50</v>
@@ -8709,7 +8599,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>148332188</v>
+        <v>336551396</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>56</v>
@@ -8752,7 +8642,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8803,14 +8693,14 @@
       <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U7" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T7" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V7" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>98</v>
@@ -8822,10 +8712,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA7" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>50</v>
@@ -8877,7 +8767,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>148360952</v>
+        <v>337466580</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>56</v>
@@ -8920,7 +8810,7 @@
         <v>148</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8971,14 +8861,14 @@
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T8" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V8" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>98</v>
@@ -8990,10 +8880,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA8" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>50</v>
@@ -9045,7 +8935,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>148243264</v>
+        <v>338711516</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>56</v>
@@ -9088,7 +8978,7 @@
         <v>156</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -9139,14 +9029,14 @@
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U9" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T9" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V9" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>98</v>
@@ -9158,10 +9048,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA9" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>50</v>
@@ -9213,7 +9103,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>148332188</v>
+        <v>336973080</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>56</v>
@@ -9256,7 +9146,7 @@
         <v>164</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -9307,14 +9197,14 @@
       <c r="S10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T10" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V10" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>98</v>
@@ -9326,10 +9216,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA10" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>50</v>
@@ -9381,7 +9271,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>148346664</v>
+        <v>336043608</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>56</v>
@@ -9424,7 +9314,7 @@
         <v>172</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -9475,14 +9365,14 @@
       <c r="S11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U11" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V11" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>98</v>
@@ -9494,10 +9384,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA11" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>50</v>
@@ -9549,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="6">
-        <v>148317900</v>
+        <v>335593348</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>56</v>
@@ -9592,7 +9482,7 @@
         <v>180</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -9643,14 +9533,14 @@
       <c r="S12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U12" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T12" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V12" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>98</v>
@@ -9662,10 +9552,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA12" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>50</v>
@@ -9717,7 +9607,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="6">
-        <v>148286316</v>
+        <v>341201764</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>56</v>
@@ -9760,7 +9650,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -9811,14 +9701,14 @@
       <c r="S13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T13" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U13" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T13" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V13" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>98</v>
@@ -9830,10 +9720,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA13" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>50</v>
@@ -9885,7 +9775,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="6">
-        <v>148346664</v>
+        <v>341683608</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>56</v>
@@ -9928,7 +9818,7 @@
         <v>196</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -9979,14 +9869,14 @@
       <c r="S14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T14" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U14" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T14" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V14" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>98</v>
@@ -9998,10 +9888,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA14" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>50</v>
@@ -10053,7 +9943,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="6">
-        <v>148332188</v>
+        <v>342191396</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>56</v>
@@ -10096,7 +9986,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -10147,14 +10037,14 @@
       <c r="S15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U15" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T15" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V15" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>98</v>
@@ -10166,10 +10056,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA15" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>50</v>
@@ -10221,7 +10111,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="6">
-        <v>148317900</v>
+        <v>338413160</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>56</v>
@@ -10264,7 +10154,7 @@
         <v>212</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -10315,14 +10205,14 @@
       <c r="S16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U16" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T16" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V16" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>98</v>
@@ -10334,10 +10224,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA16" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>50</v>
@@ -10389,7 +10279,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="6">
-        <v>148303612</v>
+        <v>342177108</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>56</v>
@@ -10432,7 +10322,7 @@
         <v>220</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -10483,14 +10373,14 @@
       <c r="S17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U17" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T17" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V17" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>98</v>
@@ -10502,10 +10392,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA17" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>50</v>
@@ -10557,7 +10447,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="6">
-        <v>148346664</v>
+        <v>338892372</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>56</v>
@@ -10600,7 +10490,7 @@
         <v>228</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -10651,14 +10541,14 @@
       <c r="S18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T18" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U18" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T18" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V18" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>98</v>
@@ -10670,10 +10560,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA18" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>50</v>
@@ -10725,7 +10615,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="6">
-        <v>148346664</v>
+        <v>335621924</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>56</v>
@@ -10768,7 +10658,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -10819,14 +10709,14 @@
       <c r="S19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U19" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T19" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V19" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>98</v>
@@ -10838,10 +10728,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA19" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>50</v>
@@ -10893,7 +10783,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="6">
-        <v>148421112</v>
+        <v>335097028</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>56</v>
@@ -10936,7 +10826,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -10987,14 +10877,14 @@
       <c r="S20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T20" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U20" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T20" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V20" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>98</v>
@@ -11006,10 +10896,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA20" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>50</v>
@@ -11061,7 +10951,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="6">
-        <v>148332188</v>
+        <v>340257816</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>56</v>
@@ -11104,7 +10994,7 @@
         <v>252</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -11155,14 +11045,14 @@
       <c r="S21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U21" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T21" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V21" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>98</v>
@@ -11174,10 +11064,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA21" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>50</v>
@@ -11229,7 +11119,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="6">
-        <v>148346664</v>
+        <v>342162632</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>56</v>
@@ -11272,7 +11162,7 @@
         <v>260</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -11323,14 +11213,14 @@
       <c r="S22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U22" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T22" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V22" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>98</v>
@@ -11342,10 +11232,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA22" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>50</v>
@@ -11397,7 +11287,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="6">
-        <v>148317900</v>
+        <v>341216052</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>56</v>
@@ -11440,7 +11330,7 @@
         <v>268</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -11491,14 +11381,14 @@
       <c r="S23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U23" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T23" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V23" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>98</v>
@@ -11510,10 +11400,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA23" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>50</v>
@@ -11565,7 +11455,7 @@
         <v>55</v>
       </c>
       <c r="AS23" s="6">
-        <v>148317900</v>
+        <v>336072560</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>56</v>
@@ -11608,7 +11498,7 @@
         <v>276</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -11659,14 +11549,14 @@
       <c r="S24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U24" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T24" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V24" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>98</v>
@@ -11678,10 +11568,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA24" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>50</v>
@@ -11733,7 +11623,7 @@
         <v>55</v>
       </c>
       <c r="AS24" s="6">
-        <v>148346664</v>
+        <v>340257816</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>56</v>
@@ -11776,7 +11666,7 @@
         <v>284</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -11827,14 +11717,14 @@
       <c r="S25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U25" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T25" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V25" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>98</v>
@@ -11846,10 +11736,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA25" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>50</v>
@@ -11901,7 +11791,7 @@
         <v>55</v>
       </c>
       <c r="AS25" s="6">
-        <v>148346664</v>
+        <v>335621924</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>56</v>
@@ -11944,7 +11834,7 @@
         <v>292</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -11995,14 +11885,14 @@
       <c r="S26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T26" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U26" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T26" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V26" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>98</v>
@@ -12014,10 +11904,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA26" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>50</v>
@@ -12069,7 +11959,7 @@
         <v>55</v>
       </c>
       <c r="AS26" s="6">
-        <v>148317900</v>
+        <v>338877896</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>56</v>
@@ -12112,7 +12002,7 @@
         <v>300</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -12163,14 +12053,14 @@
       <c r="S27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T27" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U27" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T27" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V27" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>98</v>
@@ -12182,10 +12072,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA27" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>50</v>
@@ -12237,7 +12127,7 @@
         <v>55</v>
       </c>
       <c r="AS27" s="6">
-        <v>148332188</v>
+        <v>335111316</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>56</v>
@@ -12276,676 +12166,244 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>310</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U28" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V28" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
-      <c r="AM28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS28" s="6">
-        <v>148332188</v>
-      </c>
-      <c r="AT28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV28" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
-      <c r="AX28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ28" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
       <c r="BA28" s="6"/>
-      <c r="BB28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF28" s="6" t="s">
-        <v>316</v>
-      </c>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>319</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T29" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U29" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V29" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS29" s="6">
-        <v>148317900</v>
-      </c>
-      <c r="AT29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV29" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
-      <c r="AX29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ29" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
       <c r="BA29" s="6"/>
-      <c r="BB29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF29" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="6"/>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>328</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U30" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V30" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
-      <c r="AM30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS30" s="6">
-        <v>148332188</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
-      <c r="AX30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ30" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
       <c r="BA30" s="6"/>
-      <c r="BB30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF30" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="6"/>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>337</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T31" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U31" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V31" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
-      <c r="AM31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS31" s="6">
-        <v>148346664</v>
-      </c>
-      <c r="AT31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV31" s="6" t="s">
-        <v>342</v>
-      </c>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
-      <c r="AX31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ31" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
-      <c r="BB31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF31" s="6" t="s">
-        <v>343</v>
-      </c>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -16679,10 +16137,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C689FB16-A472-49A1-AF78-96E3FFE12014}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16862,10 +16321,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -16886,7 +16345,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>93</v>
@@ -16902,7 +16361,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
@@ -16916,14 +16375,14 @@
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="4">
-        <v>3.645833333333333E-3</v>
-      </c>
-      <c r="U2" s="5">
-        <v>3.645833333333333E-3</v>
+      <c r="T2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V2" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>98</v>
@@ -16935,10 +16394,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA2" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>50</v>
@@ -16990,7 +16449,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>296635612</v>
+        <v>672087028</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -16999,7 +16458,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -17030,10 +16489,10 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -17054,7 +16513,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>93</v>
@@ -17070,7 +16529,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -17084,14 +16543,14 @@
       <c r="S3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="4">
-        <v>3.645833333333333E-3</v>
-      </c>
-      <c r="U3" s="5">
-        <v>3.645833333333333E-3</v>
+      <c r="T3" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V3" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>98</v>
@@ -17103,10 +16562,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA3" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>50</v>
@@ -17158,7 +16617,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>296905204</v>
+        <v>684296500</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -17167,7 +16626,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -17198,10 +16657,10 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -17222,7 +16681,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>93</v>
@@ -17238,7 +16697,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
@@ -17252,14 +16711,14 @@
       <c r="S4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="4">
-        <v>3.645833333333333E-3</v>
-      </c>
-      <c r="U4" s="5">
-        <v>3.645833333333333E-3</v>
+      <c r="T4" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V4" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>98</v>
@@ -17271,10 +16730,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA4" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>50</v>
@@ -17326,7 +16785,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>296905204</v>
+        <v>684296500</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -17335,7 +16794,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -17366,10 +16825,10 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -17390,7 +16849,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>93</v>
@@ -17406,7 +16865,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
@@ -17420,14 +16879,14 @@
       <c r="S5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U5" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V5" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>98</v>
@@ -17439,10 +16898,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA5" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>50</v>
@@ -17494,7 +16953,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>296635612</v>
+        <v>668277396</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -17503,7 +16962,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -17534,10 +16993,10 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -17558,7 +17017,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>93</v>
@@ -17574,7 +17033,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
@@ -17588,14 +17047,14 @@
       <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U6" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T6" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V6" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>98</v>
@@ -17607,10 +17066,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA6" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>50</v>
@@ -17662,7 +17121,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>296606848</v>
+        <v>673045264</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -17671,7 +17130,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17702,10 +17161,10 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -17726,7 +17185,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>93</v>
@@ -17742,7 +17201,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
@@ -17756,14 +17215,14 @@
       <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U7" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T7" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V7" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>98</v>
@@ -17775,10 +17234,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA7" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>50</v>
@@ -17830,7 +17289,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>296664188</v>
+        <v>674875444</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -17839,7 +17298,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17870,10 +17329,10 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -17894,7 +17353,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>93</v>
@@ -17910,7 +17369,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
@@ -17924,14 +17383,14 @@
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T8" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V8" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>98</v>
@@ -17943,10 +17402,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA8" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>50</v>
@@ -17998,7 +17457,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>296423360</v>
+        <v>677365504</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -18007,7 +17466,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -18038,10 +17497,10 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -18062,7 +17521,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>93</v>
@@ -18078,7 +17537,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
@@ -18092,14 +17551,14 @@
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U9" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T9" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V9" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>98</v>
@@ -18111,10 +17570,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA9" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>50</v>
@@ -18166,7 +17625,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>296606848</v>
+        <v>673882804</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -18175,7 +17634,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -18206,10 +17665,10 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -18230,7 +17689,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>93</v>
@@ -18246,7 +17705,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
@@ -18260,14 +17719,14 @@
       <c r="S10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T10" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V10" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>98</v>
@@ -18279,10 +17738,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA10" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>50</v>
@@ -18334,7 +17793,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>296635612</v>
+        <v>672023860</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -18343,7 +17802,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -18374,10 +17833,10 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -18398,7 +17857,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>93</v>
@@ -18414,7 +17873,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
@@ -18428,14 +17887,14 @@
       <c r="S11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U11" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V11" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>98</v>
@@ -18447,10 +17906,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA11" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>50</v>
@@ -18502,7 +17961,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="6">
-        <v>296578084</v>
+        <v>671123152</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -18511,7 +17970,7 @@
         <v>63</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -18542,10 +18001,10 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -18566,7 +18025,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>93</v>
@@ -18582,7 +18041,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
@@ -18596,14 +18055,14 @@
       <c r="S12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U12" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T12" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V12" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>98</v>
@@ -18615,10 +18074,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA12" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>50</v>
@@ -18670,7 +18129,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="6">
-        <v>296515104</v>
+        <v>682345624</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -18679,7 +18138,7 @@
         <v>63</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18710,10 +18169,10 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -18734,7 +18193,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>93</v>
@@ -18750,7 +18209,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
@@ -18764,14 +18223,14 @@
       <c r="S13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T13" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U13" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T13" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V13" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>98</v>
@@ -18783,10 +18242,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA13" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>50</v>
@@ -18838,7 +18297,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="6">
-        <v>296635612</v>
+        <v>683303860</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -18847,7 +18306,7 @@
         <v>63</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18878,10 +18337,10 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -18902,7 +18361,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>93</v>
@@ -18918,7 +18377,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
@@ -18932,14 +18391,14 @@
       <c r="S14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T14" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U14" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T14" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V14" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>98</v>
@@ -18951,10 +18410,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA14" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>50</v>
@@ -19006,7 +18465,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="6">
-        <v>296606848</v>
+        <v>684325076</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -19015,7 +18474,7 @@
         <v>63</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -19046,10 +18505,10 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -19070,7 +18529,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>93</v>
@@ -19086,7 +18545,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
@@ -19100,14 +18559,14 @@
       <c r="S15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U15" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T15" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V15" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>98</v>
@@ -19119,10 +18578,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA15" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>50</v>
@@ -19174,7 +18633,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="6">
-        <v>296578084</v>
+        <v>676763152</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -19183,7 +18642,7 @@
         <v>63</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -19214,10 +18673,10 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -19238,7 +18697,7 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>93</v>
@@ -19254,7 +18713,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
@@ -19268,14 +18727,14 @@
       <c r="S16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U16" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T16" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V16" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>98</v>
@@ -19287,10 +18746,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA16" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>50</v>
@@ -19342,7 +18801,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="6">
-        <v>296543680</v>
+        <v>684296500</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -19351,7 +18810,7 @@
         <v>63</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -19382,10 +18841,10 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -19406,7 +18865,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>93</v>
@@ -19422,7 +18881,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
@@ -19436,14 +18895,14 @@
       <c r="S17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U17" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T17" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V17" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>98</v>
@@ -19455,10 +18914,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA17" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>50</v>
@@ -19510,7 +18969,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="6">
-        <v>296635612</v>
+        <v>677727028</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -19519,7 +18978,7 @@
         <v>63</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -19550,10 +19009,10 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -19574,7 +19033,7 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>93</v>
@@ -19590,7 +19049,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
@@ -19604,14 +19063,14 @@
       <c r="S18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T18" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U18" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T18" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V18" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>98</v>
@@ -19623,10 +19082,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA18" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>50</v>
@@ -19678,7 +19137,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="6">
-        <v>296635612</v>
+        <v>671186320</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -19687,7 +19146,7 @@
         <v>63</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19718,10 +19177,10 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -19742,7 +19201,7 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>93</v>
@@ -19758,7 +19217,7 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
@@ -19772,14 +19231,14 @@
       <c r="S19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U19" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T19" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V19" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>98</v>
@@ -19791,10 +19250,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA19" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>50</v>
@@ -19846,7 +19305,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="6">
-        <v>296784696</v>
+        <v>670136340</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -19855,7 +19314,7 @@
         <v>63</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19886,10 +19345,10 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -19910,7 +19369,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>93</v>
@@ -19926,7 +19385,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
@@ -19940,14 +19399,14 @@
       <c r="S20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T20" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U20" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T20" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V20" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>98</v>
@@ -19959,10 +19418,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA20" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>50</v>
@@ -20014,7 +19473,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="6">
-        <v>296606848</v>
+        <v>680458104</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -20023,7 +19482,7 @@
         <v>63</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -20054,10 +19513,10 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -20078,7 +19537,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>93</v>
@@ -20094,7 +19553,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
@@ -20108,14 +19567,14 @@
       <c r="S21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U21" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T21" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V21" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>98</v>
@@ -20127,10 +19586,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA21" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>50</v>
@@ -20182,7 +19641,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="6">
-        <v>296635612</v>
+        <v>684267736</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -20191,7 +19650,7 @@
         <v>63</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -20222,10 +19681,10 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -20246,7 +19705,7 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>93</v>
@@ -20262,7 +19721,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
@@ -20276,14 +19735,14 @@
       <c r="S22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U22" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T22" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V22" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>98</v>
@@ -20295,10 +19754,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA22" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>50</v>
@@ -20350,7 +19809,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="6">
-        <v>296578084</v>
+        <v>682374388</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -20359,7 +19818,7 @@
         <v>63</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -20390,10 +19849,10 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -20414,7 +19873,7 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>93</v>
@@ -20430,7 +19889,7 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
@@ -20444,14 +19903,14 @@
       <c r="S23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U23" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T23" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V23" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>98</v>
@@ -20463,10 +19922,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA23" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>50</v>
@@ -20518,7 +19977,7 @@
         <v>55</v>
       </c>
       <c r="AS23" s="6">
-        <v>296578084</v>
+        <v>672087028</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -20527,7 +19986,7 @@
         <v>63</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -20558,10 +20017,10 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -20582,7 +20041,7 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>93</v>
@@ -20598,7 +20057,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
@@ -20612,14 +20071,14 @@
       <c r="S24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U24" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T24" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V24" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>98</v>
@@ -20631,10 +20090,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA24" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>50</v>
@@ -20686,7 +20145,7 @@
         <v>55</v>
       </c>
       <c r="AS24" s="6">
-        <v>296635612</v>
+        <v>680458104</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -20695,7 +20154,7 @@
         <v>63</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20726,10 +20185,10 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -20750,7 +20209,7 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>93</v>
@@ -20766,7 +20225,7 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
@@ -20780,14 +20239,14 @@
       <c r="S25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U25" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T25" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V25" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>98</v>
@@ -20799,10 +20258,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA25" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>50</v>
@@ -20854,7 +20313,7 @@
         <v>55</v>
       </c>
       <c r="AS25" s="6">
-        <v>296635612</v>
+        <v>671186320</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -20863,7 +20322,7 @@
         <v>63</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20894,10 +20353,10 @@
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -20918,7 +20377,7 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>93</v>
@@ -20934,7 +20393,7 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
@@ -20948,14 +20407,14 @@
       <c r="S26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T26" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U26" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T26" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V26" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>98</v>
@@ -20967,10 +20426,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA26" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>50</v>
@@ -21022,7 +20481,7 @@
         <v>55</v>
       </c>
       <c r="AS26" s="6">
-        <v>296578084</v>
+        <v>677692624</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -21031,7 +20490,7 @@
         <v>63</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -21062,10 +20521,10 @@
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -21086,7 +20545,7 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>93</v>
@@ -21102,7 +20561,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
@@ -21116,14 +20575,14 @@
       <c r="S27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T27" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U27" s="5">
-        <v>3.6458333333333299E-3</v>
+      <c r="T27" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="V27" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>98</v>
@@ -21135,10 +20594,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44013</v>
+        <v>43555</v>
       </c>
       <c r="AA27" s="3">
-        <v>45473</v>
+        <v>45016</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>50</v>
@@ -21190,7 +20649,7 @@
         <v>55</v>
       </c>
       <c r="AS27" s="6">
-        <v>296606848</v>
+        <v>670164916</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -21199,7 +20658,7 @@
         <v>63</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -21229,676 +20688,244 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>310</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U28" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V28" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
-      <c r="AM28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS28" s="6">
-        <v>296606848</v>
-      </c>
-      <c r="AT28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV28" s="6" t="s">
-        <v>451</v>
-      </c>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
-      <c r="AX28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ28" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
       <c r="BA28" s="6"/>
-      <c r="BB28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF28" s="6" t="s">
-        <v>316</v>
-      </c>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>319</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T29" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U29" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V29" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS29" s="6">
-        <v>296578084</v>
-      </c>
-      <c r="AT29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV29" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
-      <c r="AX29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ29" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
       <c r="BA29" s="6"/>
-      <c r="BB29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF29" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="6"/>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>328</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U30" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V30" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
-      <c r="AM30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS30" s="6">
-        <v>296606848</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
-      <c r="AX30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ30" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
       <c r="BA30" s="6"/>
-      <c r="BB30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF30" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="6"/>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>337</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T31" s="4">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="U31" s="5">
-        <v>3.6458333333333299E-3</v>
-      </c>
-      <c r="V31" s="6">
-        <v>2016</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>44013</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
-      <c r="AM31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS31" s="6">
-        <v>296635612</v>
-      </c>
-      <c r="AT31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV31" s="6" t="s">
-        <v>463</v>
-      </c>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
-      <c r="AX31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ31" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
-      <c r="BB31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF31" s="6" t="s">
-        <v>343</v>
-      </c>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C440FCD-018D-4748-AA8B-F4B5D46B57C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986B3C5-2DF2-4A4E-A1C0-B2DA2B59AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="193">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -260,595 +260,361 @@
     <t>EP 09</t>
   </si>
   <si>
-    <t>EP 10</t>
+    <t>EEMLSP101_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EP 11</t>
+    <t>EEML6000000000000101</t>
   </si>
   <si>
-    <t>EP 12</t>
+    <t>Serie Molang</t>
   </si>
   <si>
-    <t>EP 13</t>
+    <t>MolangT01EP01</t>
   </si>
   <si>
-    <t>EP 14</t>
+    <t>Molang T01 EP01</t>
   </si>
   <si>
-    <t>EP 15</t>
+    <t>Edye presenta: De vacaciones, Molang y Piu Piu conocen a un amigo torpe y los tres terminan en problemas.</t>
   </si>
   <si>
-    <t>EEBOGO301_SD_ADI.XML</t>
+    <t>Edye presenta: Molang y Piu Piu se van de vacaciones al sol. Conocen a un amigo divertido pero torpe. Lo ayudan tanto como pueden, pero los tres terminan metidos en problemas. Afortunadamente, el amigo tiene un don especial.</t>
   </si>
   <si>
-    <t>EEBO6000000000000301</t>
+    <t>00:07:19</t>
   </si>
   <si>
-    <t>Serie Bo en Acción</t>
+    <t>00:07</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP01</t>
+    <t>Infantil/Molang</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP01</t>
+    <t>Molang</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien está transformando todo en el castillo y tendrán que encontrarlo para detenerlo.</t>
+    <t>FR</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien en el castillo está transformando todo.Tendrán que encontrarlo si quieren detener eso y una vez que lo encuentran aparece un perro que lo mantiene muy ocupado y no necesita arreglar nada más.</t>
+    <t>Bruno Guéraçague</t>
   </si>
   <si>
-    <t>00:22:07</t>
+    <t>Millimages Canal</t>
   </si>
   <si>
-    <t>00:22</t>
+    <t>Guéraçague Bruno</t>
   </si>
   <si>
-    <t>Infantil/Bo en Acción</t>
+    <t>Villand, Marie-Caroline</t>
   </si>
   <si>
-    <t>Bo en Acción</t>
+    <t>EEMLSP101.mpg</t>
   </si>
   <si>
-    <t>CA</t>
+    <t>EEMLSP1_box.jpg</t>
   </si>
   <si>
-    <t>Catherine O’Connor, Andrew Sabiston, Jim Fowler</t>
+    <t>EEMLSP101_land.jpg</t>
   </si>
   <si>
-    <t>BoGoProd. Inc.</t>
+    <t>EEMLSP102_SD_ADI.XML</t>
   </si>
   <si>
-    <t>O’Connor Catherine, Sabiston Andrew, Fowler Jim</t>
+    <t>EEML6000000000000102</t>
   </si>
   <si>
-    <t>Dowds, Stewart</t>
+    <t>MolangT01EP02</t>
   </si>
   <si>
-    <t>EEBOGO301.mpg</t>
+    <t>Molang T01 EP02</t>
   </si>
   <si>
-    <t>EEBOGO3_box.jpg</t>
+    <t>Edye presenta: Piu Piu y Molang encuentran en el mar un naufragio... que no parece estar vacío.</t>
   </si>
   <si>
-    <t>EEBOGO301_land.jpg</t>
+    <t>Edye presenta: Mientras Molang y Piu Piu caminan por el muelle, sus amigos les advierten sobre un monstruo marino. Piu Piu no cree una palabra y se sumerge y Molang le sigue. En las profundidades descubren un naufragio... que no parece estar vacío.</t>
   </si>
   <si>
-    <t>EEBOGO302_SD_ADI.XML</t>
+    <t>EEMLSP102.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000302</t>
+    <t>EEMLSP102_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP02</t>
+    <t>EEMLSP103_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP02</t>
+    <t>EEML6000000000000103</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien no para de estornudar hasta que limpian su casa súper polvorienta.</t>
+    <t>MolangT01EP03</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien está molesto con el polvo y no puede parar de estornudar.Cuando llegan a la casa súper polvorienta asean el lugar y pronto da besos en lugar de estornudos.</t>
+    <t>Molang T01 EP03</t>
   </si>
   <si>
-    <t>EEBOGO302.mpg</t>
+    <t>Edye presenta: De camino a sus vacaciones Molang y Piu Piu encuentran a una banda de jazz que necesita ayuda.</t>
   </si>
   <si>
-    <t>EEBOGO302_land.jpg</t>
+    <t>Edye presenta: Molang y Piu Piu toman una autocaravana para ir a su lugar favorito de vacaciones... la playa. En el camino, encuentran a una banda de jazz que necesita llegar al puerto. Cuando se necesita ayuda, ¡siempre se puede contar con Molang y Piu Piu!</t>
   </si>
   <si>
-    <t>EEBOGO303_SD_ADI.XML</t>
+    <t>EEMLSP103.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000303</t>
+    <t>EEMLSP103_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP03</t>
+    <t>EEMLSP104_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP03</t>
+    <t>EEML6000000000000104</t>
   </si>
   <si>
-    <t>Edye presenta: Los amigos no estan cómodos porque les faltan todas sus zapatillas y chaquetas del castillo.</t>
+    <t>MolangT01EP04</t>
   </si>
   <si>
-    <t>Edye presenta: Los amigos no logran estar cómodos porque les faltan todas sus zapatillas y chaquetas del castillo.Los llevan con una criatura pequeña y divertida que nunca se siente lo suficientemente cómoda y acogedora.</t>
+    <t>Molang T01 EP04</t>
   </si>
   <si>
-    <t>EEBOGO303.mpg</t>
+    <t>Edye presenta: En Halloween, Molang vestido de mago y Piu Piu de calabaza se topan con un verdadero hechicero.</t>
   </si>
   <si>
-    <t>EEBOGO303_land.jpg</t>
+    <t>Edye presenta: ¡Para Halloween, Molang se disfraza de mago y Piu Piu de calabaza! Al pedir golosinas, Molang agita su varita mágica falsa y aparece un ramo de flores. Los dos amigos están de moda y reciben muchos dulces hasta que se topan con un verdadero mago.</t>
   </si>
   <si>
-    <t>EEBOGO304_SD_ADI.XML</t>
+    <t>EEMLSP104.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000304</t>
+    <t>EEMLSP104_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP04</t>
+    <t>EEMLSP105_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP04</t>
+    <t>EEML6000000000000105</t>
   </si>
   <si>
-    <t>Edye presenta: Antes de que el castillo se llene de copias nuestros amigos deben ponerse en acción.</t>
+    <t>MolangT01EP05</t>
   </si>
   <si>
-    <t>Edye presenta: Antes de que el castillo se llene de todo tipo de copias deben conseguir un caleidoscopio copiado para mantener feliz a la criatura y evitar que siga haciendo copias de todo lo que ve.</t>
+    <t>Molang T01 EP05</t>
   </si>
   <si>
-    <t>EEBOGO304.mpg</t>
+    <t>Edye presenta: En Halloween Molang y Piu Piu están decididos a reunir dulces; ni un fantasma podrá detenerlos.</t>
   </si>
   <si>
-    <t>EEBOGO304_land.jpg</t>
+    <t>Edye presenta: Es Halloween. Molang y Piu Piu llevan sus mejores disfraces, pero a nadie le quedan caramelos. A lo lejos, nuestros amigos ven un castillo y avanzan hacia él cuando les advierten sobre un fantasma, pero nada puede detenerlos en su búsqueda de dulces.</t>
   </si>
   <si>
-    <t>EEBOGO305_SD_ADI.XML</t>
+    <t>EEMLSP105.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000305</t>
+    <t>EEMLSP105_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP05</t>
+    <t>EEMLSP106_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP05</t>
+    <t>EEML6000000000000106</t>
   </si>
   <si>
-    <t>Edye presenta: Dicen que alguien debe estar equilibrando las cosas y que deben encontrarlo.</t>
+    <t>MolangT01EP06</t>
   </si>
   <si>
-    <t>Edye presenta: Dicen que alguien debe estar equilibrando las cosas.Para encontrarlo deben caminar como pingüinos y galopar como caballos para esquivar una ley de equilibrio y darle un montón de equilibrio.</t>
+    <t>Molang T01 EP06</t>
   </si>
   <si>
-    <t>EEBOGO305.mpg</t>
+    <t>Edye presenta: Molang y Piu Piu encuentran la inspiración para sus disfraces de Halloween: ¡serán momias!</t>
   </si>
   <si>
-    <t>EEBOGO305_land.jpg</t>
+    <t>Edye presenta: Mientras visitan una exposición sobre el Antiguo Egipto, Molang y Piu Piu encuentran la inspiración para sus disfraces de Halloween: ¡se disfrazarán de momias! Pero, esa noche, estalla una tormenta, cae un rayo y la famosa Momoferty ¡despierta!</t>
   </si>
   <si>
-    <t>EEBOGO306_SD_ADI.XML</t>
+    <t>EEMLSP106.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000306</t>
+    <t>EEMLSP106_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP06</t>
+    <t>EEMLSP107_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP06</t>
+    <t>EEML6000000000000107</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien ha pegado todo en el castillo y nuestros amigos ayudan a solucionar el problema.</t>
+    <t>MolangT01EP07</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien ha pegado todo en el castillo y para encontrarlo ayudan a los pandas a despegarse de los árboles y usan un tobogán para ayudarlos a moverse sin dejar nada pegajoso.</t>
+    <t>Molang T01 EP07</t>
   </si>
   <si>
-    <t>EEBOGO306.mpg</t>
+    <t>Edye presenta: Molang y Piu Piu construyen un muñeco de nieve...los animales del bosque tienen su propio plan.</t>
   </si>
   <si>
-    <t>EEBOGO306_land.jpg</t>
+    <t>Edye presenta: ¡Está nevando! Molang y Piu Piu deciden construir un muñeco de nieve con un sombrero en la cabeza, un pañuelo alrededor del cuello, una zanahoria como nariz y dos castañas confitadas como ojos! Pero los animales del bosque tienen otros planes.</t>
   </si>
   <si>
-    <t>EEBOGO307_SD_ADI.XML</t>
+    <t>EEMLSP107.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000307</t>
+    <t>EEMLSP107_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP07</t>
+    <t>EEMLSP108_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP07</t>
+    <t>EEML6000000000000108</t>
   </si>
   <si>
-    <t>Edye presenta: El castillo está temblando y deben averiguar quién lo está causando.</t>
+    <t>MolangT01EP08</t>
   </si>
   <si>
-    <t>Edye presenta: El castillo está temblando y deben averiguar quién lo está causando.Una vez que lo encuentran le dan unas zapatillas para hacer que sus pesados pies sean más ligeros y deja de causar los temblores.</t>
+    <t>Molang T01 EP08</t>
   </si>
   <si>
-    <t>EEBOGO307.mpg</t>
+    <t>Edye presenta: Al buscar un árbol de Navidad, Molang y Piu Piu liberan al reno de Santa de su corral mágico.</t>
   </si>
   <si>
-    <t>EEBOGO307_land.jpg</t>
+    <t>Edye presenta: Molang y Piu Piu van a buscar un árbol de Navidad. Cuando lo encuentran es tan pesado que no pueden moverlo. Al tratar de atrapar a dos renos para jalar el árbol, ¡liberan al reno de Papá Noel de su corral mágico! ¿Cómo repartirá Santa los regalos?</t>
   </si>
   <si>
-    <t>EEBOGO308_SD_ADI.XML</t>
+    <t>EEMLSP108.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000308</t>
+    <t>EEMLSP108_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP08</t>
+    <t>EEMLSP109_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP08</t>
+    <t>EEML6000000000000109</t>
   </si>
   <si>
-    <t>Edye presenta: Las joyas han desaparecido y deben encontrar a la sirena que se las ha llevado.</t>
+    <t>MolangT01EP09</t>
   </si>
   <si>
-    <t>Edye presenta: Todas las joyas han desaparecido y dicen que para recuperarlas deben encontrar a la sirena a quien le encanta brillar.Cuando la encuentran usan una ostra mágica para hacer joyas y evitar que las siga robando.</t>
+    <t>Molang T01 EP09</t>
   </si>
   <si>
-    <t>EEBOGO308.mpg</t>
+    <t>Edye presenta: Mientras patina en el hielo, Piu Piu queda inconsciente y los duendes del bosque lo ayudan.</t>
   </si>
   <si>
-    <t>EEBOGO308_land.jpg</t>
+    <t>Edye presenta: Mientras patina sobre hielo, Molang invita a bailar a Piu Piu. Girar es muy divertido, pero Molang pierde el control y ¡Piu Piu sale volando! Al caer, queda inconsciente en el bosque, hasta que unos duendes lo recogen y lo llevan a su casa.</t>
   </si>
   <si>
-    <t>EEBOGO309_SD_ADI.XML</t>
+    <t>EEMLSP109.mpg</t>
   </si>
   <si>
-    <t>EEBO6000000000000309</t>
+    <t>EEMLSP109_land.jpg</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP09</t>
+    <t>EEMLSP101_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP09</t>
+    <t>EEML7000000000000101</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien rompe los juguetes y deben darle algo que nunca podrá romper.</t>
+    <t>Molang T01 EP01 HD</t>
   </si>
   <si>
-    <t>Edye presenta: Se están rompiendo los juguetes en el castillo.Deben encontrarlo y darle algo que nunca podrá romper.</t>
+    <t>EEMLSP101.ts</t>
   </si>
   <si>
-    <t>EEBOGO309.mpg</t>
+    <t>EEMLSP102_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEBOGO309_land.jpg</t>
+    <t>EEML7000000000000102</t>
   </si>
   <si>
-    <t>EEBOGO310_SD_ADI.XML</t>
+    <t>Molang T01 EP02 HD</t>
   </si>
   <si>
-    <t>EEBO6000000000000310</t>
+    <t>EEMLSP102.ts</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP10</t>
+    <t>EEMLSP103_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP10</t>
+    <t>EEML7000000000000103</t>
   </si>
   <si>
-    <t>Edye presenta: Se está rompiendo todo en pedazos.Hay que regalarle un castor que arma de todo.</t>
+    <t>Molang T01 EP03 HD</t>
   </si>
   <si>
-    <t>Edye presenta: Todo en el castillo está roto en pedazos y dicen que hay un culpable a quien le encanta ver cómo se arman las cosas.Hay que encontrarlo y regalarle un castor que construye de todo y cualquier cosa que se desarma la vuelve a armar.</t>
+    <t>EEMLSP103.ts</t>
   </si>
   <si>
-    <t>EEBOGO310.mpg</t>
+    <t>EEMLSP104_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEBOGO310_land.jpg</t>
+    <t>EEML7000000000000104</t>
   </si>
   <si>
-    <t>EEBOGO311_SD_ADI.XML</t>
+    <t>Molang T01 EP04 HD</t>
   </si>
   <si>
-    <t>EEBO6000000000000311</t>
+    <t>EEMLSP104.ts</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP11</t>
+    <t>EEMLSP105_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP11</t>
+    <t>EEML7000000000000105</t>
   </si>
   <si>
-    <t>Edye presenta: Dicen que hay alguien que deja las cosas prendidas y un conejo lo ayudará.</t>
+    <t>Molang T01 EP05 HD</t>
   </si>
   <si>
-    <t>Edye presenta: ¿Quién está dejando las cosas prendidas en el castillo? Dicen que debe ser alguien muy olvidadizo pero un conejo lo ayuda a apagar las cosas.</t>
+    <t>EEMLSP105.ts</t>
   </si>
   <si>
-    <t>EEBOGO311.mpg</t>
+    <t>EEMLSP106_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEBOGO311_land.jpg</t>
+    <t>EEML7000000000000106</t>
   </si>
   <si>
-    <t>EEBOGO312_SD_ADI.XML</t>
+    <t>Molang T01 EP06 HD</t>
   </si>
   <si>
-    <t>EEBO6000000000000312</t>
+    <t>EEMLSP106.ts</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP12</t>
+    <t>EEMLSP107_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP12</t>
+    <t>EEML7000000000000107</t>
   </si>
   <si>
-    <t>Edye presenta: Todo flota porque alguien quiere que las cosas jueguen en el aire como en su casa.</t>
+    <t>Molang T01 EP07 HD</t>
   </si>
   <si>
-    <t>Edye presenta: Todo está flotando en el aire porque alguien quiere que las cosas jueguen en el aire donde ella vive.Para encontrarla lanzan un ancla que la hace volver a la tierra y así no hace flotar nada más.</t>
+    <t>EEMLSP107.ts</t>
   </si>
   <si>
-    <t>EEBOGO312.mpg</t>
+    <t>EEMLSP108_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEBOGO312_land.jpg</t>
+    <t>EEML7000000000000108</t>
   </si>
   <si>
-    <t>EEBOGO313_SD_ADI.XML</t>
+    <t>Molang T01 EP08 HD</t>
   </si>
   <si>
-    <t>EEBO6000000000000313</t>
+    <t>EEMLSP108.ts</t>
   </si>
   <si>
-    <t>Bo en AcciónT03EP13</t>
+    <t>EEMLSP109_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Bo en Acción T03 EP13</t>
+    <t>EEML7000000000000109</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien hace algo para que todo sea seguro en el castillo.</t>
+    <t>Molang T01 EP09 HD</t>
   </si>
   <si>
-    <t>Edye presenta: Alguien hace algo para que todo sea seguro en el castillo y es tan cuidadoso y sensible que teme que todo lo lastime.Por suerte algunos protectores de fútbol hacen que todo lo demás sea seguro.</t>
-  </si>
-  <si>
-    <t>EEBOGO313.mpg</t>
-  </si>
-  <si>
-    <t>EEBOGO313_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBOGO314_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO6000000000000314</t>
-  </si>
-  <si>
-    <t>Bo en AcciónT03EP14</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: El coleccionista de disfraces sacó los disfraces del baúl porque le encanta jugar con ellos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El coleccionista de disfraces sacó todos los disfraces del baúl porque le encanta jugar con ellos.En un lugar mágico lleno de disfraces, encuentran al coleccionista y le regalan un baúl para hacer disfraces y así nunca se quedará sin ropa.</t>
-  </si>
-  <si>
-    <t>EEBOGO314.mpg</t>
-  </si>
-  <si>
-    <t>EEBOGO314_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBOGO315_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO6000000000000315</t>
-  </si>
-  <si>
-    <t>Bo en AcciónT03EP15</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las cosas se achicaron y tendrán que encontrar a quien lo hace antes de que se achique todo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las cosas favoritas de los amigos se achicaron y tendrán que encontrar a quien lo hace antes de que se achiquen más cosas.Los encuentran y les dan un par de zapatos altos para que se sientan más grandes y no achiquen más las cosas.</t>
-  </si>
-  <si>
-    <t>EEBOGO315.mpg</t>
-  </si>
-  <si>
-    <t>EEBOGO315_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBOGO301_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000301</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO301.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO302_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000302</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO302.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO303_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000303</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO303.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO304_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000304</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO304.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO305_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000305</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO305.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO306_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000306</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO306.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO307_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000307</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO307.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO308_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000308</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO308.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO309_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000309</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO309.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO310_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000310</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO310.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO311_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000311</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO311.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO312_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000312</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO312.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO313_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000313</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO313.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO314_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000314</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO314.ts</t>
-  </si>
-  <si>
-    <t>EEBOGO315_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO7000000000000315</t>
-  </si>
-  <si>
-    <t>Bo en Acción T03 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEBOGO315.ts</t>
+    <t>EEMLSP109.ts</t>
   </si>
 </sst>
 </file>
@@ -7331,10 +7097,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7355,13 +7121,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7371,31 +7137,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V2" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>49</v>
@@ -7404,10 +7170,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>50</v>
@@ -7416,28 +7182,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -7459,7 +7225,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>621777664</v>
+        <v>206938180</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>56</v>
@@ -7468,7 +7234,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -7478,7 +7244,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -7494,15 +7260,15 @@
         <v>61</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7523,13 +7289,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -7539,31 +7305,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V3" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>49</v>
@@ -7572,10 +7338,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>50</v>
@@ -7584,28 +7350,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -7627,7 +7393,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>621777664</v>
+        <v>206892120</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>56</v>
@@ -7636,7 +7402,7 @@
         <v>57</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -7646,7 +7412,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -7662,15 +7428,15 @@
         <v>61</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -7691,13 +7457,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -7707,31 +7473,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V4" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>49</v>
@@ -7740,10 +7506,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>50</v>
@@ -7752,28 +7518,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -7795,7 +7561,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>622391484</v>
+        <v>206892120</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>56</v>
@@ -7804,7 +7570,7 @@
         <v>57</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -7814,7 +7580,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -7830,15 +7596,15 @@
         <v>61</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -7859,13 +7625,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -7875,31 +7641,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V5" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>49</v>
@@ -7908,10 +7674,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>50</v>
@@ -7920,28 +7686,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -7963,7 +7729,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>621777664</v>
+        <v>206892120</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>56</v>
@@ -7972,7 +7738,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -7982,7 +7748,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -7998,15 +7764,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8027,13 +7793,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8043,31 +7809,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V6" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>49</v>
@@ -8076,10 +7842,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>50</v>
@@ -8088,28 +7854,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -8131,7 +7897,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>621777664</v>
+        <v>206892120</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>56</v>
@@ -8140,7 +7906,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8150,7 +7916,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -8166,15 +7932,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8195,13 +7961,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8211,31 +7977,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V7" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>49</v>
@@ -8244,10 +8010,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>50</v>
@@ -8256,28 +8022,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -8299,7 +8065,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>615087684</v>
+        <v>206892120</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>56</v>
@@ -8308,7 +8074,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8318,7 +8084,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -8334,15 +8100,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8363,13 +8129,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8379,31 +8145,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V8" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>49</v>
@@ -8412,10 +8178,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>50</v>
@@ -8424,28 +8190,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -8467,7 +8233,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>621791952</v>
+        <v>206892120</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>56</v>
@@ -8476,7 +8242,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8486,7 +8252,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -8502,15 +8268,15 @@
         <v>61</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8531,13 +8297,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8547,31 +8313,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V9" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>49</v>
@@ -8580,10 +8346,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>50</v>
@@ -8592,28 +8358,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -8635,7 +8401,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>621777664</v>
+        <v>206892120</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>56</v>
@@ -8644,7 +8410,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -8654,7 +8420,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -8670,15 +8436,15 @@
         <v>61</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -8699,13 +8465,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -8715,31 +8481,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V10" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>49</v>
@@ -8748,10 +8514,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>50</v>
@@ -8760,28 +8526,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -8803,7 +8569,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>621746080</v>
+        <v>206892120</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>56</v>
@@ -8812,7 +8578,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -8822,7 +8588,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -8838,1016 +8604,368 @@
         <v>61</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
-      <c r="AM11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="6">
-        <v>621777664</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV11" s="6" t="s">
-        <v>169</v>
-      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ11" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
       <c r="BA11" s="6"/>
-      <c r="BB11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF11" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>621777664</v>
-      </c>
-      <c r="AT12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV12" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ12" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
-      <c r="BB12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF12" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V13" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS13" s="6">
-        <v>621777664</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>185</v>
-      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
-      <c r="BB13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>621777664</v>
-      </c>
-      <c r="AT14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV14" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF14" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V15" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS15" s="6">
-        <v>621777664</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF15" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>621777664</v>
-      </c>
-      <c r="AT16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV16" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ16" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF16" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -14665,10 +13783,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -14689,13 +13807,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -14705,31 +13823,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V2" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>49</v>
@@ -14738,10 +13856,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>50</v>
@@ -14750,28 +13868,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -14793,7 +13911,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>1243497612</v>
+        <v>413812816</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -14802,7 +13920,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -14812,7 +13930,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -14828,15 +13946,15 @@
         <v>61</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -14857,13 +13975,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -14873,31 +13991,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V3" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>49</v>
@@ -14906,10 +14024,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>50</v>
@@ -14918,28 +14036,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -14961,7 +14079,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>1243497612</v>
+        <v>413726712</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -14970,7 +14088,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -14980,7 +14098,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -14996,15 +14114,15 @@
         <v>61</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -15025,13 +14143,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -15041,31 +14159,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V4" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>49</v>
@@ -15074,10 +14192,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>50</v>
@@ -15086,28 +14204,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -15129,7 +14247,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>1244725440</v>
+        <v>413726712</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -15138,7 +14256,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -15148,7 +14266,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -15164,15 +14282,15 @@
         <v>61</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -15193,13 +14311,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -15209,31 +14327,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V5" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>49</v>
@@ -15242,10 +14360,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>50</v>
@@ -15254,28 +14372,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -15297,7 +14415,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>1243497612</v>
+        <v>413726712</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -15306,7 +14424,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -15316,7 +14434,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -15332,15 +14450,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -15361,13 +14479,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -15377,31 +14495,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V6" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>49</v>
@@ -15410,10 +14528,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>50</v>
@@ -15422,28 +14540,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -15465,7 +14583,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>1243497612</v>
+        <v>413726712</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -15474,7 +14592,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -15484,7 +14602,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -15500,15 +14618,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -15529,13 +14647,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -15545,31 +14663,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V7" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>49</v>
@@ -15578,10 +14696,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>50</v>
@@ -15590,28 +14708,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -15633,7 +14751,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>1230117652</v>
+        <v>413726712</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -15642,7 +14760,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -15652,7 +14770,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -15668,15 +14786,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -15697,13 +14815,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -15713,31 +14831,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V8" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>49</v>
@@ -15746,10 +14864,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>50</v>
@@ -15758,28 +14876,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -15801,7 +14919,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>1243526376</v>
+        <v>413726712</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -15810,7 +14928,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -15820,7 +14938,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -15836,15 +14954,15 @@
         <v>61</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -15865,13 +14983,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -15881,31 +14999,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V9" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>49</v>
@@ -15914,10 +15032,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>50</v>
@@ -15926,28 +15044,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -15969,7 +15087,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>1243497612</v>
+        <v>413726712</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -15978,7 +15096,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -15988,7 +15106,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -16004,15 +15122,15 @@
         <v>61</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -16033,13 +15151,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -16049,31 +15167,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V10" s="6">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>49</v>
@@ -16082,10 +15200,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43742</v>
+        <v>44348</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>50</v>
@@ -16094,28 +15212,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -16137,7 +15255,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>1243434444</v>
+        <v>413726712</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -16146,7 +15264,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -16156,7 +15274,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -16172,1016 +15290,368 @@
         <v>61</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
-      <c r="AM11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="6">
-        <v>1243497612</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV11" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ11" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
       <c r="BA11" s="6"/>
-      <c r="BB11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF11" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>1243497612</v>
-      </c>
-      <c r="AT12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV12" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ12" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
-      <c r="BB12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF12" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V13" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS13" s="6">
-        <v>1243497612</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
-      <c r="BB13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>1243497612</v>
-      </c>
-      <c r="AT14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV14" s="6" t="s">
-        <v>262</v>
-      </c>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF14" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V15" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS15" s="6">
-        <v>1243497612</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF15" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44625</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2011</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>1243497612</v>
-      </c>
-      <c r="AT16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV16" s="6" t="s">
-        <v>270</v>
-      </c>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ16" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF16" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C71CEA-0B82-4150-9FEF-1254A909A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1C68B2-329B-496A-84B2-BF02BDD641FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
   <sheets>
     <sheet name="SD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="419">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,979 +311,988 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EEWABK101_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000101</t>
-  </si>
-  <si>
-    <t>Serie Las Aventuras de Blinky Bill</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP01</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko van a salvar a los habitantes de Greenpatch con lo único que puede calmar la sed</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Greenpatch está agobiado por un día muy caluroso! Cuando Cranky se aprovecha de los confundidos Greenpatchians, Blinky y su mejor amigo Jacko se embarcan en un viaje para salvarlos con la única cosa que puede calmar la sed en un día caluroso.</t>
-  </si>
-  <si>
-    <t>00:12:04</t>
-  </si>
-  <si>
     <t>00:12</t>
   </si>
   <si>
-    <t>Infantil/Las Aventuras de Blinky Bill</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Cameron Ralph, Akmal Saleh, Peter McAllum, Ash Ricardo</t>
-  </si>
-  <si>
-    <t>Bark Prod. Giant A.</t>
-  </si>
-  <si>
-    <t>Collins Andrew</t>
-  </si>
-  <si>
-    <t>Sthephen, Barbara</t>
-  </si>
-  <si>
-    <t>EEWABK101.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK101_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK102_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000102</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP02</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: La ciudad está en peligro y depende de Blinky y Jacko enfrentar la amenaza… a ¡BUNYIP!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hay un susurro en los arbustos, se han escuchado ruidos extraños por la noche y se están robando miel por todo Greenpatch. Esto sólo puede significar una cosa ¡BUNYIP! La ciudad está en peligro y depende de Blinky y Jacko enfrentar la amenaza.</t>
-  </si>
-  <si>
-    <t>00:12:06</t>
-  </si>
-  <si>
-    <t>EEWABK102.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK102_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK103_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000103</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP03</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es el cumpleaños de Spike, pero Blinky y Jacko deben salvarlo de Cranky, el gruñón de la aldea.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Cranky arruina la fiesta de cumpleaños de Spike, haciendo estallar todos sus globos, Blinky y Jacko deciden ayudar a Crancky a resolver su problema con las fiestas. ¡Odia los globos porque arruinaron su oportunidad de trabajar como payaso!</t>
-  </si>
-  <si>
-    <t>EEWABK103.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK103_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK104_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000104</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP04</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es la temporada de urracas y Greenpatch está bajo la amenaza de una parvada de pájaros.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es la temporada de urracas y Greenpatch está bajo la amenaza constante de una parvada de pájaros impredesibles que se han instalado sobre la casa de Cranky. Sólo hay una forma de detener a las bestias voladoras.</t>
-  </si>
-  <si>
-    <t>EEWABK104.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK104_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK105_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000105</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP05</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko usan su máquina del tiempo para proteger a los habitantes de Greenpatch.</t>
-  </si>
-  <si>
-    <t>Edye presenta: La noticia de que un cocodrilo peligroso que se dirige a Greenpatch se propaga como un incendio forestal, Blinky y Jacko deciden actuar, ¡retrocediendo en el tiempo para advertir a los aldeanos antes de que el cocodrilo pueda acercarse!</t>
-  </si>
-  <si>
-    <t>EEWABK105.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK105_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK106_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000106</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP06</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pablo va a tener su primera cita y Blinky y Jacko deben ayudarlo a prepararse para el evento.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko visitan a Pablo quien tiene una cita con la chica de sus sueños. Sólo hay un problema; ¡nunca ha tenido una cita antes! Blinky y Jacko deben convertir al loro desplumado en un galán si pueden mantenerlo con vida para el encuentro.</t>
-  </si>
-  <si>
-    <t>EEWABK106.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK106_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK107_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000107</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP07</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky se ofrece para investigar la caída de un meteorito y descubre más de lo que esperaba.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un meteorito golpea la tierra cerca de Greenpatch y la gente del pueblo pronto se sumerge en una paranoia obsesionada por extraterrestres. Blinky se ofrece valientemente para investigar el lugar del accidente y descubre más de lo que esperaba.</t>
-  </si>
-  <si>
-    <t>00:12:03</t>
-  </si>
-  <si>
-    <t>EEWABK107.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK107_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK108_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000108</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP08</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky se da cuenta de que la bola parlante que llegó a Greenpatch es un problema que debe resolver.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una misteriosa bola parlante aterriza en Greenpatch. La gente del pueblo está encantada con sus sabias palabras, especialmente Jacko. Blinky pronto se da cuenta de que la pelota es un problema y promete hacer lo que sea necesario para destruirla.</t>
-  </si>
-  <si>
-    <t>EEWABK108.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK108_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK109_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000109</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP09</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando un Wombo enfermo dice que ha perdido sus canicas, Blinky y Jacko deciden ir a buscarlas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando un Wombo enfermo dice que ha perdido sus canicas, Blinky y Jacko se embarcan en un viaje a través de las catacumbas de su madriguera para recuperarlas. Pero los giros y vueltas de los túneles son mucho más peligrosos de lo que imaginaron.</t>
-  </si>
-  <si>
-    <t>EEWABK109.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK109_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK110_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000110</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP10</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko se topan con una muñeca perdida y la adoptan temporalmente, pero no es fácil.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko se topan con una muñeca perdida que confunden con un bebé humano y se convierten en padres sustitutos mientras intentan devolverla a su familia. Pero la paternidad no es fácil y se necesitarán más que abrazos para manejar este asunto.</t>
-  </si>
-  <si>
-    <t>00:12:05</t>
-  </si>
-  <si>
-    <t>EEWABK110.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK110_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000111</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP11</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cranky nombra a Jacko como el nuevo alguacil de la aldea para tratar de ganar un concurso.</t>
-  </si>
-  <si>
-    <t>Edye presenta: A medida que se acerca la batalla anual de poesía y en un intento de distraer a Jacko, el campeón invicto de la competencia, Cranky lo nombra el nuevo alguacil de la aldea para tratar de sacer ventaja y ganar el concurso.</t>
-  </si>
-  <si>
-    <t>EEWABK111.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000112</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP12</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko llegan a un acuerdo con el Diablo de los gatos para tenerlo alejado de la aldea.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sir Claude ha usado 8 de sus 9 vidas y quien fuera un fiero felino, queda reducido a un gatito temeroso. Blinky y Jacko acuerdan ayudarlo a recuperar sus vidas, llegando a un acuerdo a con el Diablo de los gatos.</t>
-  </si>
-  <si>
-    <t>EEWABK112.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000113</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP13</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Unos humanos se han llevado a Jacko! Pero Blinky y sus amigos lanzan una operación de rescate.</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Unos humanos que quieren manener a Jacko como máscota lo hacen dormir! Blinky necesita lanzar una atrevida operación de rescate que requiere un equipo de especialistas invencibles con la habilidad de salvar al lagarto en una batalla contra el reloj.</t>
-  </si>
-  <si>
-    <t>EEWABK113.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000114</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP14</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko intentan animar la caminata de Supervivencia pero las cosas se salen de control.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es hora de la caminata anual de la clase de Supervivencia de la Naturaleza, pero lo que supone un peligro para la Sra. Tibbins es tan emocionante como ver la pintura seca. Blinky y Jacko idean un plan para animar el día, pero las cosas se salen de control.</t>
-  </si>
-  <si>
-    <t>EEWABK114.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000115</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP15</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una caja mágica transporta a Blinky y Jacko a un lugar imaginario llamado el mundo del boxeo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una caja mágica transporta a Blinky y Jacko a al mundo del boxeo. Pero rápidamente descubren que el misterioso lugar está gobernado por un tipo medio loco, cuya imaginación podría rivalizar con la de Blinky.</t>
-  </si>
-  <si>
-    <t>EEWABK115.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000116</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP16</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko ayudan a Robert a buscar sus gafas y llegan hasta el misterioso “Punto del eco”.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky and Jacko embark on a treasure hunt to help Robert find his lost glasses. But their adventure takes an unusual turn when the hunt takes them to the strange mystery behind Echo Point.</t>
-  </si>
-  <si>
-    <t>EEWABK116.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000117</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP17</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky lanza un plan evitar morir de aburrimiento durante la conferencia anual de Cranky.</t>
-  </si>
-  <si>
-    <t>EEWABK117.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000118</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP18</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cranky, decreta que sólo él puede jugar el juego que inventó Blinky ¿Se saldrá con la suya?</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Blinky inventa un juego increíble! Fiel a su forma de ser, el alcalde Cranky prohibe el juego y se declara el único ciudadano de Greenpatch que tiene permitido jugar. Indignados, Blinky y Jacko se embarcan en una misión para recuperar su juego.</t>
-  </si>
-  <si>
-    <t>EEWABK118.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000119</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP19</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blicky lleva a Jacko con la hechicera sapo para que lo cure del miedo irracional que siente.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Jacko se ha despertado muy alterado, ¡cualquier cosa lo vuelve loco! Blinky se da cuenta de que sólo hay una cosa que puede solucionar su problema: una cura irracional. Juntos visitan a la hechicera sapo quien cura a Jacko ... demasiado bien.</t>
-  </si>
-  <si>
-    <t>EEWABK119.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000120</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP20</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una sequía golpea Greenpatch y Blinky tendrá que ir a buscar nubes para salvar la aldea.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando una sequía golpea greenpatch y la comida escasea, Blinky calcula que si las lluvias no llegan, ¡tendrán que ir a buscarlas! El equipo se embarca en una misión para encontrar una nube antes de verse obligados a abandonar Greenpatch para siempre</t>
-  </si>
-  <si>
-    <t>EEWABK120.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000121</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP21</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una melodía se vuelve viral y contamina a Greenpatch ¡Todos tienen la canción en sus cabezas!</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Una melodía pegadiza se vuelve viral y contamina a Greenpatch! ¡Pronto todos tienen la canción en sus cabezas y nadie puede concentrarse en nada más! Blinky y Jacko rastrean al paciente cero en un esfuerzo por encontrar la cura.</t>
-  </si>
-  <si>
-    <t>EEWABK121.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000122</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP22</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Blinky y Jacko caen por un arcoiris y llegan para ayudar a una agitada princesa rana que está buscando a su príncipe verde.</t>
-  </si>
-  <si>
-    <t>EEWABK122.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000123</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP23</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Llegó el concurso anual de pasteles de Greenpatch, pero una infame banda se los roba todos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Llegó el concurso anual de pasteles de Greenpatch, una banda de infames ladrones roba pasteles sorprende a su guardiana, Marcia, llevando a cabo un tortuoso atraco encabezado por la Reina Pirata.</t>
-  </si>
-  <si>
-    <t>EEWABK123.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000124</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP24</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: En un intento por alinear al alcalde Cranky, Blinky le escribe a la única persona que puede regañarlo su madre</t>
-  </si>
-  <si>
-    <t>Edye presenta: En un intento por alinear al alcalde Cranky Blinky le escribe a la única persona que puede regañarlo su madre. Poco se dio cuenta de la fuerza imparable de limpieza que estaba desatando en la ciudad Blinky y Jacko tendrán que unir fuerzas con Cranky para poner fin a su ordenación tiránica</t>
-  </si>
-  <si>
-    <t>EEWABK124.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000125</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP25</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wombo está en peligro de perder su casa si no limpia el tiradero que tiene en su patio.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El alcalde Cranky está harto del sucio aspecto que tiene el patio de Wombo, un verdadero tiradero de basura. Por lo que, emite un aviso de limpieza o desalojo, dejando a Wombo destrozado.</t>
-  </si>
-  <si>
-    <t>EEWABK125.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA6000000000000126</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky BillT01EP26</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cranky toma la brújula del padre de Blinky como pagode un nuevo impuesto y Blinky enfurece.</t>
-  </si>
-  <si>
-    <t>EEWABK126.mpg</t>
-  </si>
-  <si>
-    <t>EEWABK126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWABK101_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000101</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEWABK101.ts</t>
-  </si>
-  <si>
-    <t>EEWABK102_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000102</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEWABK102.ts</t>
-  </si>
-  <si>
-    <t>EEWABK103_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000103</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEWABK103.ts</t>
-  </si>
-  <si>
-    <t>EEWABK104_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000104</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEWABK104.ts</t>
-  </si>
-  <si>
-    <t>EEWABK105_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000105</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEWABK105.ts</t>
-  </si>
-  <si>
-    <t>EEWABK106_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000106</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEWABK106.ts</t>
-  </si>
-  <si>
-    <t>EEWABK107_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000107</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEWABK107.ts</t>
-  </si>
-  <si>
-    <t>EEWABK108_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000108</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEWABK108.ts</t>
-  </si>
-  <si>
-    <t>EEWABK109_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000109</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEWABK109.ts</t>
-  </si>
-  <si>
-    <t>EEWABK110_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000110</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEWABK110.ts</t>
-  </si>
-  <si>
-    <t>EEWABK111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000111</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEWABK111.ts</t>
-  </si>
-  <si>
-    <t>EEWABK112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000112</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEWABK112.ts</t>
-  </si>
-  <si>
-    <t>EEWABK113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000113</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEWABK113.ts</t>
-  </si>
-  <si>
-    <t>EEWABK114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000114</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEWABK114.ts</t>
-  </si>
-  <si>
-    <t>EEWABK115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000115</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEWABK115.ts</t>
-  </si>
-  <si>
-    <t>EEWABK116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000116</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEWABK116.ts</t>
-  </si>
-  <si>
-    <t>EEWABK117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000117</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEWABK117.ts</t>
-  </si>
-  <si>
-    <t>EEWABK118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000118</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEWABK118.ts</t>
-  </si>
-  <si>
-    <t>EEWABK119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000119</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEWABK119.ts</t>
-  </si>
-  <si>
-    <t>EEWABK120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000120</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEWABK120.ts</t>
-  </si>
-  <si>
-    <t>EEWABK121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000121</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEWABK121.ts</t>
-  </si>
-  <si>
-    <t>EEWABK122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000122</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEWABK122.ts</t>
-  </si>
-  <si>
-    <t>EEWABK123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000123</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEWABK123.ts</t>
-  </si>
-  <si>
-    <t>EEWABK124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000124</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEWABK124.ts</t>
-  </si>
-  <si>
-    <t>EEWABK125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000125</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEWABK125.ts</t>
-  </si>
-  <si>
-    <t>EEWABK126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWA7000000000000126</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Blinky Bill T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEWABK126.ts</t>
-  </si>
-  <si>
-    <t>Edye presenta: La amenaza de “aburrirse hasta morir” hace que los niños de Greenpatch entren en pánico pues ya se acerca la conferencia del alcalde Cranky. Cuando el plan de 'mente sobre la materia' de Blinky falla, encuentra otra forma para evitar el aburrimiento.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cranky ha instituido un nuevo feriado, el 'Día de Cranky', lo que significa que necesitarán un nuevo impuesto para pagarlo. Cuando toma la brújula del padre de Blinky como pago, Blinky enfurece.</t>
+    <t>EEVICV2601_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002601</t>
+  </si>
+  <si>
+    <t>Serie Vicky, el vikingo</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP01</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: El que alcance el punto más alto del Drakkar acompañará a los vikingos a la expedición anual.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Quienquiera que pueda alcanzar el punto más alto en el Drakkar, acompañará a los vikingos en la expedición de este año. Con sus flacos brazos, Vic no tiene oportunidad, a menos que interprete libremente las reglas.</t>
+  </si>
+  <si>
+    <t>00:11:51</t>
+  </si>
+  <si>
+    <t>Infantil/Vicky, el vikingo</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Lionel Tua, Peter Callan, Paul Davies</t>
+  </si>
+  <si>
+    <t>A5E Studio</t>
+  </si>
+  <si>
+    <t>Tua Lionel, Callan Peter, Davies Paul</t>
+  </si>
+  <si>
+    <t>Cazes, Eric</t>
+  </si>
+  <si>
+    <t>EEVICV2601.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV26_box.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2601_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2602_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002602</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP02</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Drakkar encalla en un arrecife y los piratas roban su carga pero Vic recupera los bienes.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Drakkar encalla en un arrecife en la niebla y cuando piden ayuda, llaman la atención y les roban su carga.Vic logra recuperar los bienes haciendo que parezca que los piratas han sido maldecidos usando palos de bambú rellenos de pólvora.</t>
+  </si>
+  <si>
+    <t>00:11:50</t>
+  </si>
+  <si>
+    <t>EEVICV2602.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2602_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2603_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002603</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP03</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic ahuyenta a los recaudadores de impuestos proyectando sombras de monstruos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Para ahuyentar a los recaudadores de impuestos Vic inventa una linterna mágica con la cual proyecta monstruos en la entrada de una cueva asustando a los recaudadores de impuestos.</t>
+  </si>
+  <si>
+    <t>EEVICV2603.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2603_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2604_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002604</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP04</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los hombres y el Drakkar son secuestrados y Vic logra liberarlos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los hombres y el Drakkar son secuestrados y Vic logra liberarlos mientras distrae al enemigo simulando un barco con ruedas. Los prisioneros aprovechan la oportunidad para atacar y Vic les ayuda a encarcelar a sus secuestradores.</t>
+  </si>
+  <si>
+    <t>00:11:49</t>
+  </si>
+  <si>
+    <t>EEVICV2604.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2604_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2605_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002605</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP05</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos creen que han encontrado un tesoro fabuloso pero solo Vic entiende su valor.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los hombres del Drakkar creen que han encontrado un tesoro fabuloso y los piratas piensan lo mismo.Pero solo Vic entiende el valor magnético de las piedras del meteorito.</t>
+  </si>
+  <si>
+    <t>00:11:46</t>
+  </si>
+  <si>
+    <t>EEVICV2605.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2605_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2606_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002606</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP06</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los piratas intentan robarles las riquezas a nuestros vikingos pero Vic los asusta.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un viejo náufrago marinero y sus piratas utilizan la perspectiva de un fabuloso tesoro para atraer a los marineros y robarles sus riquezas.Nuestros vikingos caen en la trampa, pero Vic utiliza sus talentos de titiritero para asustar a los bandidos.</t>
+  </si>
+  <si>
+    <t>EEVICV2606.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2606_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2607_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002607</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP07</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Llegan unos mensajes de una damisela en apuros pero son trucos de los piratas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una serie de mensajes enviados por una damisela en apuros llega en botellas de madera flotante ofreciendo una recompensa a quien la rescate pero todo resulta ser un truco de los piratas para robsarle el botin a nuestros vikingos.</t>
+  </si>
+  <si>
+    <t>00:11:47</t>
+  </si>
+  <si>
+    <t>EEVICV2607.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2607_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2608_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002608</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP08</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Con mucha hambre y sin comida los vikingos tendrán que volver navegando cerca de los piratas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los vikingos vuelven a casa después de un viaje exitoso.Durante una tormenta eléctrica confunden un naufragio con un monstruo horrible y le tiran toda su comida.Con mucha hambre y sin comida, tendrán que ir a tierra navegando cerca de los piratas.</t>
+  </si>
+  <si>
+    <t>00:11:48</t>
+  </si>
+  <si>
+    <t>EEVICV2608.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2608_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2609_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002609</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP09</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic llega a tierra con a una cometa y los nativos creen que es un enviado del dios del viento.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El viento evita que lleguen a tierra pero Vic lo logra con a una cometa y los nativos creen que él es un enviado del dios del viento.Vic pone polvo picante y pimienta en el fuelle y el ejército de la reina no para de estornudar.</t>
+  </si>
+  <si>
+    <t>EEVICV2609.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2609_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2610_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002610</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP10</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic y sus amigos encuentran un cachorro de lobo y lo devuelva a su madre.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic y sus amigos encuentran un cachorro de lobo.Luego un par de lobos los atacan y los obligan a entrar en una cueva.Contra el consejo de Vic, uno de ellos se lleva al cachorro pero Vic lo convence para que lo devuelva a su madre.</t>
+  </si>
+  <si>
+    <t>EEVICV2610.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2610_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2611_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002611</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP11</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Capturan a los vikingos porque se robaron la comida de los islandeses.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Capturan a los vikingos porque se robaron la comida de los islandeses.Vic los convence de que tienen el Caldero de Dagda con un suministro interminable de alimentos pero descubren el truco y con la presión de un géiser Vic escapa al Drakkar.</t>
+  </si>
+  <si>
+    <t>EEVICV2611.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2611_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2612_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002612</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP12</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los vikingos son capturados por guerreras y deben pasar pruebas para ser liberados.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los hombres del Drakkar son capturados por guerreras que los acusan de saquear su reino.Son inocentes pero los británicos insisten en que deben pasar con éxito las pruebas de tierra, viento, fuego y agua para ser liberados.</t>
+  </si>
+  <si>
+    <t>EEVICV2612.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2612_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2613_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002613</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP13</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Aparece una figura en la cara del capitan y todos piensan que es un acto de los dioses.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Aparece una figura en la cara del capitan y todos piensan que es un acto de los dioses y creen que puede convertirse en cualquier animal o persona.Él desaparece y un pato es el capitán del Drakkar.Vic finge salvar a su padre y vuelve a ser capitán.</t>
+  </si>
+  <si>
+    <t>EEVICV2613.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2613_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2614_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002614</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP14</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras juega con fichas de dominó, Vic descubre el efecto dominó.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras juega con fichas de dominó, Vic descubre el efecto dominó que luego usa para aplanar un círculo de piedras que ahuyenta a los druidas galeses que amenazan con afeitar la preciada barba del capitan para apaciguar a sus dioses.</t>
+  </si>
+  <si>
+    <t>EEVICV2614.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2614_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2615_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002615</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP15</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: El capitán cree que tiene mala suerte pero Vic lo convence de lo contrario y así gana su lucha.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El capitán está convencido de que está tiene mala suerte.No puede atrapar peces, todo se le cae encima y lo alcanza un rayo.Los guerreros vienen desafiarlo pero Vic lo convence de que su suerte ha regresado y así lucha y mantiene su estatus de jefe.</t>
+  </si>
+  <si>
+    <t>EEVICV2615.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2615_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2616_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002616</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP16</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un niño rescata una ballena y lo sigue sin parar, y Vic la lleva a otro lado donde hay amigos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un niño rescata a una ballena y la misma lo sigue sin parar.Vic la lleva a otro lado donde hace amigos y al regresar ve que los piratas van a matar a ballenas.El grupo utiliza el gusto de la ballena por las escondidas para derrotar a los piratas.</t>
+  </si>
+  <si>
+    <t>EEVICV2616.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2616_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2617_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002617</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP17</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hy un desafío y todos piensan que el bebé puede derrotar al enemigo con sus terribles gritos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un bebé tiene problemas para dormir y Vic lo soluciona imitando los ruidos tontos de su padre.Los vikingos serán desafiados pero uno de los jefes no ha dormido bien y están preocupados.Piensan que el bebé puede derrotarlos con sus terribles gritos.</t>
+  </si>
+  <si>
+    <t>EEVICV2617.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2617_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2618_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002618</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP18</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic sobrecarga la nave de los piratas que se encalla y el Drakkar se va con el tesoro.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras asaltan el tesoro de un castillo, los vikingos se encuentran con los piratas, y frente a la Guardia, se deben aliar con ellos para escapar con el botín.Vic sobrecarga la nave de los piratas que se encalla y el Drakkar se va con el tesoro.</t>
+  </si>
+  <si>
+    <t>EEVICV2618.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2618_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2619_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002619</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP19</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: La jefa de la aldea no organizará la fiesta de la cosecha hasta que su oloroso hijo se bañe.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es la gran fiesta de la cosecha y la jefa de la aldea no la organizará hasta que su hijo que huele terrible se bañe pero él se rehúsa.Vic tendrá que usar todo su talento para crear un encuentro entre el niño y el jabón para que haya fiesta.</t>
+  </si>
+  <si>
+    <t>EEVICV2619.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2619_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2620_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002620</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP20</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los amigos son secuestrados en el barco pirata.Se hacen pasar por el capitán y salen libres.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic y sus amigos hacen un concurso de saltar piedras y son secuestrados por los piratas.Mientras su padre y los demás intentan recatarlos, ellos crean una gran confusión en el barco pirata cuando imitan la voz del capitán y se hacen pasar él.</t>
+  </si>
+  <si>
+    <t>EEVICV2620.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2620_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2621_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002621</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP21</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: La tripulación está bajo el control de los piratas y Vic tendrá que liberar a sus amigos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El capitán está enfermo y el Drakkar es atacado por los piratas.Los vencen y éstos toman el Drakkar cuando quien está a cargo va de compras en la costa.La tripulación está bajo el control de los piratas y Vic tendrá que liberar a sus amigos.</t>
+  </si>
+  <si>
+    <t>EEVICV2621.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2621_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2622_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002622</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP22</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un mago charlatán llega Flake y engaña a los aldeanos con trucos pero Vic lo desenmascara.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un mago extravagante llega a Flake y engaña a los aldeanos con trucos de magia.Vic y su amigo no le creen pero no entienden cómo el charlatán cura a la gente y sabe todo acerca de los aldeanos.Finalmente Vic y su amigo lo desenmascaran.</t>
+  </si>
+  <si>
+    <t>EEVICV2622.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2622_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2623_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002623</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP23</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Vic nada cerca del barco pirata y rescata a una niña que es capturada para ser criada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una niña es capturada para ser criada en el barco pirata.El Drakkar alcanza a los piratas para rescatarla y ella se defiende y demuestra que puede ser una niña fuerte.Cuando los vikingos los alcanzan, Vic nada cerca del barco pirata y la rescata.</t>
+  </si>
+  <si>
+    <t>EEVICV2623.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2623_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2624_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002624</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP24</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras buscan un tesoro, los vikingos entran en un sistema de túneles lleno de trampas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras buscan un tesoro, los vikingos entran en un sistema de túneles lleno de trampas y están atrapados en un laberinto.Vic necesitará los talentos musicales de su amigo para resolver el problema.</t>
+  </si>
+  <si>
+    <t>EEVICV2624.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2624_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2625_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002625</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP25</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los niños de Flake toman el Drakkar y una ballena los lleva de vuelta a Flake.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los niños de Flake toman el Drakkar y Vic trata de convencerlos para que entreguen el mando.El Drakkar se aleja mucho y superados por los mareos entregan el mando a Vic.Una ballena lleva al Drakkar de vuelta a Flake con los niños sanos y salvos.</t>
+  </si>
+  <si>
+    <t>EEVICV2625.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2625_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2626_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI6000000000002626</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26EP26</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: En España el capitán está atrapado y tiene que negociar su libertad con la ayuda de Vic.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En España un toro persigue a unos niños y su dueño Rodrigo los salva.Un vecino mezquino reclama al toro como suyo y lo roba.El capitán lo roba nuevamente y lo atrapan, y ahora tiene que negociar su libertad con la ayuda de Vic.</t>
+  </si>
+  <si>
+    <t>EEVICV2626.mpg</t>
+  </si>
+  <si>
+    <t>EEVICV2626_land.jpg</t>
+  </si>
+  <si>
+    <t>EEVICV2601_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002601</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2601.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2602_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002602</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2602.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2603_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002603</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2603.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2604_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002604</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2604.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2605_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002605</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2605.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2606_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002606</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2606.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2607_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002607</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2607.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2608_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002608</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2608.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2609_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002609</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2609.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2610_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002610</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2610.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2611_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002611</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2611.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2612_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002612</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2612.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2613_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002613</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2613.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2614_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002614</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2614.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2615_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002615</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2615.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2616_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002616</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2616.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2617_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002617</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2617.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2618_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002618</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2618.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2619_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002619</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2619.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2620_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002620</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2620.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2621_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002621</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2621.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2622_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002622</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2622.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2623_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002623</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2623.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2624_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002624</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2624.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2625_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002625</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2625.ts</t>
+  </si>
+  <si>
+    <t>EEVICV2626_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEVI7000000000002626</t>
+  </si>
+  <si>
+    <t>Vicky, el vikingo T26 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEVICV2626.ts</t>
   </si>
 </sst>
 </file>
@@ -7592,7 +7601,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
@@ -7773,10 +7782,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7797,13 +7806,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7813,28 +7822,28 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V2" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -7846,7 +7855,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA2" s="3">
         <v>44957</v>
@@ -7901,7 +7910,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>340166072</v>
+        <v>333837616</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>56</v>
@@ -7944,7 +7953,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7968,7 +7977,7 @@
         <v>111</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>112</v>
@@ -7999,10 +8008,10 @@
         <v>116</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V3" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -8014,7 +8023,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA3" s="3">
         <v>44957</v>
@@ -8069,7 +8078,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>341081256</v>
+        <v>333493388</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>56</v>
@@ -8112,7 +8121,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -8136,7 +8145,7 @@
         <v>120</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>121</v>
@@ -8167,10 +8176,10 @@
         <v>116</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V4" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -8182,7 +8191,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA4" s="3">
         <v>44957</v>
@@ -8237,7 +8246,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>340992332</v>
+        <v>333553548</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>56</v>
@@ -8280,7 +8289,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -8304,7 +8313,7 @@
         <v>128</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>129</v>
@@ -8332,13 +8341,13 @@
         <v>65</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V5" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -8350,7 +8359,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA5" s="3">
         <v>44957</v>
@@ -8405,7 +8414,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>341006620</v>
+        <v>333476092</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>56</v>
@@ -8414,7 +8423,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -8440,15 +8449,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8469,13 +8478,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8485,28 +8494,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V6" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -8518,7 +8527,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA6" s="3">
         <v>44957</v>
@@ -8573,7 +8582,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>340946272</v>
+        <v>331691784</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>56</v>
@@ -8582,7 +8591,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8608,15 +8617,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8637,13 +8646,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8653,28 +8662,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V7" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -8686,7 +8695,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA7" s="3">
         <v>44957</v>
@@ -8741,7 +8750,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>341066780</v>
+        <v>333958124</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>56</v>
@@ -8750,7 +8759,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8776,15 +8785,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8805,13 +8814,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8821,28 +8830,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V8" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -8854,7 +8863,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA8" s="3">
         <v>44957</v>
@@ -8909,7 +8918,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>339821844</v>
+        <v>332383060</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>56</v>
@@ -8918,7 +8927,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8944,15 +8953,15 @@
         <v>61</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8973,13 +8982,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8989,28 +8998,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V9" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -9022,7 +9031,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA9" s="3">
         <v>44957</v>
@@ -9077,7 +9086,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>340917696</v>
+        <v>332951196</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>56</v>
@@ -9086,7 +9095,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -9112,15 +9121,15 @@
         <v>61</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -9141,13 +9150,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -9157,16 +9166,16 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>65</v>
@@ -9175,10 +9184,10 @@
         <v>116</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V10" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -9190,7 +9199,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA10" s="3">
         <v>44957</v>
@@ -9245,7 +9254,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>340931984</v>
+        <v>333866192</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>56</v>
@@ -9254,7 +9263,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -9280,15 +9289,15 @@
         <v>61</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -9309,13 +9318,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -9325,28 +9334,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V11" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -9358,7 +9367,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA11" s="3">
         <v>44957</v>
@@ -9413,7 +9422,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="6">
-        <v>340392612</v>
+        <v>333958124</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>56</v>
@@ -9422,7 +9431,7 @@
         <v>57</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -9448,15 +9457,15 @@
         <v>61</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -9477,13 +9486,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -9493,16 +9502,16 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>65</v>
@@ -9511,10 +9520,10 @@
         <v>116</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V12" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -9526,7 +9535,7 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA12" s="3">
         <v>44957</v>
@@ -9581,7 +9590,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="6">
-        <v>340977856</v>
+        <v>333791744</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>56</v>
@@ -9590,7 +9599,7 @@
         <v>57</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -9616,15 +9625,15 @@
         <v>61</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -9645,13 +9654,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -9661,28 +9670,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V13" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -9694,7 +9703,7 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA13" s="3">
         <v>44957</v>
@@ -9749,7 +9758,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="6">
-        <v>340903408</v>
+        <v>333958124</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>56</v>
@@ -9758,7 +9767,7 @@
         <v>57</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -9784,15 +9793,15 @@
         <v>61</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -9813,13 +9822,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -9829,28 +9838,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V14" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -9862,7 +9871,7 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA14" s="3">
         <v>44957</v>
@@ -9917,7 +9926,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="6">
-        <v>340091436</v>
+        <v>333958124</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>56</v>
@@ -9926,7 +9935,7 @@
         <v>57</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -9952,15 +9961,15 @@
         <v>61</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -9981,13 +9990,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -9997,28 +10006,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V15" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -10030,7 +10039,7 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA15" s="3">
         <v>44957</v>
@@ -10085,7 +10094,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="6">
-        <v>340917696</v>
+        <v>333958124</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>56</v>
@@ -10094,7 +10103,7 @@
         <v>57</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -10120,15 +10129,15 @@
         <v>61</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -10149,13 +10158,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -10165,28 +10174,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V16" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -10198,7 +10207,7 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA16" s="3">
         <v>44957</v>
@@ -10253,7 +10262,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="6">
-        <v>341006620</v>
+        <v>333028652</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>56</v>
@@ -10262,7 +10271,7 @@
         <v>57</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -10288,15 +10297,15 @@
         <v>61</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -10317,13 +10326,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -10333,28 +10342,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V17" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -10366,7 +10375,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA17" s="3">
         <v>44957</v>
@@ -10421,7 +10430,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="6">
-        <v>340633628</v>
+        <v>333958124</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>56</v>
@@ -10430,7 +10439,7 @@
         <v>57</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -10456,15 +10465,15 @@
         <v>61</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -10485,13 +10494,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -10501,16 +10510,16 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>414</v>
+        <v>240</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>65</v>
@@ -10519,10 +10528,10 @@
         <v>116</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V18" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -10534,7 +10543,7 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA18" s="3">
         <v>44957</v>
@@ -10589,7 +10598,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="6">
-        <v>341081256</v>
+        <v>333656760</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>56</v>
@@ -10598,7 +10607,7 @@
         <v>57</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -10624,15 +10633,15 @@
         <v>61</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -10653,13 +10662,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -10669,28 +10678,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V19" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -10702,7 +10711,7 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA19" s="3">
         <v>44957</v>
@@ -10757,7 +10766,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="6">
-        <v>341052492</v>
+        <v>333958124</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>56</v>
@@ -10766,7 +10775,7 @@
         <v>57</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -10792,15 +10801,15 @@
         <v>61</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -10821,13 +10830,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -10837,28 +10846,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V20" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -10870,7 +10879,7 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA20" s="3">
         <v>44957</v>
@@ -10925,7 +10934,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="6">
-        <v>341173000</v>
+        <v>333312532</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>56</v>
@@ -10934,7 +10943,7 @@
         <v>57</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -10960,15 +10969,15 @@
         <v>61</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -10989,13 +10998,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -11005,28 +11014,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V21" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -11038,7 +11047,7 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA21" s="3">
         <v>44957</v>
@@ -11093,7 +11102,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="6">
-        <v>341127128</v>
+        <v>333958124</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>56</v>
@@ -11102,7 +11111,7 @@
         <v>57</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -11128,15 +11137,15 @@
         <v>61</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -11157,13 +11166,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -11173,28 +11182,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V22" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -11206,7 +11215,7 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA22" s="3">
         <v>44957</v>
@@ -11261,7 +11270,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="6">
-        <v>341141416</v>
+        <v>333958124</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>56</v>
@@ -11270,7 +11279,7 @@
         <v>57</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -11296,15 +11305,15 @@
         <v>61</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -11325,13 +11334,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -11341,28 +11350,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V23" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -11374,7 +11383,7 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA23" s="3">
         <v>44957</v>
@@ -11429,7 +11438,7 @@
         <v>55</v>
       </c>
       <c r="AS23" s="6">
-        <v>341141416</v>
+        <v>333958124</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>56</v>
@@ -11438,7 +11447,7 @@
         <v>57</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -11464,15 +11473,15 @@
         <v>61</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -11493,13 +11502,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -11509,28 +11518,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V24" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -11542,7 +11551,7 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA24" s="3">
         <v>44957</v>
@@ -11597,7 +11606,7 @@
         <v>55</v>
       </c>
       <c r="AS24" s="6">
-        <v>341216052</v>
+        <v>333958124</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>56</v>
@@ -11606,7 +11615,7 @@
         <v>57</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -11632,15 +11641,15 @@
         <v>61</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -11661,13 +11670,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -11677,28 +11686,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V25" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -11710,7 +11719,7 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA25" s="3">
         <v>44957</v>
@@ -11765,7 +11774,7 @@
         <v>55</v>
       </c>
       <c r="AS25" s="6">
-        <v>341173000</v>
+        <v>333958124</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>56</v>
@@ -11774,7 +11783,7 @@
         <v>57</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -11800,15 +11809,15 @@
         <v>61</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -11829,13 +11838,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -11845,28 +11854,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V26" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -11878,7 +11887,7 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA26" s="3">
         <v>44957</v>
@@ -11933,7 +11942,7 @@
         <v>55</v>
       </c>
       <c r="AS26" s="6">
-        <v>341155704</v>
+        <v>333958124</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>56</v>
@@ -11942,7 +11951,7 @@
         <v>57</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -11968,15 +11977,15 @@
         <v>61</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -11997,13 +12006,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -12013,16 +12022,16 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>65</v>
@@ -12031,10 +12040,10 @@
         <v>116</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V27" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -12046,7 +12055,7 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA27" s="3">
         <v>44957</v>
@@ -12101,7 +12110,7 @@
         <v>55</v>
       </c>
       <c r="AS27" s="6">
-        <v>340917696</v>
+        <v>333791744</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>56</v>
@@ -12110,7 +12119,7 @@
         <v>57</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -12136,7 +12145,7 @@
         <v>61</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
@@ -16115,7 +16124,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
@@ -16296,10 +16305,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -16320,13 +16329,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -16336,28 +16345,28 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V2" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -16369,7 +16378,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA2" s="3">
         <v>44957</v>
@@ -16424,7 +16433,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>680274428</v>
+        <v>667617516</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -16433,7 +16442,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -16464,10 +16473,10 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -16488,10 +16497,10 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>112</v>
@@ -16504,7 +16513,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -16522,10 +16531,10 @@
         <v>116</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V3" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -16537,7 +16546,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA3" s="3">
         <v>44957</v>
@@ -16592,7 +16601,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="6">
-        <v>682104796</v>
+        <v>666923232</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -16601,7 +16610,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -16632,10 +16641,10 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -16656,10 +16665,10 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>121</v>
@@ -16672,7 +16681,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
@@ -16690,10 +16699,10 @@
         <v>116</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V4" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -16705,7 +16714,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA4" s="3">
         <v>44957</v>
@@ -16760,7 +16769,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="6">
-        <v>681926948</v>
+        <v>667043740</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -16769,7 +16778,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -16800,10 +16809,10 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -16824,10 +16833,10 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>129</v>
@@ -16840,7 +16849,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
@@ -16855,13 +16864,13 @@
         <v>65</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V5" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -16873,7 +16882,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA5" s="3">
         <v>44957</v>
@@ -16928,7 +16937,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="6">
-        <v>681955712</v>
+        <v>666894656</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -16937,7 +16946,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16963,15 +16972,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -16992,13 +17001,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -17008,28 +17017,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V6" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -17041,7 +17050,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA6" s="3">
         <v>44957</v>
@@ -17096,7 +17105,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="6">
-        <v>681835016</v>
+        <v>663325852</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -17105,7 +17114,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17131,15 +17140,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -17160,13 +17169,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -17176,28 +17185,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V7" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -17209,7 +17218,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA7" s="3">
         <v>44957</v>
@@ -17264,7 +17273,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="6">
-        <v>682076032</v>
+        <v>667852704</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -17273,7 +17282,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17299,15 +17308,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -17328,13 +17337,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -17344,28 +17353,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V8" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -17377,7 +17386,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA8" s="3">
         <v>44957</v>
@@ -17432,7 +17441,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="6">
-        <v>679585972</v>
+        <v>664702764</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -17441,7 +17450,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -17467,15 +17476,15 @@
         <v>61</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -17496,13 +17505,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -17512,28 +17521,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V9" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -17545,7 +17554,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA9" s="3">
         <v>44957</v>
@@ -17600,7 +17609,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="6">
-        <v>681777676</v>
+        <v>665844676</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -17609,7 +17618,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -17635,15 +17644,15 @@
         <v>61</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -17664,13 +17673,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -17680,16 +17689,16 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>65</v>
@@ -17698,10 +17707,10 @@
         <v>116</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V10" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -17713,7 +17722,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA10" s="3">
         <v>44957</v>
@@ -17768,7 +17777,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="6">
-        <v>681806440</v>
+        <v>667674856</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -17777,7 +17786,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -17803,15 +17812,15 @@
         <v>61</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -17832,13 +17841,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -17848,28 +17857,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V11" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -17881,7 +17890,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA11" s="3">
         <v>44957</v>
@@ -17936,7 +17945,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="6">
-        <v>680727696</v>
+        <v>667852704</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -17945,7 +17954,7 @@
         <v>63</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17971,15 +17980,15 @@
         <v>61</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -18000,13 +18009,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -18016,16 +18025,16 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>65</v>
@@ -18034,10 +18043,10 @@
         <v>116</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V12" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -18049,7 +18058,7 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA12" s="3">
         <v>44957</v>
@@ -18104,7 +18113,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="6">
-        <v>681892356</v>
+        <v>667525772</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -18113,7 +18122,7 @@
         <v>63</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18139,15 +18148,15 @@
         <v>61</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -18168,13 +18177,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -18184,28 +18193,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V13" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -18217,7 +18226,7 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA13" s="3">
         <v>44957</v>
@@ -18272,7 +18281,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="6">
-        <v>681743272</v>
+        <v>667852704</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -18281,7 +18290,7 @@
         <v>63</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18307,15 +18316,15 @@
         <v>61</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -18336,13 +18345,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -18352,28 +18361,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V14" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -18385,7 +18394,7 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA14" s="3">
         <v>44957</v>
@@ -18440,7 +18449,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="6">
-        <v>680125344</v>
+        <v>667852704</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -18449,7 +18458,7 @@
         <v>63</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -18475,15 +18484,15 @@
         <v>61</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -18504,13 +18513,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -18520,28 +18529,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V15" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -18553,7 +18562,7 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA15" s="3">
         <v>44957</v>
@@ -18608,7 +18617,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="6">
-        <v>681777676</v>
+        <v>667852704</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -18617,7 +18626,7 @@
         <v>63</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -18643,15 +18652,15 @@
         <v>61</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -18672,13 +18681,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -18688,28 +18697,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V16" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -18721,7 +18730,7 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA16" s="3">
         <v>44957</v>
@@ -18776,7 +18785,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="6">
-        <v>681955524</v>
+        <v>665993760</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -18785,7 +18794,7 @@
         <v>63</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -18811,15 +18820,15 @@
         <v>61</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -18840,13 +18849,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -18856,28 +18865,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V17" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -18889,7 +18898,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA17" s="3">
         <v>44957</v>
@@ -18944,7 +18953,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="6">
-        <v>681203900</v>
+        <v>667852704</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -18953,7 +18962,7 @@
         <v>63</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -18979,15 +18988,15 @@
         <v>61</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -19008,13 +19017,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -19024,16 +19033,16 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>414</v>
+        <v>240</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>65</v>
@@ -19042,10 +19051,10 @@
         <v>116</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V18" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -19057,7 +19066,7 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA18" s="3">
         <v>44957</v>
@@ -19112,7 +19121,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="6">
-        <v>682104796</v>
+        <v>667255992</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -19121,7 +19130,7 @@
         <v>63</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19147,15 +19156,15 @@
         <v>61</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -19176,13 +19185,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -19192,28 +19201,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V19" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -19225,7 +19234,7 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA19" s="3">
         <v>44957</v>
@@ -19280,7 +19289,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="6">
-        <v>682047268</v>
+        <v>667852704</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -19289,7 +19298,7 @@
         <v>63</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19315,15 +19324,15 @@
         <v>61</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -19344,13 +19353,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -19360,28 +19369,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V20" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -19393,7 +19402,7 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA20" s="3">
         <v>44957</v>
@@ -19448,7 +19457,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="6">
-        <v>682282644</v>
+        <v>666567536</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -19457,7 +19466,7 @@
         <v>63</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -19483,15 +19492,15 @@
         <v>61</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -19512,13 +19521,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -19528,28 +19537,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V21" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -19561,7 +19570,7 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA21" s="3">
         <v>44957</v>
@@ -19616,7 +19625,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="6">
-        <v>682196540</v>
+        <v>667852704</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -19625,7 +19634,7 @@
         <v>63</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -19651,15 +19660,15 @@
         <v>61</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -19680,13 +19689,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -19696,28 +19705,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V22" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -19729,7 +19738,7 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA22" s="3">
         <v>44957</v>
@@ -19784,7 +19793,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="6">
-        <v>682225304</v>
+        <v>667852704</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -19793,7 +19802,7 @@
         <v>63</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -19819,15 +19828,15 @@
         <v>61</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -19848,13 +19857,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -19864,28 +19873,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V23" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -19897,7 +19906,7 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA23" s="3">
         <v>44957</v>
@@ -19952,7 +19961,7 @@
         <v>55</v>
       </c>
       <c r="AS23" s="6">
-        <v>682225304</v>
+        <v>667852704</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -19961,7 +19970,7 @@
         <v>63</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -19987,15 +19996,15 @@
         <v>61</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -20016,13 +20025,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -20032,28 +20041,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V24" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -20065,7 +20074,7 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA24" s="3">
         <v>44957</v>
@@ -20120,7 +20129,7 @@
         <v>55</v>
       </c>
       <c r="AS24" s="6">
-        <v>682374388</v>
+        <v>667852704</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -20129,7 +20138,7 @@
         <v>63</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20155,15 +20164,15 @@
         <v>61</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -20184,13 +20193,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -20200,28 +20209,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V25" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -20233,7 +20242,7 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA25" s="3">
         <v>44957</v>
@@ -20288,7 +20297,7 @@
         <v>55</v>
       </c>
       <c r="AS25" s="6">
-        <v>682282644</v>
+        <v>667852704</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -20297,7 +20306,7 @@
         <v>63</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20323,15 +20332,15 @@
         <v>61</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -20352,13 +20361,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -20368,28 +20377,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V26" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -20401,7 +20410,7 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA26" s="3">
         <v>44957</v>
@@ -20456,7 +20465,7 @@
         <v>55</v>
       </c>
       <c r="AS26" s="6">
-        <v>682253880</v>
+        <v>667852704</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -20465,7 +20474,7 @@
         <v>63</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -20491,15 +20500,15 @@
         <v>61</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -20520,13 +20529,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -20536,16 +20545,16 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>65</v>
@@ -20554,10 +20563,10 @@
         <v>116</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V27" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -20569,7 +20578,7 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>43585</v>
+        <v>43565</v>
       </c>
       <c r="AA27" s="3">
         <v>44957</v>
@@ -20624,7 +20633,7 @@
         <v>55</v>
       </c>
       <c r="AS27" s="6">
-        <v>681777676</v>
+        <v>667525772</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -20633,7 +20642,7 @@
         <v>63</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -20659,7 +20668,7 @@
         <v>61</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0059819-8CE7-4E00-8C16-8246A6DC35BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5E62C3-359B-428A-94ED-0C9AF06F1803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
   <sheets>
     <sheet name="SD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -233,427 +233,76 @@
     <t>FileName</t>
   </si>
   <si>
-    <t>TV-Y</t>
+    <t>EEBOBG101_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EP 02</t>
+    <t>EEBO6000000000000101</t>
   </si>
   <si>
-    <t>EP 03</t>
+    <t>Serie Bob Construye, construcciones ecológicas</t>
   </si>
   <si>
-    <t>EP 04</t>
+    <t>Bob Construye, construcciones ecológicasT01EP01</t>
   </si>
   <si>
-    <t>EP 05</t>
+    <t>Bob Construye, construcciones ecológicas T01 EP01</t>
   </si>
   <si>
-    <t>EP 06</t>
+    <t>Edye presenta: Bob está de vuelta en el sitio. Únete a Bob mientras te muestra el increíble mundo de hogares ecológicos y centros de reciclaje.</t>
   </si>
   <si>
-    <t>EP 07</t>
+    <t>Edye presenta: Bob está de vuelta en el sitio. Únase a Bob mientras le muestra el asombroso mundo de las casas ecológicas y los centros de reciclaje y aprenda cómo las cosas que tira pueden usarse para hacer algo nuevo. Vea cómo todos pueden unirse y divertirse construyendo casas ecológicas.</t>
   </si>
   <si>
-    <t>EP 08</t>
+    <t>G</t>
   </si>
   <si>
-    <t>EP 09</t>
+    <t>01:00:05</t>
   </si>
   <si>
-    <t>EP 10</t>
+    <t>01:00</t>
   </si>
   <si>
-    <t>EEANME201_SD_ADI.XML</t>
+    <t>Infantil/Bob Construye, construcciones ecológicas</t>
   </si>
   <si>
-    <t>EEAN6000000000000201</t>
+    <t>Bob Construye, construcciones ecológicas</t>
   </si>
   <si>
-    <t>Serie Mecanimales</t>
+    <t>UK</t>
   </si>
   <si>
-    <t>MecanimalesT02EP01</t>
+    <t>Neil Morrissey</t>
   </si>
   <si>
-    <t>Mecanimales T02 EP01</t>
+    <t>HIT Ent. Ltd Keith</t>
   </si>
   <si>
-    <t>Edye presenta: La misión de los Mecanimales es lograr que la Mecanimontaña Rusa funcione de nuevo.</t>
+    <t>Morrissey Neil</t>
   </si>
   <si>
-    <t>Edye presenta: La misión de los Mecanimales es lograr que la Mecanimontaña Rusa funcione de nuevo. Llegan a la Isla de la Mecanimontaña Rusa y descubren que el problema es un Mecanimono que cuelga de los rieles del tren.</t>
+    <t>Little, Brian</t>
   </si>
   <si>
-    <t>00:11:30</t>
+    <t>EEBOBG101.mpg</t>
   </si>
   <si>
-    <t>00:11</t>
+    <t>EEBOBG1_box.jpg</t>
   </si>
   <si>
-    <t>Infantil/Mecanimales</t>
+    <t>EEBOBG101_land.jpg</t>
   </si>
   <si>
-    <t>Mecanimales</t>
+    <t>EEBOBG101_HD_ADI.XML</t>
   </si>
   <si>
-    <t>CA</t>
+    <t>EEBO7000000000000101</t>
   </si>
   <si>
-    <t>Gilly Fogg, Jim Fowler, Jess Rosen</t>
+    <t>Bob Construye, construcciones ecológicas T01 EP01 HD</t>
   </si>
   <si>
-    <t>Snap Prod. Inc.</t>
-  </si>
-  <si>
-    <t>Fogg Gilly, Fowler Jim, Rosen Jess</t>
-  </si>
-  <si>
-    <t>Fogg, Gilly</t>
-  </si>
-  <si>
-    <t>EEANME201.mpg</t>
-  </si>
-  <si>
-    <t>EEANME2_box.jpg</t>
-  </si>
-  <si>
-    <t>EEANME201_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME202_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000202</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP02</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los tímidos Mecanipandas necesitan ayuda para alcanzar sus bocadillos favoritos de bambú.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los tímidos Mecanipandas necesitan ayuda para alcanzar sus bocadillos favoritos de bambú en la cima de una montaña resbaladiza. Mientras el fuerte Rex empuja los Pandas cuesta arriba, Unicornio vuela y arrastra a los demás Mecanimales.</t>
-  </si>
-  <si>
-    <t>EEANME202.mpg</t>
-  </si>
-  <si>
-    <t>EEANME202_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME203_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000203</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP03</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: El Mecanicucú dejó de funcionar y los Mecanimales deberán descubrir por qué.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El Mecanicucú dejó de funcionar y la misión de los Mecanimales ahora es descubrir el por qué. Sin embargo, rápidamente hallan el problema: algunos de los números del reloj han desaparecido.</t>
-  </si>
-  <si>
-    <t>EEANME203.mpg</t>
-  </si>
-  <si>
-    <t>EEANME203_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME204_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000204</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP04</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: El Mecanicastor dejó de reciclar, y los Mecanimales deberán averiguar por qué.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El Mecanicastor dejó de reciclar, y los Mecanimales deberán resolver el problema antes de que la Isla del Mecanireciclador se llene de basura. Y cuando Unicornio comienza a investigar, vuela en lo alto y descubre al castor.</t>
-  </si>
-  <si>
-    <t>EEANME204.mpg</t>
-  </si>
-  <si>
-    <t>EEANME204_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME205_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000205</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP05</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: La agradable música de la Isla de los Mecaniosos fue reemplazada por desagradables sonidos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: La música de la Isla de los Mecaniosos fue reemplazada por desagradables sonidos, lo que ocasiona que los osos bailen de forma muy extraña. Entonces, Rex intenta construir una fortaleza a prueba de sonido pero no es lo suficientemente acústica.</t>
-  </si>
-  <si>
-    <t>EEANME205.mpg</t>
-  </si>
-  <si>
-    <t>EEANME205_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME206_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000206</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP06</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: La máquina de nubes no se siente bien y las nubes rosadas que generalmente flotan en el aire estan en el suelo</t>
-  </si>
-  <si>
-    <t>Edye presenta: La máquina de nubes no se siente muy bien, y las nubes rosadas que generalmente flotan en el aire por encima de ella están sentadas en el suelo. El equipo descubre que algo está atascado dentro de la máquina de nubes</t>
-  </si>
-  <si>
-    <t>EEANME206.mpg</t>
-  </si>
-  <si>
-    <t>EEANME206_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME207_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000207</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP07</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: El equipo es enviado a la Isla del Babuino, donde deben encontrar un acondicionador de pera.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El equipo es enviado a la Isla del Babuino, donde su misión es encontrar un acondicionador de pera para que el babuino coma. Entonces, Sasquatch se estira para alcanzar las peras. Desafortunadamente, las deja volar.</t>
-  </si>
-  <si>
-    <t>EEANME207.mpg</t>
-  </si>
-  <si>
-    <t>EEANME207_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME208_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000208</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP08</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Mecanimales aprenden sobre parejas cuando visitan la Isla del Mecanicombinador.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Mecanimales aprenden sobre pares y parejas cuando visitan la Isla del Mecanicombinador para ayudarlo. Aparentemente el Mecanicombinador está combinando cosas que no suelen ir juntas.</t>
-  </si>
-  <si>
-    <t>EEANME208.mpg</t>
-  </si>
-  <si>
-    <t>EEANME208_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME209_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000209</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP09</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: La misión del equipo es visitar la Isla del Mecaniesquí y arreglar el trampolín de esquí.</t>
-  </si>
-  <si>
-    <t>Edye presenta: La misión del equipo será ir a la Isla del Mecaniesquí y arreglar el trampolín de esquí, así los habitantes pueden jugar de nuevo. Komodo une las piezas pero luego descubre que los números de puntaje están mal puestos.</t>
-  </si>
-  <si>
-    <t>EEANME209.mpg</t>
-  </si>
-  <si>
-    <t>EEANME209_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME210_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN6000000000000210</t>
-  </si>
-  <si>
-    <t>MecanimalesT02EP10</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Mecanimales llegan a la Isla de los Mecanibotes para lograr que el faro funcione de nuevo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Mecanimales llegan a la Isla de los Mecanibotes para lograr que el faro funcione de nuevo, así los mecanibotes podrán guiarse en la niebla. Entonces, Unicornio usa sus poderes para hacer un puente de hielo y el equipo llega a la isla del faro.</t>
-  </si>
-  <si>
-    <t>EEANME210.mpg</t>
-  </si>
-  <si>
-    <t>EEANME210_land.jpg</t>
-  </si>
-  <si>
-    <t>EEANME201_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000201</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEANME201.ts</t>
-  </si>
-  <si>
-    <t>EEANME202_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000202</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEANME202.ts</t>
-  </si>
-  <si>
-    <t>EEANME203_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000203</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEANME203.ts</t>
-  </si>
-  <si>
-    <t>EEANME204_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000204</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEANME204.ts</t>
-  </si>
-  <si>
-    <t>EEANME205_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000205</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEANME205.ts</t>
-  </si>
-  <si>
-    <t>EEANME206_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000206</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEANME206.ts</t>
-  </si>
-  <si>
-    <t>EEANME207_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000207</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEANME207.ts</t>
-  </si>
-  <si>
-    <t>EEANME208_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000208</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEANME208.ts</t>
-  </si>
-  <si>
-    <t>EEANME209_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000209</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEANME209.ts</t>
-  </si>
-  <si>
-    <t>EEANME210_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEAN7000000000000210</t>
-  </si>
-  <si>
-    <t>Mecanimales T02 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEANME210.ts</t>
+    <t>EEBOBG101.ts</t>
   </si>
 </sst>
 </file>
@@ -6962,7 +6611,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
@@ -7143,10 +6792,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3">
-        <v>44621</v>
+        <v>44628</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7167,13 +6816,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7183,31 +6832,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="V2" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>49</v>
@@ -7216,7 +6865,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43565</v>
+        <v>43742</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -7228,28 +6877,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -7271,7 +6920,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>324118204</v>
+        <v>1690768412</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>56</v>
@@ -7280,7 +6929,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -7290,7 +6939,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -7306,1520 +6955,548 @@
         <v>61</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
-      <c r="AM3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
-      <c r="AX3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
       <c r="BA3" s="6"/>
-      <c r="BB3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
-      <c r="AX4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
       <c r="BA4" s="6"/>
-      <c r="BB4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
-      <c r="AM5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
-      <c r="AX5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
       <c r="BA5" s="6"/>
-      <c r="BB5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
-      <c r="AM6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS6" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV6" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
-      <c r="AX6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
       <c r="BA6" s="6"/>
-      <c r="BB6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF6" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
-      <c r="AM7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS7" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV7" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ7" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
       <c r="BA7" s="6"/>
-      <c r="BB7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF7" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
-      <c r="AM8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS8" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
-      <c r="AX8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ8" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
-      <c r="BB8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF8" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS9" s="6">
-        <v>323905952</v>
-      </c>
-      <c r="AT9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV9" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
-      <c r="AX9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ9" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
       <c r="BA9" s="6"/>
-      <c r="BB9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF9" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
-      <c r="AM10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS10" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV10" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
-      <c r="AX10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ10" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
-      <c r="BB10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
-      <c r="AM11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="6">
-        <v>324101096</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV11" s="6" t="s">
-        <v>164</v>
-      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ11" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
       <c r="BA11" s="6"/>
-      <c r="BB11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF11" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -13757,7 +12434,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
@@ -13938,10 +12615,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3">
-        <v>44621</v>
+        <v>44628</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -13962,13 +12639,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -13978,31 +12655,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="V2" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>49</v>
@@ -14011,7 +12688,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43565</v>
+        <v>43742</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -14023,28 +12700,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -14066,7 +12743,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>648173052</v>
+        <v>3381473468</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -14075,7 +12752,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -14085,7 +12762,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -14101,1520 +12778,548 @@
         <v>61</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
-      <c r="AM3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
-      <c r="AX3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
       <c r="BA3" s="6"/>
-      <c r="BB3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
-      <c r="AX4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
       <c r="BA4" s="6"/>
-      <c r="BB4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
-      <c r="AM5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
-      <c r="AX5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
       <c r="BA5" s="6"/>
-      <c r="BB5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
-      <c r="AM6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS6" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV6" s="6" t="s">
-        <v>185</v>
-      </c>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
-      <c r="AX6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
       <c r="BA6" s="6"/>
-      <c r="BB6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF6" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
-      <c r="AM7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS7" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV7" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ7" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
       <c r="BA7" s="6"/>
-      <c r="BB7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF7" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
-      <c r="AM8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS8" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
-      <c r="AX8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ8" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
-      <c r="BB8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF8" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS9" s="6">
-        <v>647754188</v>
-      </c>
-      <c r="AT9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV9" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
-      <c r="AX9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ9" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
       <c r="BA9" s="6"/>
-      <c r="BB9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF9" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
-      <c r="AM10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS10" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV10" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
-      <c r="AX10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ10" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
-      <c r="BB10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44621</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="6">
-        <v>2008</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>43565</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
-      <c r="AM11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="6">
-        <v>648144288</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV11" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ11" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
       <c r="BA11" s="6"/>
-      <c r="BB11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF11" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5E62C3-359B-428A-94ED-0C9AF06F1803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9C381B-7350-462B-8346-7ACEC2681BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -233,76 +233,76 @@
     <t>FileName</t>
   </si>
   <si>
-    <t>EEBOBG101_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBO6000000000000101</t>
-  </si>
-  <si>
-    <t>Serie Bob Construye, construcciones ecológicas</t>
-  </si>
-  <si>
-    <t>Bob Construye, construcciones ecológicasT01EP01</t>
-  </si>
-  <si>
-    <t>Bob Construye, construcciones ecológicas T01 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Bob está de vuelta en el sitio. Únete a Bob mientras te muestra el increíble mundo de hogares ecológicos y centros de reciclaje.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Bob está de vuelta en el sitio. Únase a Bob mientras le muestra el asombroso mundo de las casas ecológicas y los centros de reciclaje y aprenda cómo las cosas que tira pueden usarse para hacer algo nuevo. Vea cómo todos pueden unirse y divertirse construyendo casas ecológicas.</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>01:00:05</t>
+    <t>EECAIL101_SD_ADI.XML</t>
   </si>
   <si>
-    <t>01:00</t>
+    <t>EECA6000000000000101</t>
   </si>
   <si>
-    <t>Infantil/Bob Construye, construcciones ecológicas</t>
+    <t>Serie Caillou celebra la navidad</t>
   </si>
   <si>
-    <t>Bob Construye, construcciones ecológicas</t>
+    <t>Caillou celebra la navidadT01EP01</t>
   </si>
   <si>
-    <t>UK</t>
+    <t>Caillou celebra la navidad T01 EP01</t>
   </si>
   <si>
-    <t>Neil Morrissey</t>
+    <t>Edye presenta: Diviértete junto al pequeño Caillou y descubre el milagro de la Navidad.</t>
   </si>
   <si>
-    <t>HIT Ent. Ltd Keith</t>
+    <t>Edye presenta: Es invierno y en la casa del pequeño Caillou se preparan para pasar una hermosa Navidad. Diviértete aprendiendo junto al curioso niño de cuatro años sobre las fiestas y descubre el milagro del amor y la amistad.</t>
   </si>
   <si>
-    <t>Morrissey Neil</t>
+    <t>01:11:00</t>
   </si>
   <si>
-    <t>Little, Brian</t>
+    <t>01:11</t>
   </si>
   <si>
-    <t>EEBOBG101.mpg</t>
+    <t>Infantil/Caillou celebra la navidad</t>
   </si>
   <si>
-    <t>EEBOBG1_box.jpg</t>
+    <t>Caillou celebra la navidad</t>
   </si>
   <si>
-    <t>EEBOBG101_land.jpg</t>
+    <t>CA</t>
   </si>
   <si>
-    <t>EEBOBG101_HD_ADI.XML</t>
+    <t>Annie Bovaird</t>
   </si>
   <si>
-    <t>EEBO7000000000000101</t>
+    <t>Caillou Prod. Inc.</t>
   </si>
   <si>
-    <t>Bob Construye, construcciones ecológicas T01 EP01 HD</t>
+    <t>Bovaird Annie</t>
   </si>
   <si>
-    <t>EEBOBG101.ts</t>
+    <t>Rijgersberg, Nick</t>
+  </si>
+  <si>
+    <t>EECAIL101.mpg</t>
+  </si>
+  <si>
+    <t>EECAIL1_box.jpg</t>
+  </si>
+  <si>
+    <t>EECAIL101_land.jpg</t>
+  </si>
+  <si>
+    <t>EECAIL101_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECA7000000000000101</t>
+  </si>
+  <si>
+    <t>Caillou celebra la navidad T01 EP01 HD</t>
+  </si>
+  <si>
+    <t>EECAIL101.ts</t>
   </si>
 </sst>
 </file>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3">
         <v>44628</v>
@@ -6816,13 +6816,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -6832,19 +6832,19 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>73</v>
@@ -6853,7 +6853,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="6">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>75</v>
@@ -6865,7 +6865,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>43189</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -6920,7 +6920,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>1690768412</v>
+        <v>2040386748</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>56</v>
@@ -12435,7 +12435,7 @@
   <dimension ref="A1:BF58"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF58"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12642,10 +12642,10 @@
         <v>86</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -12661,13 +12661,13 @@
         <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>73</v>
@@ -12676,7 +12676,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="6">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>75</v>
@@ -12688,7 +12688,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>43189</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -12743,7 +12743,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="6">
-        <v>3381473468</v>
+        <v>4080715968</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0288D9FA-E93D-43C9-9265-5D320C3626BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30BE1F-F9DE-4DC4-93E5-DE4AB8AD45E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="247">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -233,457 +233,550 @@
     <t>TV-Y</t>
   </si>
   <si>
-    <t>EEMOMS231_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000231</t>
-  </si>
-  <si>
-    <t>Serie Matemonstruos</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP31</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP31</t>
-  </si>
-  <si>
-    <t>EP 31</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón aprende a hacer una regla para medir cubos y ayudar al Señor Enojón.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón ayuda al Señor Enojón a medir los cubos de limo para que quepan en las cajas. Para ello, aprenden a hacer una regla, es decir, una línea de números que les permite calcular la longitud de los cubos.</t>
-  </si>
-  <si>
-    <t>00:12:06</t>
-  </si>
-  <si>
-    <t>00:12</t>
-  </si>
-  <si>
-    <t>Infantil/Matemonstruos</t>
-  </si>
-  <si>
-    <t>Matemonstruos</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Cory Doran</t>
-  </si>
-  <si>
-    <t>DHX Monsters Inc</t>
-  </si>
-  <si>
-    <t>Doran Cory</t>
-  </si>
-  <si>
-    <t>Gordon, William</t>
-  </si>
-  <si>
-    <t>EEMOMS231.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS2_box.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS231_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS232_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000232</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP32</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP32</t>
-  </si>
-  <si>
-    <t>EP 32</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos ayudan a completar el ramo de flores de una novia el día de su boda.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos ayudan a un monstruo en el día de su boda. La novia necesita más flores para su ramo. Juntos aprenden que el número de las cosas siempre permanece igual aunque se les aumente el tamaño.</t>
-  </si>
-  <si>
-    <t>00:11:02</t>
-  </si>
-  <si>
-    <t>00:11</t>
-  </si>
-  <si>
-    <t>EEMOMS232.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS232_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS233_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000233</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP33</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP33</t>
-  </si>
-  <si>
-    <t>EP 33</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón le enseña al Monstruo Granjero a calcular la cantidad de dientes de sus plantas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón le enseña al Monstruo Granjero a contar objetos en movimiento. Esto le sirve para calcular la cantidad de dientes que tendrá cada planta carnívora que está cultivando.</t>
-  </si>
-  <si>
-    <t>EEMOMS233.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS233_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS234_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000234</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP34</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP34</t>
-  </si>
-  <si>
-    <t>EP 34</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos ayudan a un escultor muy torpe a terminar su última escultura.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos ayudan a un escultor muy torpe a terminar su última monstruosa escultura, al enseñarle que el volumen del objeto no afecta su forma.</t>
-  </si>
-  <si>
-    <t>00:09:04</t>
-  </si>
-  <si>
-    <t>00:09</t>
-  </si>
-  <si>
-    <t>EEMOMS234.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS234_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS235_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000235</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP35</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP35</t>
-  </si>
-  <si>
-    <t>EP 35</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos comparan dos plantas para ver cuál recibió mayor cantidad de agua.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Comparando dos objetos, el escuadrón puede determinar si uno tiene mayor cantidad de materia que el otro. En este caso, si la cantidad de agua que se le dio a una planta es menor que la que se le dio a otra.</t>
-  </si>
-  <si>
-    <t>00:11:06</t>
-  </si>
-  <si>
-    <t>EEMOMS235.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS235_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS236_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000236</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP36</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP36</t>
-  </si>
-  <si>
-    <t>EP 36</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón ayuda a un monstruo dormilón a fabricar una cama, pero antes le enseña a sumar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón ayuda a un monstruo dormilón a seguir las instrucciones para fabricar una cama de compost. Para ello, deben enseñarle que la suma indica que dos o más objetos están juntos.</t>
-  </si>
-  <si>
-    <t>00:11:46</t>
-  </si>
-  <si>
-    <t>EEMOMS236.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS236_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS237_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000237</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP37</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP37</t>
-  </si>
-  <si>
-    <t>EP 37</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón utiliza la resta para ayudar a unos pequeños monstruos a montar un vehículo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Unos pequeños monstruos quieren andar en el nuevo Monstruo Juego, pero todos no caben en el vehículo. El escuadrón usa la resta para armar dos grupos y que quepan perfectos en el auto.</t>
-  </si>
-  <si>
-    <t>00:11:40</t>
-  </si>
-  <si>
-    <t>EEMOMS237.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS237_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS238_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000238</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP38</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP38</t>
-  </si>
-  <si>
-    <t>EP 38</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos deben encajar todas las llaves dentro de una caja para desbloquearla.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos aprender sobre cómo encajan las piezas, mientras ayudan a un monstruo a desbloquear una cajita de sorpresas. Para lograrlo deben colocar de manera correcta todas las llaves dentro de los orificios de la caja.</t>
-  </si>
-  <si>
-    <t>00:11:12</t>
-  </si>
-  <si>
-    <t>EEMOMS238.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS238_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS239_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000239</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP39</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP39</t>
-  </si>
-  <si>
-    <t>EP 39</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos aprenden a contar de manera regresiva y ayudan al Monstruo Bromista.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Matemonstruos aprenden a contar de manera regresiva siguiendo la misma línea de números con la que cuentan para adelante. De esta manera, cuentan del cinco al uno y ayudan al Monstruo Bromista a completar su agenda.</t>
-  </si>
-  <si>
-    <t>00:11:28</t>
-  </si>
-  <si>
-    <t>EEMOMS239.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS239_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS240_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO6000000000000240</t>
-  </si>
-  <si>
-    <t>MatemonstruosT02EP40</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP40</t>
-  </si>
-  <si>
-    <t>EP 40</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón ayuda a calmar las aguas entre los pequeños monstruos de la guardería.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El escuadrón ayuda a calmar las aguas entre los pequeños monstruos de la guardería mientras aprenden que dos conjuntos de objetos son iguales si cada uno de ellos se compone del mismo número de cosas.</t>
-  </si>
-  <si>
-    <t>00:11:43</t>
-  </si>
-  <si>
-    <t>EEMOMS240.mpg</t>
-  </si>
-  <si>
-    <t>EEMOMS240_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMOMS231_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000231</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP31 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS231.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS232_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000232</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP32 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS232.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS233_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000233</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP33 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS233.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS234_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000234</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP34 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS234.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS235_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000235</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP35 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS235.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS236_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000236</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP36 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS236.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS237_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000237</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP37 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS237.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS238_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000238</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP38 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS238.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS239_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000239</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP39 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS239.ts</t>
-  </si>
-  <si>
-    <t>EEMOMS240_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMO7000000000000240</t>
-  </si>
-  <si>
-    <t>Matemonstruos T02 EP40 HD</t>
-  </si>
-  <si>
-    <t>EEMOMS240.ts</t>
+    <t>EEFNFT301_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000301</t>
+  </si>
+  <si>
+    <t>Serie Los pies mágicos de Franny</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP01</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP01</t>
+  </si>
+  <si>
+    <t>EP 01</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny crea una escalera para que Leo, el ratón, pueda alcanzar la lente del observatorio.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En un observatorio de Hawai, Franny se encuentra con un ratón apasionado por la astronomía que debido a su pequeño tamaño nunca ha podido alcanzar la lente del telescopio.Franny crea una escalera, y por primera vez el ratón ve anillos de Saturno.</t>
+  </si>
+  <si>
+    <t>00:21:47</t>
+  </si>
+  <si>
+    <t>00:22</t>
+  </si>
+  <si>
+    <t>Infantil/Los pies mágicos de Franny</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Phoebe McAuley, George Buza</t>
+  </si>
+  <si>
+    <t>Decode Franny Prod.</t>
+  </si>
+  <si>
+    <t>McAuley Phoebe, Buza George</t>
+  </si>
+  <si>
+    <t>Wilmot, Frederick Marcello</t>
+  </si>
+  <si>
+    <t>EEFNFT301.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT3_box.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT301_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT302_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000302</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP02</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP02</t>
+  </si>
+  <si>
+    <t>EP 02</t>
+  </si>
+  <si>
+    <t>Edye presenta: En Jamaica Franny y su amigo descubren que la marea se llevó su castillo de arena.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny visita a un amigo en Jamaica, donde construyen un castillo de arena en la playa.Después de un rápido viaje al mercado, su castillo ya no está, pero jugando a los detectives, se dieron cuenta que la marea se llevó su castillo de arena.</t>
+  </si>
+  <si>
+    <t>00:21:48</t>
+  </si>
+  <si>
+    <t>EEFNFT302.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT302_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT303_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000303</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP03</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP03</t>
+  </si>
+  <si>
+    <t>EP 03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Al ver cómo los egipcios usan el papiro, Franny encuentra una solución para una princesa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En el antiguo Egipto, Franny visita a una princesa que quiere agregar un jeroglífico al muro familiar pero antes debe practicar escribir el nombre. Al ver cómo los egipcios usan el papiro, Franny encuentra una solución para la princesa.</t>
+  </si>
+  <si>
+    <t>EEFNFT303.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT303_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT304_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000304</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP04</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP04</t>
+  </si>
+  <si>
+    <t>EP 04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny ayuda a su amiga a buscar a su hermano usando el olfato y el tacto.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny ayuda a su amiga a buscar a su hermano jugando a las econdidas de noche, pero el ruido y la poca visibilidad lo hacen muy difícil. Sabiendo que su hermano come miel, Franny piensa que usando el olfato y el tacto lo pueden encontrar.</t>
+  </si>
+  <si>
+    <t>EEFNFT304.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT304_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT305_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000305</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP05</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP05</t>
+  </si>
+  <si>
+    <t>EP 05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny viaja en un globo aerostático y ayuda a una mariposa a volar a México.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny viaja en un globo aerostático y ayuda a una mariposa a volar a México para su hibernación.Al ver cómo el globo sube con aire caliente y baja con aire frío, Franny sugiere que la mariposa use aire caliente para ayudarla a volar.</t>
+  </si>
+  <si>
+    <t>00:21:46</t>
+  </si>
+  <si>
+    <t>EEFNFT305.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT305_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT306_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000306</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP06</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP06</t>
+  </si>
+  <si>
+    <t>EP 06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny conoce a un amigo en la Antártida y descubre el lugar perfecto para que anide su huevo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En la Antártida, Franny conoce a un pingüino novato ciudando huevos que está agotado de proteger su huevo del frío con sus alas. Franny descubre el lugar perfecto y cálido para que Prewitt anide su huevo: debajo del estómago y encima de sus pies.</t>
+  </si>
+  <si>
+    <t>EEFNFT306.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT306_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT307_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000307</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP07</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP07</t>
+  </si>
+  <si>
+    <t>EP 07</t>
+  </si>
+  <si>
+    <t>Edye presenta: En una boda tradicional de la India, Franny crea una bufanda nueva para su amigo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En una boda tradicional de la India, Franny conoce a un nuevo amigo, un niño cuya bufanda verde translúcida se daña en una planta.Franny tiene una solución y coloca una bufanda amarilla translúcida sobre una azul y crea una verde.</t>
+  </si>
+  <si>
+    <t>EEFNFT307.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT307_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT308_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000308</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP08</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP08</t>
+  </si>
+  <si>
+    <t>EP 08</t>
+  </si>
+  <si>
+    <t>Edye presenta: En un ballet, Franny conoce a Lila, quien da vida a una galleta de jengibre en El Cascanueces.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tras bambalinas de un ballet, Franny conoce a Lila, quien hace el papel de una galleta de jengibre en El Cascanueces. Lila le muestra a Franny el lugar donde ensayan, dónde va la orquesta y la zona donde está el árbol más grande que haya visto.</t>
+  </si>
+  <si>
+    <t>EEFNFT308.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT308_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT309_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000309</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP09</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP09</t>
+  </si>
+  <si>
+    <t>EP 09</t>
+  </si>
+  <si>
+    <t>Edye presenta: En Nueva Zelanda, Franny convive con Iwi, un ave kiwi que le enseña todo sobre su especie.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Franny visita Nueva Zelanda y conoce a Iwi, un ave kiwi que cuida a un pequeño que pronto saldrá del huevo. Cuando la madre llega a cumplir con sus deberes, Iwi le enseña a Franny el área y ella aprende todo sobre los Iwi ¡y prueba deliciosos kiwis!</t>
+  </si>
+  <si>
+    <t>EEFNFT309.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT309_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT310_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000310</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP10</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP10</t>
+  </si>
+  <si>
+    <t>EP 10</t>
+  </si>
+  <si>
+    <t>Edye presenta: El joven astronauta Cosmo le muestra a Fanny su estación espacial y ella flota por todos lados.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En el espacio, Franny conoce a Cosmo, un joven astronauta que le muestra la estación espacial internacional. Ella experimenta la falta de gravedad pues flota en todos lados; también aprende cómo comer, hacer ejercicio y trabajar en el espacio.</t>
+  </si>
+  <si>
+    <t>EEFNFT310.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT310_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT311_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000311</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP11</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP11</t>
+  </si>
+  <si>
+    <t>EP 11</t>
+  </si>
+  <si>
+    <t>Edye presenta: En China, Franny conoce a Ling, quien le dice todo sobre sus amigos Panda: Ko ko, Boo y Nana.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En las montañas de China, Franny conoce a Ling, una joven con amigos Panda: Ko ko, Boo y Nana. Franny aprende todo sobre los osos panda y su comida favorita: el bambú. Cuando comienza a hacer viento, Ling decide que los pandas regresen a su refugio.</t>
+  </si>
+  <si>
+    <t>EEFNFT311.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT311_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT312_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000312</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP12</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP12</t>
+  </si>
+  <si>
+    <t>EP 12</t>
+  </si>
+  <si>
+    <t>Edye presenta: En islas Galápagos, Franny aconseja a la tortuga Tomás ser él mismo para conseguir amigos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En islas Galápagos, Franny conoce a dos tortugas: Tomás y Tilly. A Tomás le gustaría ser amigo de Tilly e intenta varias formas de llamar su atención, pero sus esfuerzos no tienen éxito. Franny le sugiere que sólo hable con ella y sea él mismo.</t>
+  </si>
+  <si>
+    <t>EEFNFT312.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT312_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT313_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN6000000000000313</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de FrannyT03EP13</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP13</t>
+  </si>
+  <si>
+    <t>EP 13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Walter y Mac son dos monos de Gibraltar que le enseñan a Franny el valor de una gran amistad.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En Gibraltar, Franny conoce a Walter y Mac. Walter es un mono tímido y quiere ser amigo de Mac, el simio más popular y extrovertido, pero cree que no tiene tiempo para él. En un viaje a las cuevas, Walter sabe que Mac teme a las sombras y le ayuda.</t>
+  </si>
+  <si>
+    <t>EEFNFT313.mpg</t>
+  </si>
+  <si>
+    <t>EEFNFT313_land.jpg</t>
+  </si>
+  <si>
+    <t>EEFNFT301_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000301</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT301.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT302_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000302</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT302.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT303_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000303</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT303.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT304_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000304</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT304.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT305_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000305</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT305.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT306_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000306</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT306.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT307_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000307</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT307.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT308_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000308</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT308.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT309_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000309</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT309.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT310_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000310</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT310.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT311_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000311</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT311.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT312_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000312</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT312.ts</t>
+  </si>
+  <si>
+    <t>EEFNFT313_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEFN7000000000000313</t>
+  </si>
+  <si>
+    <t>Los pies mágicos de Franny T03 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEFNFT313.ts</t>
   </si>
 </sst>
 </file>
@@ -7176,7 +7269,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7234,7 +7327,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>75</v>
@@ -7246,7 +7339,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -7301,7 +7394,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>340931984</v>
+        <v>613271792</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7344,7 +7437,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7399,10 +7492,10 @@
         <v>92</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V3" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>75</v>
@@ -7414,7 +7507,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA3" s="3">
         <v>45046</v>
@@ -7469,7 +7562,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>320443368</v>
+        <v>613406588</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -7478,7 +7571,7 @@
         <v>56</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -7504,15 +7597,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -7533,13 +7626,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -7549,16 +7642,16 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
@@ -7570,7 +7663,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>75</v>
@@ -7582,7 +7675,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA4" s="3">
         <v>45046</v>
@@ -7637,7 +7730,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>340931984</v>
+        <v>613452460</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -7646,7 +7739,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -7672,15 +7765,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -7701,13 +7794,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -7717,28 +7810,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="V5" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>75</v>
@@ -7750,7 +7843,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA5" s="3">
         <v>45046</v>
@@ -7805,7 +7898,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>274408372</v>
+        <v>613346428</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -7814,7 +7907,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -7840,15 +7933,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -7869,13 +7962,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -7885,28 +7978,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V6" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>75</v>
@@ -7918,7 +8011,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA6" s="3">
         <v>45046</v>
@@ -7973,7 +8066,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>312792332</v>
+        <v>613033596</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -7982,7 +8075,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8008,15 +8101,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8037,13 +8130,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8053,28 +8146,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="V7" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>75</v>
@@ -8086,7 +8179,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA7" s="3">
         <v>45046</v>
@@ -8141,7 +8234,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>331663020</v>
+        <v>613033596</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8150,7 +8243,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8176,15 +8269,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8205,13 +8298,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8221,28 +8314,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="V8" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>75</v>
@@ -8254,7 +8347,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA8" s="3">
         <v>45046</v>
@@ -8309,7 +8402,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>328782860</v>
+        <v>613002012</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8318,7 +8411,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8344,15 +8437,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8373,13 +8466,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8389,28 +8482,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V9" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>75</v>
@@ -8422,7 +8515,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA9" s="3">
         <v>45046</v>
@@ -8477,7 +8570,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>315506300</v>
+        <v>613002012</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -8486,7 +8579,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -8512,15 +8605,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B10" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -8541,13 +8634,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -8557,28 +8650,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V10" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>75</v>
@@ -8590,7 +8683,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA10" s="3">
         <v>45046</v>
@@ -8645,7 +8738,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>323111276</v>
+        <v>612987724</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -8654,7 +8747,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -8680,15 +8773,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -8709,13 +8802,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -8725,28 +8818,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>74</v>
       </c>
       <c r="V11" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>75</v>
@@ -8758,7 +8851,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA11" s="3">
         <v>45046</v>
@@ -8813,7 +8906,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>320847756</v>
+        <v>613033596</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -8822,7 +8915,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -8848,188 +8941,512 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="6">
+        <v>2009</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>43565</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>45046</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
+      <c r="AM12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>613002012</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
+      <c r="AX12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ12" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
+      <c r="BB12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF12" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="6">
+        <v>2009</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>43565</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>45046</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
+      <c r="AM13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>613033596</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
+      <c r="AX13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ13" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
+      <c r="BB13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF13" s="6" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="6">
+        <v>2009</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>43565</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>45046</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
+      <c r="AM14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>613033596</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
+      <c r="AX14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ14" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
+      <c r="BB14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF14" s="6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -13968,10 +14385,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -13992,7 +14409,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>67</v>
@@ -14008,7 +14425,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>70</v>
@@ -14029,7 +14446,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>75</v>
@@ -14041,7 +14458,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -14096,7 +14513,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>681806440</v>
+        <v>1226485868</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -14105,7 +14522,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -14136,10 +14553,10 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -14160,7 +14577,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>67</v>
@@ -14176,7 +14593,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>89</v>
@@ -14194,10 +14611,10 @@
         <v>92</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V3" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>75</v>
@@ -14209,7 +14626,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA3" s="3">
         <v>45046</v>
@@ -14264,7 +14681,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>640823380</v>
+        <v>1226755460</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -14273,7 +14690,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -14299,15 +14716,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -14328,13 +14745,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -14344,16 +14761,16 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
@@ -14365,7 +14782,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>75</v>
@@ -14377,7 +14794,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA4" s="3">
         <v>45046</v>
@@ -14432,7 +14849,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>681806440</v>
+        <v>1226847392</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -14441,7 +14858,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -14467,15 +14884,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -14496,13 +14913,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -14512,28 +14929,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="V5" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>75</v>
@@ -14545,7 +14962,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA5" s="3">
         <v>45046</v>
@@ -14600,7 +15017,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>548753388</v>
+        <v>1226635140</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -14609,7 +15026,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -14635,15 +15052,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -14664,13 +15081,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -14680,28 +15097,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V6" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>75</v>
@@ -14713,7 +15130,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA6" s="3">
         <v>45046</v>
@@ -14768,7 +15185,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>625527136</v>
+        <v>1226003836</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -14777,7 +15194,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -14803,15 +15220,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -14832,13 +15249,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -14848,28 +15265,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="V7" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>75</v>
@@ -14881,7 +15298,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA7" s="3">
         <v>45046</v>
@@ -14936,7 +15353,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>663262684</v>
+        <v>1226003836</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -14945,7 +15362,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -14971,15 +15388,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B8" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -15000,13 +15417,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -15016,28 +15433,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="V8" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>75</v>
@@ -15049,7 +15466,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA8" s="3">
         <v>45046</v>
@@ -15104,7 +15521,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>657508004</v>
+        <v>1225946496</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -15113,7 +15530,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -15139,15 +15556,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B9" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -15168,13 +15585,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -15184,28 +15601,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V9" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>75</v>
@@ -15217,7 +15634,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA9" s="3">
         <v>45046</v>
@@ -15272,7 +15689,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>630954696</v>
+        <v>1225946496</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -15281,7 +15698,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -15307,15 +15724,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B10" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -15336,13 +15753,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -15352,28 +15769,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="V10" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>75</v>
@@ -15385,7 +15802,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA10" s="3">
         <v>45046</v>
@@ -15440,7 +15857,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>646165024</v>
+        <v>1225917920</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -15449,7 +15866,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -15475,15 +15892,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B11" s="3">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -15504,13 +15921,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -15520,28 +15937,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>74</v>
       </c>
       <c r="V11" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>75</v>
@@ -15553,7 +15970,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA11" s="3">
         <v>45046</v>
@@ -15608,7 +16025,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>641637984</v>
+        <v>1226003836</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -15617,7 +16034,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -15643,188 +16060,512 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="6">
+        <v>2009</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>43565</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>45046</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
+      <c r="AM12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>1225946496</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV12" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
+      <c r="AX12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ12" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
+      <c r="BB12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF12" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="6">
+        <v>2009</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>43565</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>45046</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
+      <c r="AM13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>1226003836</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
+      <c r="AX13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ13" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
+      <c r="BB13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF13" s="6" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44625</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="6">
+        <v>2009</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>43565</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>45046</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
+      <c r="AM14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>1226003836</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
+      <c r="AX14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ14" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
+      <c r="BB14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF14" s="6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A07EDB-646C-48CE-BB5A-A020D253E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C53FB6-0036-4B46-934E-C7377204C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="414">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -272,535 +272,1012 @@
     <t>EP 13</t>
   </si>
   <si>
-    <t>EELOUI301_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000301</t>
-  </si>
-  <si>
-    <t>Serie Louie</t>
-  </si>
-  <si>
-    <t>LouieT03EP01</t>
-  </si>
-  <si>
-    <t>Louie T03 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko organizan una fiesta, ¡pero Yoko no envió las invitaciones! ¿Qué harán?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko organizan una fiesta para sus amigos, ¡pero a Yoko se olvidó enviar las invitaciones! ¿Cómo harán para que sus invitados se enteren? Louie tiene una idea: ¡dibuja una paloma mensajera para entregar las invitaciones al ritmo de un ala!</t>
-  </si>
-  <si>
-    <t>00:06:48</t>
-  </si>
-  <si>
-    <t>00:07</t>
-  </si>
-  <si>
-    <t>Infantil/Louie</t>
-  </si>
-  <si>
-    <t>Louie</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Shelley Longworth</t>
-  </si>
-  <si>
-    <t>Albin M.Yves Got M.</t>
-  </si>
-  <si>
-    <t>Longworth, Shelley</t>
-  </si>
-  <si>
-    <t>Narboux, François</t>
-  </si>
-  <si>
-    <t>EELOUI301.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI3_box.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI301_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI302_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000302</t>
-  </si>
-  <si>
-    <t>LouieT03EP02</t>
-  </si>
-  <si>
-    <t>Louie T03 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie tiene una idea para atraer visitantes al lago, dibujar al monstruo del Lago Ness.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko descansan junto al lago cuando el guardián del parque los interrumpe quejándose de que casi nadie visita el lago. Louie tiene una idea: para atraer visitantes, él y Yoko dibujan el monstruo del lago Ness.</t>
-  </si>
-  <si>
-    <t>00:06:47</t>
-  </si>
-  <si>
-    <t>EELOUI302.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI302_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI303_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000303</t>
-  </si>
-  <si>
-    <t>LouieT03EP03</t>
-  </si>
-  <si>
-    <t>Louie T03 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Qué harán Louie y Yoko para recuperar el regalo de Santa Claus de las aguas del Polo Norte.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko están están en el Polo Norte, le llevan un regalo a Santa Claus. De repente, el hielo se rompe y el regalo se hunde en el agua helada. ¿Quién podrá pescarlo? Louie dibuja un narval para rescatar el paquete del fondo marino.</t>
-  </si>
-  <si>
-    <t>EELOUI303.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI303_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI304_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000304</t>
-  </si>
-  <si>
-    <t>LouieT03EP04</t>
-  </si>
-  <si>
-    <t>Louie T03 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie dibuja un iglú para refugiarse junto a Yoko y un oso de la nieve y el viento en el Ártico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En su viaje por el Ártico, Louie y Yoko se encuentran un oso polar que busca refugio de una tormenta de nieve. Louie decide construir un iglú, el mejor refugio para protegerse de la nieve y el viento.</t>
-  </si>
-  <si>
-    <t>00:06:46</t>
-  </si>
-  <si>
-    <t>EELOUI304.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI304_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI305_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000305</t>
-  </si>
-  <si>
-    <t>LouieT03EP05</t>
-  </si>
-  <si>
-    <t>Louie T03 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie dibuja un águila para que le ayude a encontrar un refugio en las montañas para él y Yoko.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras escalan a Louie y Yoko los sorprende una tormenta. Para encontrar un refugio Louie dibuja un águila, que con su privilegiada vista los podrá ayudar. ¡Pero al primer trueno el pájaro escapa! Louie dibuja una segunda águila más valiente.</t>
-  </si>
-  <si>
-    <t>00:06:51</t>
-  </si>
-  <si>
-    <t>EELOUI305.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI305_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI306_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000306</t>
-  </si>
-  <si>
-    <t>LouieT03EP06</t>
-  </si>
-  <si>
-    <t>Louie T03 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Qué nuevo amigo tendrá que dibujar Louie para que le ayude a reparar la red de bádminton.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Durante un juego de bádminton, Louie rompe la red. ¿Quién puede ayudarlo a repararla? Louie dibuja una araña para tejer una red y reparar el agujero. Pero esta araña tiene una misión más importante que cumplir …</t>
-  </si>
-  <si>
-    <t>00:06:45</t>
-  </si>
-  <si>
-    <t>EELOUI306.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI306_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI307_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000307</t>
-  </si>
-  <si>
-    <t>LouieT03EP07</t>
-  </si>
-  <si>
-    <t>Louie T03 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie dibuja un pirata para encontrar un tesoro…Pero ¡Nunca debes confiar en un pirata!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko han encontrado un mapa del tesoro, pero no saben cómo leerlo. Louie dibuja un pirata para que los ayude ha encontrarlo, ¡pero ten cuidado, Louie! ¡Nunca debes confiar en un pirata!</t>
-  </si>
-  <si>
-    <t>00:06:55</t>
-  </si>
-  <si>
-    <t>EELOUI307.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI307_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI308_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000308</t>
-  </si>
-  <si>
-    <t>LouieT03EP08</t>
-  </si>
-  <si>
-    <t>Louie T03 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Qué ave tendrá que dibujar Louie para que abanique a Sophie en su papel de sultana.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Yoko y Sophie están jugando a los sultanes. Sophie es la sultana y Yoko se está aburriendo, también quiere ser la sultana y que Sophie la abanique, pero ella se niega. Para resolver la disputa, Louie dibuja un pavo real.</t>
-  </si>
-  <si>
-    <t>00:06:36</t>
-  </si>
-  <si>
-    <t>EELOUI308.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI308_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI309_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000309</t>
-  </si>
-  <si>
-    <t>LouieT03EP09</t>
-  </si>
-  <si>
-    <t>Louie T03 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Para que Sophie juege a los indios con Yoko y Louie, él debe dibujar una tienda tipi.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko están jugando indios. Le piden a Sophie que se una, pero ella siente que necesita algo más para convertirla en una verdadera india. Louie y Yoko le dibujan un tipi.</t>
-  </si>
-  <si>
-    <t>00:06:53</t>
-  </si>
-  <si>
-    <t>EELOUI309.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI309_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI310_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000310</t>
-  </si>
-  <si>
-    <t>LouieT03EP10</t>
-  </si>
-  <si>
-    <t>Louie T03 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie pretende ser un mago y dice que puede despertar a Sophie. Para hacerlo, dibuja un gallo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Yoko está bromeando con Louie y finge que puede hacer que Sophie se duerma porque es una poderosa maga. ¡Louie también pretende ser un mago y dice que puede despertar a Sophie! Para hacerlo, dibuja un gallo.</t>
-  </si>
-  <si>
-    <t>00:07:10</t>
-  </si>
-  <si>
-    <t>EELOUI310.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI310_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI311_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000311</t>
-  </si>
-  <si>
-    <t>LouieT03EP11</t>
-  </si>
-  <si>
-    <t>Louie T03 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko están organizando un circo para Sophie. Pero ¿quién hará de payaso?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie y Yoko están organizando un circo para Sophie y los otros animales. Louie hará de acróbata, mago y malabarista... entonces, ¿quién será el payaso? Ante la negativa de Yoko, Louie dibuja un payaso.</t>
-  </si>
-  <si>
-    <t>EELOUI311.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI311_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI312_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000312</t>
-  </si>
-  <si>
-    <t>LouieT03EP12</t>
-  </si>
-  <si>
-    <t>Louie T03 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Louie debe dibujar una ave que detecta las cosas brillantes para encontrar la corona de Sophie.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Sophie se va, Yoko toma prestada su brillante corona. Pero se le cae en la hierba y ni ella ni Louie pueden encontrarla. ¿Qué hacer? Louie dibuja un animal famoso por detectar cosas brillantes: ¡Una urraca!</t>
-  </si>
-  <si>
-    <t>00:06:52</t>
-  </si>
-  <si>
-    <t>EELOUI312.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI312_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI313_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO6000000000000313</t>
-  </si>
-  <si>
-    <t>LouieT03EP13</t>
-  </si>
-  <si>
-    <t>Louie T03 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sophie pierde su oso de peluche en la nieve y Louie dibuja un San Bernardo para encontrarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras juega en un trineo con Louie y Yoko, Sophie pierde su oso de peluche en una montaña de nieve. Para encontrarlo, Louie y Yoko dibujan al rey de los rescatadores, un perro de San Bernardo.</t>
-  </si>
-  <si>
-    <t>00:06:54</t>
-  </si>
-  <si>
-    <t>EELOUI313.mpg</t>
-  </si>
-  <si>
-    <t>EELOUI313_land.jpg</t>
-  </si>
-  <si>
-    <t>EELOUI301_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000301</t>
-  </si>
-  <si>
-    <t>Louie T03 EP01 HD</t>
-  </si>
-  <si>
-    <t>EELOUI301.ts</t>
-  </si>
-  <si>
-    <t>EELOUI302_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000302</t>
-  </si>
-  <si>
-    <t>Louie T03 EP02 HD</t>
-  </si>
-  <si>
-    <t>EELOUI302.ts</t>
-  </si>
-  <si>
-    <t>EELOUI303_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000303</t>
-  </si>
-  <si>
-    <t>Louie T03 EP03 HD</t>
-  </si>
-  <si>
-    <t>EELOUI303.ts</t>
-  </si>
-  <si>
-    <t>EELOUI304_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000304</t>
-  </si>
-  <si>
-    <t>Louie T03 EP04 HD</t>
-  </si>
-  <si>
-    <t>EELOUI304.ts</t>
-  </si>
-  <si>
-    <t>EELOUI305_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000305</t>
-  </si>
-  <si>
-    <t>Louie T03 EP05 HD</t>
-  </si>
-  <si>
-    <t>EELOUI305.ts</t>
-  </si>
-  <si>
-    <t>EELOUI306_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000306</t>
-  </si>
-  <si>
-    <t>Louie T03 EP06 HD</t>
-  </si>
-  <si>
-    <t>EELOUI306.ts</t>
-  </si>
-  <si>
-    <t>EELOUI307_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000307</t>
-  </si>
-  <si>
-    <t>Louie T03 EP07 HD</t>
-  </si>
-  <si>
-    <t>EELOUI307.ts</t>
-  </si>
-  <si>
-    <t>EELOUI308_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000308</t>
-  </si>
-  <si>
-    <t>Louie T03 EP08 HD</t>
-  </si>
-  <si>
-    <t>EELOUI308.ts</t>
-  </si>
-  <si>
-    <t>EELOUI309_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000309</t>
-  </si>
-  <si>
-    <t>Louie T03 EP09 HD</t>
-  </si>
-  <si>
-    <t>EELOUI309.ts</t>
-  </si>
-  <si>
-    <t>EELOUI310_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000310</t>
-  </si>
-  <si>
-    <t>Louie T03 EP10 HD</t>
-  </si>
-  <si>
-    <t>EELOUI310.ts</t>
-  </si>
-  <si>
-    <t>EELOUI311_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000311</t>
-  </si>
-  <si>
-    <t>Louie T03 EP11 HD</t>
-  </si>
-  <si>
-    <t>EELOUI311.ts</t>
-  </si>
-  <si>
-    <t>EELOUI312_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000312</t>
-  </si>
-  <si>
-    <t>Louie T03 EP12 HD</t>
-  </si>
-  <si>
-    <t>EELOUI312.ts</t>
-  </si>
-  <si>
-    <t>EELOUI313_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EELO7000000000000313</t>
-  </si>
-  <si>
-    <t>Louie T03 EP13 HD</t>
-  </si>
-  <si>
-    <t>EELOUI313.ts</t>
+    <t>EEGEST301_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000301</t>
+  </si>
+  <si>
+    <t>Serie Gerónimo Stilton</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP01</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡En Escocia, Trap, Geronimo y toda la familia Stilton se involucra con un cazador de brujas!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Trap y Gerónimo visitan el Royal Golf Club de Escocia. Ahí conocen a Van Mousling, un cazador de brujas -que designa a Trap su sucesor- A partir de ese momento, los Stilton tratarán de resolver el misterio de la aparición de brujas en el pueblo.</t>
+  </si>
+  <si>
+    <t>00:23:00</t>
+  </si>
+  <si>
+    <t>00:23</t>
+  </si>
+  <si>
+    <t>Infantil/Gerónimo Stilton</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Brian Drummond, Erin Mathews, Sarah Edmondson, Richard Cox, Monica Smouter</t>
+  </si>
+  <si>
+    <t>Atlantyca-M.Scoop</t>
+  </si>
+  <si>
+    <t>Drummond Brian, Mathews Erin, Edmondson Sarah, Cox Richard, Smouter Monica</t>
+  </si>
+  <si>
+    <t>Veca, Davide</t>
+  </si>
+  <si>
+    <t>EEGEST301.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST3_box.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST301_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST302_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000302</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP02</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y sus amigos visitan al tío Gravis en Transratania, para buscar al Lobo-ratón.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y sus amigos visitan a su tío Gravis en Transratania, pero cuando el tío Gravis se da cuenta de que él es el Lobo-ratón y deja la ciudad para no asustar a los demás, Gerónimo se apresura a encontrar la verdad.</t>
+  </si>
+  <si>
+    <t>EEGEST302.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST302_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST303_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000303</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP03</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un multimillonario dona un tesoro a una aldea remota y un grupo de ladrones trata de robarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo cubre la historia de un multimillonario que dona su más preciada posesión a una aldea en el desierto. Pero cuando unos criminales organizan una carrera para robarla, Gerónimo se une para asegurarse de que la joya llegue a su destino.</t>
+  </si>
+  <si>
+    <t>EEGEST303.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST303_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST304_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000304</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP04</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡El profesor Von Volt crea una máquina que duplica ratones! Trap la usa irresponsablemente.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El profesor Von Volt crea una fotocopiadora 3D capaz de duplicar ratones!. Trap usa la máquina para clonarse a sí mismo y ahorrarse el ayudar a limpiar la oficina de Gerónimo para la inspección de seguridad. Sally Rasmaussen también tiene planes.</t>
+  </si>
+  <si>
+    <t>EEGEST304.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST304_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST305_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000305</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP05</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: En la Feria del Libro, Gerónimo investiga un misterio mientras trata de permanecer despierto.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Para terminar su autobiografía, Gerónimo no duerme durante una semana. En la Feria del Libro, durante la presentación de su obra, los Stilton se las ingenian para que esté despierto. Todo se complica cuando lo buscan para resolver un caso.</t>
+  </si>
+  <si>
+    <t>EEGEST305.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST305_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST306_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000306</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP06</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Un aparato intercambia los cerebros de Sally y Gerónimo y sólo tienen 24 hrs para revertirlo!</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Un dispositivo de interruptor cerebral se activa accidentalmente, lo que hace que Sally y Gerónimo cambien sus cerebros! Mientras Sally intenta aprovecharse de la situación, ¡Gerónimo sólo quiere convencer a su familia de que él es él mismo!</t>
+  </si>
+  <si>
+    <t>EEGEST306.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST306_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST307_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000307</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP07</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y sus amigos investigan un 'monstruo gallo' que aterroriza al público del teatro.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y sus amigos investigan sobre un monstruo que aterroriza a la audiencia del teatro. En un intento de sorprender a una joven actriz, Trap convierte la trágica pieza en una exitosa comedia, mientras el monstruo continúa acechando el teatro.</t>
+  </si>
+  <si>
+    <t>EEGEST307.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST307_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST308_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000308</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP08</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Durante una competencia, los Stilton deben evitar que Grax lleve a cabo un plan siniestro.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Thea intenta romper el récord mundial de parapente, pero con Trap al volante, el Meta-Ratón choca con un yate y son salvados por el multimillonario Grax, quien oculta un cohete en su embarcación. Gerónimo debe salvar al mundo antes que sea muy tarde.</t>
+  </si>
+  <si>
+    <t>EEGEST308.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST308_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST309_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000309</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP09</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Stilton investigan la desaparición de periodistas relacionada con una hechicera.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo recibe un mensaje urgente de un periódico: su director desapareció mientras investigaba la leyenda de la hechicera del pantano. La pandilla viaja hasta allá y al desaparecer otro periodista, los Stilton se ven obligados a resolver el caso.</t>
+  </si>
+  <si>
+    <t>EEGEST309.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST309_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST310_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000310</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP10</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Trap fue capturado por un OVNI en el desierto y Gerónimo debe investigar y rescatarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo recibe información de un aficionado a los ovnis sobre avistamientos de platillos voladores el desierto. Cuando Trap insiste en acampar en el desierto y aparentemente es secuestrado por un OVNI, Gerónimo debe averiguar qué está pasando.</t>
+  </si>
+  <si>
+    <t>EEGEST310.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST310_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST311_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000311</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP11</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo investiga la historia de unos guerreros de cerámica que 'escaparon' de un museo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Stilton viajan al exótico Bigotistán donde Gerónimo escucha una historia asombrosa sobre la colección de guerreros de cerámica del reino que parecen estar 'escapando' del museo! ¡Gerónimo necesita averiguar si es cierto!</t>
+  </si>
+  <si>
+    <t>EEGEST311.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST311_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST312_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000312</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP12</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y compañía viaja a una isla para cubrir la historia de un supuesto monstruo marino.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y compañía viajan a una isla para cubrir la historia de un supuesto monstruo marino. Allí conocen a un científico que descarta que la historia sea real. Pero, ¿por qué el científico está tan ansioso de que Gerónimo abandone la isla?</t>
+  </si>
+  <si>
+    <t>EEGEST312.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST312_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST313_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000313</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP13</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo investiga la misteriosa desaparición de Augusto, la estrella del circo Alexia Russ.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El circo de Alexia Russ llega a Ciudad Nueva Ratón, pero su debut se ve amenazado por la misteriosa desaparición de su principal atracción, Augusto el payaso. Mientras Gerónimo indaga en el misterio, Trap se prepara para sustituir a Augusto.</t>
+  </si>
+  <si>
+    <t>EEGEST313.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST313_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST314_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000314</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP14</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP14</t>
+  </si>
+  <si>
+    <t>EP 14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo y el equipo buscan a Thea, quien desapareció mientras cubría la erupción de un volcán.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando un volcán inactivo amenaza con entrar en erupción y Thea, que informa desde el lugar, desaparece, Gerónimo y el equipo viajan a Ratonlandia para encontrarla antes de que sea demasiado Sally intentará frustrar los esfuerzos de Gerónimo.</t>
+  </si>
+  <si>
+    <t>EEGEST314.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST314_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST315_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000315</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP15</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP15</t>
+  </si>
+  <si>
+    <t>EP 15</t>
+  </si>
+  <si>
+    <t>Edye presenta: While competing in the Mouselympic Games, Thea becomes suspected of sabotage.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras Thea compite en los Juegos Ratolímpicos, alguien sabotea el equipo de los competidores. Thea es la única que no resulta afectada por el ataque y todos sospechan de ella. Gerónimo y compañía, deben investigar el hecho y limpiar su nombre.</t>
+  </si>
+  <si>
+    <t>EEGEST315.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST315_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST316_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000316</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP16</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP16</t>
+  </si>
+  <si>
+    <t>EP 16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Stilton viajan a Japón. Durante la visita, la espada de la familia Ratitomo desaparece.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hideyoshi Ratitomo, el último samurái, invita a los Stilton a Japón. Durante la visita, unos ninjas roban el tesoro de la familia: una espada. Gerónimo, Thea y Benjamín intentan encontrar la espada para restablecer el honor del anfitrión.</t>
+  </si>
+  <si>
+    <t>EEGEST316.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST316_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST317_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000317</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP17</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP17</t>
+  </si>
+  <si>
+    <t>EP 17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo investiga la aparición de una jirafa en Ciudad Nueva Ratón y el secuestro de Trap.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando una jirafa aparece en las calles de Ciudad Nueva Ratón, los Stilton la capturan y Gerónimo investiga cómo llegó el animal a la ciudad. Cuando está cerca de resolver el misterio, Trap es secuestrado. ¿Podrá Gerónimo rescatarlo a tiempo?</t>
+  </si>
+  <si>
+    <t>EEGEST317.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST317_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST318_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000318</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP18</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP18</t>
+  </si>
+  <si>
+    <t>EP 18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Benjamin, Pandora y Trap viajan al campamento espacial ¡y Gerónimo debe rescatarlos!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Benjamín y Pandora ganan un viaje al Campamento Espacial y Trap viaja con ellos. Durante el recorrido a la nave espacial, ¡Trap presiona todos los botones y la nave despega! Gerónimo y Thea pilotean el Meta-Ratón hasta la luna para rescatarlos.</t>
+  </si>
+  <si>
+    <t>EEGEST318.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST318_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST319_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000319</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP19</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP19</t>
+  </si>
+  <si>
+    <t>EP 19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo investiga el robo de dentadura postiza a personas mayores; ¡resulta ser un misterio!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerónimo está presentando las noticias vespertinas cuando su abuelo lo interrumpe para anunciar a gritos que alguien está robando las dentaduras postizas a los ancianos. ¡El incidente resulta ser parte de un gran misterio!</t>
+  </si>
+  <si>
+    <t>EEGEST319.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST319_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST320_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000320</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP20</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP20</t>
+  </si>
+  <si>
+    <t>EP 20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las vacaciones 'virtuales' de Gerónimo se vuelven una pesadilla cuando Sally decide intervenir.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El profesor Von Volt envía a Gerónimo a unas 'vacaciones virtuales' conectando su cerebro a un programa de computadora. Cuando Sally Rasmaussen planta un virus en la computadora de Gerónimo, las vacaciones de sus sueños se vuelven una pesadilla.</t>
+  </si>
+  <si>
+    <t>EEGEST320.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST320_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST321_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000321</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP21</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP21</t>
+  </si>
+  <si>
+    <t>EP 21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una antigua estatuilla es robada y Gerónimo descubre que es sólo la mitad de la pieza.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una antigua estatuilla ha sido robada y Gerónimo descubre que es sólo la mitad de una pieza más grande. El ladrón trata de robar la parte faltante que está en el museo. Los Stilton trabajan juntos para detenerlo durante el campeonato de patineta.</t>
+  </si>
+  <si>
+    <t>EEGEST321.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST321_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST322_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000322</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP22</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP22</t>
+  </si>
+  <si>
+    <t>EP 22</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡En la ciudad Nueva Ratón aparecen fantasmas por todas partes! ¿Quién podrá enfrentarlos?</t>
+  </si>
+  <si>
+    <t>Edye presenta: La ciudad Nueva Ratón es víctima de apariciones fantasmas y un grupo de cazafantasmas aparece para enfrentarlos. Trap intenta unirse al escuadrón pero Gerónimo está convencido de que se trata de una jugada para hacerse famosos.</t>
+  </si>
+  <si>
+    <t>EEGEST322.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST322_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST323_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000323</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP23</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP23</t>
+  </si>
+  <si>
+    <t>EP 23</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Un mensaje en una botella convence a Gerónimo de que un explorador perdido podría estar vivo!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un mensaje en una botella convence a Gerónimo de que un explorador, que se presumía perdido en el mar, podría estar vivo en una isla remota. Durante la búsqueda Gerónimo debe enfrentar todo tipo de peligros ¡incluyendo a Sally!</t>
+  </si>
+  <si>
+    <t>EEGEST323.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST323_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST324_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000324</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP24</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP24</t>
+  </si>
+  <si>
+    <t>EP 24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Thea cuida a un bebé pero también tiene exclusivas que cubrir; Trap se ofrece a ayudarla.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Thea cuida a un bebé ratón pero también tiene trabajo, así que Trap se ofrece para cuidar al bebé. Thea y Benjamín recorren la ciudad para tratar de lograr sus notcias exclusivas, mientras que Gerónimo y Trap corren por toda la oficina tras el bebé.</t>
+  </si>
+  <si>
+    <t>EEGEST324.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST324_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST325_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000325</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP25</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP25</t>
+  </si>
+  <si>
+    <t>EP 25</t>
+  </si>
+  <si>
+    <t>Edye presenta: La película con la que los Stilton van a participar en el festival de cine, ¡desapareció!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Benjamín y Pandora hacen una película para participar en el festival de cine de la Ciudad Nueva Ratón. Todos los Stilton están en él, incluido Trap. Cuando uno de los jueces aparece atado y sin el trofeo, Gerónimo debe averiguar quién lo hizo.</t>
+  </si>
+  <si>
+    <t>EEGEST325.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST325_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST326_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE6000000000000326</t>
+  </si>
+  <si>
+    <t>Gerónimo StiltonT03EP26</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP26</t>
+  </si>
+  <si>
+    <t>EP 26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Stilton deben investigar la desaparición de un nuevo y misterioso prototipo de videojuego.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El prototipo de un nuevo videojuego desapareció. Lo único que se sabe al respecto es que su creador es una leyenda en el mundo de los juegos electrónicos . Los Stilton participan en la búsqueda menos Trap, quien parece estar jugando a ser un espía.</t>
+  </si>
+  <si>
+    <t>EEGEST326.mpg</t>
+  </si>
+  <si>
+    <t>EEGEST326_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGEST301_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000301</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEGEST301.ts</t>
+  </si>
+  <si>
+    <t>EEGEST302_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000302</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEGEST302.ts</t>
+  </si>
+  <si>
+    <t>EEGEST303_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000303</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEGEST303.ts</t>
+  </si>
+  <si>
+    <t>EEGEST304_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000304</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEGEST304.ts</t>
+  </si>
+  <si>
+    <t>EEGEST305_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000305</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEGEST305.ts</t>
+  </si>
+  <si>
+    <t>EEGEST306_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000306</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEGEST306.ts</t>
+  </si>
+  <si>
+    <t>EEGEST307_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000307</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEGEST307.ts</t>
+  </si>
+  <si>
+    <t>EEGEST308_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000308</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEGEST308.ts</t>
+  </si>
+  <si>
+    <t>EEGEST309_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000309</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEGEST309.ts</t>
+  </si>
+  <si>
+    <t>EEGEST310_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000310</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEGEST310.ts</t>
+  </si>
+  <si>
+    <t>EEGEST311_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000311</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEGEST311.ts</t>
+  </si>
+  <si>
+    <t>EEGEST312_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000312</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEGEST312.ts</t>
+  </si>
+  <si>
+    <t>EEGEST313_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000313</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEGEST313.ts</t>
+  </si>
+  <si>
+    <t>EEGEST314_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000314</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEGEST314.ts</t>
+  </si>
+  <si>
+    <t>EEGEST315_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000315</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEGEST315.ts</t>
+  </si>
+  <si>
+    <t>EEGEST316_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000316</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEGEST316.ts</t>
+  </si>
+  <si>
+    <t>EEGEST317_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000317</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEGEST317.ts</t>
+  </si>
+  <si>
+    <t>EEGEST318_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000318</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEGEST318.ts</t>
+  </si>
+  <si>
+    <t>EEGEST319_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000319</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEGEST319.ts</t>
+  </si>
+  <si>
+    <t>EEGEST320_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000320</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEGEST320.ts</t>
+  </si>
+  <si>
+    <t>EEGEST321_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000321</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEGEST321.ts</t>
+  </si>
+  <si>
+    <t>EEGEST322_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000322</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEGEST322.ts</t>
+  </si>
+  <si>
+    <t>EEGEST323_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000323</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEGEST323.ts</t>
+  </si>
+  <si>
+    <t>EEGEST324_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000324</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEGEST324.ts</t>
+  </si>
+  <si>
+    <t>EEGEST325_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000325</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEGEST325.ts</t>
+  </si>
+  <si>
+    <t>EEGEST326_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGE7000000000000326</t>
+  </si>
+  <si>
+    <t>Gerónimo Stilton T03 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEGEST326.ts</t>
   </si>
 </sst>
 </file>
@@ -7293,7 +7770,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7351,7 +7828,7 @@
         <v>86</v>
       </c>
       <c r="V2" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>87</v>
@@ -7363,10 +7840,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -7418,7 +7895,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>192026208</v>
+        <v>647593636</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7461,7 +7938,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7513,13 +7990,13 @@
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V3" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>87</v>
@@ -7531,10 +8008,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -7586,7 +8063,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>191277592</v>
+        <v>647593636</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -7595,7 +8072,7 @@
         <v>56</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -7621,15 +8098,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -7650,13 +8127,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -7666,28 +8143,28 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V4" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>87</v>
@@ -7699,10 +8176,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -7754,7 +8231,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>191246008</v>
+        <v>647576340</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -7763,7 +8240,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -7789,15 +8266,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -7818,13 +8295,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -7834,28 +8311,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V5" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>87</v>
@@ -7867,10 +8344,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -7922,7 +8399,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>190901780</v>
+        <v>647576340</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -7931,7 +8408,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -7957,15 +8434,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -7986,13 +8463,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8002,28 +8479,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V6" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>87</v>
@@ -8035,10 +8512,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -8090,7 +8567,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>193331492</v>
+        <v>647593636</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8099,7 +8576,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8125,15 +8602,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8154,13 +8631,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8170,28 +8647,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V7" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>87</v>
@@ -8203,10 +8680,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -8258,7 +8735,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>190617712</v>
+        <v>647593636</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8267,7 +8744,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8293,15 +8770,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8322,13 +8799,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8338,28 +8815,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V8" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>87</v>
@@ -8371,10 +8848,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -8426,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>195041352</v>
+        <v>647125892</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8435,7 +8912,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8461,15 +8938,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B9" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8490,13 +8967,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8506,28 +8983,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V9" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>87</v>
@@ -8539,10 +9016,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -8594,7 +9071,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>186446556</v>
+        <v>647458840</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -8603,7 +9080,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -8629,15 +9106,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -8658,13 +9135,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -8674,28 +9151,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V10" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>87</v>
@@ -8707,10 +9184,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -8762,7 +9239,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>194395948</v>
+        <v>647593636</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -8771,7 +9248,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -8797,15 +9274,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -8826,13 +9303,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -8842,28 +9319,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V11" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>87</v>
@@ -8875,10 +9352,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA11" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -8930,7 +9407,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>202092856</v>
+        <v>647593636</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -8939,7 +9416,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -8965,15 +9442,15 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B12" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -8994,13 +9471,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -9010,28 +9487,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V12" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>87</v>
@@ -9043,10 +9520,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA12" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -9098,7 +9575,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>191621820</v>
+        <v>647593636</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -9107,7 +9584,7 @@
         <v>56</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -9133,15 +9610,15 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B13" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -9162,13 +9639,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -9178,28 +9655,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V13" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>87</v>
@@ -9211,10 +9688,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA13" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -9266,7 +9743,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>193977084</v>
+        <v>647593636</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -9275,7 +9752,7 @@
         <v>56</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -9301,15 +9778,15 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -9330,13 +9807,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -9346,28 +9823,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V14" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>87</v>
@@ -9379,10 +9856,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA14" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -9434,7 +9911,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>194892268</v>
+        <v>647593636</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -9443,7 +9920,7 @@
         <v>56</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -9469,788 +9946,2192 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V15" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
+      <c r="AM15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
+      <c r="AX15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ15" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
+      <c r="BB15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF15" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
+      <c r="AM16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS16" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
+      <c r="AX16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ16" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
+      <c r="BB16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF16" s="6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V17" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
+      <c r="AM17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS17" s="6">
+        <v>647576340</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
+      <c r="AX17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ17" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
+      <c r="BB17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF17" s="6" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
+      <c r="AM18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
+      <c r="AX18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ18" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
+      <c r="BB18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF18" s="6" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V19" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
+      <c r="AM19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
+      <c r="AX19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ19" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
+      <c r="BB19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF19" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V20" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
+      <c r="AM20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
+      <c r="AX20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ20" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
+      <c r="BB20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
+      <c r="AM21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS21" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
+      <c r="AX21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ21" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
+      <c r="BB21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF21" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V22" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
+      <c r="AM22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS22" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
+      <c r="AX22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ22" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
+      <c r="BB22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF22" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V23" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
+      <c r="AM23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS23" s="6">
+        <v>647547764</v>
+      </c>
+      <c r="AT23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
+      <c r="AX23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ23" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
+      <c r="BB23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF23" s="6" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
+      <c r="AM24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS24" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>281</v>
+      </c>
       <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
+      <c r="AX24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
+      <c r="BB24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF24" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V25" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
+      <c r="AM25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS25" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
+      <c r="AX25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ25" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
+      <c r="BB25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF25" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V26" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
+      <c r="AM26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS26" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
+      <c r="AX26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ26" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-      <c r="BF26" s="6"/>
+      <c r="BB26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF26" s="6" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
+      <c r="AM27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS27" s="6">
+        <v>647593636</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
+      <c r="AX27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ27" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
-      <c r="BF27" s="6"/>
+      <c r="BB27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF27" s="6" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -14409,10 +16290,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="B2" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -14433,7 +16314,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>80</v>
@@ -14449,7 +16330,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
@@ -14470,7 +16351,7 @@
         <v>86</v>
       </c>
       <c r="V2" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>87</v>
@@ -14482,10 +16363,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -14537,7 +16418,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>383994888</v>
+        <v>1295123728</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -14546,7 +16427,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -14577,10 +16458,10 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="B3" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -14601,7 +16482,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>80</v>
@@ -14617,7 +16498,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -14632,13 +16513,13 @@
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V3" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>87</v>
@@ -14650,10 +16531,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -14705,7 +16586,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>382497468</v>
+        <v>1295123728</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -14714,7 +16595,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -14740,15 +16621,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="B4" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -14769,13 +16650,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -14785,28 +16666,28 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V4" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>87</v>
@@ -14818,10 +16699,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -14873,7 +16754,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>382434300</v>
+        <v>1295095152</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -14882,7 +16763,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -14908,15 +16789,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="B5" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -14937,13 +16818,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -14953,28 +16834,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V5" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>87</v>
@@ -14986,10 +16867,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -15041,7 +16922,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>381745844</v>
+        <v>1295095152</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -15050,7 +16931,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -15076,15 +16957,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="B6" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -15105,13 +16986,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -15121,28 +17002,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V6" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>87</v>
@@ -15154,10 +17035,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -15209,7 +17090,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>386605456</v>
+        <v>1295123728</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -15218,7 +17099,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -15244,15 +17125,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="B7" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -15273,13 +17154,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -15289,28 +17170,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V7" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>87</v>
@@ -15322,10 +17203,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -15377,7 +17258,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>381177896</v>
+        <v>1295123728</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -15386,7 +17267,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -15412,15 +17293,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="B8" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -15441,13 +17322,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -15457,28 +17338,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V8" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>87</v>
@@ -15490,10 +17371,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -15545,7 +17426,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>390024988</v>
+        <v>1294194256</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -15554,7 +17435,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -15580,15 +17461,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="B9" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -15609,13 +17490,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -15625,28 +17506,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V9" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>87</v>
@@ -15658,10 +17539,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -15713,7 +17594,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>372835396</v>
+        <v>1294854136</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -15722,7 +17603,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -15748,15 +17629,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="B10" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -15777,13 +17658,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -15793,28 +17674,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V10" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>87</v>
@@ -15826,10 +17707,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -15881,7 +17762,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>388734180</v>
+        <v>1295123728</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -15890,7 +17771,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -15916,15 +17797,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="B11" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -15945,13 +17826,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -15961,28 +17842,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V11" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>87</v>
@@ -15994,10 +17875,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA11" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -16049,7 +17930,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>404127808</v>
+        <v>1295123728</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -16058,7 +17939,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -16084,15 +17965,15 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="B12" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -16113,13 +17994,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -16129,28 +18010,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V12" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>87</v>
@@ -16162,10 +18043,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA12" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -16217,7 +18098,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>383185924</v>
+        <v>1295123728</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>54</v>
@@ -16226,7 +18107,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -16252,15 +18133,15 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="B13" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -16281,13 +18162,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -16297,28 +18178,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V13" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>87</v>
@@ -16330,10 +18211,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA13" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -16385,7 +18266,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>387896452</v>
+        <v>1295123728</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>54</v>
@@ -16394,7 +18275,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -16420,15 +18301,15 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="B14" s="3">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -16449,13 +18330,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -16465,28 +18346,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>86</v>
       </c>
       <c r="V14" s="6">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>87</v>
@@ -16498,10 +18379,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43586</v>
+        <v>44470</v>
       </c>
       <c r="AA14" s="3">
-        <v>45046</v>
+        <v>45138</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -16553,7 +18434,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>389726632</v>
+        <v>1295123728</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>54</v>
@@ -16562,7 +18443,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -16588,788 +18469,2192 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V15" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
+      <c r="AM15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
+      <c r="AX15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ15" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
+      <c r="BB15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF15" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
+      <c r="AM16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS16" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV16" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
+      <c r="AX16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ16" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
+      <c r="BB16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF16" s="6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V17" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
+      <c r="AM17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS17" s="6">
+        <v>1295095152</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV17" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
+      <c r="AX17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ17" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
+      <c r="BB17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF17" s="6" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
+      <c r="AM18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV18" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
+      <c r="AX18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ18" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
+      <c r="BB18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF18" s="6" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V19" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
+      <c r="AM19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV19" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
+      <c r="AX19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ19" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
+      <c r="BB19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF19" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V20" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
+      <c r="AM20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV20" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
+      <c r="AX20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ20" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
+      <c r="BB20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
+      <c r="AM21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS21" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV21" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
+      <c r="AX21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ21" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
+      <c r="BB21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF21" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V22" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
+      <c r="AM22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS22" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV22" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
+      <c r="AX22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ22" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
+      <c r="BB22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF22" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V23" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
+      <c r="AM23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS23" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV23" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
+      <c r="AX23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ23" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
+      <c r="BB23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF23" s="6" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
+      <c r="AM24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS24" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
+      <c r="AX24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
+      <c r="BB24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF24" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V25" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
+      <c r="AM25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS25" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV25" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
+      <c r="AX25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ25" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
+      <c r="BB25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF25" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V26" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
+      <c r="AM26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS26" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV26" s="6" t="s">
+        <v>409</v>
+      </c>
       <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
+      <c r="AX26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ26" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-      <c r="BF26" s="6"/>
+      <c r="BB26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF26" s="6" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44627</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="6">
+        <v>2016</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>45138</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>31028</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
+      <c r="AM27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS27" s="6">
+        <v>1295123728</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV27" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
+      <c r="AX27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ27" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
-      <c r="BF27" s="6"/>
+      <c r="BB27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF27" s="6" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4B0CE-BB19-48D5-A160-B3C80FAB3E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F649536-7395-4AED-96DB-7B8C00C5F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="268">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -278,36 +278,9 @@
     <t>EP 15</t>
   </si>
   <si>
-    <t>EECLYT201_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000201</t>
-  </si>
-  <si>
-    <t>Serie Clay Time Tutorial</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP01</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP01</t>
-  </si>
-  <si>
     <t>Edye presenta: A Tiffany, la tortuga, le gustaría jugar con Oscar, el cangrejo, pero sus garras la asustan.</t>
   </si>
   <si>
-    <t>01:37:00</t>
-  </si>
-  <si>
-    <t>01:37</t>
-  </si>
-  <si>
-    <t>Infantil/Clay Time Tutorial</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -323,520 +296,550 @@
     <t>Rénato</t>
   </si>
   <si>
-    <t>EECLYT201.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT2_box.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT201_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT202_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000202</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP02</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP02</t>
-  </si>
-  <si>
     <t>Edye presenta: Lily, la loba marina encontró una semilla mágica y pide ayuda a Caracol Piano para cuidarla.</t>
   </si>
   <si>
     <t>Edye presenta: Lily, la loba marina, ha encontrado una semilla mágica. Le pide ayuda al Caracol Piano para hacerla crecer.</t>
   </si>
   <si>
-    <t>EECLYT202.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT202_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT203_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000203</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP03</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP03</t>
-  </si>
-  <si>
     <t>Edye presenta: Oscar, el cangrejo, encuentra a Lucky, el pez payaso, atrapado en una roca. </t>
   </si>
   <si>
     <t>Edye presenta: Oscar, el cangrejo, encuentra a Lucky, el pez payaso, atrapado en una roca. Se van a divertir juntos mientras esperan a que suba el mar.</t>
   </si>
   <si>
-    <t>EECLYT203.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT203_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT204_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000204</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP04</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP04</t>
-  </si>
-  <si>
     <t>Edye presenta: Pete, el cerdo, hizo creer a Pops, la ardilla, que había encontrado un espejo mágico.</t>
   </si>
   <si>
-    <t>EECLYT204.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT204_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT205_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000205</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP05</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP05</t>
-  </si>
-  <si>
     <t>Edye presenta: Anna, la pulpo, conoce a Greg, el pingüino, quien necesita encontrar un témpano de hielo.</t>
   </si>
   <si>
     <t>Edye presenta: Anna la pulpo conoce a Greg el pingüino, quien necesita su ayuda para encontrar el témpano de hielo.</t>
   </si>
   <si>
-    <t>EECLYT205.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT205_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT206_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000206</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP06</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP06</t>
-  </si>
-  <si>
     <t>Edye presenta: Lola, la rana, desea poder volar. Sonia, la gaviota, la ayudará a realizar su sueño. </t>
   </si>
   <si>
-    <t>EECLYT206.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT206_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT207_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000207</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP07</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP07</t>
-  </si>
-  <si>
     <t>Edye presenta: Oliver se muere de hambre. Tendrá que ser amable si quiere obtener miel de Joy, la abeja.</t>
   </si>
   <si>
     <t>Edye presenta: Oliver está gruñón porque se muere de hambre. Tendrá que ser amable si quiere que Joy, la abeja, le de miel.</t>
   </si>
   <si>
-    <t>EECLYT207.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT207_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT208_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000208</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP08</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP08</t>
-  </si>
-  <si>
     <t>Edye presenta: Carol, la oruga, quiere que Maestro, el loro, la ayude a poner color en su vida.</t>
   </si>
   <si>
     <t>Edye presenta: Carol, la oruga, pasa desapercibida en medio de la huerta. Maestro, el loro, la ayudará a poner color en su vida.</t>
   </si>
   <si>
-    <t>EECLYT208.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT208_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT209_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000209</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP09</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP09</t>
-  </si>
-  <si>
     <t>Edye presenta: Emma ha perdido el reloj que la ayuda a poner sus huevos. Martha, la topo, lo buscará.</t>
   </si>
   <si>
     <t>Edye presenta: Emma ha perdido el reloj que la ayuda a poner sus huevos. Martha, la topo, va en busca del objeto favorito de su amiga.</t>
   </si>
   <si>
-    <t>EECLYT209.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT209_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT210_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000210</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP10</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP10</t>
-  </si>
-  <si>
     <t>Edye presenta: ¡Charlie, el koala y Jeannie la avestruz adoran abrazar a todo el mundo!</t>
   </si>
   <si>
     <t>Edye presenta: A Charlie, el koala, le encanta abrazar. ¡Jeannie el avestruz se unirá a él para abrazar a todos sus amigos!</t>
   </si>
   <si>
-    <t>EECLYT210.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT210_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT211_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000211</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP11</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP11</t>
-  </si>
-  <si>
     <t>Edye presenta: A Sarah, la milpiés, le encantaría saber correr rápido. Vic, el pájaro carpintero, la ayudará.</t>
   </si>
   <si>
     <t>Edye presenta: A Sarah, la milpiés, le encantaría saber cómo correr rápido. Vic, el pájaro carpintero, la ayudará a que no se le enreden las patas.</t>
   </si>
   <si>
-    <t>EECLYT211.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT211_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT212_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000212</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP12</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP12</t>
-  </si>
-  <si>
     <t>Edye presenta: Pat, la cebra, tiene sed. Maurice, el camello, la ayudará a encontrar agua en el desierto.</t>
   </si>
   <si>
     <t>Edye presenta: Pat, la cebra, tiene sed. Maurice, el camello, la ayudará a encontrar agua fresca en el desierto.</t>
   </si>
   <si>
-    <t>EECLYT212.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT212_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT213_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000213</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP13</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP13</t>
-  </si>
-  <si>
     <t>Edye presenta: Cedric el lobo tiene frío en la nieve. Gus, la oveja, lo ayudará a tejer ropa más abrigadora.</t>
   </si>
   <si>
-    <t>EECLYT213.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT213_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT214_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000214</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP14</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP14</t>
-  </si>
-  <si>
     <t>Edye presenta: Lucky, el pez payaso, está cansado de hacer reír a todos y asusta a sus amigos para variar.</t>
   </si>
   <si>
     <t>Edye presenta: Lucky, el pez payaso, está cansado de hacer reír a todos. Entonces, se disfraza para asustar un poco a sus amigos.</t>
   </si>
   <si>
-    <t>EECLYT214.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT214_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT215_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY6000000000000215</t>
-  </si>
-  <si>
-    <t>Clay Time TutorialT02EP15</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP15</t>
-  </si>
-  <si>
     <t>Edye presenta: Alfred, el caballo, quiere pastar en paz mientras que Hazel, la gata, quiere jugar con él.</t>
   </si>
   <si>
     <t>Edye presenta: Alfred, el caballo, quiere ponerse serio mientras está pastando. Hazel, la gata, está decidida a que juegue con ella.</t>
   </si>
   <si>
-    <t>EECLYT215.mpg</t>
-  </si>
-  <si>
-    <t>EECLYT215_land.jpg</t>
-  </si>
-  <si>
-    <t>EECLYT201_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000201</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP01 HD</t>
-  </si>
-  <si>
-    <t>EECLYT201.ts</t>
-  </si>
-  <si>
-    <t>EECLYT202_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000202</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP02 HD</t>
-  </si>
-  <si>
-    <t>EECLYT202.ts</t>
-  </si>
-  <si>
-    <t>EECLYT203_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000203</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP03 HD</t>
-  </si>
-  <si>
-    <t>EECLYT203.ts</t>
-  </si>
-  <si>
-    <t>EECLYT204_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000204</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP04 HD</t>
-  </si>
-  <si>
-    <t>EECLYT204.ts</t>
-  </si>
-  <si>
-    <t>EECLYT205_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000205</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP05 HD</t>
-  </si>
-  <si>
-    <t>EECLYT205.ts</t>
-  </si>
-  <si>
-    <t>EECLYT206_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000206</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP06 HD</t>
-  </si>
-  <si>
-    <t>EECLYT206.ts</t>
-  </si>
-  <si>
-    <t>EECLYT207_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000207</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP07 HD</t>
-  </si>
-  <si>
-    <t>EECLYT207.ts</t>
-  </si>
-  <si>
-    <t>EECLYT208_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000208</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP08 HD</t>
-  </si>
-  <si>
-    <t>EECLYT208.ts</t>
-  </si>
-  <si>
-    <t>EECLYT209_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000209</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP09 HD</t>
-  </si>
-  <si>
-    <t>EECLYT209.ts</t>
-  </si>
-  <si>
-    <t>EECLYT210_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000210</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP10 HD</t>
-  </si>
-  <si>
-    <t>EECLYT210.ts</t>
-  </si>
-  <si>
-    <t>EECLYT211_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000211</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP11 HD</t>
-  </si>
-  <si>
-    <t>EECLYT211.ts</t>
-  </si>
-  <si>
-    <t>EECLYT212_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000212</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP12 HD</t>
-  </si>
-  <si>
-    <t>EECLYT212.ts</t>
-  </si>
-  <si>
-    <t>EECLYT213_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000213</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP13 HD</t>
-  </si>
-  <si>
-    <t>EECLYT213.ts</t>
-  </si>
-  <si>
-    <t>EECLYT214_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000214</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP14 HD</t>
-  </si>
-  <si>
-    <t>EECLYT214.ts</t>
-  </si>
-  <si>
-    <t>EECLYT215_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>ECLY7000000000000215</t>
-  </si>
-  <si>
-    <t>Clay Time Tutorial T02 EP15 HD</t>
-  </si>
-  <si>
-    <t>EECLYT215.ts</t>
+    <t>EECLAY201_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000201</t>
+  </si>
+  <si>
+    <t>Serie Clay Time</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP01</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP01</t>
+  </si>
+  <si>
+    <t>00:02:46</t>
+  </si>
+  <si>
+    <t>00:03</t>
+  </si>
+  <si>
+    <t>Infantil/Clay Time</t>
+  </si>
+  <si>
+    <t>Clay Time</t>
+  </si>
+  <si>
+    <t>EECLAY201.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY2_box.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY201_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY202_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000202</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP02</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP02</t>
+  </si>
+  <si>
+    <t>00:02:47</t>
+  </si>
+  <si>
+    <t>EECLAY202.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY202_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY203_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000203</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP03</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP03</t>
+  </si>
+  <si>
+    <t>EECLAY203.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY203_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY204_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000204</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP04</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP04</t>
+  </si>
+  <si>
+    <t>EECLAY204.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY204_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY205_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000205</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP05</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP05</t>
+  </si>
+  <si>
+    <t>EECLAY205.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY205_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY206_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000206</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP06</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP06</t>
+  </si>
+  <si>
+    <t>EECLAY206.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY206_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY207_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000207</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP07</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP07</t>
+  </si>
+  <si>
+    <t>EECLAY207.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY207_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY208_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000208</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP08</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP08</t>
+  </si>
+  <si>
+    <t>EECLAY208.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY208_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY209_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000209</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP09</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP09</t>
+  </si>
+  <si>
+    <t>EECLAY209.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY209_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY210_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000210</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP10</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP10</t>
+  </si>
+  <si>
+    <t>EECLAY210.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY210_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY211_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000211</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP11</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP11</t>
+  </si>
+  <si>
+    <t>EECLAY211.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY211_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY212_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000212</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP12</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP12</t>
+  </si>
+  <si>
+    <t>EECLAY212.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY212_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY213_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000213</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP13</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP13</t>
+  </si>
+  <si>
+    <t>EECLAY213.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY213_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY214_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000214</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP14</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP14</t>
+  </si>
+  <si>
+    <t>EECLAY214.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY214_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY215_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL6000000000000215</t>
+  </si>
+  <si>
+    <t>Clay TimeT02EP15</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP15</t>
+  </si>
+  <si>
+    <t>EECLAY215.mpg</t>
+  </si>
+  <si>
+    <t>EECLAY215_land.jpg</t>
+  </si>
+  <si>
+    <t>EECLAY201_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000201</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP01 HD</t>
+  </si>
+  <si>
+    <t>EECLAY201.ts</t>
+  </si>
+  <si>
+    <t>EECLAY202_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000202</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP02 HD</t>
+  </si>
+  <si>
+    <t>EECLAY202.ts</t>
+  </si>
+  <si>
+    <t>EECLAY203_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000203</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP03 HD</t>
+  </si>
+  <si>
+    <t>EECLAY203.ts</t>
+  </si>
+  <si>
+    <t>EECLAY204_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000204</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP04 HD</t>
+  </si>
+  <si>
+    <t>EECLAY204.ts</t>
+  </si>
+  <si>
+    <t>EECLAY205_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000205</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP05 HD</t>
+  </si>
+  <si>
+    <t>EECLAY205.ts</t>
+  </si>
+  <si>
+    <t>EECLAY206_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000206</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP06 HD</t>
+  </si>
+  <si>
+    <t>EECLAY206.ts</t>
+  </si>
+  <si>
+    <t>EECLAY207_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000207</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP07 HD</t>
+  </si>
+  <si>
+    <t>EECLAY207.ts</t>
+  </si>
+  <si>
+    <t>EECLAY208_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000208</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP08 HD</t>
+  </si>
+  <si>
+    <t>EECLAY208.ts</t>
+  </si>
+  <si>
+    <t>EECLAY209_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000209</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP09 HD</t>
+  </si>
+  <si>
+    <t>EECLAY209.ts</t>
+  </si>
+  <si>
+    <t>EECLAY210_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000210</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP10 HD</t>
+  </si>
+  <si>
+    <t>EECLAY210.ts</t>
+  </si>
+  <si>
+    <t>EECLAY211_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000211</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP11 HD</t>
+  </si>
+  <si>
+    <t>EECLAY211.ts</t>
+  </si>
+  <si>
+    <t>EECLAY212_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000212</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP12 HD</t>
+  </si>
+  <si>
+    <t>EECLAY212.ts</t>
+  </si>
+  <si>
+    <t>EECLAY213_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000213</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP13 HD</t>
+  </si>
+  <si>
+    <t>EECLAY213.ts</t>
+  </si>
+  <si>
+    <t>EECLAY214_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000214</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP14 HD</t>
+  </si>
+  <si>
+    <t>EECLAY214.ts</t>
+  </si>
+  <si>
+    <t>EECLAY215_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECL7000000000000215</t>
+  </si>
+  <si>
+    <t>Clay Time T02 EP15 HD</t>
+  </si>
+  <si>
+    <t>EECLAY215.ts</t>
   </si>
 </sst>
 </file>
@@ -7326,7 +7329,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3">
         <v>44627</v>
@@ -7350,13 +7353,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7366,31 +7369,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V2" s="6">
         <v>2020</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>48</v>
@@ -7411,28 +7414,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -7454,7 +7457,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>46301956</v>
+        <v>78627240</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7463,7 +7466,7 @@
         <v>56</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -7473,7 +7476,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -7489,12 +7492,12 @@
         <v>60</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3">
         <v>44627</v>
@@ -7518,13 +7521,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -7534,31 +7537,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V3" s="6">
         <v>2020</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>48</v>
@@ -7579,28 +7582,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -7622,7 +7625,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>46301956</v>
+        <v>79046104</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -7631,7 +7634,7 @@
         <v>56</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -7641,7 +7644,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -7657,12 +7660,12 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3">
         <v>44627</v>
@@ -7686,13 +7689,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -7702,31 +7705,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V4" s="6">
         <v>2020</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>48</v>
@@ -7747,28 +7750,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -7790,7 +7793,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>46301956</v>
+        <v>78581368</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -7799,7 +7802,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -7809,7 +7812,7 @@
         <v>57</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -7825,12 +7828,12 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3">
         <v>44627</v>
@@ -7854,13 +7857,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -7870,31 +7873,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V5" s="6">
         <v>2020</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>48</v>
@@ -7915,28 +7918,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -7958,7 +7961,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>46273380</v>
+        <v>78492444</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -7967,7 +7970,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -7977,7 +7980,7 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -7993,12 +7996,12 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3">
         <v>44627</v>
@@ -8022,13 +8025,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8038,31 +8041,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V6" s="6">
         <v>2020</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>48</v>
@@ -8083,28 +8086,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -8126,7 +8129,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>46273380</v>
+        <v>78492444</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8135,7 +8138,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8145,7 +8148,7 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -8161,12 +8164,12 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3">
         <v>44627</v>
@@ -8190,13 +8193,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8206,31 +8209,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V7" s="6">
         <v>2020</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>48</v>
@@ -8251,28 +8254,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -8294,7 +8297,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>46333540</v>
+        <v>78598476</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8303,7 +8306,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8313,7 +8316,7 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -8329,12 +8332,12 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3">
         <v>44627</v>
@@ -8358,13 +8361,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8374,31 +8377,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V8" s="6">
         <v>2020</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>48</v>
@@ -8419,28 +8422,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -8462,7 +8465,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>46333540</v>
+        <v>78581368</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8471,7 +8474,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8481,7 +8484,7 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -8497,12 +8500,12 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B9" s="3">
         <v>44627</v>
@@ -8526,13 +8529,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8542,31 +8545,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V9" s="6">
         <v>2020</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>48</v>
@@ -8587,28 +8590,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -8630,7 +8633,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>46333540</v>
+        <v>78807908</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -8639,7 +8642,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -8649,7 +8652,7 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -8665,12 +8668,12 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B10" s="3">
         <v>44627</v>
@@ -8694,13 +8697,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -8710,31 +8713,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V10" s="6">
         <v>2020</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>48</v>
@@ -8755,28 +8758,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -8798,7 +8801,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>46333540</v>
+        <v>78251428</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -8807,7 +8810,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -8817,7 +8820,7 @@
         <v>57</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -8833,12 +8836,12 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B11" s="3">
         <v>44627</v>
@@ -8862,13 +8865,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -8878,31 +8881,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V11" s="6">
         <v>2020</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>48</v>
@@ -8923,28 +8926,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ11" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6" t="s">
@@ -8966,7 +8969,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>46333540</v>
+        <v>78807908</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -8975,7 +8978,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -8985,7 +8988,7 @@
         <v>57</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6" t="s">
@@ -9001,12 +9004,12 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" s="3">
         <v>44627</v>
@@ -9030,13 +9033,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -9046,31 +9049,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V12" s="6">
         <v>2020</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>48</v>
@@ -9091,28 +9094,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ12" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6" t="s">
@@ -9134,7 +9137,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>46333540</v>
+        <v>79708616</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -9143,7 +9146,7 @@
         <v>56</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -9153,7 +9156,7 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6" t="s">
@@ -9169,12 +9172,12 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B13" s="3">
         <v>44627</v>
@@ -9198,13 +9201,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -9214,31 +9217,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V13" s="6">
         <v>2020</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>48</v>
@@ -9259,28 +9262,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ13" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6" t="s">
@@ -9302,7 +9305,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>46333540</v>
+        <v>79496364</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -9311,7 +9314,7 @@
         <v>56</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -9321,7 +9324,7 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA13" s="6"/>
       <c r="BB13" s="6" t="s">
@@ -9337,12 +9340,12 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B14" s="3">
         <v>44627</v>
@@ -9366,13 +9369,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -9382,31 +9385,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V14" s="6">
         <v>2020</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X14" s="6" t="s">
         <v>48</v>
@@ -9427,28 +9430,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6" t="s">
@@ -9470,7 +9473,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>46333540</v>
+        <v>79272644</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -9479,7 +9482,7 @@
         <v>56</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -9489,7 +9492,7 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA14" s="6"/>
       <c r="BB14" s="6" t="s">
@@ -9505,12 +9508,12 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B15" s="3">
         <v>44627</v>
@@ -9534,13 +9537,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -9550,31 +9553,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V15" s="6">
         <v>2020</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X15" s="6" t="s">
         <v>48</v>
@@ -9595,28 +9598,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6" t="s">
@@ -9638,7 +9641,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>46333540</v>
+        <v>78627240</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -9647,7 +9650,7 @@
         <v>56</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -9657,7 +9660,7 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6" t="s">
@@ -9673,12 +9676,12 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3">
         <v>44627</v>
@@ -9702,13 +9705,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -9718,31 +9721,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V16" s="6">
         <v>2020</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>48</v>
@@ -9763,28 +9766,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6" t="s">
@@ -9806,7 +9809,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>46333540</v>
+        <v>78747748</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -9815,7 +9818,7 @@
         <v>56</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -9825,7 +9828,7 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA16" s="6"/>
       <c r="BB16" s="6" t="s">
@@ -9841,7 +9844,7 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
@@ -14661,7 +14664,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3">
         <v>44627</v>
@@ -14685,13 +14688,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -14701,31 +14704,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V2" s="6">
         <v>2020</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>48</v>
@@ -14746,28 +14749,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -14789,7 +14792,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>92546384</v>
+        <v>157196764</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -14798,7 +14801,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -14808,7 +14811,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -14824,12 +14827,12 @@
         <v>60</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3">
         <v>44627</v>
@@ -14853,13 +14856,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -14869,31 +14872,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V3" s="6">
         <v>2020</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>48</v>
@@ -14914,28 +14917,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -14957,7 +14960,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>92546384</v>
+        <v>158034304</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -14966,7 +14969,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -14976,7 +14979,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -14992,12 +14995,12 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3">
         <v>44627</v>
@@ -15021,13 +15024,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -15037,31 +15040,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V4" s="6">
         <v>2020</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>48</v>
@@ -15082,28 +15085,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -15125,7 +15128,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>92546384</v>
+        <v>157104832</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -15134,7 +15137,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -15144,7 +15147,7 @@
         <v>57</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -15160,12 +15163,12 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3">
         <v>44627</v>
@@ -15189,13 +15192,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -15205,31 +15208,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V5" s="6">
         <v>2020</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>48</v>
@@ -15250,28 +15253,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -15293,7 +15296,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>92483216</v>
+        <v>156926984</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -15302,7 +15305,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -15312,7 +15315,7 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -15328,12 +15331,12 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3">
         <v>44627</v>
@@ -15357,13 +15360,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -15373,31 +15376,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V6" s="6">
         <v>2020</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>48</v>
@@ -15418,28 +15421,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -15461,7 +15464,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>92483216</v>
+        <v>156926984</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -15470,7 +15473,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -15480,7 +15483,7 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -15496,12 +15499,12 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3">
         <v>44627</v>
@@ -15525,13 +15528,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -15541,31 +15544,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V7" s="6">
         <v>2020</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>48</v>
@@ -15586,28 +15589,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -15629,7 +15632,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>92603724</v>
+        <v>157133596</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -15638,7 +15641,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -15648,7 +15651,7 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -15664,12 +15667,12 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3">
         <v>44627</v>
@@ -15693,13 +15696,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -15709,31 +15712,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V8" s="6">
         <v>2020</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>48</v>
@@ -15754,28 +15757,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -15797,7 +15800,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>92603724</v>
+        <v>157104832</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -15806,7 +15809,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -15816,7 +15819,7 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -15832,12 +15835,12 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3">
         <v>44627</v>
@@ -15861,13 +15864,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -15877,31 +15880,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V9" s="6">
         <v>2020</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>48</v>
@@ -15922,28 +15925,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -15965,7 +15968,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>92603724</v>
+        <v>157558100</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -15974,7 +15977,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -15984,7 +15987,7 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -16000,12 +16003,12 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B10" s="3">
         <v>44627</v>
@@ -16029,13 +16032,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -16045,31 +16048,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V10" s="6">
         <v>2020</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>48</v>
@@ -16090,28 +16093,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -16133,7 +16136,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>92603724</v>
+        <v>156445140</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -16142,7 +16145,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -16152,7 +16155,7 @@
         <v>57</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -16168,12 +16171,12 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B11" s="3">
         <v>44627</v>
@@ -16197,13 +16200,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -16213,31 +16216,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V11" s="6">
         <v>2020</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>48</v>
@@ -16258,28 +16261,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ11" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6" t="s">
@@ -16301,7 +16304,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>92603724</v>
+        <v>157558100</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -16310,7 +16313,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -16320,7 +16323,7 @@
         <v>57</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6" t="s">
@@ -16336,12 +16339,12 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B12" s="3">
         <v>44627</v>
@@ -16365,13 +16368,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -16381,31 +16384,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V12" s="6">
         <v>2020</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>48</v>
@@ -16426,28 +16429,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ12" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6" t="s">
@@ -16469,7 +16472,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>92603724</v>
+        <v>159354064</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>54</v>
@@ -16478,7 +16481,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -16488,7 +16491,7 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6" t="s">
@@ -16504,12 +16507,12 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B13" s="3">
         <v>44627</v>
@@ -16533,13 +16536,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -16549,31 +16552,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V13" s="6">
         <v>2020</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>48</v>
@@ -16594,28 +16597,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ13" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6" t="s">
@@ -16637,7 +16640,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>92603724</v>
+        <v>158935200</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>54</v>
@@ -16646,7 +16649,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -16656,7 +16659,7 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA13" s="6"/>
       <c r="BB13" s="6" t="s">
@@ -16672,12 +16675,12 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3">
         <v>44627</v>
@@ -16701,13 +16704,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -16717,31 +16720,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V14" s="6">
         <v>2020</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X14" s="6" t="s">
         <v>48</v>
@@ -16762,28 +16765,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6" t="s">
@@ -16805,7 +16808,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>92603724</v>
+        <v>158487572</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>54</v>
@@ -16814,7 +16817,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -16824,7 +16827,7 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA14" s="6"/>
       <c r="BB14" s="6" t="s">
@@ -16840,12 +16843,12 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B15" s="3">
         <v>44627</v>
@@ -16869,13 +16872,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -16885,31 +16888,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V15" s="6">
         <v>2020</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X15" s="6" t="s">
         <v>48</v>
@@ -16930,28 +16933,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6" t="s">
@@ -16973,7 +16976,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>92603724</v>
+        <v>157196764</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>54</v>
@@ -16982,7 +16985,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -16992,7 +16995,7 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6" t="s">
@@ -17008,12 +17011,12 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B16" s="3">
         <v>44627</v>
@@ -17037,13 +17040,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -17053,31 +17056,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V16" s="6">
         <v>2020</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>48</v>
@@ -17098,28 +17101,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6" t="s">
@@ -17141,7 +17144,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>92603724</v>
+        <v>157437780</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>54</v>
@@ -17150,7 +17153,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -17160,7 +17163,7 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BA16" s="6"/>
       <c r="BB16" s="6" t="s">
@@ -17176,7 +17179,7 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A4E43-2B5A-461E-990A-588E6145E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674AE2CA-EE9E-4048-9075-E0A1124D5527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
   <sheets>
     <sheet name="SD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="415">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,973 +311,976 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EEFSAM701_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000701</t>
-  </si>
-  <si>
-    <t>Serie Sam, El Bombero</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP01</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Después de una lección con Penny, Norman se cree el mejor marinero de todos los tiempos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Después de una lección con Penny, Norman cree que es el mejor marinero y, al ignorar una advertencia de Penny, lleva a Dilys a un crucero en el esquife. Mientras tanto, el oficial Steele tiene una nueva cometa que no logra hacer volar.</t>
-  </si>
-  <si>
-    <t>00:10:02</t>
-  </si>
-  <si>
-    <t>00:10</t>
-  </si>
-  <si>
-    <t>Infantil/Sam, El Bombero</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Steven Kynman, David Carling, Su Douglas, Tegwen Tucker</t>
-  </si>
-  <si>
-    <t>Fireman Sam Assoc</t>
-  </si>
-  <si>
-    <t>Kynman Steven, Carling David, Douglas Su, Tucker Tegwen</t>
-  </si>
-  <si>
-    <t>Hibbert, Jerry</t>
-  </si>
-  <si>
-    <t>EEFSAM701.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM7_box.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM701_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM702_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000702</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP02</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman decide sacar las monedas del pozo de los deseos para reemplazar su monopatín.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman se entristece cuando Trevor atropella accidentalmente su monopatín. Dilys dice que deberá esperar hasta su cumpleaños para obtener otro, pero Norman no quiere esperar tanto y decide sacar las monedas del pozo de los deseos.</t>
-  </si>
-  <si>
-    <t>EEFSAM702.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM702_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM703_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000703</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP03</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras Elvis se recupera de un accidente, el oficial Steele dirige el recate de Mike Flood.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Elvis se rompe la pierna bailando, comienza a preguntarse si realmente está hecho para ser un bombero. Con Elvis fuera de combate, el oficial Steele está de vuelta en el trabajo y dirige al equipo para rescatar a Mike Flood.</t>
-  </si>
-  <si>
-    <t>EEFSAM703.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM703_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM704_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000704</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP04</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman y Mandy oyen un grito, es Penny atorada. Los chicos deben hacer algo para ayudarla.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras juegan a las escondidas en las montañas, Norman y Mandy escuchan a alguien está pidiendo ayuda: es Penny atorada en el acantilado. Por suerte tienen una luz de bengala para llamar a los bomberos. Ellos vienen al rescate.</t>
-  </si>
-  <si>
-    <t>EEFSAM704.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM704_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM705_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000705</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP05</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mike tiene problemas con la calabaza que va a presentar en la exhibición de Flores y Vegetales.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todos están entusiasmados con la exhibición de Flores y Vegetales de Pontypandy, Sam el bombero será el juez. Mike quiere participar con una calabaza que ha estado cultivando, pero al ignorar las recomendaciones de Sam, tiene problemas con su abono.</t>
-  </si>
-  <si>
-    <t>EEFSAM705.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM705_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM706_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000706</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP06</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Trevor conduce el autobús escolar pero se atasca en un pantano.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Trevor lleva a los niños de regreso de un viaje escolar, pero un accidente lleva al autobús a un pantano y se atasca en el lodo. Al anochecer, Trevor ignora los consejos de todos y decide salir a buscar ayuda.</t>
-  </si>
-  <si>
-    <t>EEFSAM706.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM706_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM707_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000707</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP07</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Va a haber un concurso de barbacoas en Pontypandy ¿Quién será el ganador, Trevor o Tom?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Trevor está planeando una barbacoa para los habitantes de Pontypandy y todos esperan sus famosas salchichas. Tom, cocinará también algunos de sus camarones especiales. Los invitados decidirán quién es el campeón de la barbacoa de Pontypandy.</t>
-  </si>
-  <si>
-    <t>EEFSAM707.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM707_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM708_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000708</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP08</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras todos están emocionados por la noche de karaoke, los bomberos realizan un simulacro.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En Pontypandy todos están emocionados por la noche de karaoke. En la estación, Sam y su equipo realizan un simulacro, la tarea es rescatar a una anciana, personificada por el oficial Steele, encerrado en un armario.</t>
-  </si>
-  <si>
-    <t>EEFSAM708.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM708_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM709_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000709</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP09</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras Norman recolecta cangrejos y peces en la playa, Mandy se encuentra una ballena varada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mandy y Norman se dirigen a la playa desafiándose entre sí para ver quién obtendrá la mejor pesca del día. Norman recolecta cangrejos y peces, pero cuando Mandy se aleja, se encuentra con una ballena varada en la playa.</t>
-  </si>
-  <si>
-    <t>EEFSAM709.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM709_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM710_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000710</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP10</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Al terminar su turno, el bombero Sam usa su tiempo libre para hacer pequeños trabajos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Al terminar su turno, el bombero Sam usa su tiempo libre para hacer pequeños trabajos que se le han acumulado. En la tienda, Mike pone cemento fresco para rellenar las grietas del suelo y luego sube a su escalera para arreglar el desagüe.</t>
-  </si>
-  <si>
-    <t>EEFSAM710.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM710_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM711_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000711</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP11</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman le pregunta a Sam si Radar podría ser un buen perro pastor para cuidar a sus ovejas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman no puede cuidar solo a Woolly, la oveja y Lambikins, el cordero, por lo que decide pedir ayuda. Al llegar a la estación de bomberos le pregunta a Sam si cree que Radar, el perro de la estación, sería un buen perro pastor.</t>
-  </si>
-  <si>
-    <t>EEFSAM711.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM711_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM712_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000712</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP12</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es Halloween y Norman está convencido de que va a ganar la competencia de asustar a todos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es Halloween y todos en Pontypandy esperan con ansias la gran fiesta en casa de los Floods. Norman está convencido de que va a ganar la competencia de asustar a todos, pero Mandy confía en que ella saldrá victoriosa.</t>
-  </si>
-  <si>
-    <t>EEFSAM712.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM712_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM713_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000713</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP13</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es el día libre de Sam y la estación está a cargo de Elvis y Penny, quien está resfriada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es el día libre de Sam y la estación está a cargo de Elvis y Penny, quien está resfriada. Mientras tanto, la familia Jones disfruta de la playa cuando ven a su gato en el techo del cobertizo. Llaman a la estación de bomberos para rescatarlo.</t>
-  </si>
-  <si>
-    <t>EEFSAM713.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM713_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM714_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000714</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP14</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los niños Norman, James, Mandy y Sarah juegan a ser piratas, pero una pelea los pone en riesgo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los niños de Pontypandy: Norman, James, Mandy y Sarah juegan a ser piratas, pero una pelea los divide en chicos y chicas. Los niños pirata se roban el almuerzo y se adentran al mar; la marea se los lleva y tienen que ser rescatados por Sam.</t>
-  </si>
-  <si>
-    <t>EEFSAM714.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM714_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM715_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000715</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP15</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sam planea llevar de paseo a los niños de Pontypandy, pero lo llaman a revisar unas cajas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El bombero Sam planea un paseo de exploración con los niños Pioneros de Pontypandy, pero es llamado para revisar unas cajas en la playa. Norman ve la oportunidad de convertirse en líder de los Pioneros, hasta que Trevor interrumpe sus planes.</t>
-  </si>
-  <si>
-    <t>EEFSAM715.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM715_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM716_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000716</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP16</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Elvis es invitado a un programa de TV y sueña con cantar y convertirseen un estrella.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un programa de TV invita a Elvis a cantar lo que lo hace soñar con convertirse en una superestrella del canto. Mientras tanto, Trevor y Norman van al bosque en busca de una rara ave llamada Curruca de cresta escarlata.</t>
-  </si>
-  <si>
-    <t>EEFSAM716.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM716_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM717_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000717</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP17</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: El primo de Norman, Derek, llega a quedarse; Norman siente celos de él y lo aleja con engaños.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El primo de Norman, Derek, llega para quedarse, pero como es muy lindo y ordenado, Norman siente celos; planea su venganza, y lo envía a recoger unas flores inexistentes en la montaña. Arrepentido, le llama a Sam para que vaya a rescatarlo.</t>
-  </si>
-  <si>
-    <t>EEFSAM717.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM717_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM718_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000718</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP18</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: El bombero Sam y el resto del equipo entrenan a Mike Flood y Charlie Jones para ser bomberos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sam y el resto del equipo entrenan a Mike Flood y Charlie Jones para ser bomberos de reserva y el oficial Steele está contento con su progreso. Charlie y Mike están ansiosos por apagar su primer incendio pero Charlie también debe de salir de pesca.</t>
-  </si>
-  <si>
-    <t>EEFSAM718.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM718_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM719_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000719</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP19</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los bomberos Sam, Elvis y Penny hacen controles de rutina en diversos hidrantes de Pontypandy.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los bomberos Sam, Elvis y Penny hacen controles de rutina en algunos hidrantes alrededor de Pontypandy. Elvis está muy emocionado y convence a Sam para que lo deje usar la radio. Mientras, James y Sarah juegan a ser bomberos con sus walkie-talkie.</t>
-  </si>
-  <si>
-    <t>EEFSAM719.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM719_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM720_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000720</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP20</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman baja equipado para divertirse hasta que Bronwyn le ha dado a Dilys un regalo</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman baja de su habitación con un balón de futbol debajo de un brazo y una patineta en el otro, ansioso de salir al sol de Pontypandy y jugar con sus amigos. Antes de que pueda cruzar la puerta ve que Bronwyn le ha dado a Dilys un regalo.</t>
-  </si>
-  <si>
-    <t>EEFSAM720.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM720_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM721_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000721</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP21</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: El jefe de estación, Steele, se toma el día libre para ir con Trevor y la pandilla a la costa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El jefe de la estación, Norris Steele, se toma el día libre para ir con Trevor y la pandilla a la costa. Dilys ha preparado el almuerzo y junto con Mandy, Helen, Steele, Norman y Trevor suben al autobús. El jefe asegura haber trazado la mejor ruta.</t>
-  </si>
-  <si>
-    <t>EEFSAM721.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM721_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM722_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000722</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP22</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: James tiene un nuevo avión de control remoto con el que él y Norman pueden jugar en el muelle.</t>
-  </si>
-  <si>
-    <t>Edye presenta: James tiene un nuevo avión de control remoto con el que Norman y él pueden jugar en el muelle. Norman está ansioso por ir, pero James se muestra reacio. Norman lo convence de que lo deje hacer maniobras con el avión y piensa que James es aburrido.</t>
-  </si>
-  <si>
-    <t>EEFSAM722.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM722_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM723_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000723</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP23</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman y Dilys practican para la carrera de tres patas de Pontypandy, pero Norman hace trampa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman y Dilys practican para la carrera de tres patas de Pontypandy. Dilys no es muy buena en eso y Norman se siente harto; cree que tener a su madre de compañera no es buena idea y quiere a alguien más; para ganar hace trampa pero todo le sale mal.</t>
-  </si>
-  <si>
-    <t>EEFSAM723.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM723_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM724_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000724</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP24</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Norman se despierta una mañana y ve que todo Pontypandy está inundado. Sam inicia el rescate.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una mañana, al despertar, Norman se da cuenta que todo Pontypandy está inundado. El bombero Sam va con Tom en su helicóptero para examinar la magnitud de la inundación. La familia Jones está varada en el techo de Wholefish Café. Sam los rescata.</t>
-  </si>
-  <si>
-    <t>EEFSAM724.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM724_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM725_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000725</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP25</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: La estación de bomberos de Pontypandy está abierta al público y todos pueden ver lo que hacen.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy en día la estación de bomberos de Pontypandy está abierta al público y todos pueden ver lo que hace un bombero cuando no está en emergencia. El oficial de la estación es el maestro de ceremonias y anuncia a todos lo que pasará en este lugar.</t>
-  </si>
-  <si>
-    <t>EEFSAM725.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM725_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM726_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS6000000000000726</t>
-  </si>
-  <si>
-    <t>Sam, El BomberoT07EP26</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mike practica para el gran lanzamiento de su cohete, pero Norman puede causar un accidente.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mike practica para el gran lanzamiento de su cohete y espera presentárselos a todos en Pontypandy. Sin embargo, Sam y su equipo son llamados a una emergencia porque Norman ha lanzado su propio cohete, hecho sin calidad y puede causar un accidente.</t>
-  </si>
-  <si>
-    <t>EEFSAM726.mpg</t>
-  </si>
-  <si>
-    <t>EEFSAM726_land.jpg</t>
-  </si>
-  <si>
-    <t>EEFSAM701_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000701</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM701.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM702_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000702</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM702.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM703_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000703</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM703.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM704_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000704</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM704.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM705_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000705</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM705.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM706_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000706</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM706.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM707_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000707</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM707.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM708_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000708</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM708.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM709_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000709</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM709.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM710_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000710</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM710.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM711_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000711</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM711.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM712_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000712</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM712.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM713_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000713</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM713.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM714_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000714</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM714.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM715_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000715</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM715.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM716_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000716</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM716.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM717_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000717</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM717.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM718_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000718</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM718.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM719_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000719</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM719.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM720_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000720</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM720.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM721_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000721</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM721.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM722_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000722</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM722.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM723_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000723</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM723.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM724_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000724</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM724.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM725_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000725</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM725.ts</t>
-  </si>
-  <si>
-    <t>EEFSAM726_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEFS7000000000000726</t>
-  </si>
-  <si>
-    <t>Sam, El Bombero T07 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEFSAM726.ts</t>
+    <t>EETDHM401_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000401</t>
+  </si>
+  <si>
+    <t>Serie El día que Henry conoció…</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP01</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un crucero con muchos pasajeros, pero ningún capitán. Henry se vuelve capitán.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un crucero y aprende lo que es un crucero. Crucero tiene una enorme fila de vacacionistas listos para abordar, pero su capitán está mareado. Henry se convierte en capitán de crucero y navega por todo el Caribe.</t>
+  </si>
+  <si>
+    <t>00:05:00</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>Infantil/El día que Henry conoció…</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Darragh Malone, Oliver Callan, Lisa Garvey, Daniel O'Gorman, Chloe Corbett, Gilly Breen Moya, Henry Gill, Scarlett Solórzano, Emily Corbett, Ben Corbett, Finan Breen, Joe Hyland, Fia Brennan, Breen, Joann.</t>
+  </si>
+  <si>
+    <t>Wiggleywoo</t>
+  </si>
+  <si>
+    <t>Malone Darragh, Callan Oliver, Garvey Lisa, O'Gorman Daniel, Corbett Chloe, Moya Gilly Breen, Gill Henry, Solórzano Scarlett, Corbett Emily, Corbett Ben, Breen Finan, Hyland Joe, Brennan Fia, Breen, Joann.</t>
+  </si>
+  <si>
+    <t>Moya, Gilly Breen</t>
+  </si>
+  <si>
+    <t>EETDHM401.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM4_box.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM401_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM402_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000402</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP02</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un Algodón de Azúcar en la feria. Pero todos los operarios están enfermos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un Algodón de Azúcar en la feria. Todos los trabajadores de la feria están enfermos, así que nadie puede manejar los juegos. ¡Tendrán que cerrar! Henry se convierte en trabajador de la feria y tiene que operar todas las atracciones.</t>
+  </si>
+  <si>
+    <t>EETDHM402.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM402_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM403_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000403</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP03</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una botella de leche. Al no haber quien las reparta, Henry se vuelve lechero.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una botella de leche en su escalón. Henry aprende todo sobre los beneficios de tomar leche y de dónde viene. Henry se convierte en lechero, viaja en su camioneta de reparto y entrega leche a tiempo para el desayuno de todos.</t>
+  </si>
+  <si>
+    <t>EETDHM403.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM403_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM404_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000404</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP04</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una motocicleta que sueña con saltar el Gran Cañón. Henry se hace motociclista.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una motocicleta que siempre quiso saltar el Gran Cañón. Henry se convierte en motociclista acrobático y la ayuda a cumplir su sueño.</t>
+  </si>
+  <si>
+    <t>EETDHM404.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM404_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM405_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000405</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP05</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce una linterna que siempre quiso explorar una vieja casa embrujada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce una linterna que siempre quiso explorar una vieja casa embrujada. Henry se convierte en investigador paranormal y ayuda a Linterna a explorar la Vieja Casa Embrujada.</t>
+  </si>
+  <si>
+    <t>EETDHM405.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM405_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM406_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000406</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP06</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce una rosa en el día de los enamorados. Pero el florista está enfermo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce una rosa. Henry aprende sobre el Día de San Valentín y lo que hace una florista. Desafortunadamente el florista tiene fiebre del heno, así que no hay nadie para armar los ramos. Henry se convierte en florista y ayuda a hacerlos.</t>
+  </si>
+  <si>
+    <t>EETDHM406.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM406_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM407_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000407</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP07</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un taxi que no tiene chofer. Henry se convierte en taxista de Nueva York.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry se convierte en un taxista de Nueva York, y aprende para qué se usan los taxis, qué es la Gan Manzana y ve los diferentes paisajes de Nueva York. Henry se convierte en taxista de Nueva York y sale a buscar pasajeros.</t>
+  </si>
+  <si>
+    <t>EETDHM407.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM407_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM408_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000408</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP08</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una tabla de nieve que nunca ha salido de la tienda de deportes extremos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una tabla de nieve en una tienda de deportes extremos. Lo aprende todo sobre los deportes de montaña. Pero la tabla nunca ha salido de la tienda. Henry se convierte en snowboarder y viaja a la base de una hermosa montaña nevada.</t>
+  </si>
+  <si>
+    <t>EETDHM408.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM408_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM409_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000409</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP09</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una vieja góndola que nunca transportó a turistas de paseo por Venecia.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una vieja góndola en un astillero desvencijado, y lo aprende todo sobre los botes y como se han usado para el transporte durante cientos de años. Henry se convierte en gondolero y comienza a transportar turistas por Venecia.</t>
+  </si>
+  <si>
+    <t>EETDHM409.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM409_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM410_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000410</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP10</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una hormiga encerrada en una granja de hormigas que quiere regresar a su nido.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una hormiga que está encerrada en una granja de hormigas, La hormiga quiere regresar a su nido en el jardín y Henry se convierte en hormiga para ayudarla.</t>
+  </si>
+  <si>
+    <t>EETDHM410.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM410_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM411_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000411</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP11</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a patines sobre hielo que desean participar a un evento de patinaje artístico.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un par de patines sobre hielo que desean participar a un espectáculo de patinaje artístico. Al no haber un patinador, Henry se convierte en uno para ayudarlos a cumplir su sueño.</t>
+  </si>
+  <si>
+    <t>EETDHM411.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM411_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM412_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000412</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP12</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una motoneta de pizzería en Roma. Pero no hay nadie que las prepare y reparta.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a una motoneta en la capital de Italia, Roma, y reparte pizza. Henry lo aprende todo sobre hacer pizza y se convierte en motociclista repartidor de pizza.</t>
+  </si>
+  <si>
+    <t>EETDHM412.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM412_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM413_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000413</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP13</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un paracaídas que quiere dar el mayor salto mundial. Pero falta un paracaidista.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un paracaídas, y lo aprende todo sobre el paracaidismo, los paracaídas y cómo funcionan. Paracaídas quiere hacer el salto más alto del mundo. Henry se convierte en paracaidista y lo ayuda a dar el salto más alto del mundo.</t>
+  </si>
+  <si>
+    <t>EETDHM413.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM413_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM414_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000414</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP14</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un cangrejo ermitaño que busca un nuevo hogar en una playa muy contaminada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un cangrejo ermitaño y aprende sobre la contaminación y cómo algunas personas arrojan basura por todas partes de la playa. Henry se convierte en ambientalista y ayuda a limpiar.</t>
+  </si>
+  <si>
+    <t>EETDHM414.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM414_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM415_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000415</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP15</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce una caja de herramientas que quiere fabricar invenciones. Pero no hay carpintero.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce una caja de herramientas y aprende sobre el trabajo de un carpintero. Henry se convierte en carpintero y ayuda a hacer todo tipo de trabajos con la caja.</t>
+  </si>
+  <si>
+    <t>EETDHM415.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM415_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM416_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000416</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP16</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un husky que necesita de un explorador del ártico para emprender su viaje.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un husky y aprende sobre el trabajo de estos perros. Henry aprende que los huskys tiran de trineos por la nieve. Henry se convierte en un gran explorador del ártico y viaja al Ártico con Husky.</t>
+  </si>
+  <si>
+    <t>EETDHM416.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM416_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM417_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000417</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP17</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una corona que quiere hacer un banquete medieval pero falta le falta un bufón.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a una corona y aprende sobre los objetos reales. Corona quiere hacer un banquete medieval y Henry se convierte en bufón de la corte y entretiene a los comensales.</t>
+  </si>
+  <si>
+    <t>EETDHM417.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM417_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM418_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000418</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP18</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce un folleto en un museo que promueve la nueva gran exhibición. Pero falta el guía.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce un folleto de museo. Hay muchos turistas esperando afuera, pero el guía no está. Henry se convierte en guía y le muestra a los visitantes las riquezas contenidas en el museo.</t>
+  </si>
+  <si>
+    <t>EETDHM418.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM418_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM419_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000419</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP19</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un saxófono que quiere tocar jazz con su banda en la Nueva Orleans.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un saxófono tocando en la calle en Dublín. Henry aprende todo sobre los músicos callejeros y la música que tocan. Henry se convierte en cantante de jazz y toca en Nueva Orleans con el Saxófono.</t>
+  </si>
+  <si>
+    <t>EETDHM419.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM419_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM420_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000420</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP20</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un carruaje que sueña con participar en una carrera en la antigua Roma.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un carruaje que vive en una excavación arqueológica y se convierte en conductor para participar en una carrera en la antigua Roma. </t>
+  </si>
+  <si>
+    <t>EETDHM420.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM420_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM421_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000421</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP21</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un balde y un trapeador que trabajan en el acuario que no abre: falta un pez.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un balde y un trapeador que trabajan en el acuario dejando los pisos impecables. Henry aprende sobre la vida marina y se convierte en acuarista.</t>
+  </si>
+  <si>
+    <t>EETDHM421.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM421_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM422_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000422</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP22</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un rodillo de pintura listo para decorar una casa. Pero falta la mano de obra.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un Rodillo de Pintura y aprende a decorar. Henry se convierte en pintor decorador y ayuda a decorar la casa para los nuevos dueños.</t>
+  </si>
+  <si>
+    <t>EETDHM422.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM422_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM423_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000423</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP23</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a un laúd que necesita un aventurero para poder volver a cantar sus hazañas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a un laúd que canta y narra todo lo que sucede en el episodio. El laúd no ha vivido una aventura excitante para cantar desde hace tiempo, y necesita de un intrépido aventurero para poder volver a hacerlo. Henry se hace aventurero.</t>
+  </si>
+  <si>
+    <t>EETDHM423.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM423_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM424_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000424</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP24</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una tarjeta de biblioteca que quiere revivir grandes eventos históricos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Henry conoce a una tarjeta de biblioteca y lo aprende todo sobre libros y bibliotecas. Los libros favoritos de la tarjeta son los de historia. Henry y Tarjeta se hacen viajeros del tiempo y viajan al pasado para experimentar eventos históricos.</t>
+  </si>
+  <si>
+    <t>EETDHM424.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM424_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM425_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000425</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP25</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a una boa de plumas que sospecha de las otras prendas de vestir.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce a una boa de plumas que teme que las otras prendas estén actuando sospechosamente. Henry se convierte en investigador privado y trata de resolver el misterio de las prendas sospechosas.</t>
+  </si>
+  <si>
+    <t>EETDHM425.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM425_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM426_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD6000000000000426</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció…T04EP26</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce una batisfera de utilería que quiere explorar el fondo de los océanos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Henry conoce una batisfera y aprende que es un vehículo muy especial de las profundidades y lleva a los pasajeros al fondo del océano. Henry se convierte en biólogo marino y viaja al fondo del mar.</t>
+  </si>
+  <si>
+    <t>00:04:59</t>
+  </si>
+  <si>
+    <t>EETDHM426.mpg</t>
+  </si>
+  <si>
+    <t>EETDHM426_land.jpg</t>
+  </si>
+  <si>
+    <t>EETDHM401_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000401</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP01 HD</t>
+  </si>
+  <si>
+    <t>EETDHM401.ts</t>
+  </si>
+  <si>
+    <t>EETDHM402_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000402</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP02 HD</t>
+  </si>
+  <si>
+    <t>EETDHM402.ts</t>
+  </si>
+  <si>
+    <t>EETDHM403_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000403</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP03 HD</t>
+  </si>
+  <si>
+    <t>EETDHM403.ts</t>
+  </si>
+  <si>
+    <t>EETDHM404_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000404</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP04 HD</t>
+  </si>
+  <si>
+    <t>EETDHM404.ts</t>
+  </si>
+  <si>
+    <t>EETDHM405_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000405</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP05 HD</t>
+  </si>
+  <si>
+    <t>EETDHM405.ts</t>
+  </si>
+  <si>
+    <t>EETDHM406_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000406</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP06 HD</t>
+  </si>
+  <si>
+    <t>EETDHM406.ts</t>
+  </si>
+  <si>
+    <t>EETDHM407_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000407</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP07 HD</t>
+  </si>
+  <si>
+    <t>EETDHM407.ts</t>
+  </si>
+  <si>
+    <t>EETDHM408_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000408</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP08 HD</t>
+  </si>
+  <si>
+    <t>EETDHM408.ts</t>
+  </si>
+  <si>
+    <t>EETDHM409_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000409</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP09 HD</t>
+  </si>
+  <si>
+    <t>EETDHM409.ts</t>
+  </si>
+  <si>
+    <t>EETDHM410_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000410</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP10 HD</t>
+  </si>
+  <si>
+    <t>EETDHM410.ts</t>
+  </si>
+  <si>
+    <t>EETDHM411_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000411</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP11 HD</t>
+  </si>
+  <si>
+    <t>EETDHM411.ts</t>
+  </si>
+  <si>
+    <t>EETDHM412_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000412</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP12 HD</t>
+  </si>
+  <si>
+    <t>EETDHM412.ts</t>
+  </si>
+  <si>
+    <t>EETDHM413_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000413</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP13 HD</t>
+  </si>
+  <si>
+    <t>EETDHM413.ts</t>
+  </si>
+  <si>
+    <t>EETDHM414_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000414</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP14 HD</t>
+  </si>
+  <si>
+    <t>EETDHM414.ts</t>
+  </si>
+  <si>
+    <t>EETDHM415_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000415</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP15 HD</t>
+  </si>
+  <si>
+    <t>EETDHM415.ts</t>
+  </si>
+  <si>
+    <t>EETDHM416_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000416</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP16 HD</t>
+  </si>
+  <si>
+    <t>EETDHM416.ts</t>
+  </si>
+  <si>
+    <t>EETDHM417_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000417</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP17 HD</t>
+  </si>
+  <si>
+    <t>EETDHM417.ts</t>
+  </si>
+  <si>
+    <t>EETDHM418_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000418</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP18 HD</t>
+  </si>
+  <si>
+    <t>EETDHM418.ts</t>
+  </si>
+  <si>
+    <t>EETDHM419_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000419</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP19 HD</t>
+  </si>
+  <si>
+    <t>EETDHM419.ts</t>
+  </si>
+  <si>
+    <t>EETDHM420_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000420</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP20 HD</t>
+  </si>
+  <si>
+    <t>EETDHM420.ts</t>
+  </si>
+  <si>
+    <t>EETDHM421_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000421</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP21 HD</t>
+  </si>
+  <si>
+    <t>EETDHM421.ts</t>
+  </si>
+  <si>
+    <t>EETDHM422_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000422</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP22 HD</t>
+  </si>
+  <si>
+    <t>EETDHM422.ts</t>
+  </si>
+  <si>
+    <t>EETDHM423_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000423</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP23 HD</t>
+  </si>
+  <si>
+    <t>EETDHM423.ts</t>
+  </si>
+  <si>
+    <t>EETDHM424_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000424</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP24 HD</t>
+  </si>
+  <si>
+    <t>EETDHM424.ts</t>
+  </si>
+  <si>
+    <t>EETDHM425_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000425</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP25 HD</t>
+  </si>
+  <si>
+    <t>EETDHM425.ts</t>
+  </si>
+  <si>
+    <t>EETDHM426_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETD7000000000000426</t>
+  </si>
+  <si>
+    <t>El día que Henry conoció… T04 EP26 HD</t>
+  </si>
+  <si>
+    <t>EETDHM426.ts</t>
   </si>
 </sst>
 </file>
@@ -7586,7 +7589,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
@@ -7770,7 +7773,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7828,7 +7831,7 @@
         <v>99</v>
       </c>
       <c r="V2" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -7840,10 +7843,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -7895,7 +7898,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7938,7 +7941,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7996,7 +7999,7 @@
         <v>99</v>
       </c>
       <c r="V3" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -8008,10 +8011,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -8063,7 +8066,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>281936080</v>
+        <v>141297980</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -8106,7 +8109,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -8164,7 +8167,7 @@
         <v>99</v>
       </c>
       <c r="V4" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -8176,10 +8179,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -8231,7 +8234,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -8274,7 +8277,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -8332,7 +8335,7 @@
         <v>99</v>
       </c>
       <c r="V5" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -8344,10 +8347,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -8399,7 +8402,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -8442,7 +8445,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8500,7 +8503,7 @@
         <v>99</v>
       </c>
       <c r="V6" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -8512,10 +8515,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -8567,7 +8570,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8610,7 +8613,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8668,7 +8671,7 @@
         <v>99</v>
       </c>
       <c r="V7" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -8680,10 +8683,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -8735,7 +8738,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8778,7 +8781,7 @@
         <v>150</v>
       </c>
       <c r="B8" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8836,7 +8839,7 @@
         <v>99</v>
       </c>
       <c r="V8" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -8848,10 +8851,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -8903,7 +8906,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>281456868</v>
+        <v>141297980</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8946,7 +8949,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -9004,7 +9007,7 @@
         <v>99</v>
       </c>
       <c r="V9" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -9016,10 +9019,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -9071,7 +9074,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -9114,7 +9117,7 @@
         <v>166</v>
       </c>
       <c r="B10" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -9172,7 +9175,7 @@
         <v>99</v>
       </c>
       <c r="V10" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -9184,10 +9187,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -9239,7 +9242,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -9282,7 +9285,7 @@
         <v>174</v>
       </c>
       <c r="B11" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -9340,7 +9343,7 @@
         <v>99</v>
       </c>
       <c r="V11" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -9352,10 +9355,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA11" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -9407,7 +9410,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -9450,7 +9453,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -9508,7 +9511,7 @@
         <v>99</v>
       </c>
       <c r="V12" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -9520,10 +9523,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA12" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -9575,7 +9578,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>281907316</v>
+        <v>141297980</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -9618,7 +9621,7 @@
         <v>190</v>
       </c>
       <c r="B13" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -9676,7 +9679,7 @@
         <v>99</v>
       </c>
       <c r="V13" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -9688,10 +9691,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA13" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -9743,7 +9746,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -9786,7 +9789,7 @@
         <v>198</v>
       </c>
       <c r="B14" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -9844,7 +9847,7 @@
         <v>99</v>
       </c>
       <c r="V14" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -9856,10 +9859,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA14" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -9911,7 +9914,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -9954,7 +9957,7 @@
         <v>206</v>
       </c>
       <c r="B15" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -10012,7 +10015,7 @@
         <v>99</v>
       </c>
       <c r="V15" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -10024,10 +10027,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA15" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -10079,7 +10082,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -10122,7 +10125,7 @@
         <v>214</v>
       </c>
       <c r="B16" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -10180,7 +10183,7 @@
         <v>99</v>
       </c>
       <c r="V16" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -10192,10 +10195,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA16" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -10247,7 +10250,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -10290,7 +10293,7 @@
         <v>222</v>
       </c>
       <c r="B17" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -10348,7 +10351,7 @@
         <v>99</v>
       </c>
       <c r="V17" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -10360,10 +10363,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA17" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -10415,7 +10418,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -10458,7 +10461,7 @@
         <v>230</v>
       </c>
       <c r="B18" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -10516,7 +10519,7 @@
         <v>99</v>
       </c>
       <c r="V18" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -10528,10 +10531,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA18" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -10583,7 +10586,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -10626,7 +10629,7 @@
         <v>238</v>
       </c>
       <c r="B19" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -10684,7 +10687,7 @@
         <v>99</v>
       </c>
       <c r="V19" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -10696,10 +10699,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA19" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -10751,7 +10754,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -10794,7 +10797,7 @@
         <v>246</v>
       </c>
       <c r="B20" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -10852,7 +10855,7 @@
         <v>99</v>
       </c>
       <c r="V20" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -10864,10 +10867,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA20" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -10919,7 +10922,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -10962,7 +10965,7 @@
         <v>254</v>
       </c>
       <c r="B21" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -11020,7 +11023,7 @@
         <v>99</v>
       </c>
       <c r="V21" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -11032,10 +11035,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA21" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -11087,7 +11090,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -11130,7 +11133,7 @@
         <v>262</v>
       </c>
       <c r="B22" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -11188,7 +11191,7 @@
         <v>99</v>
       </c>
       <c r="V22" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -11200,10 +11203,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA22" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -11255,7 +11258,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>281907316</v>
+        <v>141252108</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -11298,7 +11301,7 @@
         <v>270</v>
       </c>
       <c r="B23" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -11356,7 +11359,7 @@
         <v>99</v>
       </c>
       <c r="V23" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -11368,10 +11371,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA23" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -11423,7 +11426,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>281907316</v>
+        <v>141206236</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -11466,7 +11469,7 @@
         <v>278</v>
       </c>
       <c r="B24" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -11524,7 +11527,7 @@
         <v>99</v>
       </c>
       <c r="V24" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -11536,10 +11539,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA24" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -11591,7 +11594,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>281893028</v>
+        <v>141206236</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -11634,7 +11637,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -11692,7 +11695,7 @@
         <v>99</v>
       </c>
       <c r="V25" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -11704,10 +11707,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA25" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -11759,7 +11762,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>281907316</v>
+        <v>141266584</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -11802,7 +11805,7 @@
         <v>294</v>
       </c>
       <c r="B26" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -11860,7 +11863,7 @@
         <v>99</v>
       </c>
       <c r="V26" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -11872,10 +11875,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA26" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -11927,7 +11930,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>281907316</v>
+        <v>141280872</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -11970,7 +11973,7 @@
         <v>302</v>
       </c>
       <c r="B27" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -12022,13 +12025,13 @@
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V27" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -12040,10 +12043,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA27" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -12095,7 +12098,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>281907316</v>
+        <v>140982516</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -12104,7 +12107,7 @@
         <v>56</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -12130,7 +12133,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
@@ -16109,7 +16112,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF58"/>
     </sheetView>
   </sheetViews>
@@ -16290,10 +16293,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -16314,7 +16317,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>93</v>
@@ -16330,7 +16333,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
@@ -16351,7 +16354,7 @@
         <v>99</v>
       </c>
       <c r="V2" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -16363,10 +16366,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA2" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -16418,7 +16421,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -16427,7 +16430,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -16458,10 +16461,10 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B3" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -16482,7 +16485,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>93</v>
@@ -16498,7 +16501,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -16519,7 +16522,7 @@
         <v>99</v>
       </c>
       <c r="V3" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -16531,10 +16534,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA3" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -16586,7 +16589,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>563814444</v>
+        <v>282532792</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -16595,7 +16598,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -16626,10 +16629,10 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -16650,7 +16653,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>93</v>
@@ -16666,7 +16669,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
@@ -16687,7 +16690,7 @@
         <v>99</v>
       </c>
       <c r="V4" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -16699,10 +16702,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA4" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -16754,7 +16757,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -16763,7 +16766,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -16794,10 +16797,10 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B5" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -16818,7 +16821,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>93</v>
@@ -16834,7 +16837,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
@@ -16855,7 +16858,7 @@
         <v>99</v>
       </c>
       <c r="V5" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -16867,10 +16870,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA5" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -16922,7 +16925,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -16931,7 +16934,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16962,10 +16965,10 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B6" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -16986,7 +16989,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>93</v>
@@ -17002,7 +17005,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
@@ -17023,7 +17026,7 @@
         <v>99</v>
       </c>
       <c r="V6" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -17035,10 +17038,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA6" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -17090,7 +17093,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -17099,7 +17102,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17130,10 +17133,10 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B7" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -17154,7 +17157,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>93</v>
@@ -17170,7 +17173,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
@@ -17191,7 +17194,7 @@
         <v>99</v>
       </c>
       <c r="V7" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -17203,10 +17206,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA7" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -17258,7 +17261,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -17267,7 +17270,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17298,10 +17301,10 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B8" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -17322,7 +17325,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>93</v>
@@ -17338,7 +17341,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
@@ -17359,7 +17362,7 @@
         <v>99</v>
       </c>
       <c r="V8" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -17371,10 +17374,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA8" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -17426,7 +17429,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>562856208</v>
+        <v>282532792</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -17435,7 +17438,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -17466,10 +17469,10 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B9" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -17490,7 +17493,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>93</v>
@@ -17506,7 +17509,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
@@ -17527,7 +17530,7 @@
         <v>99</v>
       </c>
       <c r="V9" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -17539,10 +17542,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA9" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -17594,7 +17597,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -17603,7 +17606,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -17634,10 +17637,10 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B10" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -17658,7 +17661,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>93</v>
@@ -17674,7 +17677,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
@@ -17695,7 +17698,7 @@
         <v>99</v>
       </c>
       <c r="V10" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -17707,10 +17710,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA10" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -17762,7 +17765,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -17771,7 +17774,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -17802,10 +17805,10 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -17826,7 +17829,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>93</v>
@@ -17842,7 +17845,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
@@ -17863,7 +17866,7 @@
         <v>99</v>
       </c>
       <c r="V11" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -17875,10 +17878,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA11" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -17930,7 +17933,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -17939,7 +17942,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17970,10 +17973,10 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B12" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -17994,7 +17997,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>93</v>
@@ -18010,7 +18013,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
@@ -18031,7 +18034,7 @@
         <v>99</v>
       </c>
       <c r="V12" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -18043,10 +18046,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA12" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -18098,7 +18101,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>563757104</v>
+        <v>282532792</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>54</v>
@@ -18107,7 +18110,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18138,10 +18141,10 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B13" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -18162,7 +18165,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>93</v>
@@ -18178,7 +18181,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
@@ -18199,7 +18202,7 @@
         <v>99</v>
       </c>
       <c r="V13" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -18211,10 +18214,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA13" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -18266,7 +18269,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>54</v>
@@ -18275,7 +18278,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18306,10 +18309,10 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B14" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -18330,7 +18333,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>93</v>
@@ -18346,7 +18349,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
@@ -18367,7 +18370,7 @@
         <v>99</v>
       </c>
       <c r="V14" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -18379,10 +18382,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA14" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -18434,7 +18437,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>54</v>
@@ -18443,7 +18446,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -18474,10 +18477,10 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B15" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -18498,7 +18501,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>93</v>
@@ -18514,7 +18517,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
@@ -18535,7 +18538,7 @@
         <v>99</v>
       </c>
       <c r="V15" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -18547,10 +18550,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA15" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -18602,7 +18605,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>54</v>
@@ -18611,7 +18614,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -18642,10 +18645,10 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B16" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -18666,7 +18669,7 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>93</v>
@@ -18682,7 +18685,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
@@ -18703,7 +18706,7 @@
         <v>99</v>
       </c>
       <c r="V16" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -18715,10 +18718,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA16" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -18770,7 +18773,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>54</v>
@@ -18779,7 +18782,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -18810,10 +18813,10 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B17" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -18834,7 +18837,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>93</v>
@@ -18850,7 +18853,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
@@ -18871,7 +18874,7 @@
         <v>99</v>
       </c>
       <c r="V17" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -18883,10 +18886,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA17" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -18938,7 +18941,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>54</v>
@@ -18947,7 +18950,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -18978,10 +18981,10 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B18" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -19002,7 +19005,7 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>93</v>
@@ -19018,7 +19021,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
@@ -19039,7 +19042,7 @@
         <v>99</v>
       </c>
       <c r="V18" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -19051,10 +19054,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA18" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -19106,7 +19109,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>54</v>
@@ -19115,7 +19118,7 @@
         <v>62</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19146,10 +19149,10 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B19" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -19170,7 +19173,7 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>93</v>
@@ -19186,7 +19189,7 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
@@ -19207,7 +19210,7 @@
         <v>99</v>
       </c>
       <c r="V19" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -19219,10 +19222,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA19" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -19274,7 +19277,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>54</v>
@@ -19283,7 +19286,7 @@
         <v>62</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19314,10 +19317,10 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B20" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -19338,7 +19341,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>93</v>
@@ -19354,7 +19357,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
@@ -19375,7 +19378,7 @@
         <v>99</v>
       </c>
       <c r="V20" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -19387,10 +19390,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA20" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -19442,7 +19445,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>54</v>
@@ -19451,7 +19454,7 @@
         <v>62</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -19482,10 +19485,10 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B21" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -19506,7 +19509,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>93</v>
@@ -19522,7 +19525,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
@@ -19543,7 +19546,7 @@
         <v>99</v>
       </c>
       <c r="V21" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -19555,10 +19558,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA21" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -19610,7 +19613,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>54</v>
@@ -19619,7 +19622,7 @@
         <v>62</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -19650,10 +19653,10 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B22" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -19674,7 +19677,7 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>93</v>
@@ -19690,7 +19693,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
@@ -19711,7 +19714,7 @@
         <v>99</v>
       </c>
       <c r="V22" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -19723,10 +19726,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA22" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -19778,7 +19781,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>563757104</v>
+        <v>282446688</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>54</v>
@@ -19787,7 +19790,7 @@
         <v>62</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -19818,10 +19821,10 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B23" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -19842,7 +19845,7 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>93</v>
@@ -19858,7 +19861,7 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
@@ -19879,7 +19882,7 @@
         <v>99</v>
       </c>
       <c r="V23" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -19891,10 +19894,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA23" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -19946,7 +19949,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>563757104</v>
+        <v>282354944</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>54</v>
@@ -19955,7 +19958,7 @@
         <v>62</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -19986,10 +19989,10 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B24" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -20010,7 +20013,7 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>93</v>
@@ -20026,7 +20029,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
@@ -20047,7 +20050,7 @@
         <v>99</v>
       </c>
       <c r="V24" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -20059,10 +20062,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA24" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -20114,7 +20117,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>563722512</v>
+        <v>282354944</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>54</v>
@@ -20123,7 +20126,7 @@
         <v>62</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20154,10 +20157,10 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B25" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -20178,7 +20181,7 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>93</v>
@@ -20194,7 +20197,7 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
@@ -20215,7 +20218,7 @@
         <v>99</v>
       </c>
       <c r="V25" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -20227,10 +20230,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA25" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -20282,7 +20285,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>563757104</v>
+        <v>282475264</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>54</v>
@@ -20291,7 +20294,7 @@
         <v>62</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20322,10 +20325,10 @@
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B26" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -20346,7 +20349,7 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>93</v>
@@ -20362,7 +20365,7 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
@@ -20383,7 +20386,7 @@
         <v>99</v>
       </c>
       <c r="V26" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -20395,10 +20398,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA26" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -20450,7 +20453,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>563757104</v>
+        <v>282504028</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>54</v>
@@ -20459,7 +20462,7 @@
         <v>62</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -20490,10 +20493,10 @@
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B27" s="3">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -20514,7 +20517,7 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>93</v>
@@ -20530,7 +20533,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
@@ -20545,13 +20548,13 @@
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V27" s="6">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -20563,10 +20566,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>43565</v>
+        <v>44013</v>
       </c>
       <c r="AA27" s="3">
-        <v>45046</v>
+        <v>45473</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -20618,7 +20621,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>563757104</v>
+        <v>281907316</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>54</v>
@@ -20627,7 +20630,7 @@
         <v>62</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -20653,7 +20656,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674AE2CA-EE9E-4048-9075-E0A1124D5527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34869BD4-A60B-4902-89AF-14D3F48CB645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="416">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,976 +311,979 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EETDHM401_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000401</t>
-  </si>
-  <si>
-    <t>Serie El día que Henry conoció…</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP01</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un crucero con muchos pasajeros, pero ningún capitán. Henry se vuelve capitán.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un crucero y aprende lo que es un crucero. Crucero tiene una enorme fila de vacacionistas listos para abordar, pero su capitán está mareado. Henry se convierte en capitán de crucero y navega por todo el Caribe.</t>
-  </si>
-  <si>
-    <t>00:05:00</t>
-  </si>
-  <si>
-    <t>00:05</t>
-  </si>
-  <si>
-    <t>Infantil/El día que Henry conoció…</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Darragh Malone, Oliver Callan, Lisa Garvey, Daniel O'Gorman, Chloe Corbett, Gilly Breen Moya, Henry Gill, Scarlett Solórzano, Emily Corbett, Ben Corbett, Finan Breen, Joe Hyland, Fia Brennan, Breen, Joann.</t>
-  </si>
-  <si>
-    <t>Wiggleywoo</t>
-  </si>
-  <si>
-    <t>Malone Darragh, Callan Oliver, Garvey Lisa, O'Gorman Daniel, Corbett Chloe, Moya Gilly Breen, Gill Henry, Solórzano Scarlett, Corbett Emily, Corbett Ben, Breen Finan, Hyland Joe, Brennan Fia, Breen, Joann.</t>
-  </si>
-  <si>
-    <t>Moya, Gilly Breen</t>
-  </si>
-  <si>
-    <t>EETDHM401.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM4_box.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM401_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM402_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000402</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP02</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un Algodón de Azúcar en la feria. Pero todos los operarios están enfermos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un Algodón de Azúcar en la feria. Todos los trabajadores de la feria están enfermos, así que nadie puede manejar los juegos. ¡Tendrán que cerrar! Henry se convierte en trabajador de la feria y tiene que operar todas las atracciones.</t>
-  </si>
-  <si>
-    <t>EETDHM402.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM402_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM403_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000403</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP03</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una botella de leche. Al no haber quien las reparta, Henry se vuelve lechero.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una botella de leche en su escalón. Henry aprende todo sobre los beneficios de tomar leche y de dónde viene. Henry se convierte en lechero, viaja en su camioneta de reparto y entrega leche a tiempo para el desayuno de todos.</t>
-  </si>
-  <si>
-    <t>EETDHM403.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM403_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM404_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000404</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP04</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una motocicleta que sueña con saltar el Gran Cañón. Henry se hace motociclista.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una motocicleta que siempre quiso saltar el Gran Cañón. Henry se convierte en motociclista acrobático y la ayuda a cumplir su sueño.</t>
-  </si>
-  <si>
-    <t>EETDHM404.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM404_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM405_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000405</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP05</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce una linterna que siempre quiso explorar una vieja casa embrujada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce una linterna que siempre quiso explorar una vieja casa embrujada. Henry se convierte en investigador paranormal y ayuda a Linterna a explorar la Vieja Casa Embrujada.</t>
-  </si>
-  <si>
-    <t>EETDHM405.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM405_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM406_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000406</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP06</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce una rosa en el día de los enamorados. Pero el florista está enfermo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce una rosa. Henry aprende sobre el Día de San Valentín y lo que hace una florista. Desafortunadamente el florista tiene fiebre del heno, así que no hay nadie para armar los ramos. Henry se convierte en florista y ayuda a hacerlos.</t>
-  </si>
-  <si>
-    <t>EETDHM406.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM406_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM407_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000407</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP07</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un taxi que no tiene chofer. Henry se convierte en taxista de Nueva York.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry se convierte en un taxista de Nueva York, y aprende para qué se usan los taxis, qué es la Gan Manzana y ve los diferentes paisajes de Nueva York. Henry se convierte en taxista de Nueva York y sale a buscar pasajeros.</t>
-  </si>
-  <si>
-    <t>EETDHM407.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM407_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM408_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000408</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP08</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una tabla de nieve que nunca ha salido de la tienda de deportes extremos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una tabla de nieve en una tienda de deportes extremos. Lo aprende todo sobre los deportes de montaña. Pero la tabla nunca ha salido de la tienda. Henry se convierte en snowboarder y viaja a la base de una hermosa montaña nevada.</t>
-  </si>
-  <si>
-    <t>EETDHM408.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM408_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM409_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000409</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP09</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una vieja góndola que nunca transportó a turistas de paseo por Venecia.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una vieja góndola en un astillero desvencijado, y lo aprende todo sobre los botes y como se han usado para el transporte durante cientos de años. Henry se convierte en gondolero y comienza a transportar turistas por Venecia.</t>
-  </si>
-  <si>
-    <t>EETDHM409.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM409_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM410_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000410</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP10</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una hormiga encerrada en una granja de hormigas que quiere regresar a su nido.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una hormiga que está encerrada en una granja de hormigas, La hormiga quiere regresar a su nido en el jardín y Henry se convierte en hormiga para ayudarla.</t>
-  </si>
-  <si>
-    <t>EETDHM410.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM410_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM411_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000411</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP11</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a patines sobre hielo que desean participar a un evento de patinaje artístico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un par de patines sobre hielo que desean participar a un espectáculo de patinaje artístico. Al no haber un patinador, Henry se convierte en uno para ayudarlos a cumplir su sueño.</t>
-  </si>
-  <si>
-    <t>EETDHM411.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM411_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM412_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000412</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP12</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una motoneta de pizzería en Roma. Pero no hay nadie que las prepare y reparta.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a una motoneta en la capital de Italia, Roma, y reparte pizza. Henry lo aprende todo sobre hacer pizza y se convierte en motociclista repartidor de pizza.</t>
-  </si>
-  <si>
-    <t>EETDHM412.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM412_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM413_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000413</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP13</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un paracaídas que quiere dar el mayor salto mundial. Pero falta un paracaidista.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un paracaídas, y lo aprende todo sobre el paracaidismo, los paracaídas y cómo funcionan. Paracaídas quiere hacer el salto más alto del mundo. Henry se convierte en paracaidista y lo ayuda a dar el salto más alto del mundo.</t>
-  </si>
-  <si>
-    <t>EETDHM413.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM413_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM414_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000414</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP14</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un cangrejo ermitaño que busca un nuevo hogar en una playa muy contaminada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un cangrejo ermitaño y aprende sobre la contaminación y cómo algunas personas arrojan basura por todas partes de la playa. Henry se convierte en ambientalista y ayuda a limpiar.</t>
-  </si>
-  <si>
-    <t>EETDHM414.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM414_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM415_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000415</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP15</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce una caja de herramientas que quiere fabricar invenciones. Pero no hay carpintero.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce una caja de herramientas y aprende sobre el trabajo de un carpintero. Henry se convierte en carpintero y ayuda a hacer todo tipo de trabajos con la caja.</t>
-  </si>
-  <si>
-    <t>EETDHM415.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM415_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM416_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000416</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP16</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un husky que necesita de un explorador del ártico para emprender su viaje.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un husky y aprende sobre el trabajo de estos perros. Henry aprende que los huskys tiran de trineos por la nieve. Henry se convierte en un gran explorador del ártico y viaja al Ártico con Husky.</t>
-  </si>
-  <si>
-    <t>EETDHM416.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM416_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM417_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000417</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP17</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una corona que quiere hacer un banquete medieval pero falta le falta un bufón.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a una corona y aprende sobre los objetos reales. Corona quiere hacer un banquete medieval y Henry se convierte en bufón de la corte y entretiene a los comensales.</t>
-  </si>
-  <si>
-    <t>EETDHM417.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM417_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM418_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000418</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP18</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce un folleto en un museo que promueve la nueva gran exhibición. Pero falta el guía.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce un folleto de museo. Hay muchos turistas esperando afuera, pero el guía no está. Henry se convierte en guía y le muestra a los visitantes las riquezas contenidas en el museo.</t>
-  </si>
-  <si>
-    <t>EETDHM418.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM418_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM419_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000419</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP19</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un saxófono que quiere tocar jazz con su banda en la Nueva Orleans.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un saxófono tocando en la calle en Dublín. Henry aprende todo sobre los músicos callejeros y la música que tocan. Henry se convierte en cantante de jazz y toca en Nueva Orleans con el Saxófono.</t>
-  </si>
-  <si>
-    <t>EETDHM419.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM419_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM420_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000420</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP20</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un carruaje que sueña con participar en una carrera en la antigua Roma.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un carruaje que vive en una excavación arqueológica y se convierte en conductor para participar en una carrera en la antigua Roma. </t>
-  </si>
-  <si>
-    <t>EETDHM420.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM420_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM421_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000421</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP21</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un balde y un trapeador que trabajan en el acuario que no abre: falta un pez.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un balde y un trapeador que trabajan en el acuario dejando los pisos impecables. Henry aprende sobre la vida marina y se convierte en acuarista.</t>
-  </si>
-  <si>
-    <t>EETDHM421.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM421_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM422_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000422</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP22</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un rodillo de pintura listo para decorar una casa. Pero falta la mano de obra.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un Rodillo de Pintura y aprende a decorar. Henry se convierte en pintor decorador y ayuda a decorar la casa para los nuevos dueños.</t>
-  </si>
-  <si>
-    <t>EETDHM422.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM422_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM423_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000423</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP23</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un laúd que necesita un aventurero para poder volver a cantar sus hazañas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a un laúd que canta y narra todo lo que sucede en el episodio. El laúd no ha vivido una aventura excitante para cantar desde hace tiempo, y necesita de un intrépido aventurero para poder volver a hacerlo. Henry se hace aventurero.</t>
-  </si>
-  <si>
-    <t>EETDHM423.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM423_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM424_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000424</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP24</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una tarjeta de biblioteca que quiere revivir grandes eventos históricos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una tarjeta de biblioteca y lo aprende todo sobre libros y bibliotecas. Los libros favoritos de la tarjeta son los de historia. Henry y Tarjeta se hacen viajeros del tiempo y viajan al pasado para experimentar eventos históricos.</t>
-  </si>
-  <si>
-    <t>EETDHM424.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM424_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM425_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000425</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP25</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a una boa de plumas que sospecha de las otras prendas de vestir.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce a una boa de plumas que teme que las otras prendas estén actuando sospechosamente. Henry se convierte en investigador privado y trata de resolver el misterio de las prendas sospechosas.</t>
-  </si>
-  <si>
-    <t>EETDHM425.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM425_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM426_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000426</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T04EP26</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce una batisfera de utilería que quiere explorar el fondo de los océanos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Henry conoce una batisfera y aprende que es un vehículo muy especial de las profundidades y lleva a los pasajeros al fondo del océano. Henry se convierte en biólogo marino y viaja al fondo del mar.</t>
-  </si>
-  <si>
-    <t>00:04:59</t>
-  </si>
-  <si>
-    <t>EETDHM426.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM426_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM401_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000401</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP01 HD</t>
-  </si>
-  <si>
-    <t>EETDHM401.ts</t>
-  </si>
-  <si>
-    <t>EETDHM402_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000402</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP02 HD</t>
-  </si>
-  <si>
-    <t>EETDHM402.ts</t>
-  </si>
-  <si>
-    <t>EETDHM403_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000403</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP03 HD</t>
-  </si>
-  <si>
-    <t>EETDHM403.ts</t>
-  </si>
-  <si>
-    <t>EETDHM404_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000404</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP04 HD</t>
-  </si>
-  <si>
-    <t>EETDHM404.ts</t>
-  </si>
-  <si>
-    <t>EETDHM405_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000405</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP05 HD</t>
-  </si>
-  <si>
-    <t>EETDHM405.ts</t>
-  </si>
-  <si>
-    <t>EETDHM406_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000406</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP06 HD</t>
-  </si>
-  <si>
-    <t>EETDHM406.ts</t>
-  </si>
-  <si>
-    <t>EETDHM407_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000407</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP07 HD</t>
-  </si>
-  <si>
-    <t>EETDHM407.ts</t>
-  </si>
-  <si>
-    <t>EETDHM408_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000408</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP08 HD</t>
-  </si>
-  <si>
-    <t>EETDHM408.ts</t>
-  </si>
-  <si>
-    <t>EETDHM409_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000409</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP09 HD</t>
-  </si>
-  <si>
-    <t>EETDHM409.ts</t>
-  </si>
-  <si>
-    <t>EETDHM410_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000410</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP10 HD</t>
-  </si>
-  <si>
-    <t>EETDHM410.ts</t>
-  </si>
-  <si>
-    <t>EETDHM411_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000411</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP11 HD</t>
-  </si>
-  <si>
-    <t>EETDHM411.ts</t>
-  </si>
-  <si>
-    <t>EETDHM412_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000412</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP12 HD</t>
-  </si>
-  <si>
-    <t>EETDHM412.ts</t>
-  </si>
-  <si>
-    <t>EETDHM413_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000413</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP13 HD</t>
-  </si>
-  <si>
-    <t>EETDHM413.ts</t>
-  </si>
-  <si>
-    <t>EETDHM414_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000414</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP14 HD</t>
-  </si>
-  <si>
-    <t>EETDHM414.ts</t>
-  </si>
-  <si>
-    <t>EETDHM415_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000415</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP15 HD</t>
-  </si>
-  <si>
-    <t>EETDHM415.ts</t>
-  </si>
-  <si>
-    <t>EETDHM416_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000416</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP16 HD</t>
-  </si>
-  <si>
-    <t>EETDHM416.ts</t>
-  </si>
-  <si>
-    <t>EETDHM417_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000417</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP17 HD</t>
-  </si>
-  <si>
-    <t>EETDHM417.ts</t>
-  </si>
-  <si>
-    <t>EETDHM418_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000418</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP18 HD</t>
-  </si>
-  <si>
-    <t>EETDHM418.ts</t>
-  </si>
-  <si>
-    <t>EETDHM419_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000419</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP19 HD</t>
-  </si>
-  <si>
-    <t>EETDHM419.ts</t>
-  </si>
-  <si>
-    <t>EETDHM420_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000420</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP20 HD</t>
-  </si>
-  <si>
-    <t>EETDHM420.ts</t>
-  </si>
-  <si>
-    <t>EETDHM421_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000421</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP21 HD</t>
-  </si>
-  <si>
-    <t>EETDHM421.ts</t>
-  </si>
-  <si>
-    <t>EETDHM422_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000422</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP22 HD</t>
-  </si>
-  <si>
-    <t>EETDHM422.ts</t>
-  </si>
-  <si>
-    <t>EETDHM423_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000423</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP23 HD</t>
-  </si>
-  <si>
-    <t>EETDHM423.ts</t>
-  </si>
-  <si>
-    <t>EETDHM424_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000424</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP24 HD</t>
-  </si>
-  <si>
-    <t>EETDHM424.ts</t>
-  </si>
-  <si>
-    <t>EETDHM425_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000425</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP25 HD</t>
-  </si>
-  <si>
-    <t>EETDHM425.ts</t>
-  </si>
-  <si>
-    <t>EETDHM426_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000426</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T04 EP26 HD</t>
-  </si>
-  <si>
-    <t>EETDHM426.ts</t>
+    <t>EEZNTZ101_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000101</t>
+  </si>
+  <si>
+    <t>Serie Ziggy y el tranvía del zoológico</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP01</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: Flora está cambiando el plumaje y le avergüenza tanto su barba gris que decide esconderse.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Flora está cambiando el plumaje y le vergüenza tanto su barba gris que decide esconderse. Como no logran convencerla de que vaya al zoológico, Ziggy transforma el tranvía en un hidrodeslizador para poder atravesar el lago.</t>
+  </si>
+  <si>
+    <t>00:11:34</t>
+  </si>
+  <si>
+    <t>00:12</t>
+  </si>
+  <si>
+    <t>Infantil/Ziggy y el tranvía del zoológico</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Marieke Van Hooff, Lenny Mark Irons, Jackie Jones, Emma Franks, Berangere McNeese, Vincent Broes, Ilse La Monaca,Tom De Beccker</t>
+  </si>
+  <si>
+    <t>Grid Animat. Fab. I</t>
+  </si>
+  <si>
+    <t>Van Hooff Marieke, Irons Lenny Mark, Jones Jackie, Franks Emma, McNeese Berangere, Broes Vincent, La Monaca Ilse, De Beccker Tom</t>
+  </si>
+  <si>
+    <t>De Kermel, Tanguy</t>
+  </si>
+  <si>
+    <t>EEZNTZ101.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ101_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ102_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000102</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP02</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Leonel le gusta verse elegante, pero un accidente con el almuerzo ensucia su traje de safari.</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Leonel le gusta verse elegante, pero accidente con el almuerzo de Scottie le ensucia su traje de safari y éste entra en una terrible crisis.</t>
+  </si>
+  <si>
+    <t>00:11:36</t>
+  </si>
+  <si>
+    <t>EEZNTZ102.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ102_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ103_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000103</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP03</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: La señorita Emily quiere ir a la selva para ver la "emperatriz Emily", una exótica y extraña liana.</t>
+  </si>
+  <si>
+    <t>Edye presenta: La señorita Emily quiere ir a la selva para ver la “emperatriz Emily”, una exótica y extraña liana. Shackleton se asusta con una araña y se pierde entre los árboles y para cuando lo encuentran, ya es hora de irse, sin haber visto la planta.</t>
+  </si>
+  <si>
+    <t>00:11:35</t>
+  </si>
+  <si>
+    <t>EEZNTZ103.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ103_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ104_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000104</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP04</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tony quiere que sus amigos le hagan un concierto a su padre, pero insiste en ensayar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tony quiere que sus amigos le hagan un concierto a su padre, pero insiste en ensayar, cuando llegan al árbol de su papa, es muy tarde. Ziggy transforma el tranvía con su nuevo invento, un propulsor turbo.</t>
+  </si>
+  <si>
+    <t>EEZNTZ104.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ104_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ105_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000105</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP05</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Bunbury planea una celebración por el viaje número 100 del tranvía. Pero sus amigos no quieren.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Bunbury planea una pequeña celebración por el viaje número cien del tranvía. Pero, por alguna razón, sus amigos no quieren celebrar. Bunbury no lo sabe, pero ellos tienen planeado algo más grande: una fiesta sorpresa.</t>
+  </si>
+  <si>
+    <t>EEZNTZ105.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ105_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ106_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000106</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP06</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Brian se resfría y la Señorita Emily insiste en que una taza de su limonada caliente lo sanará.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Brian se resfría y quiere quedarse en casa, pero la Señorita Emily insiste en que una taza de su limonada lo sanará. Pero se agota la batería del tranvía y con la ayuda de Brian y la turbina logran generar suficiente energía para llegar al zoológico.</t>
+  </si>
+  <si>
+    <t>EEZNTZ106.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ106_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ107_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000107</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP07</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Lionel lleva a sus amigos a acampar, pero no puede dormir porque le tiene miedo a la oscuridad.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel lleva a todos a acampar, pero no puede dormir porque le tiene miedo a la oscuridad. En lugar de admitirlo, intenta encender las luces del tranvía y despierta a todos por accidente. Sus amigos descubren su secreto e intentan ayudarlo.</t>
+  </si>
+  <si>
+    <t>EEZNTZ107.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ107_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ108_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000108</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP08</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tony no deja de hacer comentarios sobre un juego que les gusta a los pingüinos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tony no deja de hacer comentarios sobre un juego que les gusta a los pingüinos y piensa: ¿Por qué saltar cuando puedes volar? El problema es que los pingüinos no pueden volar. Luego, descubren que el pantano se inundó y el tranvía no puede pasar.</t>
+  </si>
+  <si>
+    <t>EEZNTZ108.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ108_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ109_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000109</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP09</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Amy, sin querer, deja caer el teléfono nuevo de Flora en el agua, y se lanza para recuperarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Amy, sin querer, deja caer el teléfono nuevo de Flora en el agua, y se lanza para recuperarlo, pero se pierde en el intento. Ziggy convierte el tranvía en un submarino para rescatarla. Flora aprende que lo más importante en la vida son los amigos.</t>
+  </si>
+  <si>
+    <t>EEZNTZ109.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ109_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ110_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000110</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP10</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los animales quedan atrapados en un túnel y Brian ¡tiene tres oportunidades para salvar el día!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Jugando fútbol, Brian patea muy fuerte, pero no tiene puntería. En su viaje a través del túnel el tranvía se detiene y Ziggy usa un brazo hidráulico pero se atasca, para destrabarlo puede golperalo con el balón, Brian tiene sólo 3 oportunidades.</t>
+  </si>
+  <si>
+    <t>EEZNTZ110.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ110_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000111</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP11</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Al ver a los pingüinos patinar, Brian asume que su talento lo hará un experto muy pronto.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Al ver a los pingüinos patinar en hielo, Brian asume que su talento lo hará un experto muy pronto, pero se da cuenta de que no será así. Se cae en el hielo y no puede levantarse así que Ziggy va a rescatarlo, pero Brian se rehúsa a que lo ayuden.</t>
+  </si>
+  <si>
+    <t>EEZNTZ111.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000112</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP12</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día muy frío y Scottie tiene un regalo para el señor Timmers: un pingüino hecho de hielo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día muy frío y Scottie tiene un regalo para el señor Timmers: un pingüino hecho de hielo. Impaciente por llegar al zoo Scottie rompe la estatuilla. Sus amigos tienen tantas ganas de ayudarlo y convierten al tranvía en una excavadora de hielo.</t>
+  </si>
+  <si>
+    <t>EEZNTZ112.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000113</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP13</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: La señorita Emily quiere fotografiar a una rara gaviota de patas azules, pero se accidenta.</t>
+  </si>
+  <si>
+    <t>Edye presenta: La señorita Emily quiere tomar una fotografía de una rara gaviota de patas azules para su álbum de fotos, pero se lastima el tobillo y debe rendirse. Ella se rehúsa a recibir ayuda de sus amigos porque piensa que no lo harán bien.</t>
+  </si>
+  <si>
+    <t>EEZNTZ113.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000114</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP14</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ziggy crea un nuevo dispositivo para el tranvía, pero no funciona bien, y se siente inseguro.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ziggy crea un nuevo dispositivo para el tranvía, pero no funciona bien. Leonel y la señorita Emily se molestan con Ziggy y él pierde su confianza en sí mismo. Sus amigos intentan convencerlo que confían en él, pero el se siente inseguro.</t>
+  </si>
+  <si>
+    <t>EEZNTZ114.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000115</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP15</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel no puede dormir, tiene miedo a la oscuridad. La señorita Emily y Ziggy lo ayudan.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel no puede dormir porque le tiene miedo a la oscuridad y a los ruidos extraños, pero se niega a admitirlo. La señorita Emily decide ayudarlo, y con Ziggy convierten al tranvía en un “vagón embrujado” para que Leonel pueda enfrentar sus miedos.</t>
+  </si>
+  <si>
+    <t>EEZNTZ115.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000116</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP16</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tony pierde la voz y sus amigos creen que, literalmente, hay que ir a buscarla.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tony pierde la voz y Amy, Scottie y Shackleton piensan que, literalmente, la perdió y deciden ir a buscarla. Tony está frustrado por no poder hablar y la señorita Emily le prepara una medicina, mientras los demás buscan a los pingünos.</t>
+  </si>
+  <si>
+    <t>EEZNTZ116.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000117</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP17</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel tiene hipo y sus amigos intentan curarlo probando todos los remedios posibles.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel tiene hipo y sus amigos intentan de todo para curarlo. Prueban todos los remedios posibles, pero nada parece funcionar. A Leonel le molesta la idea de ir así al zoológico con mucho hipo en lugar de rugidos y se niega a ir.</t>
+  </si>
+  <si>
+    <t>EEZNTZ117.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000118</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP18</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los exploradores Scottie, Amy y Shackleton quieren conseguir sus insignias de exploradores.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los exploradores Scottie, Amy y Shackleton quieren conseguir sus insignias. Scottie está muy emocionado porque será la primera vez que es condecorado. Aprende a camuflarse y a seguir huellas, pero su entusiasmo hace que se equivoque y falla.</t>
+  </si>
+  <si>
+    <t>EEZNTZ118.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000119</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP19</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Flora cree que está en edad para irse sola a casa. Pero la señorita Emily no la deja hacerlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Flora cree que tiene edad suficiente para ir sola a casa, pero la señorita Emily sólo lo va a permitir si Brian va con ella. Flora se siente humillada porque Brian no es nada genial, pero no tiene opción.</t>
+  </si>
+  <si>
+    <t>EEZNTZ119.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000120</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP20</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Por actuar de prisa, Ziggy olvida poner freno al tranvía ocasionando un serio accidente.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ziggy crea un potenciador para hacer el tranvía más rápido y planea ir a la montaña a buscar “potencianito” para alimentar su nueva invención. Pero Ziggy olvida ponerle el freno de mano al tranvía y esto hace que se caiga de la montaña a un pantano.</t>
+  </si>
+  <si>
+    <t>EEZNTZ120.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000121</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP21</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es el día de la inspección de los exploradores de Leonel, y Shackleton tiene piojos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es el día de la inspección para los exploradores de Lionel, pero Shackleton descubre que tiene piojos, lo que pone en peligro la inspección. Leonel lo culpa por no haberse lavado bien y, porque ¡él ya también se está rascando!</t>
+  </si>
+  <si>
+    <t>EEZNTZ121.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000122</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP22</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Shackleton quiere ser un superhéroe, pero siempre que intenta volar provoca un desastre.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Shackleton quiere ser un superhéroe, pero siempre que intenta volar termina provocando un desastre. En su frustración, lanza una lata por la ventana y daña un pequeño fusible del riel del tranvía, el vagón se detiene y no puede llegar al zoológico.</t>
+  </si>
+  <si>
+    <t>EEZNTZ122.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000123</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP23</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras juegan, Amy, Scottie y Shackleton se suben al tranvía, y accidentalmente lo arrancan.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras juegan, Amy, Scottie y Shackleton se suben al tranvía y lo arrancan. Están atrapados mientras el tranvía va cada vez más rápido en círculos alrededor del cráter. Los demás deben detenerlo antes de que se salga del cráter.</t>
+  </si>
+  <si>
+    <t>EEZNTZ123.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000124</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP24</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel no le permite a Amy ir a escalar con él, pero ella terminará rescatándolo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Leonel no le permite a Amy ir a escalar con él porque los pingüinos no saben escalar ni rebotan al caer. Cuando Leonel se encuentra en aprietos Ziggy transforma el tranvía en un helicóptero para que Amy vaya a rescatarlo.</t>
+  </si>
+  <si>
+    <t>EEZNTZ124.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000125</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP25</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Bunbury cree haber escuchado a un oso rubio poco común. Sus amigos no le creen.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Bunbury cree haber escuchado a un oso rubio poco común. Sus amigos no le creen, pero él está convencido de que está por ahí y está dispuesto a encontrarlo. Para encontrarlo Bunbury y sus amigos deciden dividirse para tener mejores probabilidades.</t>
+  </si>
+  <si>
+    <t>EEZNTZ125.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN6000000000000126</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológicoT01EP26</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: La señorita Emily hace que todos hagan una rutina de ejercicios en la mañana, que los agota.</t>
+  </si>
+  <si>
+    <t>Edye presenta: La señorita Emily hace que todos hagan una rutina de ejercicios en la mañana, que los agota. Camino al zoológico Leonel se queda dormido sobre los controles del tranvía y activa varios de los dispositivos causando una sobrecarga eléctrica.</t>
+  </si>
+  <si>
+    <t>EEZNTZ126.mpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEZNTZ101_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000101</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ101.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ102_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000102</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ102.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ103_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000103</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ103.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ104_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000104</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ104.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ105_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000105</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ105.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ106_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000106</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ106.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ107_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000107</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ107.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ108_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000108</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ108.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ109_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000109</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ109.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ110_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000110</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ110.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000111</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ111.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000112</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ112.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000113</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ113.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000114</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ114.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000115</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ115.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000116</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ116.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000117</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ117.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000118</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ118.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000119</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ119.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000120</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ120.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000121</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ121.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000122</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ122.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000123</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ123.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000124</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ124.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000125</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ125.ts</t>
+  </si>
+  <si>
+    <t>EEZNTZ126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEZN7000000000000126</t>
+  </si>
+  <si>
+    <t>Ziggy y el tranvía del zoológico T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEZNTZ126.ts</t>
   </si>
 </sst>
 </file>
@@ -7773,7 +7776,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7831,7 +7834,7 @@
         <v>99</v>
       </c>
       <c r="V2" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -7843,10 +7846,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA2" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -7898,7 +7901,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>141297980</v>
+        <v>324898592</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7941,7 +7944,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7993,13 +7996,13 @@
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V3" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -8011,10 +8014,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA3" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -8066,7 +8069,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>141297980</v>
+        <v>325228532</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -8075,7 +8078,7 @@
         <v>56</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -8101,15 +8104,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -8130,13 +8133,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -8146,28 +8149,28 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V4" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -8179,10 +8182,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA4" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -8234,7 +8237,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>141297980</v>
+        <v>324867008</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -8243,7 +8246,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -8269,15 +8272,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -8298,13 +8301,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -8314,28 +8317,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V5" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -8347,10 +8350,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA5" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -8402,7 +8405,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>141297980</v>
+        <v>324973040</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -8411,7 +8414,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -8437,15 +8440,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8466,13 +8469,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8482,28 +8485,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V6" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -8515,10 +8518,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA6" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -8570,7 +8573,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>141297980</v>
+        <v>325093548</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8579,7 +8582,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8605,15 +8608,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8634,13 +8637,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8650,28 +8653,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V7" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -8683,10 +8686,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA7" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -8738,7 +8741,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>141297980</v>
+        <v>325168184</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8747,7 +8750,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8773,15 +8776,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8802,13 +8805,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8818,28 +8821,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V8" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -8851,10 +8854,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA8" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -8906,7 +8909,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>141297980</v>
+        <v>324898592</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8915,7 +8918,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8941,15 +8944,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8970,13 +8973,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8986,28 +8989,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V9" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -9019,10 +9022,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA9" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -9074,7 +9077,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>141297980</v>
+        <v>324973040</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -9083,7 +9086,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -9109,15 +9112,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -9138,13 +9141,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -9154,28 +9157,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V10" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -9187,10 +9190,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA10" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -9242,7 +9245,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>141297980</v>
+        <v>325211236</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -9251,7 +9254,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -9277,15 +9280,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -9306,13 +9309,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -9322,28 +9325,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V11" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -9355,10 +9358,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA11" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -9410,7 +9413,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>141297980</v>
+        <v>324717924</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -9419,7 +9422,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -9445,15 +9448,15 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -9474,13 +9477,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -9490,28 +9493,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V12" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -9523,10 +9526,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA12" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -9578,7 +9581,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>141297980</v>
+        <v>325033388</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -9587,7 +9590,7 @@
         <v>56</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -9613,15 +9616,15 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -9642,13 +9645,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -9658,28 +9661,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V13" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -9691,10 +9694,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA13" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -9746,7 +9749,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>141280872</v>
+        <v>324973040</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -9755,7 +9758,7 @@
         <v>56</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -9781,15 +9784,15 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -9810,13 +9813,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -9826,28 +9829,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V14" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -9859,10 +9862,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA14" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -9914,7 +9917,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>141280872</v>
+        <v>324955932</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -9923,7 +9926,7 @@
         <v>56</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -9949,15 +9952,15 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -9978,13 +9981,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -9994,28 +9997,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V15" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -10027,10 +10030,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA15" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -10082,7 +10085,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>141280872</v>
+        <v>324898592</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -10091,7 +10094,7 @@
         <v>56</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -10117,15 +10120,15 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -10146,13 +10149,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -10162,28 +10165,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V16" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -10195,10 +10198,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA16" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -10250,7 +10253,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>141280872</v>
+        <v>324806660</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -10259,7 +10262,7 @@
         <v>56</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -10285,15 +10288,15 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -10314,13 +10317,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -10330,28 +10333,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V17" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -10363,10 +10366,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA17" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -10418,7 +10421,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>141280872</v>
+        <v>324898592</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -10427,7 +10430,7 @@
         <v>56</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -10453,15 +10456,15 @@
         <v>60</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -10482,13 +10485,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -10498,28 +10501,28 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V18" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -10531,10 +10534,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA18" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -10586,7 +10589,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>141280872</v>
+        <v>324955932</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -10595,7 +10598,7 @@
         <v>56</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -10621,15 +10624,15 @@
         <v>60</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -10650,13 +10653,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -10666,28 +10669,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V19" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -10699,10 +10702,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA19" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -10754,7 +10757,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>141280872</v>
+        <v>324973040</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -10763,7 +10766,7 @@
         <v>56</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -10789,15 +10792,15 @@
         <v>60</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -10818,13 +10821,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -10834,28 +10837,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V20" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -10867,10 +10870,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA20" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -10922,7 +10925,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>141280872</v>
+        <v>324898592</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -10931,7 +10934,7 @@
         <v>56</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -10957,15 +10960,15 @@
         <v>60</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -10986,13 +10989,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -11002,28 +11005,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V21" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -11035,10 +11038,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA21" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -11090,7 +11093,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>141280872</v>
+        <v>324898592</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -11099,7 +11102,7 @@
         <v>56</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -11125,15 +11128,15 @@
         <v>60</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -11154,13 +11157,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -11170,28 +11173,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V22" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -11203,10 +11206,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA22" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -11258,7 +11261,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>141252108</v>
+        <v>324973040</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -11267,7 +11270,7 @@
         <v>56</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -11293,15 +11296,15 @@
         <v>60</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -11322,13 +11325,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -11338,28 +11341,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V23" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -11371,10 +11374,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA23" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -11426,7 +11429,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>141206236</v>
+        <v>324898592</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -11435,7 +11438,7 @@
         <v>56</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -11461,15 +11464,15 @@
         <v>60</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -11490,13 +11493,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -11506,28 +11509,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V24" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -11539,10 +11542,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA24" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -11594,7 +11597,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>141206236</v>
+        <v>325016092</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -11603,7 +11606,7 @@
         <v>56</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -11629,15 +11632,15 @@
         <v>60</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -11658,13 +11661,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -11674,28 +11677,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V25" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -11707,10 +11710,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA25" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -11762,7 +11765,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>141266584</v>
+        <v>324973040</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -11771,7 +11774,7 @@
         <v>56</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -11797,15 +11800,15 @@
         <v>60</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -11826,13 +11829,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -11842,28 +11845,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V26" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -11875,10 +11878,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA26" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -11930,7 +11933,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>141280872</v>
+        <v>324838244</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -11939,7 +11942,7 @@
         <v>56</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -11965,15 +11968,15 @@
         <v>60</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -11994,13 +11997,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -12010,28 +12013,28 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V27" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -12043,10 +12046,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA27" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -12098,7 +12101,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>140982516</v>
+        <v>324973040</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -12107,7 +12110,7 @@
         <v>56</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -12133,7 +12136,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
@@ -16293,10 +16296,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -16317,7 +16320,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>93</v>
@@ -16333,7 +16336,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
@@ -16354,7 +16357,7 @@
         <v>99</v>
       </c>
       <c r="V2" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -16366,10 +16369,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA2" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -16421,7 +16424,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>282532792</v>
+        <v>649733640</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -16430,7 +16433,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -16461,10 +16464,10 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -16485,7 +16488,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>93</v>
@@ -16501,7 +16504,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -16516,13 +16519,13 @@
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V3" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -16534,10 +16537,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA3" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -16589,7 +16592,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>282532792</v>
+        <v>650393520</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -16598,7 +16601,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -16624,15 +16627,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -16653,13 +16656,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -16669,28 +16672,28 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V4" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -16702,10 +16705,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA4" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -16757,7 +16760,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>282532792</v>
+        <v>649676300</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -16766,7 +16769,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -16792,15 +16795,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -16821,13 +16824,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -16837,28 +16840,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V5" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -16870,10 +16873,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA5" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -16925,7 +16928,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>282532792</v>
+        <v>649882912</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -16934,7 +16937,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16960,15 +16963,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -16989,13 +16992,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -17005,28 +17008,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V6" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -17038,10 +17041,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA6" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -17093,7 +17096,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>282532792</v>
+        <v>650123740</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -17102,7 +17105,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17128,15 +17131,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -17157,13 +17160,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -17173,28 +17176,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V7" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -17206,10 +17209,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA7" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -17261,7 +17264,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>282532792</v>
+        <v>650273012</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -17270,7 +17273,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17296,15 +17299,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -17325,13 +17328,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -17341,28 +17344,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V8" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -17374,10 +17377,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA8" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -17429,7 +17432,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>282532792</v>
+        <v>649733640</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -17438,7 +17441,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -17464,15 +17467,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -17493,13 +17496,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -17509,28 +17512,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V9" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -17542,10 +17545,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA9" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -17597,7 +17600,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>282532792</v>
+        <v>649882912</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -17606,7 +17609,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -17632,15 +17635,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -17661,13 +17664,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -17677,28 +17680,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V10" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -17710,10 +17713,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA10" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -17765,7 +17768,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>282532792</v>
+        <v>650364756</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -17774,7 +17777,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -17800,15 +17803,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -17829,13 +17832,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -17845,28 +17848,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V11" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -17878,10 +17881,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA11" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -17933,7 +17936,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>282532792</v>
+        <v>649377944</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -17942,7 +17945,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17968,15 +17971,15 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -17997,13 +18000,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -18013,28 +18016,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V12" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -18046,10 +18049,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA12" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -18101,7 +18104,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>282532792</v>
+        <v>650003420</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>54</v>
@@ -18110,7 +18113,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18136,15 +18139,15 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -18165,13 +18168,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -18181,28 +18184,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V13" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -18214,10 +18217,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA13" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -18269,7 +18272,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>282504028</v>
+        <v>649882912</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>54</v>
@@ -18278,7 +18281,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18304,15 +18307,15 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -18333,13 +18336,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -18349,28 +18352,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V14" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -18382,10 +18385,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA14" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -18437,7 +18440,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>282504028</v>
+        <v>649854148</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>54</v>
@@ -18446,7 +18449,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -18472,15 +18475,15 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -18501,13 +18504,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -18517,28 +18520,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V15" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -18550,10 +18553,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA15" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -18605,7 +18608,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>282504028</v>
+        <v>649733640</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>54</v>
@@ -18614,7 +18617,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -18640,15 +18643,15 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -18669,13 +18672,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -18685,28 +18688,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V16" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -18718,10 +18721,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA16" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -18773,7 +18776,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>282504028</v>
+        <v>649555792</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>54</v>
@@ -18782,7 +18785,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -18808,15 +18811,15 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -18837,13 +18840,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -18853,28 +18856,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V17" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -18886,10 +18889,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA17" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -18941,7 +18944,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>282504028</v>
+        <v>649733640</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>54</v>
@@ -18950,7 +18953,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -18976,15 +18979,15 @@
         <v>60</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -19005,13 +19008,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -19021,28 +19024,28 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V18" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -19054,10 +19057,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA18" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -19109,7 +19112,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>282504028</v>
+        <v>649854148</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>54</v>
@@ -19118,7 +19121,7 @@
         <v>62</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19144,15 +19147,15 @@
         <v>60</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -19173,13 +19176,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -19189,28 +19192,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V19" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -19222,10 +19225,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA19" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -19277,7 +19280,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>282504028</v>
+        <v>649882912</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>54</v>
@@ -19286,7 +19289,7 @@
         <v>62</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19312,15 +19315,15 @@
         <v>60</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -19341,13 +19344,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -19357,28 +19360,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V20" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -19390,10 +19393,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA20" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -19445,7 +19448,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>282504028</v>
+        <v>649733640</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>54</v>
@@ -19454,7 +19457,7 @@
         <v>62</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -19480,15 +19483,15 @@
         <v>60</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -19509,13 +19512,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -19525,28 +19528,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V21" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -19558,10 +19561,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA21" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -19613,7 +19616,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>282504028</v>
+        <v>649733640</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>54</v>
@@ -19622,7 +19625,7 @@
         <v>62</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -19648,15 +19651,15 @@
         <v>60</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -19677,13 +19680,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -19693,28 +19696,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V22" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -19726,10 +19729,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA22" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -19781,7 +19784,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>282446688</v>
+        <v>649882912</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>54</v>
@@ -19790,7 +19793,7 @@
         <v>62</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -19816,15 +19819,15 @@
         <v>60</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -19845,13 +19848,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -19861,28 +19864,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V23" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -19894,10 +19897,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA23" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -19949,7 +19952,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>282354944</v>
+        <v>649733640</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>54</v>
@@ -19958,7 +19961,7 @@
         <v>62</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -19984,15 +19987,15 @@
         <v>60</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -20013,13 +20016,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -20029,28 +20032,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V24" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -20062,10 +20065,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA24" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -20117,7 +20120,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>282354944</v>
+        <v>649974656</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>54</v>
@@ -20126,7 +20129,7 @@
         <v>62</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20152,15 +20155,15 @@
         <v>60</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -20181,13 +20184,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -20197,28 +20200,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V25" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -20230,10 +20233,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA25" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -20285,7 +20288,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>282475264</v>
+        <v>649882912</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>54</v>
@@ -20294,7 +20297,7 @@
         <v>62</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20320,15 +20323,15 @@
         <v>60</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -20349,13 +20352,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -20365,28 +20368,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V26" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -20398,10 +20401,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA26" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -20453,7 +20456,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>282504028</v>
+        <v>649613132</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>54</v>
@@ -20462,7 +20465,7 @@
         <v>62</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -20488,15 +20491,15 @@
         <v>60</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -20517,13 +20520,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>93</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -20533,28 +20536,28 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>99</v>
       </c>
       <c r="V27" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -20566,10 +20569,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44013</v>
+        <v>44440</v>
       </c>
       <c r="AA27" s="3">
-        <v>45473</v>
+        <v>45169</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -20621,7 +20624,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>281907316</v>
+        <v>649882912</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>54</v>
@@ -20630,7 +20633,7 @@
         <v>62</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -20656,7 +20659,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7C043-D994-4DE5-8910-4EF199F227DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED7483-E918-452D-8DAF-1D8B165F0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="414">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,985 +311,973 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EETDHM301_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000301</t>
-  </si>
-  <si>
-    <t>Serie El día que Henry conoció…</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP01</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce al corbatín de un esmoquin que sueña con la vida de un agente secreto.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce al corbatín de un esmoquin. El corbatín está cansado de ir a bodas y sueña con la emocionante vida de un agente secreto. Henry se convierte en agente secreto y ayuda al corbatín a ir a una aventura ultra secreta.</t>
-  </si>
-  <si>
     <t>00:05:00</t>
   </si>
   <si>
     <t>00:05</t>
   </si>
   <si>
-    <t>Infantil/El día que Henry conoció…</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Darragh Malone, Oliver Callan, Lisa Garvey, Daniel O'Gorman, Chloe Corbett, Gilly Breen Moya, Henry Gill, Scarlett Solórzano, Emily Corbett, Ben Corbett, Finan Breen, Joe Hyland, Fia Brennan, Breen, Joann.</t>
-  </si>
-  <si>
-    <t>Wiggleywoo</t>
-  </si>
-  <si>
-    <t>Malone Darragh, Callan Oliver, Garvey Lisa, O'Gorman Daniel, Corbett Chloe, Moya Gilly Breen, Gill Henry, Solórzano Scarlett, Corbett Emily, Corbett Ben, Breen Finan, Hyland Joe, Brennan Fia, Breen, Joann.</t>
-  </si>
-  <si>
-    <t>Moya, Gilly Breen</t>
-  </si>
-  <si>
-    <t>EETDHM301.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM3_box.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM301_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM302_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000302</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP02</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un autobús rojo londinense cuyo conductor quedó atrapado en el tráfico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un autobús rojo londinense cuyo conductor quedó atrapado en el tráfico. Henry se convierte en conductor y pasea a los numerosos clientes por Londres.</t>
-  </si>
-  <si>
-    <t>EETDHM302.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM302_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM303_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000303</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP03</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una tabla de surf que sueña con surfear una ola gigante. Henry se hace surfista.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una tabla de surf que siempre ha querido surfear la “Súper mega ultra ola de la perdición” que nadie ha podido surfear, pero su surfista está en casa. Henry se convierte en surfista y ayuda a la tabla de surf a cumplir su sueño.</t>
-  </si>
-  <si>
-    <t>00:05:03</t>
-  </si>
-  <si>
-    <t>EETDHM303.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM303_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM304_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000304</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP04</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un ciclocrós que sueña con competir en el tour de Francia.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un ciclocrós que siempre ha soñado con competir en el tour de Francia como las bicicletas de carreras. Henry se convierte en ciclista y compite en el tour de Francia.</t>
-  </si>
-  <si>
-    <t>EETDHM304.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM304_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM305_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000305</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP05</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un helicóptero que añora ser un helicóptero de rescate. Henry se hace piloto.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un helicóptero que siempre ha querido ser un helicóptero de rescate y ayudar a personas en apuros. Henry se convierte en piloto de helicóptero y ayuda a rescatar a un burro del mar.</t>
-  </si>
-  <si>
-    <t>00:05:02</t>
-  </si>
-  <si>
-    <t>EETDHM305.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM305_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM306_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000306</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP06</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un submarino que quiere explorar el mar. Henry se convierte en su capitán.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un submarino que quiere convertirse en un famoso explorador, pero no tiene capitán. Así que Henry se convierte en su capitán.</t>
-  </si>
-  <si>
-    <t>EETDHM306.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM306_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM307_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000307</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP07</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un bate de beisbol que quiere hacer un jonrón en un campeonato mundial.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un bate de beisbol que nunca ha jugado un campeonato mundial y le gustaría batear un jonrón. Henry se convierte en jugador de beisbol, juega un partido en un estadio repleto ayuda al bate de beisbol a hacer un jonrón.</t>
-  </si>
-  <si>
-    <t>EETDHM307.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM307_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM308_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000308</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP08</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un perro ovejero que a perdido unas ovejas. Henry se convierte en pastor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un perro ovejero. ¡Oh, no! Alguien dejó el corral de ovejas abierto sin querer y las ovejas se escaparon. Henry se convierte en pastor y tiene que juntar las ovejas de nuevo en el corral.</t>
-  </si>
-  <si>
-    <t>00:04:58</t>
-  </si>
-  <si>
-    <t>EETDHM308.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM308_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM309_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000309</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP09</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un cactus que quiere ser ayudante de sheriff en el lejano oeste como su abuelo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un cactus. El abuelo del cactus solía ser ayudante de sheriff en el lejano oeste y él siempre ha soñado seguir sus pasos. Henry se convierte en sheriff en el lejano oeste para que el cactus sea su ayudante.</t>
-  </si>
-  <si>
-    <t>EETDHM309.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM309_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM310_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000310</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP10</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un elefante que sueña con conocer a su ancestro mamut lanudo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un elefante que sueña con conocer a su tátara, tátara, tátara, tátara abuelo, un mamut lanudo. Henry se convierte en cavernícola y viaja a la era del hielo para ayudar al elefante a encontrar a ancestro mamut lanudo.</t>
-  </si>
-  <si>
-    <t>EETDHM310.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM310_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM311_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000311</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP11</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una señal de tránsito cuyo guardia de cruce escolar está atrapado en el tráfico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una señal de tránsito. Ya casi es hora de que comience la escuela, pero el guardia de cruce escolar está atrapado en el tráfico. Henry se convierte en guardia de cruce escolar y ayuda a todos los niños a cruzar la calle.</t>
-  </si>
-  <si>
-    <t>EETDHM311.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM311_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM312_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000312</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP12</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una vieja máquina de juegos con la cual nadie quiere jugar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una vieja máquina de juegos en una, sala de juegos de video. La máquina tiene pocos jugadores por ser antigua. Si tan solo hubiese un jugador cerca que la ayudara.</t>
-  </si>
-  <si>
-    <t>EETDHM312.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM312_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM313_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000313</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP13</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a unas zapatillas de ballet cuyo bailarín se lastima antes de la gran función.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un par de zapatillas de ballet. Es el día del gran espectáculo y las zapatillas de ballet serán el gran final. Pero su bailarín se lastimó. Henry se convierte en bailarín de ballet y ayuda a las zapatillas a presentar su gran final.</t>
-  </si>
-  <si>
-    <t>00:04:59</t>
-  </si>
-  <si>
-    <t>EETDHM313.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM313_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM314_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000314</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP14</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un lavamanos de cuyo grifo no sale agua alguna. Henry se convierte en plomero.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry va al baño a lavarse las manos y conoce a un lavamanos. El grifo le ofrece lavarle las manos, pero no sale agua de su caño. ¡Oh, no! Si tan solo hubiera un plomero cerca para ayudar.</t>
-  </si>
-  <si>
-    <t>EETDHM314.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM314_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM315_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000315</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP15</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un trofeo que no figura en la vitrina porque ningún gimnasta jamás lo ganó.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un trofeo en una tienda de trofeos, se convierte en gimnasta y gana la competencia del mejor gimnasta del universo para que el trofeo pueda ir a la vitrina de trofeos.</t>
-  </si>
-  <si>
-    <t>EETDHM315.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM315_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM316_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000316</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP16</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un globo aerostático que quiere participar a una carrera alrededor del mundo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un globo aerostático en una feria rural de verano y se convierte en aeronauta para competir en una carrera alrededor del mundo.</t>
-  </si>
-  <si>
-    <t>EETDHM316.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM316_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM317_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000317</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP17</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una abeja que necesita hacer mucha miel para su reina y sus demás compañeras.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una abeja obrera afuera de su colmena en la reserva natural. La abeja necesita hacer mucha miel para la abeja reina y las demás abejas.</t>
-  </si>
-  <si>
-    <t>EETDHM317.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM317_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM318_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000318</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP18</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una brújula que nunca ha tenido la oportunidad de descubrir un lugar nuevo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una brújula que nunca ha tenido la oportunidad de descubrir un lugar nuevo y emocionante porque su barco fue tragado una ballena en su primera travesía.</t>
-  </si>
-  <si>
-    <t>EETDHM318.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM318_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM319_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000319</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP19</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una caja de chocolates vaciada por un goloso. Henry se convierte chocolatero.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una caja de chocolates, pero los chocolates de la caja estaban tan deliciosos que alguien se los comió todos y no quedó ninguno para su mamá.</t>
-  </si>
-  <si>
-    <t>EETDHM319.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM319_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM320_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000320</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP20</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una vieja lámpara de bronce que sueña con ser mágica y cumplir deseos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una vieja y polvorienta lámpara de bronce en una tienda de antigüedades. Ella sueña con ser una lámpara mágica y poder conceder deseos a la gente, pero no tiene magia.</t>
-  </si>
-  <si>
-    <t>EETDHM320.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM320_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM321_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000321</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP21</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un libro de cocina que no es leído por ningún chef. Henry se convierte en chef.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un libro de cocina que está lleno de cientos de recetas deliciosas, pero está metido en un estante sin ningún chef que prepare las comidas.</t>
-  </si>
-  <si>
-    <t>EETDHM321.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM321_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM322_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000322</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP22</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una batea de oro que nunca encontró oro. Henry se hace buscador de oro.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una batea de cribar oro junto a un arroyo. A la batea le encantaría encontrar oro, pero últimamente solo ha encontrado arena.</t>
-  </si>
-  <si>
-    <t>EETDHM322.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM322_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM323_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000323</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP23</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un huevo de pascua que quiere participar a la búsqueda de huevos pero no puede.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un huevo de pascua que está muy emocionado porque es la gran búsqueda de huevos de pascua, pero el conejo de pascua comió demasiadas zanahorias y tiene dolor de barriga.</t>
-  </si>
-  <si>
-    <t>EETDHM323.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM323_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM324_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000324</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP24</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un maniquí en una vitrina que sueña en convertirse en súper modelo de pasarela.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un maniquí en una vitrina. Al maniquí le encanta vivir ahí, pero siempre ha tenido el sueño de convertirse en súper modelo.</t>
-  </si>
-  <si>
-    <t>EETDHM324.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM324_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM325_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000325</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP25</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un cepillo para animales en el día del gran espectáculo de mascotas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a un cepillo en una peluquería para animales. Es el gran espectáculo de mascotas, pero no hay nadie para peinarlas, Henry se convierte entonces en peluquero de mascotas.</t>
-  </si>
-  <si>
-    <t>EETDHM325.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM325_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM326_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD6000000000000326</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció…T03EP26</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una campanilla en la recepción de un elegante hotel cuyo gerente desapareció.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Henry conoce a una campanilla en la recepción de un elegante hotel. Henry se convierte en gerente de hotel y ayuda con los huéspedes</t>
-  </si>
-  <si>
-    <t>EETDHM326.mpg</t>
-  </si>
-  <si>
-    <t>EETDHM326_land.jpg</t>
-  </si>
-  <si>
-    <t>EETDHM301_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000301</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP01 HD</t>
-  </si>
-  <si>
-    <t>EETDHM301.ts</t>
-  </si>
-  <si>
-    <t>EETDHM302_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000302</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP02 HD</t>
-  </si>
-  <si>
-    <t>EETDHM302.ts</t>
-  </si>
-  <si>
-    <t>EETDHM303_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000303</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP03 HD</t>
-  </si>
-  <si>
-    <t>EETDHM303.ts</t>
-  </si>
-  <si>
-    <t>EETDHM304_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000304</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP04 HD</t>
-  </si>
-  <si>
-    <t>EETDHM304.ts</t>
-  </si>
-  <si>
-    <t>EETDHM305_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000305</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP05 HD</t>
-  </si>
-  <si>
-    <t>EETDHM305.ts</t>
-  </si>
-  <si>
-    <t>EETDHM306_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000306</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP06 HD</t>
-  </si>
-  <si>
-    <t>EETDHM306.ts</t>
-  </si>
-  <si>
-    <t>EETDHM307_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000307</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP07 HD</t>
-  </si>
-  <si>
-    <t>EETDHM307.ts</t>
-  </si>
-  <si>
-    <t>EETDHM308_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000308</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP08 HD</t>
-  </si>
-  <si>
-    <t>EETDHM308.ts</t>
-  </si>
-  <si>
-    <t>EETDHM309_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000309</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP09 HD</t>
-  </si>
-  <si>
-    <t>EETDHM309.ts</t>
-  </si>
-  <si>
-    <t>EETDHM310_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000310</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP10 HD</t>
-  </si>
-  <si>
-    <t>EETDHM310.ts</t>
-  </si>
-  <si>
-    <t>EETDHM311_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000311</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP11 HD</t>
-  </si>
-  <si>
-    <t>EETDHM311.ts</t>
-  </si>
-  <si>
-    <t>EETDHM312_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000312</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP12 HD</t>
-  </si>
-  <si>
-    <t>EETDHM312.ts</t>
-  </si>
-  <si>
-    <t>EETDHM313_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000313</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP13 HD</t>
-  </si>
-  <si>
-    <t>EETDHM313.ts</t>
-  </si>
-  <si>
-    <t>EETDHM314_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000314</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP14 HD</t>
-  </si>
-  <si>
-    <t>EETDHM314.ts</t>
-  </si>
-  <si>
-    <t>EETDHM315_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000315</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP15 HD</t>
-  </si>
-  <si>
-    <t>EETDHM315.ts</t>
-  </si>
-  <si>
-    <t>EETDHM316_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000316</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP16 HD</t>
-  </si>
-  <si>
-    <t>EETDHM316.ts</t>
-  </si>
-  <si>
-    <t>EETDHM317_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000317</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP17 HD</t>
-  </si>
-  <si>
-    <t>EETDHM317.ts</t>
-  </si>
-  <si>
-    <t>EETDHM318_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000318</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP18 HD</t>
-  </si>
-  <si>
-    <t>EETDHM318.ts</t>
-  </si>
-  <si>
-    <t>EETDHM319_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000319</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP19 HD</t>
-  </si>
-  <si>
-    <t>EETDHM319.ts</t>
-  </si>
-  <si>
-    <t>EETDHM320_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000320</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP20 HD</t>
-  </si>
-  <si>
-    <t>EETDHM320.ts</t>
-  </si>
-  <si>
-    <t>EETDHM321_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000321</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP21 HD</t>
-  </si>
-  <si>
-    <t>EETDHM321.ts</t>
-  </si>
-  <si>
-    <t>EETDHM322_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000322</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP22 HD</t>
-  </si>
-  <si>
-    <t>EETDHM322.ts</t>
-  </si>
-  <si>
-    <t>EETDHM323_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000323</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP23 HD</t>
-  </si>
-  <si>
-    <t>EETDHM323.ts</t>
-  </si>
-  <si>
-    <t>EETDHM324_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000324</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP24 HD</t>
-  </si>
-  <si>
-    <t>EETDHM324.ts</t>
-  </si>
-  <si>
-    <t>EETDHM325_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000325</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP25 HD</t>
-  </si>
-  <si>
-    <t>EETDHM325.ts</t>
-  </si>
-  <si>
-    <t>EETDHM326_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETD7000000000000326</t>
-  </si>
-  <si>
-    <t>El día que Henry conoció… T03 EP26 HD</t>
-  </si>
-  <si>
-    <t>EETDHM326.ts</t>
+    <t>EETRGA201_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000201</t>
+  </si>
+  <si>
+    <t>Serie Truck Games</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP01</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: En un partido de tracto-fútbol, Alex juega individualmente, lo que molesta al resto del equipo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Durante un partido de tracto-fútbol, Alex juega individualmente, lo que molesta al resto del equipo. El abuelo Ted interviene y envía los MiniTrucks a entrenar con Zoe. El objetivo es marcar un gol contra Zoe, y para triunfar, deben jugar en equipo.</t>
+  </si>
+  <si>
+    <t>Infantil/Truck Games</t>
+  </si>
+  <si>
+    <t>Truck Games</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Sylvain Maury, Fanny Bloc, Marie Nonnenmacher Marie</t>
+  </si>
+  <si>
+    <t>Cross R Prod. Amuse</t>
+  </si>
+  <si>
+    <t>Maury Sylvain, Bloc Fanny, Nonnenmacher Marie</t>
+  </si>
+  <si>
+    <t>Szajner, Paul</t>
+  </si>
+  <si>
+    <t>EETRGA201.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA2_box.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA201_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA202_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000202</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP02</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: El abuelo Ted envía a los MiniTrucks a pintar en la plaza principal de TrucksVille.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Alice intenta dibujar patinando sobre el césped, el abuelo Ted tiene la idea de enviar a los MiniTruck a pintar en la plaza principal de TrucksVille bajo la supervisión de Léa, la artista. Pero para pintar juntos, deben aprender a coordinarse.</t>
+  </si>
+  <si>
+    <t>EETRGA202.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA202_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA203_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000203</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP03</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: El abuelo Ted envía los MiniTrucks a Noël Truck para recoger un envío de adornos navideños.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Casi es Navidad y el árbol de TrucksVille aún no está decorado. El abuelo Ted envía los MiniTrucks a Noël Truck para recoger un envío de adornos. Entre las pistas nevadas y los montículos de hielo, los MiniTrucks deberán cuidarse unos a otros.</t>
+  </si>
+  <si>
+    <t>EETRGA203.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA203_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA204_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000204</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP04</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks intentan componer una canción, ¡pero qué cacofonía! Léa L'artiste, les ayudará.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks intentan componer una canción, ¡pero qué cacofonía! Pero Ted sabe quién podría darles una lección de música y los envía a la plaza principal de Trucksville para encontrarte con Léa L'artiste. ¿Lograrán componer una buena pieza musical?</t>
+  </si>
+  <si>
+    <t>EETRGA204.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA204_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA205_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000205</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP05</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: El taller mecánico de Amy está patas arriba. Los Mini Trucks la ayudarán a ordenar el lugar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una tormenta golpeó TrucksVille durante la noche y dejó un gran desastre a su paso. El taller del mecánico de Amy está patas arriba. Los MiniTrucks deben ayudarla a guardar todo antes de que lleguen los primeros clientes. ¡Pero todo está de cabeza!</t>
+  </si>
+  <si>
+    <t>EETRGA205.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA205_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA206_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000206</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP06</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks recorren TrucksVille sin respetar las señales y por poco causan un accidente.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos los MiniTrucks recorren TrucksVille sin prestar atención a las señales y están a punto de causar un accidente. El abuelo Ted decide enviarlos con Tony Truck, quien les enseñará todos los secretos del código de circulación. Seguridad primero.</t>
+  </si>
+  <si>
+    <t>EETRGA206.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA206_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA207_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000207</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP07</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: El abuelo Ted desafía a los MiniTrucks a encontrar todos los huevos de Pascua en tiempo récord.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Este año, la búsqueda de huevos de Pascua será en el bosque de Trucksville. El abuelo Ted desafía a los MiniTrucks a encontrar todos los huevos en un tiempo récord. Para tener éxito, solo hay una consigna: trabajar juntos.</t>
+  </si>
+  <si>
+    <t>EETRGA207.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA207_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA208_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000208</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP08</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks ayudan al Detective Truck en la investigación de la desaparición de vegetales.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las verduras desaparecen en TruckVille. Los MiniTrucks están acompañando al Detective Truck en su investigación para encontrar al ladrón. Su única pista: un neumático. ¿Quién puede esconderse detrás de estas extrañas desapariciones?</t>
+  </si>
+  <si>
+    <t>EETRGA208.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA208_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA209_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000209</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP09</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Mini Trucks buscan fósiles en el jardín de Ted, pero necesitan la ayuda de un experto.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks buscan fósiles en el jardín de Ted. El abuelo decide enviar a sus nietos con Kim, el científico que había establecido un sitio de excavación en una isla frente a TrucksVille. Ahora tendrán que estar atentos y ser muy meticulosos.</t>
+  </si>
+  <si>
+    <t>EETRGA209.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA209_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA210_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000210</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP10</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks están ensayando una coreografía acrobática dirigida por Tony Truck.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks están probando movimientos de baile en el nuevo éxito de MC Truck. El abuelo Ted les ofrece una coreografía acrobática dirigida por Tony Truck. Si todo sale bien, los MiniTrucks podrán ofrecer un espectáculo impresionante a su abuelo.</t>
+  </si>
+  <si>
+    <t>EETRGA210.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA210_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA211_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000211</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP11</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: TrucksVille está cubierta de nieve. La misión de los Mini Trucks es crear un buen refugio.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es invierno y TrucksVille está cubierta de nieve. La misión de los MiniTrucks es crear un refugio que proteja del frío. Ted sabe exactamente quién podría ayudarlos. Los envía con Amy, la Mecánica, para aprender a construir un verdadero iglú.</t>
+  </si>
+  <si>
+    <t>EETRGA211.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA211_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA212_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000212</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP12</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks ya no tienen mermelada y ¡quieren más! El Chef Cookie los ayudará.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks acaban de terminar el último tarro de mermelada. Les gustaría repetirla, pero hay que encontrar el ingrediente adecuado para hacerlo. Ted los envía al Chef Cookie para que los ayude a redescubrir el sabor de la mermelada: dulce.</t>
+  </si>
+  <si>
+    <t>EETRGA212.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA212_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA213_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000213</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP13</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Amy le interesa la destreza para pintar de los MiniTrucks por su próxima gira de restauración</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks repintaron un globo que ahora parece nuevo. Eso es bueno. Amy, la mecánica, está interesada en sus habilidades como pintores ya que le vendría bien una mano en su gira de restauración. ¿Podrán atender a todos los clientes del día?</t>
+  </si>
+  <si>
+    <t>EETRGA213.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA213_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA214_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000214</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP14</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks descubren que el bosque está lleno de escombros. ¡Es hora de limpiarlo!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es de noche y los MiniTrucks están preocupados: no pueden oír el ulular del búho. Al verificar que todo esté bien, descubren que el bosque está lleno de desechos. Es hora de limpiar para que el búho pueda regresar a un ambiente saludable.</t>
+  </si>
+  <si>
+    <t>EETRGA214.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA214_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA215_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000215</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP15</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un tesoro del pirata Sam se encuentra en el mar de TrucksVille. ¡Es una misión para MiniTrucks!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Parece que un tesoro perdido del pirata Sam está en las profundidades del Mar de TrucksVille. ¡Es una nueva misión para los MiniTrucks! Acompañados por Eve el submarino, parten en busca del tesoro y descubren los misteriosos secretos del abismo.</t>
+  </si>
+  <si>
+    <t>EETRGA215.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA215_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA216_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000216</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP16</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks van tras el tesoro perdido de una civilización antigua. ¡Qué aventura!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks oyeron hablar de un tesoro en las ruinas de una civilización antigua. Con la ayuda de Kim el científico, partieron en busca de la ciudad perdida en medio del desierto. Para encontrarlo, tendrán que descubrir pistas y acertijos.</t>
+  </si>
+  <si>
+    <t>EETRGA216.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA216_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA217_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000217</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP17</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: El abuelo Ted envía los MiniTrucks a un festival de tiro para enseñarles precisión.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks están discutiendo en medio de un juego. Ted envía a sus nietos al festival de tiro para enseñarles precisión: una celebración organizada por Tony Truck, con muchos puestos de tiro que pondrán a prueba las habilidades de los chicos.</t>
+  </si>
+  <si>
+    <t>EETRGA217.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA217_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA218_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000218</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP18</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una tormenta pasó por TrucksVille. ¡Los MiniTrucks tienen que comprobar el alcance del daño!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una tormenta pasó por TrucksVille; hay que comprobar el alcance del daño. Juntos, los MiniTrucks deben asegurar la ciudad y verificar que todo y todos estén bien. ¿Podrán contar con la ayuda de Súper Truck para esa importante tarea?</t>
+  </si>
+  <si>
+    <t>EETRGA218.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA218_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA219_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000219</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP19</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: En Halloween es una tradición en TrucksVille asustar a alguién para ganarte los caramelos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En Halloween es una tradición en TrucksVille: asustar a alguién para ganar caramelos. Sam, el pirata, muestra a los chicos cómo hacer bromas, ¡pero se queda con todos los premios! Los MiniTrucks decidieron idear un plan para recuperar los dulces.</t>
+  </si>
+  <si>
+    <t>EETRGA219.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA219_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA220_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000220</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP20</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks acaban de encontrar una llave extraña. ¿Qué podra abrir?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks acaban de encontrar una llave ¿Qué podrá abrir? El abuelo Ted les dice que su amigo Sam el pirata tiene una caja fuerte y sabe que perdió la llave. ¿Será esa? ¿O es alguna otra que los llevará a una nueva aventura?</t>
+  </si>
+  <si>
+    <t>EETRGA220.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA220_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA221_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000221</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP21</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Para el festival TrucksVille, el Chef Cookie intentará crear el pastel más grande jamás hecho.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Para el festival de TrucksVille, el Chef Cookie intentará crear el pastel más grande de la historia. Es la oportunidad para que los MiniTrucks se conviertan en sus aprendices. Pero para hacer un buen pastel, ¡hay que encontrar la receta correcta!</t>
+  </si>
+  <si>
+    <t>EETRGA221.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA221_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA222_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000222</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP22</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: El globo aerostático de TrucksVille voló. Ted envía a los MiniTrucks a recuperarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El globo aerostático de TrucksVille voló. Ted envía los MiniTrucks a recogerlo, pero llevar un globo de aire caliente no es fácil. Con la ayuda de Kim, el científico, los Minitrucks tendrán que encontrar una solución para traerlo de regreso a casa.</t>
+  </si>
+  <si>
+    <t>EETRGA222.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA222_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA223_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000223</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP23</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks juegan al Spider truck. Es una oportunidad para aprender qué hacen las arañas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks juegan al Spider truck en el jardín. Es una oportunidad para aprender lo que pueden hacer las arañas. Y eso también lo que Kim, el científico, está estudiando. Los MiniTrucks se darán cuenta de que no es fácil ser un Spider truck.</t>
+  </si>
+  <si>
+    <t>EETRGA223.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA223_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA224_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000224</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP24</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Kim, el científico, ayuda a los MiniTrucks a usar su peso para lograr un objetivo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El abuelo Ted se da cuenta de que los MiniTrucks no conocen su peso. Con la ayuda de su querido amigo Kim, el científico, los MiniTrucks aprenden a usar su peso para lograr un objetivo común. Una prueba de vuelo tan entretenida como pedagógica.</t>
+  </si>
+  <si>
+    <t>EETRGA224.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA224_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA225_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000225</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP25</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks buscan un deporte desafiante. Ted los reta a jugar hockey sobre hielo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks buscan el deporte más desafiante. El abuelo Ted les ofrece un juego de hockey sobre hielo. Los MiniTrucks deberán demostrar velocidad, resistencia, precisión y equilibrio en este exigente deporte de invierno. Pero eso no los detendrá.</t>
+  </si>
+  <si>
+    <t>EETRGA225.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA225_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA226_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR6000000000000226</t>
+  </si>
+  <si>
+    <t>Truck GamesT02EP26</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks participarán en una carrera de relevos en una montaña cubierta de nieve.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los MiniTrucks tendrán que hacer una carrera de relevos por la montaña cubierta de nieve en un tiempo récord. A la larga, eso exigirá lo mejor de ellos. Pero, sobre todo, es necesario encontrar el equilibrio adecuado entre competencia y cooperación.</t>
+  </si>
+  <si>
+    <t>EETRGA226.mpg</t>
+  </si>
+  <si>
+    <t>EETRGA226_land.jpg</t>
+  </si>
+  <si>
+    <t>EETRGA201_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000201</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP01 HD</t>
+  </si>
+  <si>
+    <t>EETRGA201.ts</t>
+  </si>
+  <si>
+    <t>EETRGA202_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000202</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP02 HD</t>
+  </si>
+  <si>
+    <t>EETRGA202.ts</t>
+  </si>
+  <si>
+    <t>EETRGA203_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000203</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP03 HD</t>
+  </si>
+  <si>
+    <t>EETRGA203.ts</t>
+  </si>
+  <si>
+    <t>EETRGA204_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000204</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP04 HD</t>
+  </si>
+  <si>
+    <t>EETRGA204.ts</t>
+  </si>
+  <si>
+    <t>EETRGA205_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000205</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP05 HD</t>
+  </si>
+  <si>
+    <t>EETRGA205.ts</t>
+  </si>
+  <si>
+    <t>EETRGA206_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000206</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP06 HD</t>
+  </si>
+  <si>
+    <t>EETRGA206.ts</t>
+  </si>
+  <si>
+    <t>EETRGA207_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000207</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP07 HD</t>
+  </si>
+  <si>
+    <t>EETRGA207.ts</t>
+  </si>
+  <si>
+    <t>EETRGA208_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000208</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP08 HD</t>
+  </si>
+  <si>
+    <t>EETRGA208.ts</t>
+  </si>
+  <si>
+    <t>EETRGA209_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000209</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP09 HD</t>
+  </si>
+  <si>
+    <t>EETRGA209.ts</t>
+  </si>
+  <si>
+    <t>EETRGA210_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000210</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP10 HD</t>
+  </si>
+  <si>
+    <t>EETRGA210.ts</t>
+  </si>
+  <si>
+    <t>EETRGA211_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000211</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP11 HD</t>
+  </si>
+  <si>
+    <t>EETRGA211.ts</t>
+  </si>
+  <si>
+    <t>EETRGA212_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000212</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP12 HD</t>
+  </si>
+  <si>
+    <t>EETRGA212.ts</t>
+  </si>
+  <si>
+    <t>EETRGA213_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000213</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP13 HD</t>
+  </si>
+  <si>
+    <t>EETRGA213.ts</t>
+  </si>
+  <si>
+    <t>EETRGA214_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000214</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP14 HD</t>
+  </si>
+  <si>
+    <t>EETRGA214.ts</t>
+  </si>
+  <si>
+    <t>EETRGA215_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000215</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP15 HD</t>
+  </si>
+  <si>
+    <t>EETRGA215.ts</t>
+  </si>
+  <si>
+    <t>EETRGA216_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000216</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP16 HD</t>
+  </si>
+  <si>
+    <t>EETRGA216.ts</t>
+  </si>
+  <si>
+    <t>EETRGA217_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000217</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP17 HD</t>
+  </si>
+  <si>
+    <t>EETRGA217.ts</t>
+  </si>
+  <si>
+    <t>EETRGA218_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000218</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP18 HD</t>
+  </si>
+  <si>
+    <t>EETRGA218.ts</t>
+  </si>
+  <si>
+    <t>EETRGA219_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000219</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP19 HD</t>
+  </si>
+  <si>
+    <t>EETRGA219.ts</t>
+  </si>
+  <si>
+    <t>EETRGA220_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000220</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP20 HD</t>
+  </si>
+  <si>
+    <t>EETRGA220.ts</t>
+  </si>
+  <si>
+    <t>EETRGA221_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000221</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP21 HD</t>
+  </si>
+  <si>
+    <t>EETRGA221.ts</t>
+  </si>
+  <si>
+    <t>EETRGA222_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000222</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP22 HD</t>
+  </si>
+  <si>
+    <t>EETRGA222.ts</t>
+  </si>
+  <si>
+    <t>EETRGA223_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000223</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP23 HD</t>
+  </si>
+  <si>
+    <t>EETRGA223.ts</t>
+  </si>
+  <si>
+    <t>EETRGA224_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000224</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP24 HD</t>
+  </si>
+  <si>
+    <t>EETRGA224.ts</t>
+  </si>
+  <si>
+    <t>EETRGA225_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000225</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP25 HD</t>
+  </si>
+  <si>
+    <t>EETRGA225.ts</t>
+  </si>
+  <si>
+    <t>EETRGA226_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EETR7000000000000226</t>
+  </si>
+  <si>
+    <t>Truck Games T02 EP26 HD</t>
+  </si>
+  <si>
+    <t>EETRGA226.ts</t>
   </si>
 </sst>
 </file>
@@ -7779,7 +7767,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3">
         <v>44625</v>
@@ -7803,13 +7791,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7819,28 +7807,28 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V2" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -7852,10 +7840,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA2" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -7907,7 +7895,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>142376724</v>
+        <v>142482944</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7974,7 +7962,7 @@
         <v>111</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>112</v>
@@ -8002,13 +7990,13 @@
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V3" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -8020,10 +8008,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA3" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -8075,7 +8063,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>141223532</v>
+        <v>142617740</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -8142,7 +8130,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>120</v>
@@ -8170,13 +8158,13 @@
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V4" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -8188,10 +8176,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA4" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -8243,7 +8231,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>142092656</v>
+        <v>142571868</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -8252,7 +8240,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -8278,12 +8266,12 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3">
         <v>44625</v>
@@ -8307,13 +8295,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -8323,28 +8311,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V5" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -8356,10 +8344,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA5" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -8411,7 +8399,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>140787372</v>
+        <v>142706664</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -8420,7 +8408,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -8446,12 +8434,12 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3">
         <v>44625</v>
@@ -8475,13 +8463,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8491,28 +8479,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V6" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -8524,10 +8512,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA6" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -8579,7 +8567,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>142196056</v>
+        <v>142302088</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8588,7 +8576,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8614,12 +8602,12 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3">
         <v>44625</v>
@@ -8643,13 +8631,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8659,28 +8647,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V7" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -8692,10 +8680,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA7" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -8747,7 +8735,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>141177660</v>
+        <v>142153004</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8756,7 +8744,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8782,12 +8770,12 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3">
         <v>44625</v>
@@ -8811,13 +8799,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8827,28 +8815,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V8" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -8860,10 +8848,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA8" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -8915,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>141280872</v>
+        <v>141447252</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8924,7 +8912,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8950,12 +8938,12 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3">
         <v>44625</v>
@@ -8979,13 +8967,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8995,28 +8983,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V9" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -9028,10 +9016,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA9" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -9083,7 +9071,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>140337112</v>
+        <v>142766824</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -9092,7 +9080,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -9118,12 +9106,12 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" s="3">
         <v>44625</v>
@@ -9147,13 +9135,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -9163,28 +9151,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V10" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -9196,10 +9184,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA10" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -9251,7 +9239,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>141280872</v>
+        <v>142692188</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -9260,7 +9248,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -9286,12 +9274,12 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3">
         <v>44625</v>
@@ -9315,13 +9303,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -9331,28 +9319,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V11" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -9364,10 +9352,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA11" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -9419,7 +9407,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>141280872</v>
+        <v>141805768</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -9428,7 +9416,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -9454,12 +9442,12 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B12" s="3">
         <v>44625</v>
@@ -9483,13 +9471,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -9499,28 +9487,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V12" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -9532,10 +9520,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA12" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -9587,7 +9575,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>141266584</v>
+        <v>141943572</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -9596,7 +9584,7 @@
         <v>56</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -9622,12 +9610,12 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13" s="3">
         <v>44625</v>
@@ -9651,13 +9639,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -9667,28 +9655,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V13" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -9700,10 +9688,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA13" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -9755,7 +9743,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>141266584</v>
+        <v>142603264</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -9764,7 +9752,7 @@
         <v>56</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -9790,12 +9778,12 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B14" s="3">
         <v>44625</v>
@@ -9819,13 +9807,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -9835,28 +9823,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V14" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -9868,10 +9856,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA14" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -9923,7 +9911,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>140862008</v>
+        <v>142720952</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -9932,7 +9920,7 @@
         <v>56</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -9958,12 +9946,12 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B15" s="3">
         <v>44625</v>
@@ -9987,13 +9975,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -10003,28 +9991,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V15" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -10036,10 +10024,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA15" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -10091,7 +10079,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>140968228</v>
+        <v>141943572</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -10100,7 +10088,7 @@
         <v>56</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -10126,12 +10114,12 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B16" s="3">
         <v>44625</v>
@@ -10155,13 +10143,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -10171,28 +10159,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V16" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -10204,10 +10192,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA16" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -10259,7 +10247,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>140847720</v>
+        <v>142196056</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -10268,7 +10256,7 @@
         <v>56</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -10294,12 +10282,12 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B17" s="3">
         <v>44625</v>
@@ -10323,13 +10311,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -10339,28 +10327,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V17" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -10372,10 +10360,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA17" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -10427,7 +10415,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>141280872</v>
+        <v>141851640</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -10436,7 +10424,7 @@
         <v>56</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -10462,12 +10450,12 @@
         <v>60</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B18" s="3">
         <v>44625</v>
@@ -10491,13 +10479,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -10507,28 +10495,28 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V18" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -10540,10 +10528,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA18" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -10595,7 +10583,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>141280872</v>
+        <v>141851640</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -10604,7 +10592,7 @@
         <v>56</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -10630,12 +10618,12 @@
         <v>60</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B19" s="3">
         <v>44625</v>
@@ -10659,13 +10647,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -10675,28 +10663,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V19" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -10708,10 +10696,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA19" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -10763,7 +10751,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>141280872</v>
+        <v>142692188</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -10772,7 +10760,7 @@
         <v>56</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -10798,12 +10786,12 @@
         <v>60</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B20" s="3">
         <v>44625</v>
@@ -10827,13 +10815,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -10843,28 +10831,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V20" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -10876,10 +10864,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA20" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -10931,7 +10919,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>141280872</v>
+        <v>142018208</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -10940,7 +10928,7 @@
         <v>56</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -10966,12 +10954,12 @@
         <v>60</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B21" s="3">
         <v>44625</v>
@@ -10995,13 +10983,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -11011,28 +10999,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V21" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -11044,10 +11032,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA21" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -11099,7 +11087,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>141280872</v>
+        <v>142468468</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -11108,7 +11096,7 @@
         <v>56</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -11134,12 +11122,12 @@
         <v>60</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B22" s="3">
         <v>44625</v>
@@ -11163,13 +11151,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -11179,28 +11167,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V22" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -11212,10 +11200,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA22" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -11267,7 +11255,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>141280872</v>
+        <v>142720952</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -11276,7 +11264,7 @@
         <v>56</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -11302,12 +11290,12 @@
         <v>60</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B23" s="3">
         <v>44625</v>
@@ -11331,13 +11319,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -11347,28 +11335,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V23" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -11380,10 +11368,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA23" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -11435,7 +11423,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>141297980</v>
+        <v>142107132</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -11444,7 +11432,7 @@
         <v>56</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -11470,12 +11458,12 @@
         <v>60</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B24" s="3">
         <v>44625</v>
@@ -11499,13 +11487,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -11515,28 +11503,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V24" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -11548,10 +11536,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA24" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -11603,7 +11591,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>141042676</v>
+        <v>142497232</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -11612,7 +11600,7 @@
         <v>56</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -11638,12 +11626,12 @@
         <v>60</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B25" s="3">
         <v>44625</v>
@@ -11667,13 +11655,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -11683,28 +11671,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V25" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -11716,10 +11704,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA25" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -11771,7 +11759,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>141280872</v>
+        <v>142391012</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -11780,7 +11768,7 @@
         <v>56</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -11806,12 +11794,12 @@
         <v>60</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B26" s="3">
         <v>44625</v>
@@ -11835,13 +11823,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -11851,28 +11839,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V26" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -11884,10 +11872,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA26" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -11939,7 +11927,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>141280872</v>
+        <v>141507412</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -11948,7 +11936,7 @@
         <v>56</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -11974,12 +11962,12 @@
         <v>60</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B27" s="3">
         <v>44625</v>
@@ -12003,13 +11991,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -12019,28 +12007,28 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V27" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -12052,10 +12040,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA27" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -12107,7 +12095,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>141297980</v>
+        <v>142482944</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -12116,7 +12104,7 @@
         <v>56</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -12142,7 +12130,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
@@ -16302,7 +16290,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B2" s="3">
         <v>44625</v>
@@ -16326,13 +16314,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -16342,28 +16330,28 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V2" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -16375,10 +16363,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA2" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -16430,7 +16418,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>284695732</v>
+        <v>284907984</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -16439,7 +16427,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -16470,7 +16458,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B3" s="3">
         <v>44625</v>
@@ -16494,10 +16482,10 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>112</v>
@@ -16510,7 +16498,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
@@ -16525,13 +16513,13 @@
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V3" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -16543,10 +16531,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA3" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -16598,7 +16586,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>282383520</v>
+        <v>285177764</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -16607,7 +16595,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -16638,7 +16626,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B4" s="3">
         <v>44625</v>
@@ -16662,10 +16650,10 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>120</v>
@@ -16678,7 +16666,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
@@ -16693,13 +16681,13 @@
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V4" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -16711,10 +16699,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA4" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -16766,7 +16754,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>284127784</v>
+        <v>285085832</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -16775,7 +16763,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -16801,12 +16789,12 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B5" s="3">
         <v>44625</v>
@@ -16830,13 +16818,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -16846,28 +16834,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V5" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -16879,10 +16867,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA5" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -16934,7 +16922,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>281517216</v>
+        <v>285355612</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -16943,7 +16931,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16969,12 +16957,12 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B6" s="3">
         <v>44625</v>
@@ -16998,13 +16986,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -17014,28 +17002,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V6" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -17047,10 +17035,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA6" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -17102,7 +17090,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>284334396</v>
+        <v>284546648</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -17111,7 +17099,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17137,12 +17125,12 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B7" s="3">
         <v>44625</v>
@@ -17166,13 +17154,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -17182,28 +17170,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V7" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -17215,10 +17203,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA7" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -17270,7 +17258,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>282297416</v>
+        <v>284242464</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -17279,7 +17267,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17305,12 +17293,12 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B8" s="3">
         <v>44625</v>
@@ -17334,13 +17322,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -17350,28 +17338,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V8" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -17383,10 +17371,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA8" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -17438,7 +17426,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>282504028</v>
+        <v>282836788</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -17447,7 +17435,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -17473,12 +17461,12 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B9" s="3">
         <v>44625</v>
@@ -17502,13 +17490,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -17518,28 +17506,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V9" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -17551,10 +17539,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA9" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -17606,7 +17594,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>280616320</v>
+        <v>285476120</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -17615,7 +17603,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -17641,12 +17629,12 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B10" s="3">
         <v>44625</v>
@@ -17670,13 +17658,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -17686,28 +17674,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V10" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -17719,10 +17707,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA10" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -17774,7 +17762,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>282504028</v>
+        <v>285326848</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -17783,7 +17771,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -17809,12 +17797,12 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B11" s="3">
         <v>44625</v>
@@ -17838,13 +17826,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -17854,28 +17842,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V11" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -17887,10 +17875,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA11" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -17942,7 +17930,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>282504028</v>
+        <v>283554008</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -17951,7 +17939,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17977,12 +17965,12 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B12" s="3">
         <v>44625</v>
@@ -18006,13 +17994,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -18022,28 +18010,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V12" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -18055,10 +18043,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA12" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -18110,7 +18098,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>282475264</v>
+        <v>283823600</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>54</v>
@@ -18119,7 +18107,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18145,12 +18133,12 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B13" s="3">
         <v>44625</v>
@@ -18174,13 +18162,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -18190,28 +18178,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V13" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -18223,10 +18211,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA13" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -18278,7 +18266,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>282475264</v>
+        <v>285143360</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>54</v>
@@ -18287,7 +18275,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18313,12 +18301,12 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B14" s="3">
         <v>44625</v>
@@ -18342,13 +18330,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -18358,28 +18346,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V14" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -18391,10 +18379,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA14" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -18446,7 +18434,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>281666300</v>
+        <v>285384188</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>54</v>
@@ -18455,7 +18443,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -18481,12 +18469,12 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B15" s="3">
         <v>44625</v>
@@ -18510,13 +18498,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -18526,28 +18514,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V15" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -18559,10 +18547,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA15" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -18614,7 +18602,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>281872912</v>
+        <v>283823600</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>54</v>
@@ -18623,7 +18611,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -18649,12 +18637,12 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B16" s="3">
         <v>44625</v>
@@ -18678,13 +18666,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -18694,28 +18682,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V16" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -18727,10 +18715,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA16" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -18782,7 +18770,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>281637724</v>
+        <v>284334396</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>54</v>
@@ -18791,7 +18779,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -18817,12 +18805,12 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B17" s="3">
         <v>44625</v>
@@ -18846,13 +18834,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -18862,28 +18850,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V17" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -18895,10 +18883,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA17" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -18950,7 +18938,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>282504028</v>
+        <v>283645752</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>54</v>
@@ -18959,7 +18947,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -18985,12 +18973,12 @@
         <v>60</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B18" s="3">
         <v>44625</v>
@@ -19014,13 +19002,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -19030,28 +19018,28 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V18" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -19063,10 +19051,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA18" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -19118,7 +19106,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>282504028</v>
+        <v>283645752</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>54</v>
@@ -19127,7 +19115,7 @@
         <v>62</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19153,12 +19141,12 @@
         <v>60</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B19" s="3">
         <v>44625</v>
@@ -19182,13 +19170,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -19198,28 +19186,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V19" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -19231,10 +19219,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA19" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -19286,7 +19274,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>282504028</v>
+        <v>285326848</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>54</v>
@@ -19295,7 +19283,7 @@
         <v>62</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19321,12 +19309,12 @@
         <v>60</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B20" s="3">
         <v>44625</v>
@@ -19350,13 +19338,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -19366,28 +19354,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V20" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -19399,10 +19387,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA20" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -19454,7 +19442,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>282504028</v>
+        <v>283972872</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>54</v>
@@ -19463,7 +19451,7 @@
         <v>62</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -19489,12 +19477,12 @@
         <v>60</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B21" s="3">
         <v>44625</v>
@@ -19518,13 +19506,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -19534,28 +19522,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V21" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -19567,10 +19555,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA21" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -19622,7 +19610,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>282504028</v>
+        <v>284873580</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>54</v>
@@ -19631,7 +19619,7 @@
         <v>62</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -19657,12 +19645,12 @@
         <v>60</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B22" s="3">
         <v>44625</v>
@@ -19686,13 +19674,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -19702,28 +19690,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V22" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -19735,10 +19723,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA22" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -19790,7 +19778,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>282504028</v>
+        <v>285384188</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>54</v>
@@ -19799,7 +19787,7 @@
         <v>62</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -19825,12 +19813,12 @@
         <v>60</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B23" s="3">
         <v>44625</v>
@@ -19854,13 +19842,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -19870,28 +19858,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V23" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -19903,10 +19891,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA23" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -19958,7 +19946,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>282532792</v>
+        <v>284156360</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>54</v>
@@ -19967,7 +19955,7 @@
         <v>62</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -19993,12 +19981,12 @@
         <v>60</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B24" s="3">
         <v>44625</v>
@@ -20022,13 +20010,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -20038,28 +20026,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V24" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -20071,10 +20059,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA24" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -20126,7 +20114,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>282027824</v>
+        <v>284936936</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>54</v>
@@ -20135,7 +20123,7 @@
         <v>62</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20161,12 +20149,12 @@
         <v>60</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B25" s="3">
         <v>44625</v>
@@ -20190,13 +20178,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -20206,28 +20194,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V25" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -20239,10 +20227,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA25" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -20294,7 +20282,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>282504028</v>
+        <v>284724496</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>54</v>
@@ -20303,7 +20291,7 @@
         <v>62</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20329,12 +20317,12 @@
         <v>60</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B26" s="3">
         <v>44625</v>
@@ -20358,13 +20346,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -20374,28 +20362,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V26" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -20407,10 +20395,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA26" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -20462,7 +20450,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>282504028</v>
+        <v>282957296</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>54</v>
@@ -20471,7 +20459,7 @@
         <v>62</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -20497,12 +20485,12 @@
         <v>60</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B27" s="3">
         <v>44625</v>
@@ -20526,13 +20514,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -20542,28 +20530,28 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="V27" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -20575,10 +20563,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44013</v>
+        <v>44348</v>
       </c>
       <c r="AA27" s="3">
-        <v>45473</v>
+        <v>45077</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -20630,7 +20618,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>282532792</v>
+        <v>284907984</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>54</v>
@@ -20639,7 +20627,7 @@
         <v>62</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -20665,7 +20653,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED7483-E918-452D-8DAF-1D8B165F0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7567707-ADF2-4400-BBBB-AF4A58D59EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="435">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -311,973 +311,1036 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>00:05:00</t>
-  </si>
-  <si>
     <t>00:05</t>
   </si>
   <si>
-    <t>EETRGA201_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000201</t>
-  </si>
-  <si>
-    <t>Serie Truck Games</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP01</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: En un partido de tracto-fútbol, Alex juega individualmente, lo que molesta al resto del equipo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Durante un partido de tracto-fútbol, Alex juega individualmente, lo que molesta al resto del equipo. El abuelo Ted interviene y envía los MiniTrucks a entrenar con Zoe. El objetivo es marcar un gol contra Zoe, y para triunfar, deben jugar en equipo.</t>
-  </si>
-  <si>
-    <t>Infantil/Truck Games</t>
-  </si>
-  <si>
-    <t>Truck Games</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Sylvain Maury, Fanny Bloc, Marie Nonnenmacher Marie</t>
-  </si>
-  <si>
-    <t>Cross R Prod. Amuse</t>
-  </si>
-  <si>
-    <t>Maury Sylvain, Bloc Fanny, Nonnenmacher Marie</t>
-  </si>
-  <si>
-    <t>Szajner, Paul</t>
-  </si>
-  <si>
-    <t>EETRGA201.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA2_box.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA201_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA202_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000202</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP02</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: El abuelo Ted envía a los MiniTrucks a pintar en la plaza principal de TrucksVille.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Alice intenta dibujar patinando sobre el césped, el abuelo Ted tiene la idea de enviar a los MiniTruck a pintar en la plaza principal de TrucksVille bajo la supervisión de Léa, la artista. Pero para pintar juntos, deben aprender a coordinarse.</t>
-  </si>
-  <si>
-    <t>EETRGA202.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA202_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA203_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000203</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP03</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: El abuelo Ted envía los MiniTrucks a Noël Truck para recoger un envío de adornos navideños.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Casi es Navidad y el árbol de TrucksVille aún no está decorado. El abuelo Ted envía los MiniTrucks a Noël Truck para recoger un envío de adornos. Entre las pistas nevadas y los montículos de hielo, los MiniTrucks deberán cuidarse unos a otros.</t>
-  </si>
-  <si>
-    <t>EETRGA203.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA203_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA204_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000204</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP04</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks intentan componer una canción, ¡pero qué cacofonía! Léa L'artiste, les ayudará.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks intentan componer una canción, ¡pero qué cacofonía! Pero Ted sabe quién podría darles una lección de música y los envía a la plaza principal de Trucksville para encontrarte con Léa L'artiste. ¿Lograrán componer una buena pieza musical?</t>
-  </si>
-  <si>
-    <t>EETRGA204.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA204_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA205_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000205</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP05</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: El taller mecánico de Amy está patas arriba. Los Mini Trucks la ayudarán a ordenar el lugar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una tormenta golpeó TrucksVille durante la noche y dejó un gran desastre a su paso. El taller del mecánico de Amy está patas arriba. Los MiniTrucks deben ayudarla a guardar todo antes de que lleguen los primeros clientes. ¡Pero todo está de cabeza!</t>
-  </si>
-  <si>
-    <t>EETRGA205.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA205_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA206_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000206</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP06</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks recorren TrucksVille sin respetar las señales y por poco causan un accidente.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todos los MiniTrucks recorren TrucksVille sin prestar atención a las señales y están a punto de causar un accidente. El abuelo Ted decide enviarlos con Tony Truck, quien les enseñará todos los secretos del código de circulación. Seguridad primero.</t>
-  </si>
-  <si>
-    <t>EETRGA206.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA206_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA207_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000207</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP07</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: El abuelo Ted desafía a los MiniTrucks a encontrar todos los huevos de Pascua en tiempo récord.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Este año, la búsqueda de huevos de Pascua será en el bosque de Trucksville. El abuelo Ted desafía a los MiniTrucks a encontrar todos los huevos en un tiempo récord. Para tener éxito, solo hay una consigna: trabajar juntos.</t>
-  </si>
-  <si>
-    <t>EETRGA207.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA207_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA208_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000208</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP08</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks ayudan al Detective Truck en la investigación de la desaparición de vegetales.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las verduras desaparecen en TruckVille. Los MiniTrucks están acompañando al Detective Truck en su investigación para encontrar al ladrón. Su única pista: un neumático. ¿Quién puede esconderse detrás de estas extrañas desapariciones?</t>
-  </si>
-  <si>
-    <t>EETRGA208.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA208_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA209_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000209</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP09</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Mini Trucks buscan fósiles en el jardín de Ted, pero necesitan la ayuda de un experto.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks buscan fósiles en el jardín de Ted. El abuelo decide enviar a sus nietos con Kim, el científico que había establecido un sitio de excavación en una isla frente a TrucksVille. Ahora tendrán que estar atentos y ser muy meticulosos.</t>
-  </si>
-  <si>
-    <t>EETRGA209.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA209_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA210_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000210</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP10</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks están ensayando una coreografía acrobática dirigida por Tony Truck.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks están probando movimientos de baile en el nuevo éxito de MC Truck. El abuelo Ted les ofrece una coreografía acrobática dirigida por Tony Truck. Si todo sale bien, los MiniTrucks podrán ofrecer un espectáculo impresionante a su abuelo.</t>
-  </si>
-  <si>
-    <t>EETRGA210.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA210_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA211_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000211</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP11</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: TrucksVille está cubierta de nieve. La misión de los Mini Trucks es crear un buen refugio.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es invierno y TrucksVille está cubierta de nieve. La misión de los MiniTrucks es crear un refugio que proteja del frío. Ted sabe exactamente quién podría ayudarlos. Los envía con Amy, la Mecánica, para aprender a construir un verdadero iglú.</t>
-  </si>
-  <si>
-    <t>EETRGA211.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA211_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA212_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000212</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP12</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks ya no tienen mermelada y ¡quieren más! El Chef Cookie los ayudará.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks acaban de terminar el último tarro de mermelada. Les gustaría repetirla, pero hay que encontrar el ingrediente adecuado para hacerlo. Ted los envía al Chef Cookie para que los ayude a redescubrir el sabor de la mermelada: dulce.</t>
-  </si>
-  <si>
-    <t>EETRGA212.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA212_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA213_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000213</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP13</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Amy le interesa la destreza para pintar de los MiniTrucks por su próxima gira de restauración</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks repintaron un globo que ahora parece nuevo. Eso es bueno. Amy, la mecánica, está interesada en sus habilidades como pintores ya que le vendría bien una mano en su gira de restauración. ¿Podrán atender a todos los clientes del día?</t>
-  </si>
-  <si>
-    <t>EETRGA213.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA213_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA214_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000214</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP14</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks descubren que el bosque está lleno de escombros. ¡Es hora de limpiarlo!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es de noche y los MiniTrucks están preocupados: no pueden oír el ulular del búho. Al verificar que todo esté bien, descubren que el bosque está lleno de desechos. Es hora de limpiar para que el búho pueda regresar a un ambiente saludable.</t>
-  </si>
-  <si>
-    <t>EETRGA214.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA214_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA215_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000215</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP15</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un tesoro del pirata Sam se encuentra en el mar de TrucksVille. ¡Es una misión para MiniTrucks!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Parece que un tesoro perdido del pirata Sam está en las profundidades del Mar de TrucksVille. ¡Es una nueva misión para los MiniTrucks! Acompañados por Eve el submarino, parten en busca del tesoro y descubren los misteriosos secretos del abismo.</t>
-  </si>
-  <si>
-    <t>EETRGA215.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA215_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA216_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000216</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP16</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks van tras el tesoro perdido de una civilización antigua. ¡Qué aventura!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks oyeron hablar de un tesoro en las ruinas de una civilización antigua. Con la ayuda de Kim el científico, partieron en busca de la ciudad perdida en medio del desierto. Para encontrarlo, tendrán que descubrir pistas y acertijos.</t>
-  </si>
-  <si>
-    <t>EETRGA216.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA216_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA217_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000217</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP17</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: El abuelo Ted envía los MiniTrucks a un festival de tiro para enseñarles precisión.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks están discutiendo en medio de un juego. Ted envía a sus nietos al festival de tiro para enseñarles precisión: una celebración organizada por Tony Truck, con muchos puestos de tiro que pondrán a prueba las habilidades de los chicos.</t>
-  </si>
-  <si>
-    <t>EETRGA217.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA217_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA218_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000218</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP18</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una tormenta pasó por TrucksVille. ¡Los MiniTrucks tienen que comprobar el alcance del daño!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una tormenta pasó por TrucksVille; hay que comprobar el alcance del daño. Juntos, los MiniTrucks deben asegurar la ciudad y verificar que todo y todos estén bien. ¿Podrán contar con la ayuda de Súper Truck para esa importante tarea?</t>
-  </si>
-  <si>
-    <t>EETRGA218.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA218_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA219_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000219</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP19</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: En Halloween es una tradición en TrucksVille asustar a alguién para ganarte los caramelos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En Halloween es una tradición en TrucksVille: asustar a alguién para ganar caramelos. Sam, el pirata, muestra a los chicos cómo hacer bromas, ¡pero se queda con todos los premios! Los MiniTrucks decidieron idear un plan para recuperar los dulces.</t>
-  </si>
-  <si>
-    <t>EETRGA219.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA219_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA220_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000220</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP20</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks acaban de encontrar una llave extraña. ¿Qué podra abrir?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks acaban de encontrar una llave ¿Qué podrá abrir? El abuelo Ted les dice que su amigo Sam el pirata tiene una caja fuerte y sabe que perdió la llave. ¿Será esa? ¿O es alguna otra que los llevará a una nueva aventura?</t>
-  </si>
-  <si>
-    <t>EETRGA220.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA220_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA221_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000221</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP21</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Para el festival TrucksVille, el Chef Cookie intentará crear el pastel más grande jamás hecho.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Para el festival de TrucksVille, el Chef Cookie intentará crear el pastel más grande de la historia. Es la oportunidad para que los MiniTrucks se conviertan en sus aprendices. Pero para hacer un buen pastel, ¡hay que encontrar la receta correcta!</t>
-  </si>
-  <si>
-    <t>EETRGA221.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA221_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA222_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000222</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP22</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: El globo aerostático de TrucksVille voló. Ted envía a los MiniTrucks a recuperarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El globo aerostático de TrucksVille voló. Ted envía los MiniTrucks a recogerlo, pero llevar un globo de aire caliente no es fácil. Con la ayuda de Kim, el científico, los Minitrucks tendrán que encontrar una solución para traerlo de regreso a casa.</t>
-  </si>
-  <si>
-    <t>EETRGA222.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA222_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA223_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000223</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP23</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks juegan al Spider truck. Es una oportunidad para aprender qué hacen las arañas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks juegan al Spider truck en el jardín. Es una oportunidad para aprender lo que pueden hacer las arañas. Y eso también lo que Kim, el científico, está estudiando. Los MiniTrucks se darán cuenta de que no es fácil ser un Spider truck.</t>
-  </si>
-  <si>
-    <t>EETRGA223.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA223_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA224_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000224</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP24</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Kim, el científico, ayuda a los MiniTrucks a usar su peso para lograr un objetivo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El abuelo Ted se da cuenta de que los MiniTrucks no conocen su peso. Con la ayuda de su querido amigo Kim, el científico, los MiniTrucks aprenden a usar su peso para lograr un objetivo común. Una prueba de vuelo tan entretenida como pedagógica.</t>
-  </si>
-  <si>
-    <t>EETRGA224.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA224_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA225_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000225</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP25</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks buscan un deporte desafiante. Ted los reta a jugar hockey sobre hielo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks buscan el deporte más desafiante. El abuelo Ted les ofrece un juego de hockey sobre hielo. Los MiniTrucks deberán demostrar velocidad, resistencia, precisión y equilibrio en este exigente deporte de invierno. Pero eso no los detendrá.</t>
-  </si>
-  <si>
-    <t>EETRGA225.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA225_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA226_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR6000000000000226</t>
-  </si>
-  <si>
-    <t>Truck GamesT02EP26</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks participarán en una carrera de relevos en una montaña cubierta de nieve.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los MiniTrucks tendrán que hacer una carrera de relevos por la montaña cubierta de nieve en un tiempo récord. A la larga, eso exigirá lo mejor de ellos. Pero, sobre todo, es necesario encontrar el equilibrio adecuado entre competencia y cooperación.</t>
-  </si>
-  <si>
-    <t>EETRGA226.mpg</t>
-  </si>
-  <si>
-    <t>EETRGA226_land.jpg</t>
-  </si>
-  <si>
-    <t>EETRGA201_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000201</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP01 HD</t>
-  </si>
-  <si>
-    <t>EETRGA201.ts</t>
-  </si>
-  <si>
-    <t>EETRGA202_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000202</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP02 HD</t>
-  </si>
-  <si>
-    <t>EETRGA202.ts</t>
-  </si>
-  <si>
-    <t>EETRGA203_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000203</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP03 HD</t>
-  </si>
-  <si>
-    <t>EETRGA203.ts</t>
-  </si>
-  <si>
-    <t>EETRGA204_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000204</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP04 HD</t>
-  </si>
-  <si>
-    <t>EETRGA204.ts</t>
-  </si>
-  <si>
-    <t>EETRGA205_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000205</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP05 HD</t>
-  </si>
-  <si>
-    <t>EETRGA205.ts</t>
-  </si>
-  <si>
-    <t>EETRGA206_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000206</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP06 HD</t>
-  </si>
-  <si>
-    <t>EETRGA206.ts</t>
-  </si>
-  <si>
-    <t>EETRGA207_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000207</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP07 HD</t>
-  </si>
-  <si>
-    <t>EETRGA207.ts</t>
-  </si>
-  <si>
-    <t>EETRGA208_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000208</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP08 HD</t>
-  </si>
-  <si>
-    <t>EETRGA208.ts</t>
-  </si>
-  <si>
-    <t>EETRGA209_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000209</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP09 HD</t>
-  </si>
-  <si>
-    <t>EETRGA209.ts</t>
-  </si>
-  <si>
-    <t>EETRGA210_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000210</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP10 HD</t>
-  </si>
-  <si>
-    <t>EETRGA210.ts</t>
-  </si>
-  <si>
-    <t>EETRGA211_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000211</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP11 HD</t>
-  </si>
-  <si>
-    <t>EETRGA211.ts</t>
-  </si>
-  <si>
-    <t>EETRGA212_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000212</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP12 HD</t>
-  </si>
-  <si>
-    <t>EETRGA212.ts</t>
-  </si>
-  <si>
-    <t>EETRGA213_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000213</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP13 HD</t>
-  </si>
-  <si>
-    <t>EETRGA213.ts</t>
-  </si>
-  <si>
-    <t>EETRGA214_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000214</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP14 HD</t>
-  </si>
-  <si>
-    <t>EETRGA214.ts</t>
-  </si>
-  <si>
-    <t>EETRGA215_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000215</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP15 HD</t>
-  </si>
-  <si>
-    <t>EETRGA215.ts</t>
-  </si>
-  <si>
-    <t>EETRGA216_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000216</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP16 HD</t>
-  </si>
-  <si>
-    <t>EETRGA216.ts</t>
-  </si>
-  <si>
-    <t>EETRGA217_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000217</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP17 HD</t>
-  </si>
-  <si>
-    <t>EETRGA217.ts</t>
-  </si>
-  <si>
-    <t>EETRGA218_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000218</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP18 HD</t>
-  </si>
-  <si>
-    <t>EETRGA218.ts</t>
-  </si>
-  <si>
-    <t>EETRGA219_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000219</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP19 HD</t>
-  </si>
-  <si>
-    <t>EETRGA219.ts</t>
-  </si>
-  <si>
-    <t>EETRGA220_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000220</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP20 HD</t>
-  </si>
-  <si>
-    <t>EETRGA220.ts</t>
-  </si>
-  <si>
-    <t>EETRGA221_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000221</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP21 HD</t>
-  </si>
-  <si>
-    <t>EETRGA221.ts</t>
-  </si>
-  <si>
-    <t>EETRGA222_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000222</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP22 HD</t>
-  </si>
-  <si>
-    <t>EETRGA222.ts</t>
-  </si>
-  <si>
-    <t>EETRGA223_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000223</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP23 HD</t>
-  </si>
-  <si>
-    <t>EETRGA223.ts</t>
-  </si>
-  <si>
-    <t>EETRGA224_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000224</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP24 HD</t>
-  </si>
-  <si>
-    <t>EETRGA224.ts</t>
-  </si>
-  <si>
-    <t>EETRGA225_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000225</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP25 HD</t>
-  </si>
-  <si>
-    <t>EETRGA225.ts</t>
-  </si>
-  <si>
-    <t>EETRGA226_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EETR7000000000000226</t>
-  </si>
-  <si>
-    <t>Truck Games T02 EP26 HD</t>
-  </si>
-  <si>
-    <t>EETRGA226.ts</t>
+    <t>EEHDAD101_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000101</t>
+  </si>
+  <si>
+    <t>Serie Hero Dad</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP01</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP01</t>
+  </si>
+  <si>
+    <t>Edye presenta: El papá de Miao quiere enseñarla a patinar. ¡Pero olvida que él no sabe patinar!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá superhéroe enseñará a Miao a patinar. Está tan ansioso por empezar que se olvida de ponerse el equipo de seguridad adecuado ... ¡eso y el hecho de que en realidad no sabe patinar! Miao, la verdadera heroína, pone a salvo a su papá.</t>
+  </si>
+  <si>
+    <t>00:05:20</t>
+  </si>
+  <si>
+    <t>Infantil/Hero Dad</t>
+  </si>
+  <si>
+    <t>Hero Dad</t>
+  </si>
+  <si>
+    <t>Dani Albiac, Mario Blasco</t>
+  </si>
+  <si>
+    <t>Wise Blue Studios</t>
+  </si>
+  <si>
+    <t>Albiac Dani, Blasco Mario</t>
+  </si>
+  <si>
+    <t>Valero, Maxi</t>
+  </si>
+  <si>
+    <t>EEHDAD101.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD101_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD102_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000102</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP02</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá, Miao, Guau y Tua viven una experiencia 'pegajosa' en el parque.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Estando en el parque, Miao comienza a masticar un chicle. Su papá se sorprende, y Miao, sin pensarlo, escupe el chicle en el suelo ... y Guau lo muerde. Tras librar a Guau del chicle, ¡Papá termina con la goma pegajosa pegada en la frente!</t>
+  </si>
+  <si>
+    <t>00:05:03</t>
+  </si>
+  <si>
+    <t>EEHDAD102.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD102_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD103_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000103</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP03</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad, Miao y Tua están preparando una fiesta de cumpleaños para Guau.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad, Miao y Tua están preparando una fiesta de cumpleaños para Guau. ¡Dos columnas de globos serán el marco perfecto para una tarta de cumpleaños! Pero, a mitad de faena, los globos se acaban... ¿Ahora, cómo lograrán una decoración bonita?</t>
+  </si>
+  <si>
+    <t>00:05:14</t>
+  </si>
+  <si>
+    <t>EEHDAD103.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD103_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD104_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000104</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP04</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá, Miao, Guau y Tua quieren poner una bolsa de plástico en la basura.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Papá, Miao, Guau y Tua pasean por el parque, la brisa les acerca una bolsa de plástico. Al intentar tirarla a la basura, ¡parece que la bolsa se resiste! ¿Por qué? Miao lo deduce. ¡La bolsa quiere ir al contenedor de reciclaje!</t>
+  </si>
+  <si>
+    <t>00:05:09</t>
+  </si>
+  <si>
+    <t>EEHDAD104.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD104_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD105_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000105</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP05</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Papá y Miao pasean por el parque, el viento abre su paraguas. Cerrarlo no será fácil.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá y Miao pasean por el parque cuando el viento se levanta abriendo su paraguas. Pero volverlo a cerrar no será fácil. Finalmente la ingeniosa Miao tendrá la idea que resolverá el problema: ¡Asegurar el paraguas con la cinta que lleva cosida!</t>
+  </si>
+  <si>
+    <t>00:04:59</t>
+  </si>
+  <si>
+    <t>EEHDAD105.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD105_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD106_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000106</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP06</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Guau necesita usar un collar que no la deja comer. Miao le salvará el día.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá, Miao y Guau llegan a casa del veterinario. ¡Guau lleva al cuello un collar isabelino! ¡Y está hambriento! pero el collar no le permite comer. Papá intenta ayudarlo, pero es Miao quien logra colocar el plato de forma que Guau pueda comer.</t>
+  </si>
+  <si>
+    <t>00:04:27</t>
+  </si>
+  <si>
+    <t>EEHDAD106.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD106_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD107_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000107</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP07</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao, Wow y Tua crearon una obra de teatro para grabar, pero falta un actor 'el árbol'.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao, Guau y Tua crearon una obra de teatro que Dad grabará en video pero, ¿quién será el árbol? ¡Alguien tiene que ser el árbol! Miao se da cuenta de que pueden dejar la cámara grabando en el trípode, ¡y Dad puede ser el árbol!</t>
+  </si>
+  <si>
+    <t>00:05:46</t>
+  </si>
+  <si>
+    <t>EEHDAD107.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD107_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD108_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000108</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP08</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad y Miao hornean un pastel siguiendo la receta pero Tua cuela algunos ingredientes propios.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad y Miao hornearán un pastel, siguiendo la receta. Mientras Dad y Miao siguen la receta, una tramposa Tua cuela algunos ingredientes propios. El resultado es un delicioso pastel, ¡que todos van a compartir!</t>
+  </si>
+  <si>
+    <t>00:05:50</t>
+  </si>
+  <si>
+    <t>EEHDAD108.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD108_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD109_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000109</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP09</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad le pide a Miao que ponga la mesa ... ella tiene que encontrar la forma de hacerlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es la hora de cenar, Dad le pide a Miao que ponga la mesa, pero ella no alcanza. Miao se da cuenta de que si se para en un taburete, puede alcanzar y ver la mesa perfectamente y ponerla justo a tiempo para la cena.</t>
+  </si>
+  <si>
+    <t>00:05:12</t>
+  </si>
+  <si>
+    <t>EEHDAD109.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD109_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD110_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000110</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP10</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao encuentra un huevo que se cayó de su nido ¡Está emocionada y quiere quedarse con el!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao encuentra un huevo que se cayó de su nido en el árbol. Ella está emocionada y ¡quiere quedarse con el huevo! Dad ayuda a Miao a entender que no puede quedarse con el porque no le pertenece a pesar de haberlo encontrado.</t>
+  </si>
+  <si>
+    <t>00:04:44</t>
+  </si>
+  <si>
+    <t>EEHDAD110.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD110_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000111</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP11</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao intentará rastrear a su perro por sus huellas pero primero necesita distinguir cuáles son.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tua encerró a Guau en el baño. Miao intentará encontrar a su perrito siguiendo las huellas que quedaron en el suelo justo después de limpiarlo. Miao necesita distinguir qué huellas pertenecen a quién y seguir el rastro correcto para encontrar a Guau.</t>
+  </si>
+  <si>
+    <t>00:05:16</t>
+  </si>
+  <si>
+    <t>EEHDAD111.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000112</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP12</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad debe enseñarle a Miao a cepillarse los dientes, ¡pero ella prefiere jugar con su cepillo!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es hora de que Dad le enseñe a Miao a cepillarse los dientes, pero Miao prefiere jugar y divertirse con su cepillo de dientes. Con un poco de ayuda de Guau y Tua, Dad ayuda a Miao a descubrir que cepillarse los dientes puede ser muy divertido.</t>
+  </si>
+  <si>
+    <t>00:05:43</t>
+  </si>
+  <si>
+    <t>EEHDAD112.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000113</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP13</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao, está acostada pero no puede dormir. ¡Falta su peluche favorito! Alguien lo robó…</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao, está acostada pero no puede dormir. ¡Falta su peluche favorito! Dad y Miao descubren quién es el pequeño ladrón ... ¡pero Guau se ve tan lindo, todo acurrucado y profundamente dormido, abrazando al dinosaurio de Miao! ¿Qué hacer?</t>
+  </si>
+  <si>
+    <t>00:05:41</t>
+  </si>
+  <si>
+    <t>EEHDAD113.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000114</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP14</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando una mosca se cuela en el baño por la ventana, ¡Dad intenta todo para atraparla!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando una mosca se cuela en el baño a través de la ventana, Dad, desesperado, intenta todo para atraparla. Miao encuentra una manera de resolver la situación permitiendo que la mosca salga por la ventana abierta, sana y salva.</t>
+  </si>
+  <si>
+    <t>00:04:50</t>
+  </si>
+  <si>
+    <t>EEHDAD114.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000115</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP15</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao intenta construir una torre con diferentes piezas. ¡Cada vez que lo intenta, se derrumba!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao está intentando construir una torre con formas cuadradas de diferentes tamaños y un triángulo. Cada vez que lo intenta, termina con una pieza perdida. Con un poco de paciencia y la ayuda de Dad, ¡construirán juntos la torre perfecta!</t>
+  </si>
+  <si>
+    <t>00:05:39</t>
+  </si>
+  <si>
+    <t>EEHDAD115.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000116</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP16</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad quiere jugar con Miao, Woof y Tua. Pero Tua necesita entender las reglas del juego.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad quiere jugar mímica con Miao, Guau y Tua. Se supone que todos deben esperar su turno, pero Tua no los respeta. Miao encuentra la manera de ayudar a Tua a comprender las reglas del juego.</t>
+  </si>
+  <si>
+    <t>EEHDAD116.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000117</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP17</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mia, Dad, Tua y Guau van al parque y plantan una semilla con la esperanza de que florezca.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mia, Dad, Tua y Guau van al parque y plantan una semilla, con la esperanza de que florezca muy rápido pero...no pasa nada. Dad les mostrará que deben ser pacientes, ya que una planta necesita muchas cosas diferentes para crecer sana y fuerte.</t>
+  </si>
+  <si>
+    <t>00:05:53</t>
+  </si>
+  <si>
+    <t>EEHDAD117.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000118</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP18</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Dad y Wow se resfrían y no quieren beber su jarabe!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad y Guau están resfriados y no quieren tomar su jarabe. Miao y Tua tienen que convencerlos. ¿Hay que obligarlos?, ¿podrían engañarlos para que lo hagan? Si Guau cae en el truco, ¡tal vez Miao pueda convencer a Dad también!</t>
+  </si>
+  <si>
+    <t>00:05:05</t>
+  </si>
+  <si>
+    <t>EEHDAD118.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000119</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP19</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad quiere tener un concurso de baile pero Miao es demasiado tímida para participar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad organiza un concurso de baile en casa. Miao se siente tímida, pero a medida que Tua y Guau comienzan a perder el control, Miao tiene que ser valiente y dar un paso al frente para usar sus pasos de baile y 'domesticar a las bestias salvajes'.</t>
+  </si>
+  <si>
+    <t>EEHDAD119.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000120</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP20</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao le pide a Dad que haga un cachorro con masa de galleta, pero él no sabe modelarla.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad y Miao están haciendo galletas de diferentes formas. Miao le pide a Dad que le haga un cachorro con la masa, pero las habilidades de Dad para modelar la masa dejan mucho que desear.</t>
+  </si>
+  <si>
+    <t>00:05:38</t>
+  </si>
+  <si>
+    <t>EEHDAD120.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000121</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP21</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao y Tua deben decidir cuál es el recipiente adecuado para tirar una botella de vidrio.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Miao y Tua deben decidir cuál es el contenedor adecuado para tirar una botella de cristal. Dad les ayudará a entender que cada contenedor tiene un color diferente y se usa para un tipo de basura diferente. ¿Aprenderán a usarlos correctamente?</t>
+  </si>
+  <si>
+    <t>00:04:43</t>
+  </si>
+  <si>
+    <t>EEHDAD121.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000122</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP22</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es hora del almuerzo. Dad le explica a Miao que primero debe comer y luego jugar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es la hora del almuerzo, pero Miao no quiere dejar de jugar. Dad le explica a Miao que primero debe comer y luego jugar; pero ella prefiere seguir jugando que comer la sopa hasta que ¡Miao termina tirando un juguete y bañando a Guau con sopa!</t>
+  </si>
+  <si>
+    <t>00:05:24</t>
+  </si>
+  <si>
+    <t>EEHDAD122.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000123</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP23</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Guau y Miao encuentran un gusano y Dad les muestra cómo cuidarlo. ¡Pero Tua quiere comérselo!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Guau y Miao encuentran un gusano y Dad les muestra cómo cuidarlo. ¡Pero Tua quiere comérselo! Dad, Miao y Guau harán todo lo posible para mantener a Tua alejada del gusano mientras ... ¡Espera! El gusano se convirtió en crisálida. ¿Qué va a pasar?</t>
+  </si>
+  <si>
+    <t>00:05:17</t>
+  </si>
+  <si>
+    <t>EEHDAD123.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000124</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP24</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Hora de ir a la cama! Cada vez que se apaga la luz, Miao y Guau escuchan sonidos horribles.</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Hora de ir a la cama! Pero cada vez que se apaga la luz, Miao y Guau escuchan sonidos horribles. Miao se da cuenta de que Tua está haciendo el ruido porque tiene miedo de dormir sola, por lo que Miao invita a Tua a dormir en su habitación.</t>
+  </si>
+  <si>
+    <t>EEHDAD124.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000125</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP25</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras pintaba, Miao terminó con la mano manchada. ¡Dad insiste en que se la lave con jabón!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Al pintar, Miao se manchó la mano con un poco de pintura. Dad insiste en que se lave las manos. La mancha de pintura negra comienza a adherirse a todo hasta que Miao acepta que la única forma de deshacerse de ella es lavándose las manos ¡con jabón!</t>
+  </si>
+  <si>
+    <t>00:05:34</t>
+  </si>
+  <si>
+    <t>EEHDAD125.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD6000000000000126</t>
+  </si>
+  <si>
+    <t>Hero DadT01EP26</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dad debe reparar una fuga en el baño ¡pero no es bueno con la plomería y empeora el problema!</t>
+  </si>
+  <si>
+    <t>Edye presenta: El grifo del baño tiene una fuga y Dad debe repararla girando tres válvulas en el orden correcto. Como no es muy bueno en fontanería, las cosas empeoran. ¡Miao se da cuenta de que necesita mover las válvulas siguiendo un patrón musical!</t>
+  </si>
+  <si>
+    <t>00:04:37</t>
+  </si>
+  <si>
+    <t>EEHDAD126.mpg</t>
+  </si>
+  <si>
+    <t>EEHDAD126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHDAD101_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000101</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD101.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD102_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000102</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD102.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD103_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000103</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD103.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD104_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000104</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD104.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD105_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000105</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD105.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD106_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000106</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD106.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD107_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000107</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD107.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD108_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000108</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD108.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD109_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000109</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD109.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD110_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000110</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD110.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000111</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD111.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000112</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD112.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000113</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD113.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000114</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD114.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000115</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD115.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000116</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD116.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000117</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD117.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000118</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD118.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000119</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD119.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000120</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD120.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000121</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD121.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000122</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD122.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000123</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD123.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000124</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD124.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000125</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD125.ts</t>
+  </si>
+  <si>
+    <t>EEHDAD126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHD7000000000000126</t>
+  </si>
+  <si>
+    <t>Hero Dad T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEHDAD126.ts</t>
   </si>
 </sst>
 </file>
@@ -7767,10 +7830,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7791,13 +7854,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7807,28 +7870,28 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V2" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -7840,10 +7903,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA2" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -7855,25 +7918,25 @@
         <v>101</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -7895,7 +7958,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>142482944</v>
+        <v>150655868</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7904,7 +7967,7 @@
         <v>56</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -7914,7 +7977,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -7930,15 +7993,15 @@
         <v>60</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7959,13 +8022,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -7975,28 +8038,28 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V3" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -8008,10 +8071,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA3" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -8023,25 +8086,25 @@
         <v>101</v>
       </c>
       <c r="AE3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -8063,7 +8126,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>142617740</v>
+        <v>143082476</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -8082,7 +8145,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -8106,7 +8169,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -8130,7 +8193,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>120</v>
@@ -8158,13 +8221,13 @@
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V4" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -8176,10 +8239,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA4" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -8191,25 +8254,25 @@
         <v>101</v>
       </c>
       <c r="AE4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -8231,7 +8294,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>142571868</v>
+        <v>148211680</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -8240,7 +8303,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -8250,7 +8313,7 @@
         <v>57</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -8266,15 +8329,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -8295,13 +8358,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -8311,28 +8374,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V5" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -8344,10 +8407,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA5" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -8359,25 +8422,25 @@
         <v>101</v>
       </c>
       <c r="AE5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -8399,7 +8462,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>142706664</v>
+        <v>145661460</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -8408,7 +8471,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -8418,7 +8481,7 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -8434,15 +8497,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8463,13 +8526,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8479,28 +8542,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V6" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -8512,10 +8575,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA6" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -8527,25 +8590,25 @@
         <v>101</v>
       </c>
       <c r="AE6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -8567,7 +8630,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>142302088</v>
+        <v>141088548</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8576,7 +8639,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8586,7 +8649,7 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -8602,15 +8665,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8631,13 +8694,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8647,28 +8710,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V7" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -8680,10 +8743,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA7" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -8695,25 +8758,25 @@
         <v>101</v>
       </c>
       <c r="AE7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AG7" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -8735,7 +8798,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>142153004</v>
+        <v>126041968</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8744,7 +8807,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8754,7 +8817,7 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -8770,15 +8833,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8799,13 +8862,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8815,28 +8878,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V8" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -8848,10 +8911,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA8" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -8863,25 +8926,25 @@
         <v>101</v>
       </c>
       <c r="AE8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -8903,7 +8966,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>141447252</v>
+        <v>162896924</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8912,7 +8975,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8922,7 +8985,7 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -8938,15 +9001,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8967,13 +9030,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8983,28 +9046,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V9" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -9016,10 +9079,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA9" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -9031,25 +9094,25 @@
         <v>101</v>
       </c>
       <c r="AE9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -9071,7 +9134,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>142766824</v>
+        <v>164741580</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -9080,7 +9143,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -9090,7 +9153,7 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -9106,15 +9169,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -9135,13 +9198,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -9151,28 +9214,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V10" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -9184,10 +9247,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA10" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -9199,25 +9262,25 @@
         <v>101</v>
       </c>
       <c r="AE10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AG10" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AK10" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -9239,7 +9302,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>142692188</v>
+        <v>147236336</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -9248,7 +9311,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -9258,7 +9321,7 @@
         <v>57</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -9274,15 +9337,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -9303,13 +9366,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -9319,28 +9382,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V11" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -9352,10 +9415,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA11" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -9367,25 +9430,25 @@
         <v>101</v>
       </c>
       <c r="AE11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF11" s="6" t="s">
+      <c r="AG11" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AK11" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6" t="s">
@@ -9407,7 +9470,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>141805768</v>
+        <v>134097392</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -9416,7 +9479,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -9426,7 +9489,7 @@
         <v>57</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6" t="s">
@@ -9442,15 +9505,15 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -9471,13 +9534,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -9487,28 +9550,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V12" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -9520,10 +9583,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA12" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -9535,25 +9598,25 @@
         <v>101</v>
       </c>
       <c r="AE12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AG12" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AK12" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6" t="s">
@@ -9575,7 +9638,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>141943572</v>
+        <v>148782636</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>55</v>
@@ -9584,7 +9647,7 @@
         <v>56</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -9594,7 +9657,7 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6" t="s">
@@ -9610,15 +9673,15 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -9639,13 +9702,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -9655,28 +9718,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V13" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -9688,10 +9751,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA13" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -9703,25 +9766,25 @@
         <v>101</v>
       </c>
       <c r="AE13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AG13" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AK13" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6" t="s">
@@ -9743,7 +9806,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>142603264</v>
+        <v>161488428</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>55</v>
@@ -9752,7 +9815,7 @@
         <v>56</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -9762,7 +9825,7 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA13" s="6"/>
       <c r="BB13" s="6" t="s">
@@ -9778,15 +9841,15 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -9807,13 +9870,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -9823,28 +9886,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V14" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -9856,10 +9919,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA14" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -9871,25 +9934,25 @@
         <v>101</v>
       </c>
       <c r="AE14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AG14" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AK14" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6" t="s">
@@ -9911,7 +9974,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>142720952</v>
+        <v>160903184</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>55</v>
@@ -9920,7 +9983,7 @@
         <v>56</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -9930,7 +9993,7 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA14" s="6"/>
       <c r="BB14" s="6" t="s">
@@ -9946,15 +10009,15 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -9975,13 +10038,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -9991,28 +10054,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V15" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -10024,10 +10087,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA15" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -10039,25 +10102,25 @@
         <v>101</v>
       </c>
       <c r="AE15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF15" s="6" t="s">
+      <c r="AG15" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ15" s="6" t="s">
+      <c r="AK15" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6" t="s">
@@ -10079,7 +10142,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>141943572</v>
+        <v>136885996</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>55</v>
@@ -10088,7 +10151,7 @@
         <v>56</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -10098,7 +10161,7 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6" t="s">
@@ -10114,15 +10177,15 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -10143,13 +10206,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -10159,28 +10222,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U16" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V16" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -10192,10 +10255,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA16" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -10207,25 +10270,25 @@
         <v>101</v>
       </c>
       <c r="AE16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AG16" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AK16" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6" t="s">
@@ -10247,7 +10310,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>142196056</v>
+        <v>159970892</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>55</v>
@@ -10256,7 +10319,7 @@
         <v>56</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -10266,7 +10329,7 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA16" s="6"/>
       <c r="BB16" s="6" t="s">
@@ -10282,15 +10345,15 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -10311,13 +10374,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -10327,28 +10390,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V17" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -10360,10 +10423,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA17" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -10375,25 +10438,25 @@
         <v>101</v>
       </c>
       <c r="AE17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AG17" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AK17" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6" t="s">
@@ -10415,7 +10478,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>141851640</v>
+        <v>160736804</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>55</v>
@@ -10424,7 +10487,7 @@
         <v>56</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -10434,7 +10497,7 @@
         <v>57</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA17" s="6"/>
       <c r="BB17" s="6" t="s">
@@ -10450,15 +10513,15 @@
         <v>60</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -10479,13 +10542,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -10495,28 +10558,28 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V18" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -10528,10 +10591,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA18" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -10543,25 +10606,25 @@
         <v>101</v>
       </c>
       <c r="AE18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AG18" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AK18" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6" t="s">
@@ -10583,7 +10646,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>141851640</v>
+        <v>166692268</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>55</v>
@@ -10592,7 +10655,7 @@
         <v>56</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -10602,7 +10665,7 @@
         <v>57</v>
       </c>
       <c r="AZ18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA18" s="6"/>
       <c r="BB18" s="6" t="s">
@@ -10618,15 +10681,15 @@
         <v>60</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -10647,13 +10710,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -10663,28 +10726,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U19" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V19" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -10696,10 +10759,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA19" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -10711,25 +10774,25 @@
         <v>101</v>
       </c>
       <c r="AE19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AK19" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19" s="6" t="s">
@@ -10751,7 +10814,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>142692188</v>
+        <v>144086584</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>55</v>
@@ -10760,7 +10823,7 @@
         <v>56</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -10770,7 +10833,7 @@
         <v>57</v>
       </c>
       <c r="AZ19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6" t="s">
@@ -10786,15 +10849,15 @@
         <v>60</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -10815,13 +10878,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -10831,28 +10894,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V20" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -10864,10 +10927,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA20" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -10879,25 +10942,25 @@
         <v>101</v>
       </c>
       <c r="AE20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ20" s="6" t="s">
+      <c r="AK20" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL20" s="6"/>
       <c r="AM20" s="6" t="s">
@@ -10919,7 +10982,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>142018208</v>
+        <v>149141152</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>55</v>
@@ -10928,7 +10991,7 @@
         <v>56</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -10938,7 +11001,7 @@
         <v>57</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA20" s="6"/>
       <c r="BB20" s="6" t="s">
@@ -10954,15 +11017,15 @@
         <v>60</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -10983,13 +11046,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -10999,28 +11062,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V21" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -11032,10 +11095,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA21" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -11047,25 +11110,25 @@
         <v>101</v>
       </c>
       <c r="AE21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AG21" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ21" s="6" t="s">
+      <c r="AK21" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="6" t="s">
@@ -11087,7 +11150,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>142468468</v>
+        <v>159807332</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>55</v>
@@ -11096,7 +11159,7 @@
         <v>56</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -11106,7 +11169,7 @@
         <v>57</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA21" s="6"/>
       <c r="BB21" s="6" t="s">
@@ -11122,15 +11185,15 @@
         <v>60</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -11151,13 +11214,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -11167,28 +11230,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V22" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -11200,10 +11263,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA22" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -11215,25 +11278,25 @@
         <v>101</v>
       </c>
       <c r="AE22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AG22" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ22" s="6" t="s">
+      <c r="AK22" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK22" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL22" s="6"/>
       <c r="AM22" s="6" t="s">
@@ -11255,7 +11318,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>142720952</v>
+        <v>133558208</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>55</v>
@@ -11264,7 +11327,7 @@
         <v>56</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -11274,7 +11337,7 @@
         <v>57</v>
       </c>
       <c r="AZ22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA22" s="6"/>
       <c r="BB22" s="6" t="s">
@@ -11290,15 +11353,15 @@
         <v>60</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -11319,13 +11382,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -11335,28 +11398,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V23" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -11368,10 +11431,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA23" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -11383,25 +11446,25 @@
         <v>101</v>
       </c>
       <c r="AE23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ23" s="6" t="s">
+      <c r="AK23" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL23" s="6"/>
       <c r="AM23" s="6" t="s">
@@ -11423,7 +11486,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>142107132</v>
+        <v>152936684</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>55</v>
@@ -11432,7 +11495,7 @@
         <v>56</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -11442,7 +11505,7 @@
         <v>57</v>
       </c>
       <c r="AZ23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA23" s="6"/>
       <c r="BB23" s="6" t="s">
@@ -11458,15 +11521,15 @@
         <v>60</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -11487,13 +11550,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -11503,28 +11566,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U24" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V24" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -11536,10 +11599,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA24" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -11551,25 +11614,25 @@
         <v>101</v>
       </c>
       <c r="AE24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AK24" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL24" s="6"/>
       <c r="AM24" s="6" t="s">
@@ -11591,7 +11654,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>142497232</v>
+        <v>149726396</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>55</v>
@@ -11600,7 +11663,7 @@
         <v>56</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -11610,7 +11673,7 @@
         <v>57</v>
       </c>
       <c r="AZ24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA24" s="6"/>
       <c r="BB24" s="6" t="s">
@@ -11626,15 +11689,15 @@
         <v>60</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -11655,13 +11718,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -11671,28 +11734,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U25" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V25" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -11704,10 +11767,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA25" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -11719,25 +11782,25 @@
         <v>101</v>
       </c>
       <c r="AE25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL25" s="6"/>
       <c r="AM25" s="6" t="s">
@@ -11759,7 +11822,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>142391012</v>
+        <v>161832656</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>55</v>
@@ -11768,7 +11831,7 @@
         <v>56</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -11778,7 +11841,7 @@
         <v>57</v>
       </c>
       <c r="AZ25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA25" s="6"/>
       <c r="BB25" s="6" t="s">
@@ -11794,15 +11857,15 @@
         <v>60</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -11823,13 +11886,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -11839,28 +11902,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U26" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V26" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -11872,10 +11935,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA26" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -11887,25 +11950,25 @@
         <v>101</v>
       </c>
       <c r="AE26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ26" s="6" t="s">
+      <c r="AK26" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL26" s="6"/>
       <c r="AM26" s="6" t="s">
@@ -11927,7 +11990,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>141507412</v>
+        <v>157526704</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>55</v>
@@ -11936,7 +11999,7 @@
         <v>56</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -11946,7 +12009,7 @@
         <v>57</v>
       </c>
       <c r="AZ26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA26" s="6"/>
       <c r="BB26" s="6" t="s">
@@ -11962,15 +12025,15 @@
         <v>60</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -11991,13 +12054,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -12007,28 +12070,28 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U27" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V27" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -12040,10 +12103,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA27" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -12055,25 +12118,25 @@
         <v>101</v>
       </c>
       <c r="AE27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AG27" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ27" s="6" t="s">
+      <c r="AK27" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL27" s="6"/>
       <c r="AM27" s="6" t="s">
@@ -12095,7 +12158,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>142482944</v>
+        <v>131036564</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>55</v>
@@ -12104,7 +12167,7 @@
         <v>56</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -12114,7 +12177,7 @@
         <v>57</v>
       </c>
       <c r="AZ27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA27" s="6"/>
       <c r="BB27" s="6" t="s">
@@ -12130,7 +12193,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
@@ -16110,7 +16173,7 @@
   <dimension ref="A1:BF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF58"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16290,10 +16353,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B2" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -16314,13 +16377,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -16330,28 +16393,28 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V2" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>100</v>
@@ -16363,10 +16426,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA2" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>49</v>
@@ -16378,25 +16441,25 @@
         <v>101</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -16418,7 +16481,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>284907984</v>
+        <v>301254208</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -16427,7 +16490,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -16437,7 +16500,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -16453,15 +16516,15 @@
         <v>60</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="B3" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -16482,13 +16545,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -16498,28 +16561,28 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V3" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>100</v>
@@ -16531,10 +16594,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA3" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>49</v>
@@ -16546,25 +16609,25 @@
         <v>101</v>
       </c>
       <c r="AE3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -16586,7 +16649,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>285177764</v>
+        <v>286107236</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -16595,7 +16658,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -16605,7 +16668,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -16626,10 +16689,10 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="B4" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -16650,10 +16713,10 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>120</v>
@@ -16666,7 +16729,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>67</v>
@@ -16681,13 +16744,13 @@
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V4" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>100</v>
@@ -16699,10 +16762,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA4" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -16714,25 +16777,25 @@
         <v>101</v>
       </c>
       <c r="AE4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -16754,7 +16817,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>285085832</v>
+        <v>296365832</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -16763,7 +16826,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -16773,7 +16836,7 @@
         <v>57</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -16789,15 +16852,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B5" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -16818,13 +16881,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -16834,28 +16897,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V5" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>100</v>
@@ -16867,10 +16930,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA5" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>49</v>
@@ -16882,25 +16945,25 @@
         <v>101</v>
       </c>
       <c r="AE5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -16922,7 +16985,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>285355612</v>
+        <v>291265204</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -16931,7 +16994,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16941,7 +17004,7 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -16957,15 +17020,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="B6" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -16986,13 +17049,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -17002,28 +17065,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V6" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
@@ -17035,10 +17098,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA6" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -17050,25 +17113,25 @@
         <v>101</v>
       </c>
       <c r="AE6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -17090,7 +17153,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>284546648</v>
+        <v>282113928</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -17099,7 +17162,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -17109,7 +17172,7 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -17125,15 +17188,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B7" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -17154,13 +17217,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -17170,28 +17233,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V7" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>100</v>
@@ -17203,10 +17266,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA7" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>49</v>
@@ -17218,25 +17281,25 @@
         <v>101</v>
       </c>
       <c r="AE7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AG7" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -17258,7 +17321,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>284242464</v>
+        <v>252026408</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -17267,7 +17330,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -17277,7 +17340,7 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -17293,15 +17356,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B8" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -17322,13 +17385,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -17338,28 +17401,28 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V8" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
@@ -17371,10 +17434,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA8" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>49</v>
@@ -17386,25 +17449,25 @@
         <v>101</v>
       </c>
       <c r="AE8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -17426,7 +17489,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>282836788</v>
+        <v>325736132</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -17435,7 +17498,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -17445,7 +17508,7 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -17461,15 +17524,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="B9" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -17490,13 +17553,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -17506,28 +17569,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V9" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
@@ -17539,10 +17602,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA9" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>49</v>
@@ -17554,25 +17617,25 @@
         <v>101</v>
       </c>
       <c r="AE9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -17594,7 +17657,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>285476120</v>
+        <v>329425444</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -17603,7 +17666,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -17613,7 +17676,7 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -17629,15 +17692,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B10" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -17658,13 +17721,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -17674,28 +17737,28 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V10" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
@@ -17707,10 +17770,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA10" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>49</v>
@@ -17722,25 +17785,25 @@
         <v>101</v>
       </c>
       <c r="AE10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AG10" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AK10" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -17762,7 +17825,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>285326848</v>
+        <v>294415144</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -17771,7 +17834,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -17781,7 +17844,7 @@
         <v>57</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -17797,15 +17860,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B11" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -17826,13 +17889,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -17842,28 +17905,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V11" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
@@ -17875,10 +17938,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA11" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>49</v>
@@ -17890,25 +17953,25 @@
         <v>101</v>
       </c>
       <c r="AE11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF11" s="6" t="s">
+      <c r="AG11" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AK11" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6" t="s">
@@ -17930,7 +17993,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>283554008</v>
+        <v>268137256</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -17939,7 +18002,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17949,7 +18012,7 @@
         <v>57</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6" t="s">
@@ -17965,15 +18028,15 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B12" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>43</v>
@@ -17994,13 +18057,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
@@ -18010,28 +18073,28 @@
         <v>47</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V12" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
@@ -18043,10 +18106,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA12" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>49</v>
@@ -18058,25 +18121,25 @@
         <v>101</v>
       </c>
       <c r="AE12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AG12" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AK12" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6" t="s">
@@ -18098,7 +18161,7 @@
         <v>54</v>
       </c>
       <c r="AS12" s="6">
-        <v>283823600</v>
+        <v>297507556</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>54</v>
@@ -18107,7 +18170,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6" t="s">
@@ -18117,7 +18180,7 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6" t="s">
@@ -18133,15 +18196,15 @@
         <v>60</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B13" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -18162,13 +18225,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
@@ -18178,28 +18241,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V13" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
@@ -18211,10 +18274,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA13" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>49</v>
@@ -18226,25 +18289,25 @@
         <v>101</v>
       </c>
       <c r="AE13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AG13" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AK13" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6" t="s">
@@ -18266,7 +18329,7 @@
         <v>54</v>
       </c>
       <c r="AS13" s="6">
-        <v>285143360</v>
+        <v>322913312</v>
       </c>
       <c r="AT13" s="6" t="s">
         <v>54</v>
@@ -18275,7 +18338,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6" t="s">
@@ -18285,7 +18348,7 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA13" s="6"/>
       <c r="BB13" s="6" t="s">
@@ -18301,15 +18364,15 @@
         <v>60</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B14" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -18330,13 +18393,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -18346,28 +18409,28 @@
         <v>47</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V14" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>100</v>
@@ -18379,10 +18442,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA14" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>49</v>
@@ -18394,25 +18457,25 @@
         <v>101</v>
       </c>
       <c r="AE14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AG14" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AK14" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6" t="s">
@@ -18434,7 +18497,7 @@
         <v>54</v>
       </c>
       <c r="AS14" s="6">
-        <v>285384188</v>
+        <v>321742824</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>54</v>
@@ -18443,7 +18506,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6" t="s">
@@ -18453,7 +18516,7 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA14" s="6"/>
       <c r="BB14" s="6" t="s">
@@ -18469,15 +18532,15 @@
         <v>60</v>
       </c>
       <c r="BF14" s="6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="B15" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -18498,13 +18561,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
@@ -18514,28 +18577,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V15" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>100</v>
@@ -18547,10 +18610,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA15" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>49</v>
@@ -18562,25 +18625,25 @@
         <v>101</v>
       </c>
       <c r="AE15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF15" s="6" t="s">
+      <c r="AG15" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ15" s="6" t="s">
+      <c r="AK15" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6" t="s">
@@ -18602,7 +18665,7 @@
         <v>54</v>
       </c>
       <c r="AS15" s="6">
-        <v>283823600</v>
+        <v>273714088</v>
       </c>
       <c r="AT15" s="6" t="s">
         <v>54</v>
@@ -18611,7 +18674,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
@@ -18621,7 +18684,7 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6" t="s">
@@ -18637,15 +18700,15 @@
         <v>60</v>
       </c>
       <c r="BF15" s="6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="B16" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -18666,13 +18729,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
@@ -18682,28 +18745,28 @@
         <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U16" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V16" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>100</v>
@@ -18715,10 +18778,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA16" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>49</v>
@@ -18730,25 +18793,25 @@
         <v>101</v>
       </c>
       <c r="AE16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AG16" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AK16" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6" t="s">
@@ -18770,7 +18833,7 @@
         <v>54</v>
       </c>
       <c r="AS16" s="6">
-        <v>284334396</v>
+        <v>319883880</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>54</v>
@@ -18779,7 +18842,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6" t="s">
@@ -18789,7 +18852,7 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA16" s="6"/>
       <c r="BB16" s="6" t="s">
@@ -18805,15 +18868,15 @@
         <v>60</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="B17" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -18834,13 +18897,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
@@ -18850,28 +18913,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V17" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>100</v>
@@ -18883,10 +18946,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA17" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>49</v>
@@ -18898,25 +18961,25 @@
         <v>101</v>
       </c>
       <c r="AE17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AG17" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AK17" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6" t="s">
@@ -18938,7 +19001,7 @@
         <v>54</v>
       </c>
       <c r="AS17" s="6">
-        <v>283645752</v>
+        <v>321416080</v>
       </c>
       <c r="AT17" s="6" t="s">
         <v>54</v>
@@ -18947,7 +19010,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6" t="s">
@@ -18957,7 +19020,7 @@
         <v>57</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA17" s="6"/>
       <c r="BB17" s="6" t="s">
@@ -18973,15 +19036,15 @@
         <v>60</v>
       </c>
       <c r="BF17" s="6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="B18" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
@@ -19002,13 +19065,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
@@ -19018,28 +19081,28 @@
         <v>47</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V18" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
@@ -19051,10 +19114,10 @@
         <v>44</v>
       </c>
       <c r="Z18" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA18" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>49</v>
@@ -19066,25 +19129,25 @@
         <v>101</v>
       </c>
       <c r="AE18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AG18" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AK18" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6" t="s">
@@ -19106,7 +19169,7 @@
         <v>54</v>
       </c>
       <c r="AS18" s="6">
-        <v>283645752</v>
+        <v>333327008</v>
       </c>
       <c r="AT18" s="6" t="s">
         <v>54</v>
@@ -19115,7 +19178,7 @@
         <v>62</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6" t="s">
@@ -19125,7 +19188,7 @@
         <v>57</v>
       </c>
       <c r="AZ18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA18" s="6"/>
       <c r="BB18" s="6" t="s">
@@ -19141,15 +19204,15 @@
         <v>60</v>
       </c>
       <c r="BF18" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B19" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -19170,13 +19233,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
@@ -19186,28 +19249,28 @@
         <v>47</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U19" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V19" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>100</v>
@@ -19219,10 +19282,10 @@
         <v>44</v>
       </c>
       <c r="Z19" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA19" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>49</v>
@@ -19234,25 +19297,25 @@
         <v>101</v>
       </c>
       <c r="AE19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AK19" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19" s="6" t="s">
@@ -19274,7 +19337,7 @@
         <v>54</v>
       </c>
       <c r="AS19" s="6">
-        <v>285326848</v>
+        <v>288115264</v>
       </c>
       <c r="AT19" s="6" t="s">
         <v>54</v>
@@ -19283,7 +19346,7 @@
         <v>62</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6" t="s">
@@ -19293,7 +19356,7 @@
         <v>57</v>
       </c>
       <c r="AZ19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6" t="s">
@@ -19309,15 +19372,15 @@
         <v>60</v>
       </c>
       <c r="BF19" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B20" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
@@ -19338,13 +19401,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
@@ -19354,28 +19417,28 @@
         <v>47</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V20" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>100</v>
@@ -19387,10 +19450,10 @@
         <v>44</v>
       </c>
       <c r="Z20" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA20" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>49</v>
@@ -19402,25 +19465,25 @@
         <v>101</v>
       </c>
       <c r="AE20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ20" s="6" t="s">
+      <c r="AK20" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL20" s="6"/>
       <c r="AM20" s="6" t="s">
@@ -19442,7 +19505,7 @@
         <v>54</v>
       </c>
       <c r="AS20" s="6">
-        <v>283972872</v>
+        <v>298224776</v>
       </c>
       <c r="AT20" s="6" t="s">
         <v>54</v>
@@ -19451,7 +19514,7 @@
         <v>62</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6" t="s">
@@ -19461,7 +19524,7 @@
         <v>57</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA20" s="6"/>
       <c r="BB20" s="6" t="s">
@@ -19477,15 +19540,15 @@
         <v>60</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B21" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -19506,13 +19569,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
@@ -19522,28 +19585,28 @@
         <v>47</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V21" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>100</v>
@@ -19555,10 +19618,10 @@
         <v>44</v>
       </c>
       <c r="Z21" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA21" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>49</v>
@@ -19570,25 +19633,25 @@
         <v>101</v>
       </c>
       <c r="AE21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AG21" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ21" s="6" t="s">
+      <c r="AK21" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="6" t="s">
@@ -19610,7 +19673,7 @@
         <v>54</v>
       </c>
       <c r="AS21" s="6">
-        <v>284873580</v>
+        <v>319556948</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>54</v>
@@ -19619,7 +19682,7 @@
         <v>62</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
@@ -19629,7 +19692,7 @@
         <v>57</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA21" s="6"/>
       <c r="BB21" s="6" t="s">
@@ -19645,15 +19708,15 @@
         <v>60</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B22" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -19674,13 +19737,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
@@ -19690,28 +19753,28 @@
         <v>47</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V22" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>100</v>
@@ -19723,10 +19786,10 @@
         <v>44</v>
       </c>
       <c r="Z22" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA22" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>49</v>
@@ -19738,25 +19801,25 @@
         <v>101</v>
       </c>
       <c r="AE22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AG22" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ22" s="6" t="s">
+      <c r="AK22" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK22" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL22" s="6"/>
       <c r="AM22" s="6" t="s">
@@ -19778,7 +19841,7 @@
         <v>54</v>
       </c>
       <c r="AS22" s="6">
-        <v>285384188</v>
+        <v>267052872</v>
       </c>
       <c r="AT22" s="6" t="s">
         <v>54</v>
@@ -19787,7 +19850,7 @@
         <v>62</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6" t="s">
@@ -19797,7 +19860,7 @@
         <v>57</v>
       </c>
       <c r="AZ22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA22" s="6"/>
       <c r="BB22" s="6" t="s">
@@ -19813,15 +19876,15 @@
         <v>60</v>
       </c>
       <c r="BF22" s="6" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B23" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>43</v>
@@ -19842,13 +19905,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
@@ -19858,28 +19921,28 @@
         <v>47</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V23" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>100</v>
@@ -19891,10 +19954,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA23" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>49</v>
@@ -19906,25 +19969,25 @@
         <v>101</v>
       </c>
       <c r="AE23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ23" s="6" t="s">
+      <c r="AK23" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL23" s="6"/>
       <c r="AM23" s="6" t="s">
@@ -19946,7 +20009,7 @@
         <v>54</v>
       </c>
       <c r="AS23" s="6">
-        <v>284156360</v>
+        <v>305815652</v>
       </c>
       <c r="AT23" s="6" t="s">
         <v>54</v>
@@ -19955,7 +20018,7 @@
         <v>62</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6" t="s">
@@ -19965,7 +20028,7 @@
         <v>57</v>
       </c>
       <c r="AZ23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA23" s="6"/>
       <c r="BB23" s="6" t="s">
@@ -19981,15 +20044,15 @@
         <v>60</v>
       </c>
       <c r="BF23" s="6" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B24" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -20010,13 +20073,13 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
@@ -20026,28 +20089,28 @@
         <v>47</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U24" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V24" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>100</v>
@@ -20059,10 +20122,10 @@
         <v>44</v>
       </c>
       <c r="Z24" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA24" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>49</v>
@@ -20074,25 +20137,25 @@
         <v>101</v>
       </c>
       <c r="AE24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AK24" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL24" s="6"/>
       <c r="AM24" s="6" t="s">
@@ -20114,7 +20177,7 @@
         <v>54</v>
       </c>
       <c r="AS24" s="6">
-        <v>284936936</v>
+        <v>299395264</v>
       </c>
       <c r="AT24" s="6" t="s">
         <v>54</v>
@@ -20123,7 +20186,7 @@
         <v>62</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6" t="s">
@@ -20133,7 +20196,7 @@
         <v>57</v>
       </c>
       <c r="AZ24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA24" s="6"/>
       <c r="BB24" s="6" t="s">
@@ -20149,15 +20212,15 @@
         <v>60</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="B25" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>43</v>
@@ -20178,13 +20241,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
@@ -20194,28 +20257,28 @@
         <v>47</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U25" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V25" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>100</v>
@@ -20227,10 +20290,10 @@
         <v>44</v>
       </c>
       <c r="Z25" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA25" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>49</v>
@@ -20242,25 +20305,25 @@
         <v>101</v>
       </c>
       <c r="AE25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL25" s="6"/>
       <c r="AM25" s="6" t="s">
@@ -20282,7 +20345,7 @@
         <v>54</v>
       </c>
       <c r="AS25" s="6">
-        <v>284724496</v>
+        <v>323607596</v>
       </c>
       <c r="AT25" s="6" t="s">
         <v>54</v>
@@ -20291,7 +20354,7 @@
         <v>62</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6" t="s">
@@ -20301,7 +20364,7 @@
         <v>57</v>
       </c>
       <c r="AZ25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA25" s="6"/>
       <c r="BB25" s="6" t="s">
@@ -20317,15 +20380,15 @@
         <v>60</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B26" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
@@ -20346,13 +20409,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
@@ -20362,28 +20425,28 @@
         <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U26" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V26" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
@@ -20395,10 +20458,10 @@
         <v>44</v>
       </c>
       <c r="Z26" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA26" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>49</v>
@@ -20410,25 +20473,25 @@
         <v>101</v>
       </c>
       <c r="AE26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ26" s="6" t="s">
+      <c r="AK26" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL26" s="6"/>
       <c r="AM26" s="6" t="s">
@@ -20450,7 +20513,7 @@
         <v>54</v>
       </c>
       <c r="AS26" s="6">
-        <v>282957296</v>
+        <v>314995504</v>
       </c>
       <c r="AT26" s="6" t="s">
         <v>54</v>
@@ -20459,7 +20522,7 @@
         <v>62</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6" t="s">
@@ -20469,7 +20532,7 @@
         <v>57</v>
       </c>
       <c r="AZ26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA26" s="6"/>
       <c r="BB26" s="6" t="s">
@@ -20485,15 +20548,15 @@
         <v>60</v>
       </c>
       <c r="BF26" s="6" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="B27" s="3">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>43</v>
@@ -20514,13 +20577,13 @@
         <v>46</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
@@ -20530,28 +20593,28 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U27" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="V27" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>100</v>
@@ -20563,10 +20626,10 @@
         <v>44</v>
       </c>
       <c r="Z27" s="3">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="AA27" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>49</v>
@@ -20578,25 +20641,25 @@
         <v>101</v>
       </c>
       <c r="AE27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AG27" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="AH27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AI27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ27" s="6" t="s">
+      <c r="AK27" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="AL27" s="6"/>
       <c r="AM27" s="6" t="s">
@@ -20618,7 +20681,7 @@
         <v>54</v>
       </c>
       <c r="AS27" s="6">
-        <v>284907984</v>
+        <v>262015412</v>
       </c>
       <c r="AT27" s="6" t="s">
         <v>54</v>
@@ -20627,7 +20690,7 @@
         <v>62</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6" t="s">
@@ -20637,7 +20700,7 @@
         <v>57</v>
       </c>
       <c r="AZ27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA27" s="6"/>
       <c r="BB27" s="6" t="s">
@@ -20653,7 +20716,7 @@
         <v>60</v>
       </c>
       <c r="BF27" s="6" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">

--- a/Run_File.xlsx
+++ b/Run_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D43A4-F4CD-4AE4-9F92-919476161A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DED66E4-89FC-4B60-AF39-97881DF4CCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1FC338CE-84E3-4770-AC7F-D0408B7F2F20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="205">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -233,841 +233,424 @@
     <t>TV-Y</t>
   </si>
   <si>
-    <t>EEITNG341_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT6000000000000341</t>
-  </si>
-  <si>
-    <t>Serie El Jardín de los Sueños</t>
-  </si>
-  <si>
-    <t>El Jardín de los SueñosT03EP41</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP41</t>
-  </si>
-  <si>
-    <t>EP 41</t>
-  </si>
-  <si>
-    <t>Edye presenta: Makka Pakka descubre que puede hacer música tocando diferentes piedras, y así crea una melodía.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Makka Pakka descubre que puede hacer notas musicales tocando diferentes piedras, y así crea una melodía. Los demás se dan cuenta y se reúnen para escuchar el gran concierto de piedras de Makka Pakka.</t>
-  </si>
-  <si>
-    <t>00:28:08</t>
-  </si>
-  <si>
-    <t>00:28</t>
-  </si>
-  <si>
-    <t>Infantil/El Jardín de los Sueños</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
-    <t>Derek Jacobi</t>
+    <t>EEBOBB17210_SD_ADI.XML</t>
   </si>
   <si>
-    <t>Ragdoll Worldwide</t>
+    <t>EBOB6000000000017210</t>
   </si>
   <si>
-    <t>Jacobi Derek</t>
+    <t>Serie Bob el Constructor</t>
   </si>
   <si>
-    <t>Campbell, Dirk</t>
+    <t>Bob el ConstructorT17EP210</t>
   </si>
   <si>
-    <t>EEITNG341.mpg</t>
+    <t>Bob el Constructor T17 EP210</t>
   </si>
   <si>
-    <t>EEITNG3_box.jpg</t>
+    <t>EP 210</t>
   </si>
   <si>
-    <t>EEITNG341_land.jpg</t>
+    <t>Edye presenta: Scratch se dará cuenta en su primer día lo mucho que se aprender con solo observar.</t>
   </si>
   <si>
-    <t>EEITNG342_SD_ADI.XML</t>
+    <t>Edye presenta: Es el primer día de Scratch como parte del equipo, que lo hace sentir como en casa. En esta ocasión estarán trabajando en los jardines del museo. Scratch espera ansiosamente que le den una asignación. Su primera lección será aprender a observar.</t>
   </si>
   <si>
-    <t>EEIT6000000000000342</t>
+    <t>00:09:50</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP42</t>
+    <t>00:10</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP42</t>
+    <t>Infantil/Bob el Constructor</t>
   </si>
   <si>
-    <t>EP 42</t>
+    <t>Bob el Constructor</t>
   </si>
   <si>
-    <t>Edye presenta: Tombliboo Eee elige un camino equivocado, los Tombliboos le ayudarán a encontrar el camino.</t>
+    <t>Morrissey Neil, Rackstraw Rob, Harbour Kate, Degas Rupert</t>
   </si>
   <si>
-    <t>Edye presenta: Tombliboo Eee, apresurado, elige un camino equivocado. Los Tombliboos descubrirán que pueden encontrar el camino correcto juntos.</t>
+    <t>HIT Ent Keith Chap</t>
   </si>
   <si>
-    <t>00:28:06</t>
+    <t>Sabella, Paul</t>
   </si>
   <si>
-    <t>EEITNG342.mpg</t>
+    <t>EEBOBB17210.mpg</t>
   </si>
   <si>
-    <t>EEITNG342_land.jpg</t>
+    <t>EEBOBB17_box.jpg</t>
   </si>
   <si>
-    <t>EEITNG343_SD_ADI.XML</t>
+    <t>EEBOBB17210_land.jpg</t>
   </si>
   <si>
-    <t>EEIT6000000000000343</t>
+    <t>EEBOBB17211_SD_ADI.XML</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP43</t>
+    <t>EBOB6000000000017211</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP43</t>
+    <t>Bob el ConstructorT17EP211</t>
   </si>
   <si>
-    <t>EP 43</t>
+    <t>Bob el Constructor T17 EP211</t>
   </si>
   <si>
-    <t>Edye presenta: Igglepiggle se acuesta en la cama de Upsy Daisy sin su permiso.</t>
+    <t>EP 211</t>
   </si>
   <si>
-    <t>Edye presenta: Igglepiggle se acuesta en la cama de Upsy Daisy. Cuando Upsy Daisy regresa, tiene que saltar rápidamente porque, a pesar de ser mejores amigos, solo ella puede dormir en su cama.</t>
+    <t>Edye presenta: Scrambler aprenderá que no siempre se puede ganar y la importancia del trabajo en equipo.</t>
   </si>
   <si>
-    <t>00:28:11</t>
+    <t>Edye presenta: Es la competencia de construcción de juegos en la escuela. Scrambler está seguro de que su idea de la casa del árbol ganará, pero triunfa la de Roley. Scrambler enojado decide hacer su casa solo. Al final aprenderá que es mejor el trabajo en equipo.</t>
   </si>
   <si>
-    <t>EEITNG343.mpg</t>
+    <t>EEBOBB17211.mpg</t>
   </si>
   <si>
-    <t>EEITNG343_land.jpg</t>
+    <t>EEBOBB17211_land.jpg</t>
   </si>
   <si>
-    <t>EEITNG344_SD_ADI.XML</t>
+    <t>EEBOBB17212_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEIT6000000000000344</t>
+    <t>EBOB6000000000017212</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP44</t>
+    <t>Bob el ConstructorT17EP212</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP44</t>
+    <t>Bob el Constructor T17 EP212</t>
   </si>
   <si>
-    <t>EP 44</t>
+    <t>EP 212</t>
   </si>
   <si>
-    <t>Edye presenta: Makka Pakka les lava la cara a los Pontipines y a los Haahoos para que queden muy limpios.</t>
+    <t>Edye presenta: Scoop y David, aprenderán a no descuidar sus tareas y sumar talentos para lograr un objetivo.</t>
   </si>
   <si>
-    <t>Edye presenta: Los Pontipines más pequeños y los Haahoos más grandes quedan muy limpios cuando Makka Pakka les lava la cara. Los Tombliboos son especialmente limpios, porque también se divierten mucho lavándose los dientes.</t>
+    <t>Edye presenta: El trabajo: construir una nueva ala en el museo antes de la inauguración de una exposición. Scoop feliz de conocer a David Mockney y le pide que lo enseñe a pintar. Ambos descuidan sus deberes. Al final gracias al trabajo en equipo logran su meta.</t>
   </si>
   <si>
-    <t>00:28:05</t>
+    <t>EEBOBB17212.mpg</t>
   </si>
   <si>
-    <t>EEITNG344.mpg</t>
+    <t>EEBOBB17212_land.jpg</t>
   </si>
   <si>
-    <t>EEITNG344_land.jpg</t>
+    <t>EEBOBB17213_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG345_SD_ADI.XML</t>
+    <t>EBOB6000000000017213</t>
   </si>
   <si>
-    <t>EEIT6000000000000345</t>
+    <t>Bob el ConstructorT17EP213</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP45</t>
+    <t>Bob el Constructor T17 EP213</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP45</t>
+    <t>EP 213</t>
   </si>
   <si>
-    <t>EP 45</t>
+    <t>Edye presenta: Lofty aprenderá a perder el miedo al agua cuando Dizzy se ve en apuros.</t>
   </si>
   <si>
-    <t>Edye presenta: Upsy Daisy le enseña a Igglepiggle cómo jugar a esconderse, pues ella es una experta.</t>
+    <t>Edye presenta: Bob y su equipo deben construir el viejo muelle de madera que desapareció durante la tormenta. Lofty tiene miedo al agua, aunque finge que no. Mientras están trabajando Dizzy se queda atorada entre el mar y la orilla. Lofty la salva sin pensarlo.</t>
   </si>
   <si>
-    <t>Edye presenta: Upsy Daisy le enseña a Igglepiggle cómo jugar a esconderse, pues ella es muy buena escondiéndose. Igglepiggle está impresionado.</t>
+    <t>EEBOBB17213.mpg</t>
   </si>
   <si>
-    <t>00:28:00</t>
+    <t>EEBOBB17213_land.jpg</t>
   </si>
   <si>
-    <t>EEITNG345.mpg</t>
+    <t>EEBOBB17214_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG345_land.jpg</t>
+    <t>EBOB6000000000017214</t>
   </si>
   <si>
-    <t>EEITNG346_SD_ADI.XML</t>
+    <t>Bob el ConstructorT17EP214</t>
   </si>
   <si>
-    <t>EEIT6000000000000346</t>
+    <t>Bob el Constructor T17 EP214</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP46</t>
+    <t>EP 214</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP46</t>
+    <t>Edye presenta: Aprende con Roley cómo un mal día puede mejorar si cada miembro del equipo pone lo mejor de sí.</t>
   </si>
   <si>
-    <t>EP 46</t>
+    <t>Edye presenta: Bob y las máquinas deben arreglar el viejo campo de fútbol Fixham Rovers. Tras un día desastroso, Roley utiliza su talento de hacer cantos inspiradores para animar al equipo a trabajar más rápido que nunca para reconstruir el campo.</t>
   </si>
   <si>
-    <t>Edye presenta: Al sonar la alarma Ding Dong, el Pinky Ponk sube y baja. El paseo se vuelve muy divertido.</t>
+    <t>EEBOBB17214.mpg</t>
   </si>
   <si>
-    <t>Edye presenta: Todos están en el Pinky Ponk y al sonar la alarma Ding Dong, el Pinky Ponk sube, sube y baja y baja, baja y baja. El paseo se vuelve muy divertido.</t>
+    <t>EEBOBB17214_land.jpg</t>
   </si>
   <si>
-    <t>EEITNG346.mpg</t>
+    <t>EEBOBB17215_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG346_land.jpg</t>
+    <t>EBOB6000000000017215</t>
   </si>
   <si>
-    <t>EEITNG347_SD_ADI.XML</t>
+    <t>Bob el ConstructorT17EP215</t>
   </si>
   <si>
-    <t>EEIT6000000000000347</t>
+    <t>Bob el Constructor T17 EP215</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP47</t>
+    <t>EP 215</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP47</t>
+    <t>Edye presenta: Aprende con Scratch que todo tiene un orden. Si se sigue y haces tu parte, la meta se logra.</t>
   </si>
   <si>
-    <t>EP 47</t>
+    <t>Edye presenta: Bob deja a su equipo trabajando en el campo de fútbol. Scratch se apura para ponerse a entrenar. Pronto el fútbol toma la construcción. Al caer en cuenta, las máquinas entran en pánico. Entonces Scartch con calma las dirige y terminan a tiempo.</t>
   </si>
   <si>
-    <t>Edye presenta: Igglepiggle y Upsy Daisy dan un paseo muy largo.</t>
+    <t>EEBOBB17215.mpg</t>
   </si>
   <si>
-    <t>00:28:15</t>
+    <t>EEBOBB17215_land.jpg</t>
   </si>
   <si>
-    <t>EEITNG347.mpg</t>
+    <t>EEBOBB17216_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG347_land.jpg</t>
+    <t>EBOB6000000000017216</t>
   </si>
   <si>
-    <t>EEITNG348_SD_ADI.XML</t>
+    <t>Bob el ConstructorT17EP216</t>
   </si>
   <si>
-    <t>EEIT6000000000000348</t>
+    <t>Bob el Constructor T17 EP216</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP48</t>
+    <t>EP 216</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP48</t>
+    <t>Edye presenta: Scratch nos enseñará lo importante que es dormir lo suficiente para poder trabajar bien.</t>
   </si>
   <si>
-    <t>EP 48</t>
+    <t>Edye presenta: El día de hoy Bob y su equipo instalarán unos proyectores en el campo de fútbol. Scratch está tan entusiasmado que a penas durmió. Cansado, se queda dormido mientras hace un encargo y por poco no llega para hacer funcionar los proyectores.</t>
   </si>
   <si>
-    <t>Edye presenta: Makka Pakka les regala piedras a sus amigos.</t>
+    <t>EEBOBB17216.mpg</t>
   </si>
   <si>
-    <t>Edye presenta: Makka Pakka hace una pila con seis piedras. Las reparte una a una a sus amigos. Le queda una: la piedra especial para Makka Pakka.</t>
+    <t>EEBOBB17216_land.jpg</t>
   </si>
   <si>
-    <t>00:28:13</t>
+    <t>EEBOBB17217_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG348.mpg</t>
+    <t>EBOB6000000000017217</t>
   </si>
   <si>
-    <t>EEITNG348_land.jpg</t>
+    <t>Bob el ConstructorT17EP217</t>
   </si>
   <si>
-    <t>EEITNG349_SD_ADI.XML</t>
+    <t>Bob el Constructor T17 EP217</t>
   </si>
   <si>
-    <t>EEIT6000000000000349</t>
+    <t>EP 217</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP49</t>
+    <t>Edye presenta: Lofty nos enseñará a perder el miedo a los monstros y a abrir bien los ojos para ver más cosas</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP49</t>
+    <t>Edye presenta: Bob y el equipo están reconstruyendo una choza en la playa que será una escuela de surf. Scoop, Dizzy y Scrambler juegan a que los monstruos los persiguen. Lofty tiene miedo y se estrella por salir huyendo. Bob y Wendy la convencen que no existen.</t>
   </si>
   <si>
-    <t>EP 49</t>
+    <t>EEBOBB17217.mpg</t>
   </si>
   <si>
-    <t>Edye presenta: Igglepiggle visita a todos y cada uno le ofrece algo, excepto los diminutos Pontipines.</t>
+    <t>EEBOBB17217_land.jpg</t>
   </si>
   <si>
-    <t>Edye presenta: Igglepiggle visita a todos en el jardín y cada uno le ofrece algo especial. Todos menos los diminutos Pontipines. Igglepiggle no puede encontrar los Pontipines porque son muy pequeños.</t>
+    <t>EEBOBB17218_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG349.mpg</t>
+    <t>EBOB6000000000017218</t>
   </si>
   <si>
-    <t>EEITNG349_land.jpg</t>
+    <t>Bob el ConstructorT17EP218</t>
   </si>
   <si>
-    <t>EEITNG350_SD_ADI.XML</t>
+    <t>Bob el Constructor T17 EP218</t>
   </si>
   <si>
-    <t>EEIT6000000000000350</t>
+    <t>EP 218</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP50</t>
+    <t>Edye presenta: Aprende con Dizzy y Scratch a asumir la responsabilidad de hermano mayor y guiar al pequeño.</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP50</t>
+    <t>Edye presenta: El patio necesita arreglos, Bob necesita salir y pide a Dizzy que lo haga con Scratch. Después de una serie errores, Dizzy asume su responsabilidad de hermana mayor y guía a Scratch para terminar el encargo antes de que Bob y el equipo vuelvan.</t>
   </si>
   <si>
-    <t>EP 50</t>
+    <t>EEBOBB17218.mpg</t>
   </si>
   <si>
-    <t>Edye presenta: Los Tombliboos se divierten mucho en el jardín, pero sus pantalones se caen hagan lo que hagan.</t>
+    <t>EEBOBB17218_land.jpg</t>
   </si>
   <si>
-    <t>00:27:53</t>
+    <t>EEBOBB17219_SD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG350.mpg</t>
+    <t>EBOB6000000000017219</t>
   </si>
   <si>
-    <t>EEITNG350_land.jpg</t>
+    <t>Bob el ConstructorT17EP219</t>
   </si>
   <si>
-    <t>EEITNG351_SD_ADI.XML</t>
+    <t>Bob el Constructor T17 EP219</t>
   </si>
   <si>
-    <t>EEIT6000000000000351</t>
+    <t>EP 219</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP51</t>
+    <t>Edye presenta: Aprende con Lofty la importancia de pedir apoyo y no hacer las cosas solo.</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP51</t>
+    <t>Edye presenta: En el afán de ser muy servicial Lofty se llena de responsabilidades que al final no puede cumplir. Sin embargo aprende la lección: pide a sus amigos que lo ayuden a ser útil. Él comparte los trabajos y el equipo está feliz de ayudar.</t>
   </si>
   <si>
-    <t>EP 51</t>
+    <t>EEBOBB17219.mpg</t>
   </si>
   <si>
-    <t>Edye presenta: La Uff-uff de Makka Pakka sale volando, pero Upsy Daisy la recupera y se la devuelve.</t>
+    <t>EEBOBB17219_land.jpg</t>
   </si>
   <si>
-    <t>Edye presenta: Makka Pakka está lavando su pelota cuando la Uff-uff sale volando. Cae en la cama de Upsy Daisy, quien la recupera y se la devuelve a Makka Pakka.</t>
+    <t>EEBOBB17210_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG351.mpg</t>
+    <t>EBOB7000000000017210</t>
   </si>
   <si>
-    <t>EEITNG351_land.jpg</t>
+    <t>Bob el Constructor T17 EP210 HD</t>
   </si>
   <si>
-    <t>EEITNG352_SD_ADI.XML</t>
+    <t>EEBOBB17210.ts</t>
   </si>
   <si>
-    <t>EEIT6000000000000352</t>
+    <t>EEBOBB17211_HD_ADI.XML</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP52</t>
+    <t>EBOB7000000000017211</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP52</t>
+    <t>Bob el Constructor T17 EP211 HD</t>
   </si>
   <si>
-    <t>EP 52</t>
+    <t>EEBOBB17211.ts</t>
   </si>
   <si>
-    <t>Edye presenta: Los Pontipines deciden cenar en el Ninky Nonk, con consecuencias cómicas y desastrosas.</t>
+    <t>EEBOBB17212_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Edye presenta: Los Pontipines deciden tener su cena en el Ninky Nonk. El paseo tiene consecuencias cómicas, ya que viajan boca abajo a lo largo de las ramas y alrededor del jardín.</t>
+    <t>EBOB7000000000017212</t>
   </si>
   <si>
-    <t>00:28:14</t>
+    <t>Bob el Constructor T17 EP212 HD</t>
   </si>
   <si>
-    <t>EEITNG352.mpg</t>
+    <t>EEBOBB17212.ts</t>
   </si>
   <si>
-    <t>EEITNG352_land.jpg</t>
+    <t>EEBOBB17213_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG353_SD_ADI.XML</t>
+    <t>EBOB7000000000017213</t>
   </si>
   <si>
-    <t>EEIT6000000000000353</t>
+    <t>Bob el Constructor T17 EP213 HD</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP53</t>
+    <t>EEBOBB17213.ts</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP53</t>
+    <t>EEBOBB17214_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EP 53</t>
+    <t>EBOB7000000000017214</t>
   </si>
   <si>
-    <t>Edye presenta: Igglepiggle se encuentra con un misterioso chorro de agua y se lo lleva a Makka Pakka.</t>
+    <t>Bob el Constructor T17 EP214 HD</t>
   </si>
   <si>
-    <t>Edye presenta: Un misterioso chorro de agua aparece de repente junto a Igglepiggle. Descubre que puede controlarlo golpeando sus pies. Encantado, se lo lleva a Makka Pakka, quien lo encuentra muy útil.</t>
+    <t>EEBOBB17214.ts</t>
   </si>
   <si>
-    <t>EEITNG353.mpg</t>
+    <t>EEBOBB17215_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEITNG353_land.jpg</t>
+    <t>EBOB7000000000017215</t>
   </si>
   <si>
-    <t>EEITNG354_SD_ADI.XML</t>
+    <t>Bob el Constructor T17 EP215 HD</t>
   </si>
   <si>
-    <t>EEIT6000000000000354</t>
+    <t>EEBOBB17215.ts</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP54</t>
+    <t>EEBOBB17216_HD_ADI.XML</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP54</t>
+    <t>EBOB7000000000017216</t>
   </si>
   <si>
-    <t>EP 54</t>
+    <t>Bob el Constructor T17 EP216 HD</t>
   </si>
   <si>
-    <t>Edye presenta: Tombliboo Eee se pierde en el jardín pero se encuentra con Upsy Daisy y su megáfono.</t>
+    <t>EEBOBB17216.ts</t>
   </si>
   <si>
-    <t>Edye presenta: Tombliboo Eee se separa de los otros dos Tombliboos, Unn y Ooo. Deambulan por todo el jardín buscándose hasta que Tombliboo Eee se encuentra con Upsy Daisy y su megáfono y el problema se resuelve.</t>
+    <t>EEBOBB17217_HD_ADI.XML</t>
   </si>
   <si>
-    <t>00:28:01</t>
+    <t>EBOB7000000000017217</t>
   </si>
   <si>
-    <t>EEITNG354.mpg</t>
+    <t>Bob el Constructor T17 EP217 HD</t>
   </si>
   <si>
-    <t>EEITNG354_land.jpg</t>
+    <t>EEBOBB17217.ts</t>
   </si>
   <si>
-    <t>EEITNG355_SD_ADI.XML</t>
+    <t>EEBOBB17218_HD_ADI.XML</t>
   </si>
   <si>
-    <t>EEIT6000000000000355</t>
+    <t>EBOB7000000000017218</t>
   </si>
   <si>
-    <t>El Jardín de los SueñosT03EP55</t>
+    <t>Bob el Constructor T17 EP218 HD</t>
   </si>
   <si>
-    <t>El Jardín de los Sueños T03 EP55</t>
+    <t>EEBOBB17218.ts</t>
   </si>
   <si>
-    <t>EP 55</t>
+    <t>EEBOBB17219_HD_ADI.XML</t>
   </si>
   <si>
-    <t>Edye presenta: Upsy Daisy quiere descansar en su cama, pero es interrumpida por un personaje tras otro.</t>
+    <t>EBOB7000000000017219</t>
   </si>
   <si>
-    <t>Edye presenta: Upsy Daisy solo quiere descansar en su cama, pero es interrumpida por un personaje tras otro. Finalmente, Upsy Daisy logra quedarse sola y descubre que preferiría estar jugando con sus amigos.</t>
+    <t>Bob el Constructor T17 EP219 HD</t>
   </si>
   <si>
-    <t>00:28:12</t>
-  </si>
-  <si>
-    <t>EEITNG355.mpg</t>
-  </si>
-  <si>
-    <t>EEITNG355_land.jpg</t>
-  </si>
-  <si>
-    <t>EEITNG356_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT6000000000000356</t>
-  </si>
-  <si>
-    <t>El Jardín de los SueñosT03EP56</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP56</t>
-  </si>
-  <si>
-    <t>EP 56</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Tombliboos están tocando su música tan rápido que todos aceleran sus actividades.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Tombliboos están tocando su música tan rápido que todos aceleran sus actividades: Igglepiggle y Upsy Daisy bailan, y Makka Pakka lava piedras. Finalmente los Tombliboos disminuyen la velocidad.</t>
-  </si>
-  <si>
-    <t>EEITNG356.mpg</t>
-  </si>
-  <si>
-    <t>EEITNG356_land.jpg</t>
-  </si>
-  <si>
-    <t>EEITNG357_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT6000000000000357</t>
-  </si>
-  <si>
-    <t>El Jardín de los SueñosT03EP57</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP57</t>
-  </si>
-  <si>
-    <t>EP 57</t>
-  </si>
-  <si>
-    <t>Edye presenta: Viajando en el Pinky Ponk, los Tombliboos beben jugo con consecuencias cómicas y desastrosas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Viajando en el Pinky Ponk, los Tombliboos beben su jugo Pinky Ponk. A pesar de ser muy cuidadosos, el jugo se derrama por todas partes.</t>
-  </si>
-  <si>
-    <t>EEITNG357.mpg</t>
-  </si>
-  <si>
-    <t>EEITNG357_land.jpg</t>
-  </si>
-  <si>
-    <t>EEITNG358_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT6000000000000358</t>
-  </si>
-  <si>
-    <t>El Jardín de los SueñosT03EP58</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP58</t>
-  </si>
-  <si>
-    <t>EP 58</t>
-  </si>
-  <si>
-    <t>Edye presenta: El jardín es tan ruidoso que Igglepiggle se aleja a un lugar más tranquilo para estar solo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todo en el jardín es tan ruidoso que Igglepiggle se aleja para encontrar un lugar tranquilo y estar solo. Una vez allí, extraña a todos sus amigos hasta que Upsy Daisy viene a buscarlo.</t>
-  </si>
-  <si>
-    <t>EEITNG358.mpg</t>
-  </si>
-  <si>
-    <t>EEITNG358_land.jpg</t>
-  </si>
-  <si>
-    <t>EEITNG359_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT6000000000000359</t>
-  </si>
-  <si>
-    <t>El Jardín de los SueñosT03EP59</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP59</t>
-  </si>
-  <si>
-    <t>EP 59</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Pontipines viajan en el Ninky Nonk, pero los señores Pontipine no encuentran a los niños.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Pontipines viajan en el Ninky Nonk, pero el señor y la señora Pontipine no pueden encontrar a los niños, quienes, traviesos, están viajando en el techo del carro.</t>
-  </si>
-  <si>
-    <t>EEITNG359.mpg</t>
-  </si>
-  <si>
-    <t>EEITNG359_land.jpg</t>
-  </si>
-  <si>
-    <t>EEITNG360_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT6000000000000360</t>
-  </si>
-  <si>
-    <t>El Jardín de los SueñosT03EP60</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP60</t>
-  </si>
-  <si>
-    <t>EP 60</t>
-  </si>
-  <si>
-    <t>Edye presenta: Upsy Daisy baila con la Pinky Ponk, quien feliz la imita en cada movimiento.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Upsy Daisy baila para demostrar su amor por todo en el jardín. Aquí ella baila con la Pinky Ponk, quien feliz la imita en cada movimiento.</t>
-  </si>
-  <si>
-    <t>EEITNG360.mpg</t>
-  </si>
-  <si>
-    <t>EEITNG360_land.jpg</t>
-  </si>
-  <si>
-    <t>EEITNG341_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000341</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP41 HD</t>
-  </si>
-  <si>
-    <t>EEITNG341.ts</t>
-  </si>
-  <si>
-    <t>EEITNG342_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000342</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP42 HD</t>
-  </si>
-  <si>
-    <t>EEITNG342.ts</t>
-  </si>
-  <si>
-    <t>EEITNG343_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000343</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP43 HD</t>
-  </si>
-  <si>
-    <t>EEITNG343.ts</t>
-  </si>
-  <si>
-    <t>EEITNG344_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000344</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP44 HD</t>
-  </si>
-  <si>
-    <t>EEITNG344.ts</t>
-  </si>
-  <si>
-    <t>EEITNG345_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000345</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP45 HD</t>
-  </si>
-  <si>
-    <t>EEITNG345.ts</t>
-  </si>
-  <si>
-    <t>EEITNG346_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000346</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP46 HD</t>
-  </si>
-  <si>
-    <t>EEITNG346.ts</t>
-  </si>
-  <si>
-    <t>EEITNG347_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000347</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP47 HD</t>
-  </si>
-  <si>
-    <t>EEITNG347.ts</t>
-  </si>
-  <si>
-    <t>EEITNG348_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000348</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP48 HD</t>
-  </si>
-  <si>
-    <t>EEITNG348.ts</t>
-  </si>
-  <si>
-    <t>EEITNG349_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000349</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP49 HD</t>
-  </si>
-  <si>
-    <t>EEITNG349.ts</t>
-  </si>
-  <si>
-    <t>EEITNG350_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000350</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP50 HD</t>
-  </si>
-  <si>
-    <t>EEITNG350.ts</t>
-  </si>
-  <si>
-    <t>EEITNG351_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000351</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP51 HD</t>
-  </si>
-  <si>
-    <t>EEITNG351.ts</t>
-  </si>
-  <si>
-    <t>EEITNG352_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000352</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP52 HD</t>
-  </si>
-  <si>
-    <t>EEITNG352.ts</t>
-  </si>
-  <si>
-    <t>EEITNG353_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000353</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP53 HD</t>
-  </si>
-  <si>
-    <t>EEITNG353.ts</t>
-  </si>
-  <si>
-    <t>EEITNG354_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000354</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP54 HD</t>
-  </si>
-  <si>
-    <t>EEITNG354.ts</t>
-  </si>
-  <si>
-    <t>EEITNG355_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000355</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP55 HD</t>
-  </si>
-  <si>
-    <t>EEITNG355.ts</t>
-  </si>
-  <si>
-    <t>EEITNG356_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000356</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP56 HD</t>
-  </si>
-  <si>
-    <t>EEITNG356.ts</t>
-  </si>
-  <si>
-    <t>EEITNG357_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000357</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP57 HD</t>
-  </si>
-  <si>
-    <t>EEITNG357.ts</t>
-  </si>
-  <si>
-    <t>EEITNG358_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000358</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP58 HD</t>
-  </si>
-  <si>
-    <t>EEITNG358.ts</t>
-  </si>
-  <si>
-    <t>EEITNG359_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000359</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP59 HD</t>
-  </si>
-  <si>
-    <t>EEITNG359.ts</t>
-  </si>
-  <si>
-    <t>EEITNG360_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEIT7000000000000360</t>
-  </si>
-  <si>
-    <t>El Jardín de los Sueños T03 EP60 HD</t>
-  </si>
-  <si>
-    <t>EEITNG360.ts</t>
+    <t>EEBOBB17219.ts</t>
   </si>
 </sst>
 </file>
@@ -7557,10 +7140,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -7581,13 +7164,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -7597,31 +7180,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>48</v>
@@ -7630,7 +7213,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -7642,10 +7225,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>78</v>
@@ -7660,10 +7243,10 @@
         <v>79</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -7685,7 +7268,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>791906384</v>
+        <v>277228372</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>55</v>
@@ -7694,7 +7277,7 @@
         <v>56</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -7704,7 +7287,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -7720,15 +7303,15 @@
         <v>60</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7749,13 +7332,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -7765,31 +7348,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>48</v>
@@ -7798,7 +7381,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA3" s="3">
         <v>45046</v>
@@ -7810,10 +7393,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>78</v>
@@ -7828,10 +7411,10 @@
         <v>79</v>
       </c>
       <c r="AJ3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -7853,7 +7436,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>790781956</v>
+        <v>277228372</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>55</v>
@@ -7862,7 +7445,7 @@
         <v>56</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -7872,7 +7455,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -7888,15 +7471,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -7917,13 +7500,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -7933,31 +7516,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>48</v>
@@ -7966,7 +7549,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA4" s="3">
         <v>45046</v>
@@ -7978,10 +7561,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>78</v>
@@ -7996,10 +7579,10 @@
         <v>79</v>
       </c>
       <c r="AJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -8021,7 +7604,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>793016712</v>
+        <v>277228372</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>55</v>
@@ -8030,7 +7613,7 @@
         <v>56</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -8040,7 +7623,7 @@
         <v>57</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -8056,15 +7639,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -8085,13 +7668,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -8101,31 +7684,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>48</v>
@@ -8134,7 +7717,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA5" s="3">
         <v>45046</v>
@@ -8146,10 +7729,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>78</v>
@@ -8164,10 +7747,10 @@
         <v>79</v>
       </c>
       <c r="AJ5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK5" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -8189,7 +7772,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>790076204</v>
+        <v>277228372</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>55</v>
@@ -8198,7 +7781,7 @@
         <v>56</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -8208,7 +7791,7 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -8224,15 +7807,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -8253,13 +7836,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -8269,31 +7852,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>48</v>
@@ -8302,7 +7885,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA6" s="3">
         <v>45046</v>
@@ -8314,10 +7897,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>78</v>
@@ -8332,10 +7915,10 @@
         <v>79</v>
       </c>
       <c r="AJ6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK6" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -8357,7 +7940,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>788171388</v>
+        <v>277228372</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>55</v>
@@ -8366,7 +7949,7 @@
         <v>56</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -8376,7 +7959,7 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -8392,15 +7975,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -8421,13 +8004,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -8437,31 +8020,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>48</v>
@@ -8470,7 +8053,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA7" s="3">
         <v>45046</v>
@@ -8482,10 +8065,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF7" s="6" t="s">
         <v>78</v>
@@ -8500,10 +8083,10 @@
         <v>79</v>
       </c>
       <c r="AJ7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -8525,7 +8108,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>791562156</v>
+        <v>277228372</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>55</v>
@@ -8534,7 +8117,7 @@
         <v>56</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -8544,7 +8127,7 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -8560,15 +8143,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -8589,13 +8172,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -8605,31 +8188,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>48</v>
@@ -8638,7 +8221,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA8" s="3">
         <v>45046</v>
@@ -8650,10 +8233,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>78</v>
@@ -8668,10 +8251,10 @@
         <v>79</v>
       </c>
       <c r="AJ8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK8" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -8693,7 +8276,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>794818128</v>
+        <v>277228372</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>55</v>
@@ -8702,7 +8285,7 @@
         <v>56</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -8712,7 +8295,7 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -8728,15 +8311,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -8757,13 +8340,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -8773,31 +8356,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>48</v>
@@ -8806,7 +8389,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA9" s="3">
         <v>45046</v>
@@ -8818,10 +8401,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF9" s="6" t="s">
         <v>78</v>
@@ -8836,10 +8419,10 @@
         <v>79</v>
       </c>
       <c r="AJ9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK9" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -8861,7 +8444,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>793903132</v>
+        <v>277228372</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>55</v>
@@ -8870,7 +8453,7 @@
         <v>56</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -8880,7 +8463,7 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -8896,15 +8479,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B10" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -8925,13 +8508,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -8941,31 +8524,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>48</v>
@@ -8974,7 +8557,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA10" s="3">
         <v>45046</v>
@@ -8986,10 +8569,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF10" s="6" t="s">
         <v>78</v>
@@ -9004,10 +8587,10 @@
         <v>79</v>
       </c>
       <c r="AJ10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK10" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -9029,7 +8612,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>795236992</v>
+        <v>277228372</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>55</v>
@@ -9038,7 +8621,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -9048,7 +8631,7 @@
         <v>57</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -9064,15 +8647,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B11" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -9093,13 +8676,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -9109,31 +8692,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>48</v>
@@ -9142,7 +8725,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA11" s="3">
         <v>45046</v>
@@ -9154,10 +8737,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="6" t="s">
         <v>78</v>
@@ -9172,10 +8755,10 @@
         <v>79</v>
       </c>
       <c r="AJ11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK11" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6" t="s">
@@ -9197,7 +8780,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>784467788</v>
+        <v>277228372</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>55</v>
@@ -9206,7 +8789,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -9216,7 +8799,7 @@
         <v>57</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6" t="s">
@@ -9232,1688 +8815,608 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>795013272</v>
-      </c>
-      <c r="AT12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV12" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ12" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
-      <c r="BB12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF12" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>182</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS13" s="6">
-        <v>794548536</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>188</v>
-      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
-      <c r="BB13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>192</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>794275936</v>
-      </c>
-      <c r="AT14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV14" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF14" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS15" s="6">
-        <v>788217260</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF15" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>793811200</v>
-      </c>
-      <c r="AT16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV16" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ16" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF16" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
-      <c r="AM17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS17" s="6">
-        <v>788277420</v>
-      </c>
-      <c r="AT17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV17" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
-      <c r="AX17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ17" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
       <c r="BA17" s="6"/>
-      <c r="BB17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>227</v>
-      </c>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS18" s="6">
-        <v>794712096</v>
-      </c>
-      <c r="AT18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV18" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ18" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
       <c r="BA18" s="6"/>
-      <c r="BB18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF18" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS19" s="6">
-        <v>793406812</v>
-      </c>
-      <c r="AT19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV19" s="6" t="s">
-        <v>244</v>
-      </c>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ19" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
       <c r="BA19" s="6"/>
-      <c r="BB19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF19" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>248</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V20" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
-      <c r="AM20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS20" s="6">
-        <v>790856404</v>
-      </c>
-      <c r="AT20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV20" s="6" t="s">
-        <v>253</v>
-      </c>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
       <c r="AW20" s="6"/>
-      <c r="AX20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ20" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
       <c r="BA20" s="6"/>
-      <c r="BB20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF20" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS21" s="6">
-        <v>791817460</v>
-      </c>
-      <c r="AT21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV21" s="6" t="s">
-        <v>262</v>
-      </c>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ21" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
       <c r="BA21" s="6"/>
-      <c r="BB21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF21" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -15432,10 +13935,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>43</v>
@@ -15456,13 +13959,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -15472,31 +13975,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>48</v>
@@ -15505,7 +14008,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA2" s="3">
         <v>45046</v>
@@ -15517,10 +14020,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>78</v>
@@ -15535,10 +14038,10 @@
         <v>79</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6" t="s">
@@ -15560,7 +14063,7 @@
         <v>54</v>
       </c>
       <c r="AS2" s="6">
-        <v>1583755240</v>
+        <v>554393388</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>54</v>
@@ -15569,7 +14072,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6" t="s">
@@ -15579,7 +14082,7 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6" t="s">
@@ -15595,15 +14098,15 @@
         <v>60</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -15624,13 +14127,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
@@ -15640,31 +14143,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>48</v>
@@ -15673,7 +14176,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA3" s="3">
         <v>45046</v>
@@ -15685,10 +14188,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>78</v>
@@ -15703,10 +14206,10 @@
         <v>79</v>
       </c>
       <c r="AJ3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6" t="s">
@@ -15728,7 +14231,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="6">
-        <v>1581506008</v>
+        <v>554393388</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>54</v>
@@ -15737,7 +14240,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6" t="s">
@@ -15747,7 +14250,7 @@
         <v>57</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
@@ -15763,15 +14266,15 @@
         <v>60</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -15792,13 +14295,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -15808,31 +14311,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>48</v>
@@ -15841,7 +14344,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA4" s="3">
         <v>45046</v>
@@ -15853,10 +14356,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>78</v>
@@ -15871,10 +14374,10 @@
         <v>79</v>
       </c>
       <c r="AJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6" t="s">
@@ -15896,7 +14399,7 @@
         <v>54</v>
       </c>
       <c r="AS4" s="6">
-        <v>1585975520</v>
+        <v>554393388</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>54</v>
@@ -15905,7 +14408,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6" t="s">
@@ -15915,7 +14418,7 @@
         <v>57</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6" t="s">
@@ -15931,15 +14434,15 @@
         <v>60</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="B5" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>43</v>
@@ -15960,13 +14463,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
@@ -15976,31 +14479,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>48</v>
@@ -16009,7 +14512,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA5" s="3">
         <v>45046</v>
@@ -16021,10 +14524,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>78</v>
@@ -16039,10 +14542,10 @@
         <v>79</v>
       </c>
       <c r="AJ5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK5" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
@@ -16064,7 +14567,7 @@
         <v>54</v>
       </c>
       <c r="AS5" s="6">
-        <v>1580094692</v>
+        <v>554393388</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>54</v>
@@ -16073,7 +14576,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6" t="s">
@@ -16083,7 +14586,7 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6" t="s">
@@ -16099,15 +14602,15 @@
         <v>60</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -16128,13 +14631,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -16144,31 +14647,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>48</v>
@@ -16177,7 +14680,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA6" s="3">
         <v>45046</v>
@@ -16189,10 +14692,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>78</v>
@@ -16207,10 +14710,10 @@
         <v>79</v>
       </c>
       <c r="AJ6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK6" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6" t="s">
@@ -16232,7 +14735,7 @@
         <v>54</v>
       </c>
       <c r="AS6" s="6">
-        <v>1576284872</v>
+        <v>554393388</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>54</v>
@@ -16241,7 +14744,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6" t="s">
@@ -16251,7 +14754,7 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6" t="s">
@@ -16267,15 +14770,15 @@
         <v>60</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="B7" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -16296,13 +14799,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -16312,31 +14815,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>48</v>
@@ -16345,7 +14848,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA7" s="3">
         <v>45046</v>
@@ -16357,10 +14860,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF7" s="6" t="s">
         <v>78</v>
@@ -16375,10 +14878,10 @@
         <v>79</v>
       </c>
       <c r="AJ7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6" t="s">
@@ -16400,7 +14903,7 @@
         <v>54</v>
       </c>
       <c r="AS7" s="6">
-        <v>1583066596</v>
+        <v>554393388</v>
       </c>
       <c r="AT7" s="6" t="s">
         <v>54</v>
@@ -16409,7 +14912,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6" t="s">
@@ -16419,7 +14922,7 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6" t="s">
@@ -16435,15 +14938,15 @@
         <v>60</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -16464,13 +14967,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
@@ -16480,31 +14983,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>48</v>
@@ -16513,7 +15016,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA8" s="3">
         <v>45046</v>
@@ -16525,10 +15028,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>78</v>
@@ -16543,10 +15046,10 @@
         <v>79</v>
       </c>
       <c r="AJ8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK8" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6" t="s">
@@ -16568,7 +15071,7 @@
         <v>54</v>
       </c>
       <c r="AS8" s="6">
-        <v>1589573088</v>
+        <v>554393388</v>
       </c>
       <c r="AT8" s="6" t="s">
         <v>54</v>
@@ -16577,7 +15080,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
@@ -16587,7 +15090,7 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6" t="s">
@@ -16603,15 +15106,15 @@
         <v>60</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="B9" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -16632,13 +15135,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
@@ -16648,31 +15151,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>48</v>
@@ -16681,7 +15184,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA9" s="3">
         <v>45046</v>
@@ -16693,10 +15196,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF9" s="6" t="s">
         <v>78</v>
@@ -16711,10 +15214,10 @@
         <v>79</v>
       </c>
       <c r="AJ9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK9" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6" t="s">
@@ -16736,7 +15239,7 @@
         <v>54</v>
       </c>
       <c r="AS9" s="6">
-        <v>1587742720</v>
+        <v>554393388</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>54</v>
@@ -16745,7 +15248,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
@@ -16755,7 +15258,7 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6" t="s">
@@ -16771,15 +15274,15 @@
         <v>60</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="B10" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
@@ -16800,13 +15303,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
@@ -16816,31 +15319,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>48</v>
@@ -16849,7 +15352,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA10" s="3">
         <v>45046</v>
@@ -16861,10 +15364,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF10" s="6" t="s">
         <v>78</v>
@@ -16879,10 +15382,10 @@
         <v>79</v>
       </c>
       <c r="AJ10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK10" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6" t="s">
@@ -16904,7 +15407,7 @@
         <v>54</v>
       </c>
       <c r="AS10" s="6">
-        <v>1590416456</v>
+        <v>554393388</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>54</v>
@@ -16913,7 +15416,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6" t="s">
@@ -16923,7 +15426,7 @@
         <v>57</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6" t="s">
@@ -16939,15 +15442,15 @@
         <v>60</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3">
-        <v>44626</v>
+        <v>44621</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -16968,13 +15471,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
@@ -16984,31 +15487,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" s="6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>48</v>
@@ -17017,7 +15520,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="3">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="AA11" s="3">
         <v>45046</v>
@@ -17029,10 +15532,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="6" t="s">
         <v>78</v>
@@ -17047,10 +15550,10 @@
         <v>79</v>
       </c>
       <c r="AJ11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK11" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6" t="s">
@@ -17072,7 +15575,7 @@
         <v>54</v>
       </c>
       <c r="AS11" s="6">
-        <v>1568877860</v>
+        <v>554393388</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>54</v>
@@ -17081,7 +15584,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6" t="s">
@@ -17091,7 +15594,7 @@
         <v>57</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6" t="s">
@@ -17107,1688 +15610,608 @@
         <v>60</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>1589963188</v>
-      </c>
-      <c r="AT12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV12" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ12" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
-      <c r="BB12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF12" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>182</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS13" s="6">
-        <v>1589033716</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>311</v>
-      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
-      <c r="BB13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>189</v>
-      </c>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>192</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>1588494344</v>
-      </c>
-      <c r="AT14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV14" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF14" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS15" s="6">
-        <v>1576376804</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>319</v>
-      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF15" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>1587564872</v>
-      </c>
-      <c r="AT16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV16" s="6" t="s">
-        <v>323</v>
-      </c>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ16" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF16" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
-      <c r="AM17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS17" s="6">
-        <v>1576497312</v>
-      </c>
-      <c r="AT17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV17" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
-      <c r="AX17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ17" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
       <c r="BA17" s="6"/>
-      <c r="BB17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>227</v>
-      </c>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS18" s="6">
-        <v>1589366476</v>
-      </c>
-      <c r="AT18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV18" s="6" t="s">
-        <v>331</v>
-      </c>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ18" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
       <c r="BA18" s="6"/>
-      <c r="BB18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF18" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS19" s="6">
-        <v>1586755908</v>
-      </c>
-      <c r="AT19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV19" s="6" t="s">
-        <v>335</v>
-      </c>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ19" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
       <c r="BA19" s="6"/>
-      <c r="BB19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF19" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44626</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>248</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V20" s="6">
-        <v>2009</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>43742</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>45046</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>31028</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
-      <c r="AM20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS20" s="6">
-        <v>1581655280</v>
-      </c>
-      <c r="AT20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV20" s="6" t="s">
-        <v>339</v>
-      </c>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s